--- a/Mix.xlsx
+++ b/Mix.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SIDER\Scrap Optimization\Clone\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C935F6F-FC29-48DC-95CB-8C9C48322E48}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8209A989-0234-4839-A6F8-6C3D192381E4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19680" yWindow="7605" windowWidth="15315" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1524,7 +1524,7 @@
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.0_ ;_ * \-#,##0.0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="55">
+  <fonts count="56">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1914,6 +1914,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Arial Narrow"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="23">
@@ -2420,7 +2426,7 @@
     <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="246">
+  <cellXfs count="248">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2893,9 +2899,6 @@
     <xf numFmtId="9" fontId="14" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="25" fillId="19" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="165" fontId="14" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3073,6 +3076,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="170" fontId="54" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="14" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="34" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="55" fillId="19" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -11186,8 +11198,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AP39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="U1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AI11" sqref="AI11"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N22" sqref="N22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -11256,7 +11268,7 @@
       <c r="I1" s="159" t="s">
         <v>250</v>
       </c>
-      <c r="J1" s="191" t="s">
+      <c r="J1" s="190" t="s">
         <v>86</v>
       </c>
       <c r="K1" s="159" t="s">
@@ -11295,13 +11307,13 @@
       <c r="V1" s="160" t="s">
         <v>244</v>
       </c>
-      <c r="W1" s="218" t="s">
+      <c r="W1" s="217" t="s">
         <v>203</v>
       </c>
-      <c r="X1" s="220" t="s">
+      <c r="X1" s="219" t="s">
         <v>293</v>
       </c>
-      <c r="Y1" s="221">
+      <c r="Y1" s="220">
         <v>21000</v>
       </c>
       <c r="AA1" s="105" t="s">
@@ -11370,34 +11382,34 @@
       <c r="G2" s="164">
         <v>170</v>
       </c>
-      <c r="H2" s="187">
+      <c r="H2" s="186">
         <v>470</v>
       </c>
-      <c r="I2" s="187">
+      <c r="I2" s="186">
         <f>+H2*J2</f>
         <v>79.900000000000006</v>
       </c>
-      <c r="J2" s="192">
+      <c r="J2" s="191">
         <v>0.17</v>
       </c>
       <c r="K2" s="164">
         <v>0.32</v>
       </c>
-      <c r="L2" s="166">
+      <c r="L2" s="247">
         <f>+B2/K2</f>
         <v>18.59375</v>
       </c>
       <c r="M2" s="163">
         <v>6.2</v>
       </c>
-      <c r="N2" s="167">
+      <c r="N2" s="166">
         <f t="shared" ref="N2:N9" si="1">+M2*K2</f>
         <v>1.9840000000000002</v>
       </c>
       <c r="O2" s="163">
         <v>6.2</v>
       </c>
-      <c r="P2" s="167">
+      <c r="P2" s="166">
         <f t="shared" ref="P2:P9" si="2">+O2*K2</f>
         <v>1.9840000000000002</v>
       </c>
@@ -11405,7 +11417,7 @@
         <f>+L2-M2-O2</f>
         <v>6.1937500000000005</v>
       </c>
-      <c r="R2" s="167">
+      <c r="R2" s="166">
         <f>+Q2*K2</f>
         <v>1.9820000000000002</v>
       </c>
@@ -11413,51 +11425,51 @@
         <f t="shared" ref="S2:S3" si="3">+L2-M2-O2-Q2</f>
         <v>0</v>
       </c>
-      <c r="T2" s="167">
+      <c r="T2" s="166">
         <f>+K2*S2</f>
         <v>0</v>
       </c>
       <c r="U2" s="163"/>
-      <c r="V2" s="167">
+      <c r="V2" s="166">
         <f>+K2*U2</f>
         <v>0</v>
       </c>
-      <c r="W2" s="219">
+      <c r="W2" s="218">
         <f>+B2*$Y$2</f>
         <v>4036.4998432425532</v>
       </c>
-      <c r="X2" s="222" t="s">
+      <c r="X2" s="221" t="s">
         <v>292</v>
       </c>
-      <c r="Y2" s="223">
+      <c r="Y2" s="222">
         <f>+Y1/F17</f>
         <v>678.40333499874839</v>
       </c>
-      <c r="AA2" s="244">
+      <c r="AA2" s="243">
         <v>0.25</v>
       </c>
-      <c r="AB2" s="244">
+      <c r="AB2" s="243">
         <v>0.6</v>
       </c>
-      <c r="AC2" s="245">
+      <c r="AC2" s="244">
         <v>0.2</v>
       </c>
-      <c r="AD2" s="245">
+      <c r="AD2" s="244">
         <v>0.03</v>
       </c>
-      <c r="AE2" s="245">
+      <c r="AE2" s="244">
         <v>0.19</v>
       </c>
-      <c r="AF2" s="245">
+      <c r="AF2" s="244">
         <v>0.04</v>
       </c>
-      <c r="AG2" s="245">
+      <c r="AG2" s="244">
         <v>0.33</v>
       </c>
-      <c r="AH2" s="245">
+      <c r="AH2" s="244">
         <v>0.19</v>
       </c>
-      <c r="AI2" s="245">
+      <c r="AI2" s="244">
         <v>0.04</v>
       </c>
       <c r="AK2" t="s">
@@ -11481,7 +11493,7 @@
       </c>
     </row>
     <row r="3" spans="1:42" ht="16.5">
-      <c r="A3" s="169" t="s">
+      <c r="A3" s="168" t="s">
         <v>296</v>
       </c>
       <c r="B3" s="162">
@@ -11506,20 +11518,20 @@
       <c r="G3" s="164">
         <v>220</v>
       </c>
-      <c r="H3" s="187">
+      <c r="H3" s="186">
         <v>470</v>
       </c>
-      <c r="I3" s="187">
+      <c r="I3" s="186">
         <f t="shared" ref="I3:I9" si="6">+H3*J3</f>
         <v>40.89</v>
       </c>
-      <c r="J3" s="192">
+      <c r="J3" s="191">
         <v>8.6999999999999994E-2</v>
       </c>
       <c r="K3" s="164">
         <v>0.9</v>
       </c>
-      <c r="L3" s="166">
+      <c r="L3" s="247">
         <f t="shared" ref="L3:L9" si="7">+B3/K3</f>
         <v>3.3833333333333333</v>
       </c>
@@ -11527,17 +11539,17 @@
         <f>+L3</f>
         <v>3.3833333333333333</v>
       </c>
-      <c r="N3" s="167">
+      <c r="N3" s="166">
         <f t="shared" si="1"/>
         <v>3.0449999999999999</v>
       </c>
       <c r="O3" s="163"/>
-      <c r="P3" s="167">
+      <c r="P3" s="166">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Q3" s="163"/>
-      <c r="R3" s="167">
+      <c r="R3" s="166">
         <f t="shared" ref="R3:R9" si="8">+Q3*K3</f>
         <v>0</v>
       </c>
@@ -11545,51 +11557,51 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="T3" s="167">
+      <c r="T3" s="166">
         <f t="shared" ref="T3:T9" si="9">+K3*S3</f>
         <v>0</v>
       </c>
       <c r="U3" s="163"/>
-      <c r="V3" s="167">
+      <c r="V3" s="166">
         <f t="shared" ref="V3:V9" si="10">+K3*U3</f>
         <v>0</v>
       </c>
-      <c r="W3" s="219">
+      <c r="W3" s="218">
         <f t="shared" ref="W3:W9" si="11">+B3*$Y$2</f>
         <v>2065.7381550711889</v>
       </c>
-      <c r="X3" s="224" t="s">
+      <c r="X3" s="223" t="s">
         <v>54</v>
       </c>
-      <c r="Y3" s="225">
+      <c r="Y3" s="224">
         <f>+F17</f>
         <v>30.955036504999999</v>
       </c>
-      <c r="AA3" s="244">
+      <c r="AA3" s="243">
         <v>0.25</v>
       </c>
-      <c r="AB3" s="244">
+      <c r="AB3" s="243">
         <v>0.6</v>
       </c>
-      <c r="AC3" s="245">
+      <c r="AC3" s="244">
         <v>0.2</v>
       </c>
-      <c r="AD3" s="245">
+      <c r="AD3" s="244">
         <v>0.03</v>
       </c>
-      <c r="AE3" s="245">
+      <c r="AE3" s="244">
         <v>0.19</v>
       </c>
-      <c r="AF3" s="245">
+      <c r="AF3" s="244">
         <v>0.04</v>
       </c>
-      <c r="AG3" s="245">
+      <c r="AG3" s="244">
         <v>0.33</v>
       </c>
-      <c r="AH3" s="245">
+      <c r="AH3" s="244">
         <v>0.19</v>
       </c>
-      <c r="AI3" s="245">
+      <c r="AI3" s="244">
         <v>0.04</v>
       </c>
       <c r="AL3" s="10"/>
@@ -11598,7 +11610,7 @@
       <c r="AP3" s="12"/>
     </row>
     <row r="4" spans="1:42" ht="16.5">
-      <c r="A4" s="170" t="s">
+      <c r="A4" s="169" t="s">
         <v>276</v>
       </c>
       <c r="B4" s="162">
@@ -11623,34 +11635,34 @@
       <c r="G4" s="164">
         <v>180</v>
       </c>
-      <c r="H4" s="187">
+      <c r="H4" s="186">
         <v>460</v>
       </c>
-      <c r="I4" s="187">
+      <c r="I4" s="186">
         <f t="shared" si="6"/>
         <v>196.42</v>
       </c>
-      <c r="J4" s="192">
+      <c r="J4" s="191">
         <v>0.42699999999999999</v>
       </c>
       <c r="K4" s="164">
         <v>0.43</v>
       </c>
-      <c r="L4" s="166">
+      <c r="L4" s="247">
         <f t="shared" si="7"/>
         <v>34.755813953488371</v>
       </c>
       <c r="M4" s="163">
         <v>9.1999999999999993</v>
       </c>
-      <c r="N4" s="167">
+      <c r="N4" s="166">
         <f t="shared" si="1"/>
         <v>3.9559999999999995</v>
       </c>
       <c r="O4" s="163">
         <v>14</v>
       </c>
-      <c r="P4" s="167">
+      <c r="P4" s="166">
         <f t="shared" si="2"/>
         <v>6.02</v>
       </c>
@@ -11658,7 +11670,7 @@
         <f>+L4-M4-O4</f>
         <v>11.555813953488371</v>
       </c>
-      <c r="R4" s="167">
+      <c r="R4" s="166">
         <f t="shared" si="8"/>
         <v>4.9689999999999994</v>
       </c>
@@ -11666,44 +11678,44 @@
         <f>+L4-M4-O4-Q4</f>
         <v>0</v>
       </c>
-      <c r="T4" s="167">
+      <c r="T4" s="166">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="U4" s="163"/>
-      <c r="V4" s="167">
+      <c r="V4" s="166">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="W4" s="168">
+      <c r="W4" s="167">
         <f t="shared" si="11"/>
         <v>10138.737841556294</v>
       </c>
-      <c r="AA4" s="244">
+      <c r="AA4" s="243">
         <v>0.25</v>
       </c>
-      <c r="AB4" s="244">
+      <c r="AB4" s="243">
         <v>0.6</v>
       </c>
-      <c r="AC4" s="245">
+      <c r="AC4" s="244">
         <v>0.2</v>
       </c>
-      <c r="AD4" s="245">
+      <c r="AD4" s="244">
         <v>0.03</v>
       </c>
-      <c r="AE4" s="245">
+      <c r="AE4" s="244">
         <v>0.19</v>
       </c>
-      <c r="AF4" s="245">
+      <c r="AF4" s="244">
         <v>0.04</v>
       </c>
-      <c r="AG4" s="245">
+      <c r="AG4" s="244">
         <v>0.33</v>
       </c>
-      <c r="AH4" s="245">
+      <c r="AH4" s="244">
         <v>0.19</v>
       </c>
-      <c r="AI4" s="245">
+      <c r="AI4" s="244">
         <v>0.04</v>
       </c>
       <c r="AK4" t="s">
@@ -11727,7 +11739,7 @@
       </c>
     </row>
     <row r="5" spans="1:42" ht="16.5">
-      <c r="A5" s="171" t="s">
+      <c r="A5" s="170" t="s">
         <v>278</v>
       </c>
       <c r="B5" s="162">
@@ -11752,47 +11764,47 @@
       <c r="G5" s="164">
         <v>217</v>
       </c>
-      <c r="H5" s="187">
+      <c r="H5" s="186">
         <v>450</v>
       </c>
-      <c r="I5" s="187">
+      <c r="I5" s="186">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="J5" s="192"/>
+      <c r="J5" s="191"/>
       <c r="K5" s="164">
         <v>0.7</v>
       </c>
-      <c r="L5" s="166">
+      <c r="L5" s="247">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="M5" s="163"/>
-      <c r="N5" s="167">
+      <c r="N5" s="166">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="O5" s="163"/>
-      <c r="P5" s="167">
+      <c r="P5" s="166">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Q5" s="163"/>
-      <c r="R5" s="167">
+      <c r="R5" s="166">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="S5" s="163"/>
-      <c r="T5" s="167">
+      <c r="T5" s="166">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="U5" s="163"/>
-      <c r="V5" s="167">
+      <c r="V5" s="166">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="W5" s="168">
+      <c r="W5" s="167">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
@@ -11800,31 +11812,31 @@
         <f>+Y2/31</f>
         <v>21.883978548346722</v>
       </c>
-      <c r="AA5" s="244">
+      <c r="AA5" s="243">
         <v>0.28000000000000003</v>
       </c>
-      <c r="AB5" s="244">
+      <c r="AB5" s="243">
         <v>1.4</v>
       </c>
-      <c r="AC5" s="245">
+      <c r="AC5" s="244">
         <v>0.18</v>
       </c>
-      <c r="AD5" s="245">
+      <c r="AD5" s="244">
         <v>0.02</v>
       </c>
-      <c r="AE5" s="245">
+      <c r="AE5" s="244">
         <v>0.35</v>
       </c>
-      <c r="AF5" s="245">
+      <c r="AF5" s="244">
         <v>1E-3</v>
       </c>
-      <c r="AG5" s="245">
+      <c r="AG5" s="244">
         <v>0.03</v>
       </c>
-      <c r="AH5" s="245">
+      <c r="AH5" s="244">
         <v>0.09</v>
       </c>
-      <c r="AI5" s="245">
+      <c r="AI5" s="244">
         <v>0.3</v>
       </c>
       <c r="AK5" t="s">
@@ -11848,7 +11860,7 @@
       </c>
     </row>
     <row r="6" spans="1:42" ht="16.5">
-      <c r="A6" s="172" t="s">
+      <c r="A6" s="171" t="s">
         <v>224</v>
       </c>
       <c r="B6" s="162">
@@ -11873,75 +11885,75 @@
       <c r="G6" s="164">
         <v>56</v>
       </c>
-      <c r="H6" s="187">
+      <c r="H6" s="186">
         <v>510</v>
       </c>
-      <c r="I6" s="187">
+      <c r="I6" s="186">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="J6" s="192"/>
+      <c r="J6" s="191"/>
       <c r="K6" s="164">
         <v>1</v>
       </c>
-      <c r="L6" s="166">
+      <c r="L6" s="247">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="M6" s="163"/>
-      <c r="N6" s="167">
+      <c r="N6" s="166">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="O6" s="163"/>
-      <c r="P6" s="167">
+      <c r="P6" s="166">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Q6" s="163"/>
-      <c r="R6" s="167">
+      <c r="R6" s="166">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="S6" s="163"/>
-      <c r="T6" s="167">
+      <c r="T6" s="166">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="U6" s="163"/>
-      <c r="V6" s="167">
+      <c r="V6" s="166">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="W6" s="168">
+      <c r="W6" s="167">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AA6" s="244">
+      <c r="AA6" s="243">
         <v>0.2</v>
       </c>
-      <c r="AB6" s="244">
+      <c r="AB6" s="243">
         <v>0.7</v>
       </c>
-      <c r="AC6" s="245">
+      <c r="AC6" s="244">
         <v>0.15</v>
       </c>
-      <c r="AD6" s="245">
+      <c r="AD6" s="244">
         <v>0.02</v>
       </c>
-      <c r="AE6" s="245">
+      <c r="AE6" s="244">
         <v>0.06</v>
       </c>
-      <c r="AF6" s="245">
+      <c r="AF6" s="244">
         <v>0.04</v>
       </c>
-      <c r="AG6" s="245">
+      <c r="AG6" s="244">
         <v>0.15</v>
       </c>
-      <c r="AH6" s="245">
+      <c r="AH6" s="244">
         <v>0.11</v>
       </c>
-      <c r="AI6" s="245">
+      <c r="AI6" s="244">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="AK6" t="s">
@@ -11965,7 +11977,7 @@
       </c>
     </row>
     <row r="7" spans="1:42" ht="16.5">
-      <c r="A7" s="173" t="s">
+      <c r="A7" s="172" t="s">
         <v>81</v>
       </c>
       <c r="B7" s="162">
@@ -11990,27 +12002,27 @@
       <c r="G7" s="164">
         <v>295</v>
       </c>
-      <c r="H7" s="187">
+      <c r="H7" s="186">
         <v>430</v>
       </c>
-      <c r="I7" s="187">
+      <c r="I7" s="186">
         <f t="shared" si="6"/>
         <v>110.94</v>
       </c>
-      <c r="J7" s="192">
+      <c r="J7" s="191">
         <v>0.25800000000000001</v>
       </c>
       <c r="K7" s="164">
         <v>1</v>
       </c>
-      <c r="L7" s="166">
+      <c r="L7" s="247">
         <f t="shared" si="7"/>
         <v>9.0300000000000011</v>
       </c>
       <c r="M7" s="163">
         <v>4</v>
       </c>
-      <c r="N7" s="167">
+      <c r="N7" s="166">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
@@ -12018,54 +12030,54 @@
         <f>+L7-M7</f>
         <v>5.0300000000000011</v>
       </c>
-      <c r="P7" s="167">
+      <c r="P7" s="166">
         <f t="shared" si="2"/>
         <v>5.0300000000000011</v>
       </c>
       <c r="Q7" s="163"/>
-      <c r="R7" s="167">
+      <c r="R7" s="166">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="S7" s="163"/>
-      <c r="T7" s="167">
+      <c r="T7" s="166">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="U7" s="163"/>
-      <c r="V7" s="167">
+      <c r="V7" s="166">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="W7" s="168">
+      <c r="W7" s="167">
         <f t="shared" si="11"/>
         <v>6125.9821150386988</v>
       </c>
-      <c r="AA7" s="244">
+      <c r="AA7" s="243">
         <v>0.18</v>
       </c>
-      <c r="AB7" s="244">
+      <c r="AB7" s="243">
         <v>0.4</v>
       </c>
-      <c r="AC7" s="245">
+      <c r="AC7" s="244">
         <v>0.1</v>
       </c>
-      <c r="AD7" s="245">
+      <c r="AD7" s="244">
         <v>0.02</v>
       </c>
-      <c r="AE7" s="245">
+      <c r="AE7" s="244">
         <v>0.05</v>
       </c>
-      <c r="AF7" s="245">
+      <c r="AF7" s="244">
         <v>0.02</v>
       </c>
-      <c r="AG7" s="245">
+      <c r="AG7" s="244">
         <v>0.15</v>
       </c>
-      <c r="AH7" s="245">
+      <c r="AH7" s="244">
         <v>0.04</v>
       </c>
-      <c r="AI7" s="245">
+      <c r="AI7" s="244">
         <v>0.01</v>
       </c>
       <c r="AP7" s="12">
@@ -12074,7 +12086,7 @@
       </c>
     </row>
     <row r="8" spans="1:42" ht="16.5">
-      <c r="A8" s="174" t="s">
+      <c r="A8" s="173" t="s">
         <v>279</v>
       </c>
       <c r="B8" s="162">
@@ -12099,80 +12111,80 @@
       <c r="G8" s="164">
         <v>240</v>
       </c>
-      <c r="H8" s="187">
+      <c r="H8" s="186">
         <v>400</v>
       </c>
-      <c r="I8" s="187">
+      <c r="I8" s="186">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="J8" s="192"/>
+      <c r="J8" s="191"/>
       <c r="K8" s="164">
         <v>3.5</v>
       </c>
-      <c r="L8" s="166">
+      <c r="L8" s="247">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="M8" s="163"/>
-      <c r="N8" s="167">
+      <c r="N8" s="166">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="O8" s="163"/>
-      <c r="P8" s="167">
+      <c r="P8" s="166">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Q8" s="163"/>
-      <c r="R8" s="167">
+      <c r="R8" s="166">
         <f>+Q8*K8</f>
         <v>0</v>
       </c>
       <c r="S8" s="163"/>
-      <c r="T8" s="167">
+      <c r="T8" s="166">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="U8" s="163"/>
-      <c r="V8" s="167">
+      <c r="V8" s="166">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="W8" s="168">
+      <c r="W8" s="167">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AA8" s="244">
+      <c r="AA8" s="243">
         <v>3.8</v>
       </c>
-      <c r="AB8" s="244">
+      <c r="AB8" s="243">
         <v>0.9</v>
       </c>
-      <c r="AC8" s="245">
+      <c r="AC8" s="244">
         <v>0.27</v>
       </c>
-      <c r="AD8" s="245">
+      <c r="AD8" s="244">
         <v>0.05</v>
       </c>
-      <c r="AE8" s="245">
-        <v>0</v>
-      </c>
-      <c r="AF8" s="245">
+      <c r="AE8" s="244">
+        <v>0</v>
+      </c>
+      <c r="AF8" s="244">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="AG8" s="245">
-        <v>0</v>
-      </c>
-      <c r="AH8" s="245">
-        <v>0</v>
-      </c>
-      <c r="AI8" s="245">
+      <c r="AG8" s="244">
+        <v>0</v>
+      </c>
+      <c r="AH8" s="244">
+        <v>0</v>
+      </c>
+      <c r="AI8" s="244">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:42" ht="16.5">
-      <c r="A9" s="170" t="s">
+      <c r="A9" s="169" t="s">
         <v>83</v>
       </c>
       <c r="B9" s="162">
@@ -12197,79 +12209,79 @@
       <c r="G9" s="164">
         <v>205</v>
       </c>
-      <c r="H9" s="187">
+      <c r="H9" s="186">
         <v>470</v>
       </c>
-      <c r="I9" s="187">
+      <c r="I9" s="186">
         <f t="shared" si="6"/>
         <v>27.26</v>
       </c>
-      <c r="J9" s="192">
+      <c r="J9" s="191">
         <v>5.8000000000000003E-2</v>
       </c>
       <c r="K9" s="164">
         <v>0.6</v>
       </c>
-      <c r="L9" s="166">
+      <c r="L9" s="247">
         <f t="shared" si="7"/>
         <v>3.3833333333333337</v>
       </c>
       <c r="M9" s="163">
         <v>3.4</v>
       </c>
-      <c r="N9" s="167">
+      <c r="N9" s="166">
         <f t="shared" si="1"/>
         <v>2.04</v>
       </c>
       <c r="O9" s="163"/>
-      <c r="P9" s="167">
+      <c r="P9" s="166">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Q9" s="163"/>
-      <c r="R9" s="167">
+      <c r="R9" s="166">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="S9" s="163"/>
-      <c r="T9" s="167">
+      <c r="T9" s="166">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="U9" s="163"/>
-      <c r="V9" s="167">
+      <c r="V9" s="166">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="W9" s="168">
+      <c r="W9" s="167">
         <f t="shared" si="11"/>
         <v>1377.1587700474595</v>
       </c>
-      <c r="AA9" s="244">
+      <c r="AA9" s="243">
         <v>0.25</v>
       </c>
-      <c r="AB9" s="244">
+      <c r="AB9" s="243">
         <v>0.3</v>
       </c>
-      <c r="AC9" s="245">
+      <c r="AC9" s="244">
         <v>0.01</v>
       </c>
-      <c r="AD9" s="245">
+      <c r="AD9" s="244">
         <v>0.03</v>
       </c>
-      <c r="AE9" s="245">
+      <c r="AE9" s="244">
         <v>0.18</v>
       </c>
-      <c r="AF9" s="245">
+      <c r="AF9" s="244">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AG9" s="245">
+      <c r="AG9" s="244">
         <v>0.35</v>
       </c>
-      <c r="AH9" s="245">
+      <c r="AH9" s="244">
         <v>0.2</v>
       </c>
-      <c r="AI9" s="245">
+      <c r="AI9" s="244">
         <v>0.04</v>
       </c>
       <c r="AK9" t="s">
@@ -12290,7 +12302,7 @@
     </row>
     <row r="10" spans="1:42" ht="18">
       <c r="A10" s="60"/>
-      <c r="B10" s="175">
+      <c r="B10" s="174">
         <v>35</v>
       </c>
       <c r="C10" s="60"/>
@@ -12298,64 +12310,64 @@
       <c r="E10" s="60"/>
       <c r="F10" s="60"/>
       <c r="G10" s="60"/>
-      <c r="H10" s="187"/>
-      <c r="I10" s="217">
+      <c r="H10" s="186"/>
+      <c r="I10" s="216">
         <f>SUM(I2:I9)</f>
         <v>455.40999999999997</v>
       </c>
-      <c r="J10" s="176">
+      <c r="J10" s="175">
         <f>SUM(J2:J9)</f>
         <v>1</v>
       </c>
-      <c r="K10" s="177">
+      <c r="K10" s="176">
         <f>SUMPRODUCT(K2:K9,J2:J9)</f>
         <v>0.60911000000000004</v>
       </c>
-      <c r="L10" s="178">
+      <c r="L10" s="177">
         <f>SUM(L2:L9)</f>
         <v>69.146230620155038</v>
       </c>
-      <c r="M10" s="179">
+      <c r="M10" s="178">
         <f t="shared" ref="M10:V10" si="13">SUM(M2:M9)</f>
         <v>26.18333333333333</v>
       </c>
-      <c r="N10" s="180">
+      <c r="N10" s="179">
         <f t="shared" si="13"/>
         <v>15.024999999999999</v>
       </c>
-      <c r="O10" s="179">
+      <c r="O10" s="178">
         <f t="shared" si="13"/>
         <v>25.23</v>
       </c>
-      <c r="P10" s="180">
+      <c r="P10" s="179">
         <f t="shared" si="13"/>
         <v>13.034000000000001</v>
       </c>
-      <c r="Q10" s="179">
+      <c r="Q10" s="178">
         <f t="shared" si="13"/>
         <v>17.749563953488373</v>
       </c>
-      <c r="R10" s="180">
+      <c r="R10" s="179">
         <f t="shared" si="13"/>
         <v>6.9509999999999996</v>
       </c>
-      <c r="S10" s="179">
+      <c r="S10" s="178">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="T10" s="180">
+      <c r="T10" s="179">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="U10" s="179">
+      <c r="U10" s="178">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="V10" s="180">
+      <c r="V10" s="179">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="W10" s="181">
+      <c r="W10" s="180">
         <f>+B10*$Y$2</f>
         <v>23744.116724956195</v>
       </c>
@@ -12409,7 +12421,7 @@
       <c r="F11" s="43" t="s">
         <v>57</v>
       </c>
-      <c r="G11" s="226">
+      <c r="G11" s="225">
         <f>+SUMPRODUCT(B2:B9,G2:G9)/C11/E15</f>
         <v>238.48587346459317</v>
       </c>
@@ -12417,7 +12429,7 @@
         <f>+G11</f>
         <v>238.48587346459317</v>
       </c>
-      <c r="I11" s="188">
+      <c r="I11" s="187">
         <f>370/I10</f>
         <v>0.81245471113941292</v>
       </c>
@@ -12502,16 +12514,16 @@
         <f>(C11*0.98+C13)/B11</f>
         <v>0.89789808571428564</v>
       </c>
-      <c r="F12" s="190" t="s">
+      <c r="F12" s="189" t="s">
         <v>275</v>
       </c>
-      <c r="G12" s="190">
+      <c r="G12" s="189">
         <v>18</v>
       </c>
-      <c r="H12" s="190">
+      <c r="H12" s="189">
         <v>18</v>
       </c>
-      <c r="I12" s="190"/>
+      <c r="I12" s="189"/>
       <c r="K12" s="3">
         <f>+B18*0.9*K10</f>
         <v>15.349572</v>
@@ -12540,7 +12552,7 @@
         <f>+N10+P10+R10+T10</f>
         <v>35.01</v>
       </c>
-      <c r="W12" s="186">
+      <c r="W12" s="185">
         <f>+B4*X5</f>
         <v>327.05605940504176</v>
       </c>
@@ -12643,10 +12655,10 @@
         <v>393.55483898183456</v>
       </c>
       <c r="I14" s="132"/>
-      <c r="L14" s="233" t="s">
+      <c r="L14" s="232" t="s">
         <v>284</v>
       </c>
-      <c r="M14" s="233"/>
+      <c r="M14" s="232"/>
       <c r="N14" s="10">
         <f>+SUMPRODUCT($K$2:$K$9,M2:M9)/M10</f>
         <v>0.57383831954169318</v>
@@ -12708,10 +12720,10 @@
       <c r="I15">
         <v>26500</v>
       </c>
-      <c r="L15" s="233" t="s">
+      <c r="L15" s="232" t="s">
         <v>285</v>
       </c>
-      <c r="M15" s="233"/>
+      <c r="M15" s="232"/>
       <c r="N15" s="12">
         <f>+SUMPRODUCT($H$2:$H$9,N2:N9)</f>
         <v>6862.19</v>
@@ -12785,10 +12797,10 @@
       <c r="I16">
         <v>29000</v>
       </c>
-      <c r="L16" s="233" t="s">
+      <c r="L16" s="232" t="s">
         <v>286</v>
       </c>
-      <c r="M16" s="233"/>
+      <c r="M16" s="232"/>
       <c r="N16" s="12">
         <f>+O10-(B17-O10)</f>
         <v>20.46</v>
@@ -12852,10 +12864,10 @@
         <f>+G15+G16</f>
         <v>433.2</v>
       </c>
-      <c r="L17" s="233" t="s">
+      <c r="L17" s="232" t="s">
         <v>251</v>
       </c>
-      <c r="M17" s="233"/>
+      <c r="M17" s="232"/>
       <c r="N17" s="3">
         <f>+N14*N16</f>
         <v>11.740732017823042</v>
@@ -12903,10 +12915,10 @@
       <c r="C18" s="36" t="s">
         <v>187</v>
       </c>
-      <c r="L18" s="233" t="s">
+      <c r="L18" s="232" t="s">
         <v>252</v>
       </c>
-      <c r="M18" s="233"/>
+      <c r="M18" s="232"/>
       <c r="N18" s="12">
         <f>+N15/N10*N17*$I$11</f>
         <v>4356.5489155196519</v>
@@ -12961,10 +12973,10 @@
         <v>194</v>
       </c>
       <c r="D19" s="36"/>
-      <c r="L19" s="233" t="s">
+      <c r="L19" s="232" t="s">
         <v>262</v>
       </c>
-      <c r="M19" s="233"/>
+      <c r="M19" s="232"/>
       <c r="N19" s="12">
         <v>90</v>
       </c>
@@ -12995,10 +13007,10 @@
       </c>
     </row>
     <row r="20" spans="1:42">
-      <c r="L20" s="233" t="s">
+      <c r="L20" s="232" t="s">
         <v>263</v>
       </c>
-      <c r="M20" s="233"/>
+      <c r="M20" s="232"/>
       <c r="N20" s="12">
         <f>+N18/N10-N19</f>
         <v>199.95333880330463</v>
@@ -13029,14 +13041,14 @@
       <c r="X20" s="165">
         <v>0.25</v>
       </c>
-      <c r="Y20" s="193"/>
+      <c r="Y20" s="192"/>
     </row>
     <row r="21" spans="1:42">
       <c r="L21" t="s">
         <v>294</v>
       </c>
       <c r="X21" s="165"/>
-      <c r="Y21" s="193"/>
+      <c r="Y21" s="192"/>
     </row>
     <row r="22" spans="1:42">
       <c r="A22" t="s">
@@ -13045,12 +13057,12 @@
       <c r="B22">
         <v>520</v>
       </c>
-      <c r="F22" s="194"/>
-      <c r="M22" s="230"/>
+      <c r="F22" s="193"/>
+      <c r="M22" s="229"/>
       <c r="X22" s="165">
         <v>0.35</v>
       </c>
-      <c r="Y22" s="193"/>
+      <c r="Y22" s="192"/>
       <c r="AB22" t="s">
         <v>282</v>
       </c>
@@ -13067,88 +13079,88 @@
         <f>+B22-G14</f>
         <v>113.51412653540683</v>
       </c>
-      <c r="F23" s="194"/>
-      <c r="M23" s="230"/>
+      <c r="F23" s="193"/>
+      <c r="M23" s="229"/>
       <c r="X23" s="165">
         <v>0</v>
       </c>
-      <c r="Y23" s="193"/>
+      <c r="Y23" s="192"/>
     </row>
     <row r="24" spans="1:42" ht="18">
-      <c r="D24" s="234" t="s">
+      <c r="D24" s="233" t="s">
         <v>295</v>
       </c>
-      <c r="E24" s="235"/>
-      <c r="F24" s="235"/>
-      <c r="G24" s="235"/>
-      <c r="H24" s="235"/>
-      <c r="I24" s="236"/>
-      <c r="M24" s="230"/>
+      <c r="E24" s="234"/>
+      <c r="F24" s="234"/>
+      <c r="G24" s="234"/>
+      <c r="H24" s="234"/>
+      <c r="I24" s="235"/>
+      <c r="M24" s="229"/>
       <c r="X24" s="165"/>
-      <c r="Y24" s="193"/>
+      <c r="Y24" s="192"/>
     </row>
     <row r="25" spans="1:42" ht="15.75">
-      <c r="D25" s="195"/>
-      <c r="E25" s="196" t="s">
+      <c r="D25" s="194"/>
+      <c r="E25" s="195" t="s">
         <v>265</v>
       </c>
-      <c r="F25" s="197">
+      <c r="F25" s="196">
         <f>+I10</f>
         <v>455.40999999999997</v>
       </c>
-      <c r="G25" s="196" t="s">
+      <c r="G25" s="195" t="s">
         <v>287</v>
       </c>
-      <c r="H25" s="196"/>
-      <c r="I25" s="198"/>
-      <c r="M25" s="230"/>
+      <c r="H25" s="195"/>
+      <c r="I25" s="197"/>
+      <c r="M25" s="229"/>
       <c r="X25" s="165">
         <v>0.25</v>
       </c>
-      <c r="Y25" s="193"/>
+      <c r="Y25" s="192"/>
     </row>
     <row r="26" spans="1:42" ht="15.75">
       <c r="A26">
         <v>570</v>
       </c>
-      <c r="D26" s="195"/>
-      <c r="E26" s="196" t="s">
+      <c r="D26" s="194"/>
+      <c r="E26" s="195" t="s">
         <v>32</v>
       </c>
-      <c r="F26" s="197">
+      <c r="F26" s="196">
         <v>30</v>
       </c>
-      <c r="G26" s="196" t="s">
+      <c r="G26" s="195" t="s">
         <v>287</v>
       </c>
-      <c r="H26" s="196"/>
-      <c r="I26" s="198"/>
-      <c r="M26" s="230"/>
+      <c r="H26" s="195"/>
+      <c r="I26" s="197"/>
+      <c r="M26" s="229"/>
       <c r="X26" s="165">
         <v>0</v>
       </c>
-      <c r="Y26" s="193"/>
+      <c r="Y26" s="192"/>
     </row>
     <row r="27" spans="1:42" ht="15.75">
-      <c r="D27" s="195"/>
-      <c r="E27" s="196" t="s">
+      <c r="D27" s="194"/>
+      <c r="E27" s="195" t="s">
         <v>2</v>
       </c>
-      <c r="F27" s="197">
+      <c r="F27" s="196">
         <f>+F25+F26</f>
         <v>485.40999999999997</v>
       </c>
-      <c r="G27" s="196" t="s">
+      <c r="G27" s="195" t="s">
         <v>287</v>
       </c>
-      <c r="H27" s="199">
+      <c r="H27" s="198">
         <f>+F27*B10</f>
         <v>16989.349999999999</v>
       </c>
-      <c r="I27" s="200" t="s">
+      <c r="I27" s="199" t="s">
         <v>269</v>
       </c>
-      <c r="M27" s="230"/>
+      <c r="M27" s="229"/>
       <c r="N27" t="s">
         <v>265</v>
       </c>
@@ -13159,16 +13171,16 @@
       <c r="X27" s="165">
         <v>0.15</v>
       </c>
-      <c r="Y27" s="193"/>
+      <c r="Y27" s="192"/>
     </row>
     <row r="28" spans="1:42" ht="15.75">
-      <c r="D28" s="195"/>
-      <c r="E28" s="196"/>
-      <c r="F28" s="196"/>
-      <c r="G28" s="196"/>
-      <c r="H28" s="199"/>
-      <c r="I28" s="198"/>
-      <c r="M28" s="230"/>
+      <c r="D28" s="194"/>
+      <c r="E28" s="195"/>
+      <c r="F28" s="195"/>
+      <c r="G28" s="195"/>
+      <c r="H28" s="198"/>
+      <c r="I28" s="197"/>
+      <c r="M28" s="229"/>
       <c r="N28" t="s">
         <v>32</v>
       </c>
@@ -13177,24 +13189,24 @@
       </c>
     </row>
     <row r="29" spans="1:42" ht="15.75">
-      <c r="D29" s="195" t="s">
+      <c r="D29" s="194" t="s">
         <v>262</v>
       </c>
-      <c r="E29" s="196"/>
-      <c r="F29" s="199">
+      <c r="E29" s="195"/>
+      <c r="F29" s="198">
         <v>3800</v>
       </c>
-      <c r="G29" s="196" t="s">
+      <c r="G29" s="195" t="s">
         <v>269</v>
       </c>
-      <c r="H29" s="199">
+      <c r="H29" s="198">
         <f>+F29/B10</f>
         <v>108.57142857142857</v>
       </c>
-      <c r="I29" s="200" t="s">
+      <c r="I29" s="199" t="s">
         <v>287</v>
       </c>
-      <c r="M29" s="230"/>
+      <c r="M29" s="229"/>
       <c r="N29" t="s">
         <v>2</v>
       </c>
@@ -13208,35 +13220,35 @@
       </c>
     </row>
     <row r="30" spans="1:42" ht="15.75">
-      <c r="D30" s="195" t="s">
+      <c r="D30" s="194" t="s">
         <v>263</v>
       </c>
-      <c r="E30" s="196"/>
-      <c r="F30" s="199">
+      <c r="E30" s="195"/>
+      <c r="F30" s="198">
         <f>+F27*B10-F29</f>
         <v>13189.349999999999</v>
       </c>
-      <c r="G30" s="196" t="s">
+      <c r="G30" s="195" t="s">
         <v>269</v>
       </c>
-      <c r="H30" s="199">
+      <c r="H30" s="198">
         <f>+F30/B10</f>
         <v>376.83857142857141</v>
       </c>
-      <c r="I30" s="200" t="s">
+      <c r="I30" s="199" t="s">
         <v>287</v>
       </c>
-      <c r="M30" s="230"/>
+      <c r="M30" s="229"/>
       <c r="Q30" s="127"/>
     </row>
     <row r="31" spans="1:42" ht="15.75">
-      <c r="D31" s="195"/>
-      <c r="E31" s="196"/>
-      <c r="F31" s="196"/>
-      <c r="G31" s="196"/>
-      <c r="H31" s="196"/>
-      <c r="I31" s="198"/>
-      <c r="M31" s="230"/>
+      <c r="D31" s="194"/>
+      <c r="E31" s="195"/>
+      <c r="F31" s="195"/>
+      <c r="G31" s="195"/>
+      <c r="H31" s="195"/>
+      <c r="I31" s="197"/>
+      <c r="M31" s="229"/>
       <c r="N31" t="s">
         <v>266</v>
       </c>
@@ -13253,19 +13265,19 @@
       </c>
     </row>
     <row r="32" spans="1:42" ht="15.75">
-      <c r="D32" s="195"/>
-      <c r="E32" s="196" t="s">
+      <c r="D32" s="194"/>
+      <c r="E32" s="195" t="s">
         <v>272</v>
       </c>
-      <c r="F32" s="196"/>
-      <c r="G32" s="196" t="s">
+      <c r="F32" s="195"/>
+      <c r="G32" s="195" t="s">
         <v>268</v>
       </c>
-      <c r="H32" s="201">
+      <c r="H32" s="200">
         <v>29.5</v>
       </c>
-      <c r="I32" s="198"/>
-      <c r="M32" s="230"/>
+      <c r="I32" s="197"/>
+      <c r="M32" s="229"/>
       <c r="N32" t="s">
         <v>267</v>
       </c>
@@ -13286,29 +13298,29 @@
       </c>
     </row>
     <row r="33" spans="4:17" ht="15.75">
-      <c r="D33" s="195"/>
-      <c r="E33" s="196"/>
-      <c r="F33" s="196"/>
-      <c r="G33" s="196"/>
-      <c r="H33" s="196"/>
-      <c r="I33" s="198"/>
-      <c r="M33" s="230"/>
+      <c r="D33" s="194"/>
+      <c r="E33" s="195"/>
+      <c r="F33" s="195"/>
+      <c r="G33" s="195"/>
+      <c r="H33" s="195"/>
+      <c r="I33" s="197"/>
+      <c r="M33" s="229"/>
     </row>
     <row r="34" spans="4:17" ht="15.75">
-      <c r="D34" s="195"/>
-      <c r="E34" s="196"/>
-      <c r="F34" s="202" t="s">
+      <c r="D34" s="194"/>
+      <c r="E34" s="195"/>
+      <c r="F34" s="201" t="s">
         <v>271</v>
       </c>
-      <c r="G34" s="201" t="s">
+      <c r="G34" s="200" t="s">
         <v>291</v>
       </c>
-      <c r="H34" s="227">
+      <c r="H34" s="226">
         <f>60/(H32*1000/F30)</f>
         <v>26.82579661016949</v>
       </c>
-      <c r="I34" s="198"/>
-      <c r="M34" s="230"/>
+      <c r="I34" s="197"/>
+      <c r="M34" s="229"/>
       <c r="N34" t="s">
         <v>272</v>
       </c>
@@ -13320,75 +13332,75 @@
       </c>
     </row>
     <row r="35" spans="4:17" ht="16.5" thickBot="1">
-      <c r="D35" s="203"/>
-      <c r="E35" s="204"/>
-      <c r="F35" s="205" t="s">
+      <c r="D35" s="202"/>
+      <c r="E35" s="203"/>
+      <c r="F35" s="204" t="s">
         <v>288</v>
       </c>
-      <c r="G35" s="206" t="s">
+      <c r="G35" s="205" t="s">
         <v>291</v>
       </c>
-      <c r="H35" s="228">
+      <c r="H35" s="227">
         <v>11</v>
       </c>
-      <c r="I35" s="198"/>
-      <c r="M35" s="230"/>
+      <c r="I35" s="197"/>
+      <c r="M35" s="229"/>
     </row>
     <row r="36" spans="4:17" ht="16.5" thickTop="1">
-      <c r="D36" s="203"/>
-      <c r="E36" s="204"/>
-      <c r="F36" s="202" t="s">
+      <c r="D36" s="202"/>
+      <c r="E36" s="203"/>
+      <c r="F36" s="201" t="s">
         <v>289</v>
       </c>
-      <c r="G36" s="201" t="s">
+      <c r="G36" s="200" t="s">
         <v>291</v>
       </c>
-      <c r="H36" s="227">
+      <c r="H36" s="226">
         <f>SUM(H34:H35)</f>
         <v>37.82579661016949</v>
       </c>
-      <c r="I36" s="198"/>
-      <c r="M36" s="230"/>
+      <c r="I36" s="197"/>
+      <c r="M36" s="229"/>
       <c r="O36" t="s">
         <v>271</v>
       </c>
       <c r="P36" t="s">
         <v>270</v>
       </c>
-      <c r="Q36" s="189">
+      <c r="Q36" s="188">
         <f>60/(Q34*1000/Q32)</f>
         <v>26.460724137931031</v>
       </c>
     </row>
     <row r="37" spans="4:17" ht="16.5" thickBot="1">
-      <c r="D37" s="207"/>
-      <c r="E37" s="208"/>
-      <c r="F37" s="208"/>
-      <c r="G37" s="208"/>
-      <c r="H37" s="209"/>
-      <c r="I37" s="210"/>
-      <c r="M37" s="230"/>
+      <c r="D37" s="206"/>
+      <c r="E37" s="207"/>
+      <c r="F37" s="207"/>
+      <c r="G37" s="207"/>
+      <c r="H37" s="208"/>
+      <c r="I37" s="209"/>
+      <c r="M37" s="229"/>
     </row>
     <row r="38" spans="4:17" ht="21.75" thickTop="1" thickBot="1">
-      <c r="D38" s="207"/>
-      <c r="E38" s="214" t="s">
+      <c r="D38" s="206"/>
+      <c r="E38" s="213" t="s">
         <v>290</v>
       </c>
-      <c r="F38" s="215"/>
-      <c r="G38" s="216"/>
-      <c r="H38" s="229">
+      <c r="F38" s="214"/>
+      <c r="G38" s="215"/>
+      <c r="H38" s="228">
         <f>+C15/H36*60</f>
         <v>50.092698761315255</v>
       </c>
-      <c r="I38" s="210"/>
+      <c r="I38" s="209"/>
     </row>
     <row r="39" spans="4:17" ht="15.75" thickTop="1">
-      <c r="D39" s="211"/>
-      <c r="E39" s="212"/>
-      <c r="F39" s="212"/>
-      <c r="G39" s="212"/>
-      <c r="H39" s="212"/>
-      <c r="I39" s="213"/>
+      <c r="D39" s="210"/>
+      <c r="E39" s="211"/>
+      <c r="F39" s="211"/>
+      <c r="G39" s="211"/>
+      <c r="H39" s="211"/>
+      <c r="I39" s="212"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -14278,19 +14290,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C42D4128-7A49-4323-8F18-C858079FB1B4}">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="20.7109375" customWidth="1"/>
     <col min="3" max="4" width="14.140625" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" style="146"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="A1" s="159" t="s">
         <v>0</v>
       </c>
@@ -14306,11 +14319,11 @@
       <c r="E1" s="159" t="s">
         <v>299</v>
       </c>
-      <c r="F1" s="159" t="s">
+      <c r="F1" s="246" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:8">
       <c r="A2" s="161" t="s">
         <v>10</v>
       </c>
@@ -14320,18 +14333,18 @@
       <c r="C2" s="164">
         <v>0.32</v>
       </c>
-      <c r="D2" s="231">
+      <c r="D2" s="230">
         <v>20000</v>
       </c>
-      <c r="E2" s="231">
+      <c r="E2" s="230">
         <v>0.1</v>
       </c>
-      <c r="F2" s="97">
+      <c r="F2" s="245">
         <v>0.84</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="169" t="s">
+    <row r="3" spans="1:8">
+      <c r="A3" s="168" t="s">
         <v>296</v>
       </c>
       <c r="B3" s="164">
@@ -14340,18 +14353,18 @@
       <c r="C3" s="164">
         <v>0.9</v>
       </c>
-      <c r="D3" s="231">
-        <v>15000</v>
-      </c>
-      <c r="E3" s="231">
+      <c r="D3" s="230">
+        <v>5000</v>
+      </c>
+      <c r="E3" s="230">
         <v>0.1</v>
       </c>
-      <c r="F3" s="97">
+      <c r="F3" s="245">
         <v>0.97</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="170" t="s">
+    <row r="4" spans="1:8">
+      <c r="A4" s="169" t="s">
         <v>276</v>
       </c>
       <c r="B4" s="164">
@@ -14360,18 +14373,18 @@
       <c r="C4" s="164">
         <v>0.43</v>
       </c>
-      <c r="D4" s="231">
-        <v>2000</v>
-      </c>
-      <c r="E4" s="231">
+      <c r="D4" s="230">
+        <v>18000</v>
+      </c>
+      <c r="E4" s="230">
         <v>0.1</v>
       </c>
-      <c r="F4" s="97">
+      <c r="F4" s="245">
         <v>0.88</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="171" t="s">
+    <row r="5" spans="1:8">
+      <c r="A5" s="170" t="s">
         <v>278</v>
       </c>
       <c r="B5" s="164">
@@ -14380,18 +14393,18 @@
       <c r="C5" s="164">
         <v>0.7</v>
       </c>
-      <c r="D5" s="231">
-        <v>5000</v>
-      </c>
-      <c r="E5" s="231">
+      <c r="D5" s="230">
+        <v>2000</v>
+      </c>
+      <c r="E5" s="230">
         <v>0.1</v>
       </c>
-      <c r="F5" s="97">
+      <c r="F5" s="245">
         <v>0.98</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="172" t="s">
+    <row r="6" spans="1:8">
+      <c r="A6" s="171" t="s">
         <v>224</v>
       </c>
       <c r="B6" s="164">
@@ -14400,18 +14413,18 @@
       <c r="C6" s="164">
         <v>1</v>
       </c>
-      <c r="D6" s="231">
-        <v>1000</v>
-      </c>
-      <c r="E6" s="231">
+      <c r="D6" s="230">
+        <v>7000</v>
+      </c>
+      <c r="E6" s="230">
         <v>0.1</v>
       </c>
-      <c r="F6" s="97">
+      <c r="F6" s="245">
         <v>0.85</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="173" t="s">
+    <row r="7" spans="1:8">
+      <c r="A7" s="172" t="s">
         <v>81</v>
       </c>
       <c r="B7" s="164">
@@ -14420,18 +14433,18 @@
       <c r="C7" s="164">
         <v>1</v>
       </c>
-      <c r="D7" s="231">
+      <c r="D7" s="230">
         <v>5000</v>
       </c>
-      <c r="E7" s="231">
+      <c r="E7" s="230">
         <v>0.1</v>
       </c>
-      <c r="F7" s="97">
+      <c r="F7" s="245">
         <v>0.96</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="174" t="s">
+    <row r="8" spans="1:8">
+      <c r="A8" s="173" t="s">
         <v>279</v>
       </c>
       <c r="B8" s="164">
@@ -14440,18 +14453,22 @@
       <c r="C8" s="164">
         <v>3.5</v>
       </c>
-      <c r="D8" s="231">
-        <v>7000</v>
-      </c>
-      <c r="E8" s="231">
+      <c r="D8" s="230">
+        <v>1200</v>
+      </c>
+      <c r="E8" s="230">
         <v>0.1</v>
       </c>
-      <c r="F8" s="97">
+      <c r="F8" s="245">
         <v>0.94</v>
       </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="170" t="s">
+      <c r="H8">
+        <f>D8*(1-E8)*F8</f>
+        <v>1015.1999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="169" t="s">
         <v>83</v>
       </c>
       <c r="B9" s="164">
@@ -14460,18 +14477,18 @@
       <c r="C9" s="164">
         <v>0.6</v>
       </c>
-      <c r="D9" s="231">
-        <v>2000</v>
-      </c>
-      <c r="E9" s="231">
+      <c r="D9" s="230">
+        <v>7000</v>
+      </c>
+      <c r="E9" s="230">
         <v>0.1</v>
       </c>
-      <c r="F9" s="97">
+      <c r="F9" s="245">
         <v>0.96</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
-      <c r="B11" s="232"/>
+    <row r="11" spans="1:8">
+      <c r="B11" s="231"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14527,255 +14544,255 @@
       <c r="A2" s="161" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="244">
+      <c r="B2" s="243">
         <v>0.25</v>
       </c>
-      <c r="C2" s="244">
+      <c r="C2" s="243">
         <v>0.6</v>
       </c>
-      <c r="D2" s="245">
+      <c r="D2" s="244">
         <v>0.2</v>
       </c>
-      <c r="E2" s="245">
+      <c r="E2" s="244">
         <v>0.03</v>
       </c>
-      <c r="F2" s="245">
+      <c r="F2" s="244">
         <v>0.19</v>
       </c>
-      <c r="G2" s="245">
+      <c r="G2" s="244">
         <v>0.04</v>
       </c>
-      <c r="H2" s="245">
+      <c r="H2" s="244">
         <v>0.33</v>
       </c>
-      <c r="I2" s="245">
+      <c r="I2" s="244">
         <v>0.19</v>
       </c>
-      <c r="J2" s="245">
+      <c r="J2" s="244">
         <v>0.04</v>
       </c>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="169" t="s">
+      <c r="A3" s="168" t="s">
         <v>296</v>
       </c>
-      <c r="B3" s="244">
+      <c r="B3" s="243">
         <v>0.25</v>
       </c>
-      <c r="C3" s="244">
+      <c r="C3" s="243">
         <v>0.6</v>
       </c>
-      <c r="D3" s="245">
+      <c r="D3" s="244">
         <v>0.2</v>
       </c>
-      <c r="E3" s="245">
+      <c r="E3" s="244">
         <v>0.03</v>
       </c>
-      <c r="F3" s="245">
+      <c r="F3" s="244">
         <v>0.19</v>
       </c>
-      <c r="G3" s="245">
+      <c r="G3" s="244">
         <v>0.04</v>
       </c>
-      <c r="H3" s="245">
+      <c r="H3" s="244">
         <v>0.33</v>
       </c>
-      <c r="I3" s="245">
+      <c r="I3" s="244">
         <v>0.19</v>
       </c>
-      <c r="J3" s="245">
+      <c r="J3" s="244">
         <v>0.04</v>
       </c>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="170" t="s">
+      <c r="A4" s="169" t="s">
         <v>276</v>
       </c>
-      <c r="B4" s="244">
+      <c r="B4" s="243">
         <v>0.25</v>
       </c>
-      <c r="C4" s="244">
+      <c r="C4" s="243">
         <v>0.6</v>
       </c>
-      <c r="D4" s="245">
+      <c r="D4" s="244">
         <v>0.2</v>
       </c>
-      <c r="E4" s="245">
+      <c r="E4" s="244">
         <v>0.03</v>
       </c>
-      <c r="F4" s="245">
+      <c r="F4" s="244">
         <v>0.19</v>
       </c>
-      <c r="G4" s="245">
+      <c r="G4" s="244">
         <v>0.04</v>
       </c>
-      <c r="H4" s="245">
+      <c r="H4" s="244">
         <v>0.33</v>
       </c>
-      <c r="I4" s="245">
+      <c r="I4" s="244">
         <v>0.19</v>
       </c>
-      <c r="J4" s="245">
+      <c r="J4" s="244">
         <v>0.04</v>
       </c>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="171" t="s">
+      <c r="A5" s="170" t="s">
         <v>278</v>
       </c>
-      <c r="B5" s="244">
+      <c r="B5" s="243">
         <v>0.28000000000000003</v>
       </c>
-      <c r="C5" s="244">
+      <c r="C5" s="243">
         <v>1.4</v>
       </c>
-      <c r="D5" s="245">
+      <c r="D5" s="244">
         <v>0.18</v>
       </c>
-      <c r="E5" s="245">
+      <c r="E5" s="244">
         <v>0.02</v>
       </c>
-      <c r="F5" s="245">
+      <c r="F5" s="244">
         <v>0.35</v>
       </c>
-      <c r="G5" s="245">
+      <c r="G5" s="244">
         <v>1E-3</v>
       </c>
-      <c r="H5" s="245">
+      <c r="H5" s="244">
         <v>0.03</v>
       </c>
-      <c r="I5" s="245">
+      <c r="I5" s="244">
         <v>0.09</v>
       </c>
-      <c r="J5" s="245">
+      <c r="J5" s="244">
         <v>0.3</v>
       </c>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="172" t="s">
+      <c r="A6" s="171" t="s">
         <v>224</v>
       </c>
-      <c r="B6" s="244">
+      <c r="B6" s="243">
         <v>0.2</v>
       </c>
-      <c r="C6" s="244">
+      <c r="C6" s="243">
         <v>0.7</v>
       </c>
-      <c r="D6" s="245">
+      <c r="D6" s="244">
         <v>0.15</v>
       </c>
-      <c r="E6" s="245">
+      <c r="E6" s="244">
         <v>0.02</v>
       </c>
-      <c r="F6" s="245">
+      <c r="F6" s="244">
         <v>0.06</v>
       </c>
-      <c r="G6" s="245">
+      <c r="G6" s="244">
         <v>0.04</v>
       </c>
-      <c r="H6" s="245">
+      <c r="H6" s="244">
         <v>0.15</v>
       </c>
-      <c r="I6" s="245">
+      <c r="I6" s="244">
         <v>0.11</v>
       </c>
-      <c r="J6" s="245">
+      <c r="J6" s="244">
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="173" t="s">
+      <c r="A7" s="172" t="s">
         <v>81</v>
       </c>
-      <c r="B7" s="244">
+      <c r="B7" s="243">
         <v>0.18</v>
       </c>
-      <c r="C7" s="244">
+      <c r="C7" s="243">
         <v>0.4</v>
       </c>
-      <c r="D7" s="245">
+      <c r="D7" s="244">
         <v>0.1</v>
       </c>
-      <c r="E7" s="245">
+      <c r="E7" s="244">
         <v>0.02</v>
       </c>
-      <c r="F7" s="245">
+      <c r="F7" s="244">
         <v>0.05</v>
       </c>
-      <c r="G7" s="245">
+      <c r="G7" s="244">
         <v>0.02</v>
       </c>
-      <c r="H7" s="245">
+      <c r="H7" s="244">
         <v>0.15</v>
       </c>
-      <c r="I7" s="245">
+      <c r="I7" s="244">
         <v>0.04</v>
       </c>
-      <c r="J7" s="245">
+      <c r="J7" s="244">
         <v>0.01</v>
       </c>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="174" t="s">
+      <c r="A8" s="173" t="s">
         <v>279</v>
       </c>
-      <c r="B8" s="244">
+      <c r="B8" s="243">
         <v>3.8</v>
       </c>
-      <c r="C8" s="244">
+      <c r="C8" s="243">
         <v>0.9</v>
       </c>
-      <c r="D8" s="245">
+      <c r="D8" s="244">
         <v>0.27</v>
       </c>
-      <c r="E8" s="245">
+      <c r="E8" s="244">
         <v>0.05</v>
       </c>
-      <c r="F8" s="245">
-        <v>0</v>
-      </c>
-      <c r="G8" s="245">
+      <c r="F8" s="244">
+        <v>0</v>
+      </c>
+      <c r="G8" s="244">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="H8" s="245">
-        <v>0</v>
-      </c>
-      <c r="I8" s="245">
-        <v>0</v>
-      </c>
-      <c r="J8" s="245">
+      <c r="H8" s="244">
+        <v>0</v>
+      </c>
+      <c r="I8" s="244">
+        <v>0</v>
+      </c>
+      <c r="J8" s="244">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="170" t="s">
+      <c r="A9" s="169" t="s">
         <v>83</v>
       </c>
-      <c r="B9" s="244">
+      <c r="B9" s="243">
         <v>0.25</v>
       </c>
-      <c r="C9" s="244">
+      <c r="C9" s="243">
         <v>0.3</v>
       </c>
-      <c r="D9" s="245">
+      <c r="D9" s="244">
         <v>0.01</v>
       </c>
-      <c r="E9" s="245">
+      <c r="E9" s="244">
         <v>0.03</v>
       </c>
-      <c r="F9" s="245">
+      <c r="F9" s="244">
         <v>0.18</v>
       </c>
-      <c r="G9" s="245">
+      <c r="G9" s="244">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="H9" s="245">
+      <c r="H9" s="244">
         <v>0.35</v>
       </c>
-      <c r="I9" s="245">
+      <c r="I9" s="244">
         <v>0.2</v>
       </c>
-      <c r="J9" s="245">
+      <c r="J9" s="244">
         <v>0.04</v>
       </c>
     </row>
@@ -14845,10 +14862,10 @@
         <f>+B16+B27+B33+I19+B26+B38</f>
         <v>4757.4465272727284</v>
       </c>
-      <c r="N1" s="237" t="s">
+      <c r="N1" s="236" t="s">
         <v>42</v>
       </c>
-      <c r="O1" s="238"/>
+      <c r="O1" s="237"/>
       <c r="P1" s="64" t="s">
         <v>39</v>
       </c>
@@ -15224,7 +15241,7 @@
         <f t="shared" si="3"/>
         <v>5.7091516758131657E-2</v>
       </c>
-      <c r="T6" s="182"/>
+      <c r="T6" s="181"/>
       <c r="FK6" s="32">
         <v>4</v>
       </c>
@@ -15297,7 +15314,7 @@
         <f>+G20+G25+G30+G35+G40+G45+G50</f>
         <v>1291.0954576067541</v>
       </c>
-      <c r="T7" s="184">
+      <c r="T7" s="183">
         <f>+S7/R2</f>
         <v>41.46005007199085</v>
       </c>
@@ -15368,7 +15385,7 @@
         <v>1.264983474647523</v>
       </c>
       <c r="S8" s="36"/>
-      <c r="T8" s="182"/>
+      <c r="T8" s="181"/>
       <c r="FK8" s="32">
         <v>6</v>
       </c>
@@ -15439,7 +15456,7 @@
       <c r="S9" s="62">
         <v>1000</v>
       </c>
-      <c r="T9" s="184">
+      <c r="T9" s="183">
         <f>+S9/R5</f>
         <v>32.601324049971559</v>
       </c>
@@ -15479,7 +15496,7 @@
         <f>SUM(M2:M9)</f>
         <v>3509.0041156454872</v>
       </c>
-      <c r="T10" s="182"/>
+      <c r="T10" s="181"/>
       <c r="FK10" s="32">
         <v>8</v>
       </c>
@@ -15521,18 +15538,18 @@
       <c r="P11" s="32" t="s">
         <v>182</v>
       </c>
-      <c r="R11" s="182" t="s">
+      <c r="R11" s="181" t="s">
         <v>51</v>
       </c>
-      <c r="S11" s="183">
+      <c r="S11" s="182">
         <f>+S9-S7</f>
         <v>-291.09545760675405</v>
       </c>
-      <c r="T11" s="184">
+      <c r="T11" s="183">
         <f>+S11*1.4284</f>
         <v>-415.80075164548748</v>
       </c>
-      <c r="U11" s="184">
+      <c r="U11" s="183">
         <f>+T11*1000</f>
         <v>-415800.7516454875</v>
       </c>
@@ -15567,10 +15584,10 @@
       <c r="P12" s="32" t="s">
         <v>183</v>
       </c>
-      <c r="R12" s="182"/>
-      <c r="S12" s="184"/>
-      <c r="T12" s="184"/>
-      <c r="U12" s="184"/>
+      <c r="R12" s="181"/>
+      <c r="S12" s="183"/>
+      <c r="T12" s="183"/>
+      <c r="U12" s="183"/>
       <c r="FK12" s="32">
         <v>10</v>
       </c>
@@ -15606,15 +15623,15 @@
         <f>27*O13*0.6</f>
         <v>2399.4880721342788</v>
       </c>
-      <c r="R13" s="182" t="s">
+      <c r="R13" s="181" t="s">
         <v>52</v>
       </c>
-      <c r="S13" s="185">
+      <c r="S13" s="184">
         <f>+U11/R2*0.5</f>
         <v>-6676.1601094735197</v>
       </c>
-      <c r="T13" s="182"/>
-      <c r="U13" s="182"/>
+      <c r="T13" s="181"/>
+      <c r="U13" s="181"/>
       <c r="FK13" s="32">
         <v>11</v>
       </c>
@@ -15968,7 +15985,7 @@
         <f>+K75</f>
         <v>0</v>
       </c>
-      <c r="D22" s="241" t="s">
+      <c r="D22" s="240" t="s">
         <v>231</v>
       </c>
       <c r="E22" s="69">
@@ -16011,7 +16028,7 @@
         <f>+I75</f>
         <v>16.380690000000001</v>
       </c>
-      <c r="D23" s="242"/>
+      <c r="D23" s="241"/>
       <c r="E23" s="71" t="s">
         <v>139</v>
       </c>
@@ -16197,7 +16214,7 @@
       <c r="B27" s="68">
         <v>0</v>
       </c>
-      <c r="D27" s="241" t="s">
+      <c r="D27" s="240" t="s">
         <v>50</v>
       </c>
       <c r="E27" s="69">
@@ -16250,7 +16267,7 @@
         <f>+B27*0.58+B26*0.86</f>
         <v>602</v>
       </c>
-      <c r="D28" s="242"/>
+      <c r="D28" s="241"/>
       <c r="E28" s="71" t="s">
         <v>139</v>
       </c>
@@ -18019,21 +18036,21 @@
       <c r="F78" s="56" t="s">
         <v>154</v>
       </c>
-      <c r="H78" s="239" t="s">
+      <c r="H78" s="238" t="s">
         <v>144</v>
       </c>
-      <c r="I78" s="239"/>
-      <c r="J78" s="239"/>
-      <c r="K78" s="239"/>
-      <c r="M78" s="239" t="s">
+      <c r="I78" s="238"/>
+      <c r="J78" s="238"/>
+      <c r="K78" s="238"/>
+      <c r="M78" s="238" t="s">
         <v>145</v>
       </c>
-      <c r="N78" s="239"/>
-      <c r="O78" s="239"/>
-      <c r="Q78" s="240" t="s">
+      <c r="N78" s="238"/>
+      <c r="O78" s="238"/>
+      <c r="Q78" s="239" t="s">
         <v>148</v>
       </c>
-      <c r="R78" s="240"/>
+      <c r="R78" s="239"/>
     </row>
     <row r="79" spans="1:18">
       <c r="A79" s="57" t="s">
@@ -18252,17 +18269,17 @@
       <c r="D90" s="98"/>
       <c r="E90" s="98"/>
       <c r="F90" s="98"/>
-      <c r="H90" s="239" t="s">
+      <c r="H90" s="238" t="s">
         <v>146</v>
       </c>
-      <c r="I90" s="239"/>
-      <c r="J90" s="239"/>
-      <c r="K90" s="239"/>
-      <c r="M90" s="239" t="s">
+      <c r="I90" s="238"/>
+      <c r="J90" s="238"/>
+      <c r="K90" s="238"/>
+      <c r="M90" s="238" t="s">
         <v>147</v>
       </c>
-      <c r="N90" s="239"/>
-      <c r="O90" s="239"/>
+      <c r="N90" s="238"/>
+      <c r="O90" s="238"/>
     </row>
     <row r="91" spans="1:15">
       <c r="B91" s="32">
@@ -18661,10 +18678,10 @@
         <f>+B18+I15+I20+I25</f>
         <v>400.11745454545451</v>
       </c>
-      <c r="M2" s="237" t="s">
+      <c r="M2" s="236" t="s">
         <v>42</v>
       </c>
-      <c r="N2" s="238"/>
+      <c r="N2" s="237"/>
       <c r="O2" s="64" t="s">
         <v>39</v>
       </c>
@@ -18819,7 +18836,7 @@
       <c r="O7" s="32"/>
     </row>
     <row r="8" spans="1:15">
-      <c r="D8" s="241" t="s">
+      <c r="D8" s="240" t="s">
         <v>50</v>
       </c>
       <c r="E8" s="69">
@@ -18856,7 +18873,7 @@
       <c r="A9" t="s">
         <v>173</v>
       </c>
-      <c r="D9" s="242"/>
+      <c r="D9" s="241"/>
       <c r="E9" s="71" t="s">
         <v>139</v>
       </c>
@@ -19049,10 +19066,10 @@
         <f>SUM(L16:L23)</f>
         <v>371.11302292119257</v>
       </c>
-      <c r="M15" s="237" t="s">
+      <c r="M15" s="236" t="s">
         <v>42</v>
       </c>
-      <c r="N15" s="238"/>
+      <c r="N15" s="237"/>
       <c r="O15" s="64" t="s">
         <v>39</v>
       </c>
@@ -20405,7 +20422,7 @@
         <f>+D14*0.067*1000</f>
         <v>150.75000000000009</v>
       </c>
-      <c r="D22" s="243" t="s">
+      <c r="D22" s="242" t="s">
         <v>49</v>
       </c>
       <c r="E22" s="1">
@@ -20427,7 +20444,7 @@
         <f>+D14*0.02*1000+B36</f>
         <v>227.69590909090911</v>
       </c>
-      <c r="D23" s="243"/>
+      <c r="D23" s="242"/>
       <c r="E23" s="1" t="s">
         <v>45</v>
       </c>
@@ -20519,7 +20536,7 @@
         <f>+B27*0.58+B26*0.78</f>
         <v>638</v>
       </c>
-      <c r="D28" s="243" t="s">
+      <c r="D28" s="242" t="s">
         <v>50</v>
       </c>
       <c r="E28" s="1">
@@ -20541,7 +20558,7 @@
         <f>+B27*0.23</f>
         <v>253</v>
       </c>
-      <c r="D29" s="243"/>
+      <c r="D29" s="242"/>
       <c r="E29" s="1" t="s">
         <v>45</v>
       </c>
@@ -21297,10 +21314,10 @@
         <f>+B16+B27+B33+I19+B26+B38</f>
         <v>4564.5246181818193</v>
       </c>
-      <c r="N1" s="237" t="s">
+      <c r="N1" s="236" t="s">
         <v>42</v>
       </c>
-      <c r="O1" s="238"/>
+      <c r="O1" s="237"/>
       <c r="P1" s="64" t="s">
         <v>39</v>
       </c>
@@ -21676,7 +21693,7 @@
         <f t="shared" si="3"/>
         <v>6.0143060238739526E-2</v>
       </c>
-      <c r="T6" s="182"/>
+      <c r="T6" s="181"/>
       <c r="FK6" s="32">
         <v>4</v>
       </c>
@@ -21749,7 +21766,7 @@
         <f>+G20+G25+G30+G35+G40+G45+G50</f>
         <v>1279.2661501133152</v>
       </c>
-      <c r="T7" s="184">
+      <c r="T7" s="183">
         <f>+S7/R2</f>
         <v>42.448875436721217</v>
       </c>
@@ -21820,7 +21837,7 @@
         <v>1.2714776572089705</v>
       </c>
       <c r="S8" s="36"/>
-      <c r="T8" s="182"/>
+      <c r="T8" s="181"/>
       <c r="FK8" s="32">
         <v>6</v>
       </c>
@@ -21891,7 +21908,7 @@
       <c r="S9" s="62">
         <v>1000</v>
       </c>
-      <c r="T9" s="184">
+      <c r="T9" s="183">
         <f>+S9/R5</f>
         <v>33.687520777503885</v>
       </c>
@@ -21931,7 +21948,7 @@
         <f>SUM(M2:M9)</f>
         <v>3376.0982792663044</v>
       </c>
-      <c r="T10" s="182"/>
+      <c r="T10" s="181"/>
       <c r="FK10" s="32">
         <v>8</v>
       </c>
@@ -21973,18 +21990,18 @@
       <c r="P11" s="32" t="s">
         <v>182</v>
       </c>
-      <c r="R11" s="182" t="s">
+      <c r="R11" s="181" t="s">
         <v>51</v>
       </c>
-      <c r="S11" s="183">
+      <c r="S11" s="182">
         <f>+S9-S7</f>
         <v>-279.26615011331523</v>
       </c>
-      <c r="T11" s="184">
+      <c r="T11" s="183">
         <f>+S11*1.4284</f>
         <v>-398.90376882185944</v>
       </c>
-      <c r="U11" s="184">
+      <c r="U11" s="183">
         <f>+T11*1000</f>
         <v>-398903.76882185944</v>
       </c>
@@ -22019,10 +22036,10 @@
       <c r="P12" s="32" t="s">
         <v>183</v>
       </c>
-      <c r="R12" s="182"/>
-      <c r="S12" s="184"/>
-      <c r="T12" s="184"/>
-      <c r="U12" s="184"/>
+      <c r="R12" s="181"/>
+      <c r="S12" s="183"/>
+      <c r="T12" s="183"/>
+      <c r="U12" s="183"/>
       <c r="FK12" s="32">
         <v>10</v>
       </c>
@@ -22058,15 +22075,15 @@
         <f>27*O13*0.6</f>
         <v>3025.6026173089695</v>
       </c>
-      <c r="R13" s="182" t="s">
+      <c r="R13" s="181" t="s">
         <v>52</v>
       </c>
-      <c r="S13" s="185">
+      <c r="S13" s="184">
         <f>+U11/R2*0.5</f>
         <v>-6618.2539077024157</v>
       </c>
-      <c r="T13" s="182"/>
-      <c r="U13" s="182"/>
+      <c r="T13" s="181"/>
+      <c r="U13" s="181"/>
       <c r="FK13" s="32">
         <v>11</v>
       </c>
@@ -22417,7 +22434,7 @@
         <f>+K78</f>
         <v>0</v>
       </c>
-      <c r="D22" s="241" t="s">
+      <c r="D22" s="240" t="s">
         <v>231</v>
       </c>
       <c r="E22" s="69">
@@ -22460,7 +22477,7 @@
         <f>+I78</f>
         <v>13.773177000000006</v>
       </c>
-      <c r="D23" s="242"/>
+      <c r="D23" s="241"/>
       <c r="E23" s="71" t="s">
         <v>139</v>
       </c>
@@ -22646,7 +22663,7 @@
       <c r="B27" s="68">
         <v>0</v>
       </c>
-      <c r="D27" s="241" t="s">
+      <c r="D27" s="240" t="s">
         <v>50</v>
       </c>
       <c r="E27" s="69">
@@ -22699,7 +22716,7 @@
         <f>+B27*0.58+B26*0.83</f>
         <v>581</v>
       </c>
-      <c r="D28" s="242"/>
+      <c r="D28" s="241"/>
       <c r="E28" s="71" t="s">
         <v>139</v>
       </c>
@@ -24467,21 +24484,21 @@
       <c r="F81" s="56" t="s">
         <v>154</v>
       </c>
-      <c r="H81" s="239" t="s">
+      <c r="H81" s="238" t="s">
         <v>144</v>
       </c>
-      <c r="I81" s="239"/>
-      <c r="J81" s="239"/>
-      <c r="K81" s="239"/>
-      <c r="M81" s="239" t="s">
+      <c r="I81" s="238"/>
+      <c r="J81" s="238"/>
+      <c r="K81" s="238"/>
+      <c r="M81" s="238" t="s">
         <v>145</v>
       </c>
-      <c r="N81" s="239"/>
-      <c r="O81" s="239"/>
-      <c r="Q81" s="240" t="s">
+      <c r="N81" s="238"/>
+      <c r="O81" s="238"/>
+      <c r="Q81" s="239" t="s">
         <v>148</v>
       </c>
-      <c r="R81" s="240"/>
+      <c r="R81" s="239"/>
     </row>
     <row r="82" spans="1:18">
       <c r="A82" s="57" t="s">
@@ -24700,17 +24717,17 @@
       <c r="D93" s="98"/>
       <c r="E93" s="98"/>
       <c r="F93" s="98"/>
-      <c r="H93" s="239" t="s">
+      <c r="H93" s="238" t="s">
         <v>146</v>
       </c>
-      <c r="I93" s="239"/>
-      <c r="J93" s="239"/>
-      <c r="K93" s="239"/>
-      <c r="M93" s="239" t="s">
+      <c r="I93" s="238"/>
+      <c r="J93" s="238"/>
+      <c r="K93" s="238"/>
+      <c r="M93" s="238" t="s">
         <v>147</v>
       </c>
-      <c r="N93" s="239"/>
-      <c r="O93" s="239"/>
+      <c r="N93" s="238"/>
+      <c r="O93" s="238"/>
     </row>
     <row r="94" spans="1:18">
       <c r="G94" s="36"/>

--- a/Mix.xlsx
+++ b/Mix.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SIDER\Scrap Optimization\Clone\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8209A989-0234-4839-A6F8-6C3D192381E4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7B5755D-E07B-46E6-961E-018E7D4C3ACB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19680" yWindow="7605" windowWidth="15315" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PPC" sheetId="5" r:id="rId1"/>
@@ -2426,7 +2426,7 @@
     <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="248">
+  <cellXfs count="250">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2966,9 +2966,6 @@
     <xf numFmtId="0" fontId="34" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="14" fillId="14" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="9" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3039,39 +3036,6 @@
     <xf numFmtId="2" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="12" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="12" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="2" fontId="54" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3085,6 +3049,48 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="55" fillId="19" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="12" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="12" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="36" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="24" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="14" fillId="14" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -11198,8 +11204,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AP39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N22" sqref="N22"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O23" sqref="O23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -11219,9 +11225,9 @@
     <col min="13" max="13" width="10" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="7.42578125" customWidth="1"/>
     <col min="15" max="15" width="10" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.5703125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="10" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="7.5703125" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="10" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="8.5703125" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="10" bestFit="1" customWidth="1"/>
@@ -11307,13 +11313,13 @@
       <c r="V1" s="160" t="s">
         <v>244</v>
       </c>
-      <c r="W1" s="217" t="s">
+      <c r="W1" s="216" t="s">
         <v>203</v>
       </c>
-      <c r="X1" s="219" t="s">
+      <c r="X1" s="218" t="s">
         <v>293</v>
       </c>
-      <c r="Y1" s="220">
+      <c r="Y1" s="219">
         <v>21000</v>
       </c>
       <c r="AA1" s="105" t="s">
@@ -11389,13 +11395,13 @@
         <f>+H2*J2</f>
         <v>79.900000000000006</v>
       </c>
-      <c r="J2" s="191">
+      <c r="J2" s="249">
         <v>0.17</v>
       </c>
       <c r="K2" s="164">
         <v>0.32</v>
       </c>
-      <c r="L2" s="247">
+      <c r="L2" s="235">
         <f>+B2/K2</f>
         <v>18.59375</v>
       </c>
@@ -11434,42 +11440,42 @@
         <f>+K2*U2</f>
         <v>0</v>
       </c>
-      <c r="W2" s="218">
+      <c r="W2" s="217">
         <f>+B2*$Y$2</f>
         <v>4036.4998432425532</v>
       </c>
-      <c r="X2" s="221" t="s">
+      <c r="X2" s="220" t="s">
         <v>292</v>
       </c>
-      <c r="Y2" s="222">
+      <c r="Y2" s="221">
         <f>+Y1/F17</f>
         <v>678.40333499874839</v>
       </c>
-      <c r="AA2" s="243">
+      <c r="AA2" s="231">
         <v>0.25</v>
       </c>
-      <c r="AB2" s="243">
+      <c r="AB2" s="231">
         <v>0.6</v>
       </c>
-      <c r="AC2" s="244">
+      <c r="AC2" s="232">
         <v>0.2</v>
       </c>
-      <c r="AD2" s="244">
+      <c r="AD2" s="232">
         <v>0.03</v>
       </c>
-      <c r="AE2" s="244">
+      <c r="AE2" s="232">
         <v>0.19</v>
       </c>
-      <c r="AF2" s="244">
+      <c r="AF2" s="232">
         <v>0.04</v>
       </c>
-      <c r="AG2" s="244">
+      <c r="AG2" s="232">
         <v>0.33</v>
       </c>
-      <c r="AH2" s="244">
+      <c r="AH2" s="232">
         <v>0.19</v>
       </c>
-      <c r="AI2" s="244">
+      <c r="AI2" s="232">
         <v>0.04</v>
       </c>
       <c r="AK2" t="s">
@@ -11525,13 +11531,13 @@
         <f t="shared" ref="I3:I9" si="6">+H3*J3</f>
         <v>40.89</v>
       </c>
-      <c r="J3" s="191">
+      <c r="J3" s="249">
         <v>8.6999999999999994E-2</v>
       </c>
       <c r="K3" s="164">
         <v>0.9</v>
       </c>
-      <c r="L3" s="247">
+      <c r="L3" s="235">
         <f t="shared" ref="L3:L9" si="7">+B3/K3</f>
         <v>3.3833333333333333</v>
       </c>
@@ -11566,42 +11572,42 @@
         <f t="shared" ref="V3:V9" si="10">+K3*U3</f>
         <v>0</v>
       </c>
-      <c r="W3" s="218">
+      <c r="W3" s="217">
         <f t="shared" ref="W3:W9" si="11">+B3*$Y$2</f>
         <v>2065.7381550711889</v>
       </c>
-      <c r="X3" s="223" t="s">
+      <c r="X3" s="222" t="s">
         <v>54</v>
       </c>
-      <c r="Y3" s="224">
+      <c r="Y3" s="223">
         <f>+F17</f>
         <v>30.955036504999999</v>
       </c>
-      <c r="AA3" s="243">
+      <c r="AA3" s="231">
         <v>0.25</v>
       </c>
-      <c r="AB3" s="243">
+      <c r="AB3" s="231">
         <v>0.6</v>
       </c>
-      <c r="AC3" s="244">
+      <c r="AC3" s="232">
         <v>0.2</v>
       </c>
-      <c r="AD3" s="244">
+      <c r="AD3" s="232">
         <v>0.03</v>
       </c>
-      <c r="AE3" s="244">
+      <c r="AE3" s="232">
         <v>0.19</v>
       </c>
-      <c r="AF3" s="244">
+      <c r="AF3" s="232">
         <v>0.04</v>
       </c>
-      <c r="AG3" s="244">
+      <c r="AG3" s="232">
         <v>0.33</v>
       </c>
-      <c r="AH3" s="244">
+      <c r="AH3" s="232">
         <v>0.19</v>
       </c>
-      <c r="AI3" s="244">
+      <c r="AI3" s="232">
         <v>0.04</v>
       </c>
       <c r="AL3" s="10"/>
@@ -11642,13 +11648,13 @@
         <f t="shared" si="6"/>
         <v>196.42</v>
       </c>
-      <c r="J4" s="191">
+      <c r="J4" s="249">
         <v>0.42699999999999999</v>
       </c>
       <c r="K4" s="164">
         <v>0.43</v>
       </c>
-      <c r="L4" s="247">
+      <c r="L4" s="235">
         <f t="shared" si="7"/>
         <v>34.755813953488371</v>
       </c>
@@ -11656,7 +11662,7 @@
         <v>9.1999999999999993</v>
       </c>
       <c r="N4" s="166">
-        <f t="shared" si="1"/>
+        <f>+M4*K4</f>
         <v>3.9559999999999995</v>
       </c>
       <c r="O4" s="163">
@@ -11691,31 +11697,31 @@
         <f t="shared" si="11"/>
         <v>10138.737841556294</v>
       </c>
-      <c r="AA4" s="243">
+      <c r="AA4" s="231">
         <v>0.25</v>
       </c>
-      <c r="AB4" s="243">
+      <c r="AB4" s="231">
         <v>0.6</v>
       </c>
-      <c r="AC4" s="244">
+      <c r="AC4" s="232">
         <v>0.2</v>
       </c>
-      <c r="AD4" s="244">
+      <c r="AD4" s="232">
         <v>0.03</v>
       </c>
-      <c r="AE4" s="244">
+      <c r="AE4" s="232">
         <v>0.19</v>
       </c>
-      <c r="AF4" s="244">
+      <c r="AF4" s="232">
         <v>0.04</v>
       </c>
-      <c r="AG4" s="244">
+      <c r="AG4" s="232">
         <v>0.33</v>
       </c>
-      <c r="AH4" s="244">
+      <c r="AH4" s="232">
         <v>0.19</v>
       </c>
-      <c r="AI4" s="244">
+      <c r="AI4" s="232">
         <v>0.04</v>
       </c>
       <c r="AK4" t="s">
@@ -11771,11 +11777,11 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="J5" s="191"/>
+      <c r="J5" s="249"/>
       <c r="K5" s="164">
         <v>0.7</v>
       </c>
-      <c r="L5" s="247">
+      <c r="L5" s="235">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -11812,31 +11818,31 @@
         <f>+Y2/31</f>
         <v>21.883978548346722</v>
       </c>
-      <c r="AA5" s="243">
+      <c r="AA5" s="231">
         <v>0.28000000000000003</v>
       </c>
-      <c r="AB5" s="243">
+      <c r="AB5" s="231">
         <v>1.4</v>
       </c>
-      <c r="AC5" s="244">
+      <c r="AC5" s="232">
         <v>0.18</v>
       </c>
-      <c r="AD5" s="244">
+      <c r="AD5" s="232">
         <v>0.02</v>
       </c>
-      <c r="AE5" s="244">
+      <c r="AE5" s="232">
         <v>0.35</v>
       </c>
-      <c r="AF5" s="244">
+      <c r="AF5" s="232">
         <v>1E-3</v>
       </c>
-      <c r="AG5" s="244">
+      <c r="AG5" s="232">
         <v>0.03</v>
       </c>
-      <c r="AH5" s="244">
+      <c r="AH5" s="232">
         <v>0.09</v>
       </c>
-      <c r="AI5" s="244">
+      <c r="AI5" s="232">
         <v>0.3</v>
       </c>
       <c r="AK5" t="s">
@@ -11892,11 +11898,11 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="J6" s="191"/>
+      <c r="J6" s="249"/>
       <c r="K6" s="164">
         <v>1</v>
       </c>
-      <c r="L6" s="247">
+      <c r="L6" s="235">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -11929,31 +11935,31 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AA6" s="243">
+      <c r="AA6" s="231">
         <v>0.2</v>
       </c>
-      <c r="AB6" s="243">
+      <c r="AB6" s="231">
         <v>0.7</v>
       </c>
-      <c r="AC6" s="244">
+      <c r="AC6" s="232">
         <v>0.15</v>
       </c>
-      <c r="AD6" s="244">
+      <c r="AD6" s="232">
         <v>0.02</v>
       </c>
-      <c r="AE6" s="244">
+      <c r="AE6" s="232">
         <v>0.06</v>
       </c>
-      <c r="AF6" s="244">
+      <c r="AF6" s="232">
         <v>0.04</v>
       </c>
-      <c r="AG6" s="244">
+      <c r="AG6" s="232">
         <v>0.15</v>
       </c>
-      <c r="AH6" s="244">
+      <c r="AH6" s="232">
         <v>0.11</v>
       </c>
-      <c r="AI6" s="244">
+      <c r="AI6" s="232">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="AK6" t="s">
@@ -12009,14 +12015,14 @@
         <f t="shared" si="6"/>
         <v>110.94</v>
       </c>
-      <c r="J7" s="191">
+      <c r="J7" s="249">
         <v>0.25800000000000001</v>
       </c>
       <c r="K7" s="164">
         <v>1</v>
       </c>
-      <c r="L7" s="247">
-        <f t="shared" si="7"/>
+      <c r="L7" s="235">
+        <f>+B7/K7</f>
         <v>9.0300000000000011</v>
       </c>
       <c r="M7" s="163">
@@ -12053,31 +12059,31 @@
         <f t="shared" si="11"/>
         <v>6125.9821150386988</v>
       </c>
-      <c r="AA7" s="243">
+      <c r="AA7" s="231">
         <v>0.18</v>
       </c>
-      <c r="AB7" s="243">
+      <c r="AB7" s="231">
         <v>0.4</v>
       </c>
-      <c r="AC7" s="244">
+      <c r="AC7" s="232">
         <v>0.1</v>
       </c>
-      <c r="AD7" s="244">
+      <c r="AD7" s="232">
         <v>0.02</v>
       </c>
-      <c r="AE7" s="244">
+      <c r="AE7" s="232">
         <v>0.05</v>
       </c>
-      <c r="AF7" s="244">
+      <c r="AF7" s="232">
         <v>0.02</v>
       </c>
-      <c r="AG7" s="244">
+      <c r="AG7" s="232">
         <v>0.15</v>
       </c>
-      <c r="AH7" s="244">
+      <c r="AH7" s="232">
         <v>0.04</v>
       </c>
-      <c r="AI7" s="244">
+      <c r="AI7" s="232">
         <v>0.01</v>
       </c>
       <c r="AP7" s="12">
@@ -12118,11 +12124,11 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="J8" s="191"/>
+      <c r="J8" s="249"/>
       <c r="K8" s="164">
         <v>3.5</v>
       </c>
-      <c r="L8" s="247">
+      <c r="L8" s="235">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -12133,7 +12139,7 @@
       </c>
       <c r="O8" s="163"/>
       <c r="P8" s="166">
-        <f t="shared" si="2"/>
+        <f>+O8*K8</f>
         <v>0</v>
       </c>
       <c r="Q8" s="163"/>
@@ -12155,31 +12161,31 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AA8" s="243">
+      <c r="AA8" s="231">
         <v>3.8</v>
       </c>
-      <c r="AB8" s="243">
+      <c r="AB8" s="231">
         <v>0.9</v>
       </c>
-      <c r="AC8" s="244">
+      <c r="AC8" s="232">
         <v>0.27</v>
       </c>
-      <c r="AD8" s="244">
+      <c r="AD8" s="232">
         <v>0.05</v>
       </c>
-      <c r="AE8" s="244">
-        <v>0</v>
-      </c>
-      <c r="AF8" s="244">
+      <c r="AE8" s="232">
+        <v>0</v>
+      </c>
+      <c r="AF8" s="232">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="AG8" s="244">
-        <v>0</v>
-      </c>
-      <c r="AH8" s="244">
-        <v>0</v>
-      </c>
-      <c r="AI8" s="244">
+      <c r="AG8" s="232">
+        <v>0</v>
+      </c>
+      <c r="AH8" s="232">
+        <v>0</v>
+      </c>
+      <c r="AI8" s="232">
         <v>0</v>
       </c>
     </row>
@@ -12216,13 +12222,13 @@
         <f t="shared" si="6"/>
         <v>27.26</v>
       </c>
-      <c r="J9" s="191">
+      <c r="J9" s="249">
         <v>5.8000000000000003E-2</v>
       </c>
       <c r="K9" s="164">
         <v>0.6</v>
       </c>
-      <c r="L9" s="247">
+      <c r="L9" s="235">
         <f t="shared" si="7"/>
         <v>3.3833333333333337</v>
       </c>
@@ -12257,31 +12263,31 @@
         <f t="shared" si="11"/>
         <v>1377.1587700474595</v>
       </c>
-      <c r="AA9" s="243">
+      <c r="AA9" s="231">
         <v>0.25</v>
       </c>
-      <c r="AB9" s="243">
+      <c r="AB9" s="231">
         <v>0.3</v>
       </c>
-      <c r="AC9" s="244">
+      <c r="AC9" s="232">
         <v>0.01</v>
       </c>
-      <c r="AD9" s="244">
+      <c r="AD9" s="232">
         <v>0.03</v>
       </c>
-      <c r="AE9" s="244">
+      <c r="AE9" s="232">
         <v>0.18</v>
       </c>
-      <c r="AF9" s="244">
+      <c r="AF9" s="232">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AG9" s="244">
+      <c r="AG9" s="232">
         <v>0.35</v>
       </c>
-      <c r="AH9" s="244">
+      <c r="AH9" s="232">
         <v>0.2</v>
       </c>
-      <c r="AI9" s="244">
+      <c r="AI9" s="232">
         <v>0.04</v>
       </c>
       <c r="AK9" t="s">
@@ -12311,7 +12317,7 @@
       <c r="F10" s="60"/>
       <c r="G10" s="60"/>
       <c r="H10" s="186"/>
-      <c r="I10" s="216">
+      <c r="I10" s="215">
         <f>SUM(I2:I9)</f>
         <v>455.40999999999997</v>
       </c>
@@ -12332,18 +12338,18 @@
         <v>26.18333333333333</v>
       </c>
       <c r="N10" s="179">
-        <f t="shared" si="13"/>
+        <f>SUM(N2:N9)</f>
         <v>15.024999999999999</v>
       </c>
       <c r="O10" s="178">
-        <f t="shared" si="13"/>
+        <f>SUM(O2:O9)</f>
         <v>25.23</v>
       </c>
       <c r="P10" s="179">
-        <f t="shared" si="13"/>
+        <f>SUM(P2:P9)</f>
         <v>13.034000000000001</v>
       </c>
-      <c r="Q10" s="178">
+      <c r="Q10" s="248">
         <f t="shared" si="13"/>
         <v>17.749563953488373</v>
       </c>
@@ -12421,7 +12427,7 @@
       <c r="F11" s="43" t="s">
         <v>57</v>
       </c>
-      <c r="G11" s="225">
+      <c r="G11" s="224">
         <f>+SUMPRODUCT(B2:B9,G2:G9)/C11/E15</f>
         <v>238.48587346459317</v>
       </c>
@@ -12606,16 +12612,17 @@
         <v>201</v>
       </c>
       <c r="M13" s="111"/>
-      <c r="N13" s="112">
+      <c r="N13" s="247">
         <f>(N17+B16)/7+(N10-N17)/N14</f>
         <v>8.257723621593767</v>
       </c>
-      <c r="O13" s="1"/>
-      <c r="P13" s="112">
+      <c r="O13" s="10"/>
+      <c r="P13" s="247">
         <f>+P10/7+N13</f>
         <v>10.119723621593767</v>
       </c>
-      <c r="R13" s="112">
+      <c r="Q13" s="146"/>
+      <c r="R13" s="247">
         <f>+R10/7+P13</f>
         <v>11.112723621593767</v>
       </c>
@@ -12655,18 +12662,20 @@
         <v>393.55483898183456</v>
       </c>
       <c r="I14" s="132"/>
-      <c r="L14" s="232" t="s">
+      <c r="L14" s="236" t="s">
         <v>284</v>
       </c>
-      <c r="M14" s="232"/>
+      <c r="M14" s="236"/>
       <c r="N14" s="10">
         <f>+SUMPRODUCT($K$2:$K$9,M2:M9)/M10</f>
         <v>0.57383831954169318</v>
       </c>
+      <c r="O14" s="146"/>
       <c r="P14" s="10">
         <f>+SUMPRODUCT($K$2:$K$9,O2:O9)/O10</f>
         <v>0.51660721363456208</v>
       </c>
+      <c r="Q14" s="146"/>
       <c r="R14" s="10">
         <f>+SUMPRODUCT($K$2:$K$9,Q2:Q9)/Q10</f>
         <v>0.39161525422340865</v>
@@ -12720,21 +12729,21 @@
       <c r="I15">
         <v>26500</v>
       </c>
-      <c r="L15" s="232" t="s">
+      <c r="L15" s="236" t="s">
         <v>285</v>
       </c>
-      <c r="M15" s="232"/>
-      <c r="N15" s="12">
+      <c r="M15" s="236"/>
+      <c r="N15" s="10">
         <f>+SUMPRODUCT($H$2:$H$9,N2:N9)</f>
         <v>6862.19</v>
       </c>
-      <c r="O15" s="12"/>
-      <c r="P15" s="12">
+      <c r="O15" s="10"/>
+      <c r="P15" s="10">
         <f>+SUMPRODUCT($H$2:$H$9,P2:P9)</f>
         <v>5864.58</v>
       </c>
-      <c r="Q15" s="12"/>
-      <c r="R15" s="12">
+      <c r="Q15" s="10"/>
+      <c r="R15" s="10">
         <f>+SUMPRODUCT($H$2:$H$9,R2:R9)</f>
         <v>3217.2799999999997</v>
       </c>
@@ -12797,20 +12806,21 @@
       <c r="I16">
         <v>29000</v>
       </c>
-      <c r="L16" s="232" t="s">
+      <c r="L16" s="236" t="s">
         <v>286</v>
       </c>
-      <c r="M16" s="232"/>
-      <c r="N16" s="12">
-        <f>+O10-(B17-O10)</f>
+      <c r="M16" s="236"/>
+      <c r="N16" s="10">
+        <f>O10-(B17-O10)</f>
         <v>20.46</v>
       </c>
-      <c r="P16" s="12">
+      <c r="O16" s="146"/>
+      <c r="P16" s="10">
         <f>+O10</f>
         <v>25.23</v>
       </c>
-      <c r="Q16" s="1"/>
-      <c r="R16" s="12">
+      <c r="Q16" s="10"/>
+      <c r="R16" s="10">
         <f>+Q10</f>
         <v>17.749563953488373</v>
       </c>
@@ -12864,20 +12874,21 @@
         <f>+G15+G16</f>
         <v>433.2</v>
       </c>
-      <c r="L17" s="232" t="s">
+      <c r="L17" s="236" t="s">
         <v>251</v>
       </c>
-      <c r="M17" s="232"/>
-      <c r="N17" s="3">
+      <c r="M17" s="236"/>
+      <c r="N17" s="10">
         <f>+N14*N16</f>
         <v>11.740732017823042</v>
       </c>
-      <c r="P17" s="3">
+      <c r="O17" s="146"/>
+      <c r="P17" s="10">
         <f>+P16*P14</f>
         <v>13.034000000000001</v>
       </c>
-      <c r="Q17" s="3"/>
-      <c r="R17" s="3">
+      <c r="Q17" s="10"/>
+      <c r="R17" s="10">
         <f>+IF(R16=0,B10-N17-P17,R14*R16+(N10-N17)/2)</f>
         <v>8.5931339910884788</v>
       </c>
@@ -12915,21 +12926,21 @@
       <c r="C18" s="36" t="s">
         <v>187</v>
       </c>
-      <c r="L18" s="232" t="s">
+      <c r="L18" s="236" t="s">
         <v>252</v>
       </c>
-      <c r="M18" s="232"/>
-      <c r="N18" s="12">
+      <c r="M18" s="236"/>
+      <c r="N18" s="10">
         <f>+N15/N10*N17*$I$11</f>
         <v>4356.5489155196519</v>
       </c>
-      <c r="O18" s="1"/>
-      <c r="P18" s="12">
+      <c r="O18" s="10"/>
+      <c r="P18" s="10">
         <f>+P15/P10*P17*$I$11</f>
         <v>4764.7056498539778</v>
       </c>
-      <c r="Q18" s="1"/>
-      <c r="R18" s="12">
+      <c r="Q18" s="10"/>
+      <c r="R18" s="10">
         <f>+R15/R10*R17*$I$11</f>
         <v>3231.4118686174311</v>
       </c>
@@ -12973,17 +12984,19 @@
         <v>194</v>
       </c>
       <c r="D19" s="36"/>
-      <c r="L19" s="232" t="s">
+      <c r="L19" s="236" t="s">
         <v>262</v>
       </c>
-      <c r="M19" s="232"/>
-      <c r="N19" s="12">
+      <c r="M19" s="236"/>
+      <c r="N19" s="10">
         <v>90</v>
       </c>
-      <c r="P19" s="12">
+      <c r="O19" s="146"/>
+      <c r="P19" s="10">
         <v>100</v>
       </c>
-      <c r="R19" s="12">
+      <c r="Q19" s="146"/>
+      <c r="R19" s="10">
         <v>110</v>
       </c>
       <c r="T19" s="12">
@@ -13007,21 +13020,21 @@
       </c>
     </row>
     <row r="20" spans="1:42">
-      <c r="L20" s="232" t="s">
+      <c r="L20" s="236" t="s">
         <v>263</v>
       </c>
-      <c r="M20" s="232"/>
-      <c r="N20" s="12">
+      <c r="M20" s="236"/>
+      <c r="N20" s="10">
         <f>+N18/N10-N19</f>
         <v>199.95333880330463</v>
       </c>
-      <c r="O20" s="100"/>
-      <c r="P20" s="12">
+      <c r="O20" s="146"/>
+      <c r="P20" s="10">
         <f>+P18/P10-P19</f>
         <v>265.55973989979879</v>
       </c>
-      <c r="Q20" s="100"/>
-      <c r="R20" s="12">
+      <c r="Q20" s="146"/>
+      <c r="R20" s="10">
         <f>+R18/R10-R19</f>
         <v>354.8844581524142</v>
       </c>
@@ -13041,14 +13054,14 @@
       <c r="X20" s="165">
         <v>0.25</v>
       </c>
-      <c r="Y20" s="192"/>
+      <c r="Y20" s="191"/>
     </row>
     <row r="21" spans="1:42">
       <c r="L21" t="s">
         <v>294</v>
       </c>
       <c r="X21" s="165"/>
-      <c r="Y21" s="192"/>
+      <c r="Y21" s="191"/>
     </row>
     <row r="22" spans="1:42">
       <c r="A22" t="s">
@@ -13057,12 +13070,12 @@
       <c r="B22">
         <v>520</v>
       </c>
-      <c r="F22" s="193"/>
-      <c r="M22" s="229"/>
+      <c r="F22" s="192"/>
+      <c r="M22" s="228"/>
       <c r="X22" s="165">
         <v>0.35</v>
       </c>
-      <c r="Y22" s="192"/>
+      <c r="Y22" s="191"/>
       <c r="AB22" t="s">
         <v>282</v>
       </c>
@@ -13079,88 +13092,92 @@
         <f>+B22-G14</f>
         <v>113.51412653540683</v>
       </c>
-      <c r="F23" s="193"/>
-      <c r="M23" s="229"/>
+      <c r="F23" s="192"/>
+      <c r="M23" s="228"/>
+      <c r="O23" s="101">
+        <f>M10-O10</f>
+        <v>0.95333333333332959</v>
+      </c>
       <c r="X23" s="165">
         <v>0</v>
       </c>
-      <c r="Y23" s="192"/>
+      <c r="Y23" s="191"/>
     </row>
     <row r="24" spans="1:42" ht="18">
-      <c r="D24" s="233" t="s">
+      <c r="D24" s="237" t="s">
         <v>295</v>
       </c>
-      <c r="E24" s="234"/>
-      <c r="F24" s="234"/>
-      <c r="G24" s="234"/>
-      <c r="H24" s="234"/>
-      <c r="I24" s="235"/>
-      <c r="M24" s="229"/>
+      <c r="E24" s="238"/>
+      <c r="F24" s="238"/>
+      <c r="G24" s="238"/>
+      <c r="H24" s="238"/>
+      <c r="I24" s="239"/>
+      <c r="M24" s="228"/>
       <c r="X24" s="165"/>
-      <c r="Y24" s="192"/>
+      <c r="Y24" s="191"/>
     </row>
     <row r="25" spans="1:42" ht="15.75">
-      <c r="D25" s="194"/>
-      <c r="E25" s="195" t="s">
+      <c r="D25" s="193"/>
+      <c r="E25" s="194" t="s">
         <v>265</v>
       </c>
-      <c r="F25" s="196">
+      <c r="F25" s="195">
         <f>+I10</f>
         <v>455.40999999999997</v>
       </c>
-      <c r="G25" s="195" t="s">
+      <c r="G25" s="194" t="s">
         <v>287</v>
       </c>
-      <c r="H25" s="195"/>
-      <c r="I25" s="197"/>
-      <c r="M25" s="229"/>
+      <c r="H25" s="194"/>
+      <c r="I25" s="196"/>
+      <c r="M25" s="228"/>
       <c r="X25" s="165">
         <v>0.25</v>
       </c>
-      <c r="Y25" s="192"/>
+      <c r="Y25" s="191"/>
     </row>
     <row r="26" spans="1:42" ht="15.75">
       <c r="A26">
         <v>570</v>
       </c>
-      <c r="D26" s="194"/>
-      <c r="E26" s="195" t="s">
+      <c r="D26" s="193"/>
+      <c r="E26" s="194" t="s">
         <v>32</v>
       </c>
-      <c r="F26" s="196">
+      <c r="F26" s="195">
         <v>30</v>
       </c>
-      <c r="G26" s="195" t="s">
+      <c r="G26" s="194" t="s">
         <v>287</v>
       </c>
-      <c r="H26" s="195"/>
-      <c r="I26" s="197"/>
-      <c r="M26" s="229"/>
+      <c r="H26" s="194"/>
+      <c r="I26" s="196"/>
+      <c r="M26" s="228"/>
       <c r="X26" s="165">
         <v>0</v>
       </c>
-      <c r="Y26" s="192"/>
+      <c r="Y26" s="191"/>
     </row>
     <row r="27" spans="1:42" ht="15.75">
-      <c r="D27" s="194"/>
-      <c r="E27" s="195" t="s">
+      <c r="D27" s="193"/>
+      <c r="E27" s="194" t="s">
         <v>2</v>
       </c>
-      <c r="F27" s="196">
+      <c r="F27" s="195">
         <f>+F25+F26</f>
         <v>485.40999999999997</v>
       </c>
-      <c r="G27" s="195" t="s">
+      <c r="G27" s="194" t="s">
         <v>287</v>
       </c>
-      <c r="H27" s="198">
+      <c r="H27" s="197">
         <f>+F27*B10</f>
         <v>16989.349999999999</v>
       </c>
-      <c r="I27" s="199" t="s">
+      <c r="I27" s="198" t="s">
         <v>269</v>
       </c>
-      <c r="M27" s="229"/>
+      <c r="M27" s="228"/>
       <c r="N27" t="s">
         <v>265</v>
       </c>
@@ -13171,16 +13188,16 @@
       <c r="X27" s="165">
         <v>0.15</v>
       </c>
-      <c r="Y27" s="192"/>
+      <c r="Y27" s="191"/>
     </row>
     <row r="28" spans="1:42" ht="15.75">
-      <c r="D28" s="194"/>
-      <c r="E28" s="195"/>
-      <c r="F28" s="195"/>
-      <c r="G28" s="195"/>
-      <c r="H28" s="198"/>
-      <c r="I28" s="197"/>
-      <c r="M28" s="229"/>
+      <c r="D28" s="193"/>
+      <c r="E28" s="194"/>
+      <c r="F28" s="194"/>
+      <c r="G28" s="194"/>
+      <c r="H28" s="197"/>
+      <c r="I28" s="196"/>
+      <c r="M28" s="228"/>
       <c r="N28" t="s">
         <v>32</v>
       </c>
@@ -13189,24 +13206,24 @@
       </c>
     </row>
     <row r="29" spans="1:42" ht="15.75">
-      <c r="D29" s="194" t="s">
+      <c r="D29" s="193" t="s">
         <v>262</v>
       </c>
-      <c r="E29" s="195"/>
-      <c r="F29" s="198">
+      <c r="E29" s="194"/>
+      <c r="F29" s="197">
         <v>3800</v>
       </c>
-      <c r="G29" s="195" t="s">
+      <c r="G29" s="194" t="s">
         <v>269</v>
       </c>
-      <c r="H29" s="198">
+      <c r="H29" s="197">
         <f>+F29/B10</f>
         <v>108.57142857142857</v>
       </c>
-      <c r="I29" s="199" t="s">
+      <c r="I29" s="198" t="s">
         <v>287</v>
       </c>
-      <c r="M29" s="229"/>
+      <c r="M29" s="228"/>
       <c r="N29" t="s">
         <v>2</v>
       </c>
@@ -13220,35 +13237,35 @@
       </c>
     </row>
     <row r="30" spans="1:42" ht="15.75">
-      <c r="D30" s="194" t="s">
+      <c r="D30" s="193" t="s">
         <v>263</v>
       </c>
-      <c r="E30" s="195"/>
-      <c r="F30" s="198">
+      <c r="E30" s="194"/>
+      <c r="F30" s="197">
         <f>+F27*B10-F29</f>
         <v>13189.349999999999</v>
       </c>
-      <c r="G30" s="195" t="s">
+      <c r="G30" s="194" t="s">
         <v>269</v>
       </c>
-      <c r="H30" s="198">
+      <c r="H30" s="197">
         <f>+F30/B10</f>
         <v>376.83857142857141</v>
       </c>
-      <c r="I30" s="199" t="s">
+      <c r="I30" s="198" t="s">
         <v>287</v>
       </c>
-      <c r="M30" s="229"/>
+      <c r="M30" s="228"/>
       <c r="Q30" s="127"/>
     </row>
     <row r="31" spans="1:42" ht="15.75">
-      <c r="D31" s="194"/>
-      <c r="E31" s="195"/>
-      <c r="F31" s="195"/>
-      <c r="G31" s="195"/>
-      <c r="H31" s="195"/>
-      <c r="I31" s="197"/>
-      <c r="M31" s="229"/>
+      <c r="D31" s="193"/>
+      <c r="E31" s="194"/>
+      <c r="F31" s="194"/>
+      <c r="G31" s="194"/>
+      <c r="H31" s="194"/>
+      <c r="I31" s="196"/>
+      <c r="M31" s="228"/>
       <c r="N31" t="s">
         <v>266</v>
       </c>
@@ -13265,19 +13282,19 @@
       </c>
     </row>
     <row r="32" spans="1:42" ht="15.75">
-      <c r="D32" s="194"/>
-      <c r="E32" s="195" t="s">
+      <c r="D32" s="193"/>
+      <c r="E32" s="194" t="s">
         <v>272</v>
       </c>
-      <c r="F32" s="195"/>
-      <c r="G32" s="195" t="s">
+      <c r="F32" s="194"/>
+      <c r="G32" s="194" t="s">
         <v>268</v>
       </c>
-      <c r="H32" s="200">
+      <c r="H32" s="199">
         <v>29.5</v>
       </c>
-      <c r="I32" s="197"/>
-      <c r="M32" s="229"/>
+      <c r="I32" s="196"/>
+      <c r="M32" s="228"/>
       <c r="N32" t="s">
         <v>267</v>
       </c>
@@ -13298,29 +13315,29 @@
       </c>
     </row>
     <row r="33" spans="4:17" ht="15.75">
-      <c r="D33" s="194"/>
-      <c r="E33" s="195"/>
-      <c r="F33" s="195"/>
-      <c r="G33" s="195"/>
-      <c r="H33" s="195"/>
-      <c r="I33" s="197"/>
-      <c r="M33" s="229"/>
+      <c r="D33" s="193"/>
+      <c r="E33" s="194"/>
+      <c r="F33" s="194"/>
+      <c r="G33" s="194"/>
+      <c r="H33" s="194"/>
+      <c r="I33" s="196"/>
+      <c r="M33" s="228"/>
     </row>
     <row r="34" spans="4:17" ht="15.75">
-      <c r="D34" s="194"/>
-      <c r="E34" s="195"/>
-      <c r="F34" s="201" t="s">
+      <c r="D34" s="193"/>
+      <c r="E34" s="194"/>
+      <c r="F34" s="200" t="s">
         <v>271</v>
       </c>
-      <c r="G34" s="200" t="s">
+      <c r="G34" s="199" t="s">
         <v>291</v>
       </c>
-      <c r="H34" s="226">
+      <c r="H34" s="225">
         <f>60/(H32*1000/F30)</f>
         <v>26.82579661016949</v>
       </c>
-      <c r="I34" s="197"/>
-      <c r="M34" s="229"/>
+      <c r="I34" s="196"/>
+      <c r="M34" s="228"/>
       <c r="N34" t="s">
         <v>272</v>
       </c>
@@ -13332,35 +13349,35 @@
       </c>
     </row>
     <row r="35" spans="4:17" ht="16.5" thickBot="1">
-      <c r="D35" s="202"/>
-      <c r="E35" s="203"/>
-      <c r="F35" s="204" t="s">
+      <c r="D35" s="201"/>
+      <c r="E35" s="202"/>
+      <c r="F35" s="203" t="s">
         <v>288</v>
       </c>
-      <c r="G35" s="205" t="s">
+      <c r="G35" s="204" t="s">
         <v>291</v>
       </c>
-      <c r="H35" s="227">
+      <c r="H35" s="226">
         <v>11</v>
       </c>
-      <c r="I35" s="197"/>
-      <c r="M35" s="229"/>
+      <c r="I35" s="196"/>
+      <c r="M35" s="228"/>
     </row>
     <row r="36" spans="4:17" ht="16.5" thickTop="1">
-      <c r="D36" s="202"/>
-      <c r="E36" s="203"/>
-      <c r="F36" s="201" t="s">
+      <c r="D36" s="201"/>
+      <c r="E36" s="202"/>
+      <c r="F36" s="200" t="s">
         <v>289</v>
       </c>
-      <c r="G36" s="200" t="s">
+      <c r="G36" s="199" t="s">
         <v>291</v>
       </c>
-      <c r="H36" s="226">
+      <c r="H36" s="225">
         <f>SUM(H34:H35)</f>
         <v>37.82579661016949</v>
       </c>
-      <c r="I36" s="197"/>
-      <c r="M36" s="229"/>
+      <c r="I36" s="196"/>
+      <c r="M36" s="228"/>
       <c r="O36" t="s">
         <v>271</v>
       </c>
@@ -13373,34 +13390,34 @@
       </c>
     </row>
     <row r="37" spans="4:17" ht="16.5" thickBot="1">
-      <c r="D37" s="206"/>
-      <c r="E37" s="207"/>
-      <c r="F37" s="207"/>
-      <c r="G37" s="207"/>
-      <c r="H37" s="208"/>
-      <c r="I37" s="209"/>
-      <c r="M37" s="229"/>
+      <c r="D37" s="205"/>
+      <c r="E37" s="206"/>
+      <c r="F37" s="206"/>
+      <c r="G37" s="206"/>
+      <c r="H37" s="207"/>
+      <c r="I37" s="208"/>
+      <c r="M37" s="228"/>
     </row>
     <row r="38" spans="4:17" ht="21.75" thickTop="1" thickBot="1">
-      <c r="D38" s="206"/>
-      <c r="E38" s="213" t="s">
+      <c r="D38" s="205"/>
+      <c r="E38" s="212" t="s">
         <v>290</v>
       </c>
-      <c r="F38" s="214"/>
-      <c r="G38" s="215"/>
-      <c r="H38" s="228">
+      <c r="F38" s="213"/>
+      <c r="G38" s="214"/>
+      <c r="H38" s="227">
         <f>+C15/H36*60</f>
         <v>50.092698761315255</v>
       </c>
-      <c r="I38" s="209"/>
+      <c r="I38" s="208"/>
     </row>
     <row r="39" spans="4:17" ht="15.75" thickTop="1">
-      <c r="D39" s="210"/>
-      <c r="E39" s="211"/>
-      <c r="F39" s="211"/>
-      <c r="G39" s="211"/>
-      <c r="H39" s="211"/>
-      <c r="I39" s="212"/>
+      <c r="D39" s="209"/>
+      <c r="E39" s="210"/>
+      <c r="F39" s="210"/>
+      <c r="G39" s="210"/>
+      <c r="H39" s="210"/>
+      <c r="I39" s="211"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -14290,10 +14307,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C42D4128-7A49-4323-8F18-C858079FB1B4}">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -14303,7 +14320,7 @@
     <col min="6" max="6" width="11.42578125" style="146"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:6">
       <c r="A1" s="159" t="s">
         <v>0</v>
       </c>
@@ -14319,11 +14336,11 @@
       <c r="E1" s="159" t="s">
         <v>299</v>
       </c>
-      <c r="F1" s="246" t="s">
+      <c r="F1" s="234" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:6">
       <c r="A2" s="161" t="s">
         <v>10</v>
       </c>
@@ -14333,17 +14350,17 @@
       <c r="C2" s="164">
         <v>0.32</v>
       </c>
-      <c r="D2" s="230">
+      <c r="D2" s="229">
         <v>20000</v>
       </c>
-      <c r="E2" s="230">
+      <c r="E2" s="229">
         <v>0.1</v>
       </c>
-      <c r="F2" s="245">
+      <c r="F2" s="233">
         <v>0.84</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:6">
       <c r="A3" s="168" t="s">
         <v>296</v>
       </c>
@@ -14353,17 +14370,17 @@
       <c r="C3" s="164">
         <v>0.9</v>
       </c>
-      <c r="D3" s="230">
+      <c r="D3" s="229">
         <v>5000</v>
       </c>
-      <c r="E3" s="230">
+      <c r="E3" s="229">
         <v>0.1</v>
       </c>
-      <c r="F3" s="245">
+      <c r="F3" s="233">
         <v>0.97</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:6">
       <c r="A4" s="169" t="s">
         <v>276</v>
       </c>
@@ -14373,17 +14390,17 @@
       <c r="C4" s="164">
         <v>0.43</v>
       </c>
-      <c r="D4" s="230">
+      <c r="D4" s="229">
         <v>18000</v>
       </c>
-      <c r="E4" s="230">
+      <c r="E4" s="229">
         <v>0.1</v>
       </c>
-      <c r="F4" s="245">
+      <c r="F4" s="233">
         <v>0.88</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:6">
       <c r="A5" s="170" t="s">
         <v>278</v>
       </c>
@@ -14393,17 +14410,17 @@
       <c r="C5" s="164">
         <v>0.7</v>
       </c>
-      <c r="D5" s="230">
+      <c r="D5" s="229">
         <v>2000</v>
       </c>
-      <c r="E5" s="230">
+      <c r="E5" s="229">
         <v>0.1</v>
       </c>
-      <c r="F5" s="245">
+      <c r="F5" s="233">
         <v>0.98</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:6">
       <c r="A6" s="171" t="s">
         <v>224</v>
       </c>
@@ -14413,17 +14430,17 @@
       <c r="C6" s="164">
         <v>1</v>
       </c>
-      <c r="D6" s="230">
+      <c r="D6" s="229">
         <v>7000</v>
       </c>
-      <c r="E6" s="230">
+      <c r="E6" s="229">
         <v>0.1</v>
       </c>
-      <c r="F6" s="245">
+      <c r="F6" s="233">
         <v>0.85</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:6">
       <c r="A7" s="172" t="s">
         <v>81</v>
       </c>
@@ -14433,17 +14450,17 @@
       <c r="C7" s="164">
         <v>1</v>
       </c>
-      <c r="D7" s="230">
+      <c r="D7" s="229">
         <v>5000</v>
       </c>
-      <c r="E7" s="230">
+      <c r="E7" s="229">
         <v>0.1</v>
       </c>
-      <c r="F7" s="245">
+      <c r="F7" s="233">
         <v>0.96</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:6">
       <c r="A8" s="173" t="s">
         <v>279</v>
       </c>
@@ -14453,21 +14470,17 @@
       <c r="C8" s="164">
         <v>3.5</v>
       </c>
-      <c r="D8" s="230">
+      <c r="D8" s="229">
         <v>1200</v>
       </c>
-      <c r="E8" s="230">
+      <c r="E8" s="229">
         <v>0.1</v>
       </c>
-      <c r="F8" s="245">
+      <c r="F8" s="233">
         <v>0.94</v>
       </c>
-      <c r="H8">
-        <f>D8*(1-E8)*F8</f>
-        <v>1015.1999999999999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="169" t="s">
         <v>83</v>
       </c>
@@ -14477,18 +14490,18 @@
       <c r="C9" s="164">
         <v>0.6</v>
       </c>
-      <c r="D9" s="230">
+      <c r="D9" s="229">
         <v>7000</v>
       </c>
-      <c r="E9" s="230">
+      <c r="E9" s="229">
         <v>0.1</v>
       </c>
-      <c r="F9" s="245">
+      <c r="F9" s="233">
         <v>0.96</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
-      <c r="B11" s="231"/>
+    <row r="11" spans="1:6">
+      <c r="B11" s="230"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14500,43 +14513,44 @@
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M30" sqref="M30"/>
+      <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="19.28515625" customWidth="1"/>
+    <col min="2" max="10" width="6.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="159" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="105" t="s">
+      <c r="B1" s="159" t="s">
         <v>139</v>
       </c>
-      <c r="C1" s="105" t="s">
+      <c r="C1" s="159" t="s">
         <v>74</v>
       </c>
-      <c r="D1" s="105" t="s">
+      <c r="D1" s="159" t="s">
         <v>136</v>
       </c>
-      <c r="E1" s="105" t="s">
+      <c r="E1" s="159" t="s">
         <v>226</v>
       </c>
-      <c r="F1" s="105" t="s">
+      <c r="F1" s="159" t="s">
         <v>227</v>
       </c>
-      <c r="G1" s="105" t="s">
+      <c r="G1" s="234" t="s">
         <v>100</v>
       </c>
-      <c r="H1" s="105" t="s">
+      <c r="H1" s="159" t="s">
         <v>228</v>
       </c>
-      <c r="I1" s="105" t="s">
+      <c r="I1" s="159" t="s">
         <v>229</v>
       </c>
-      <c r="J1" s="105" t="s">
+      <c r="J1" s="159" t="s">
         <v>230</v>
       </c>
     </row>
@@ -14544,31 +14558,31 @@
       <c r="A2" s="161" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="243">
+      <c r="B2" s="164">
         <v>0.25</v>
       </c>
-      <c r="C2" s="243">
+      <c r="C2" s="164">
         <v>0.6</v>
       </c>
-      <c r="D2" s="244">
+      <c r="D2" s="229">
         <v>0.2</v>
       </c>
-      <c r="E2" s="244">
+      <c r="E2" s="164">
         <v>0.03</v>
       </c>
-      <c r="F2" s="244">
+      <c r="F2" s="164">
         <v>0.19</v>
       </c>
-      <c r="G2" s="244">
+      <c r="G2" s="229">
         <v>0.04</v>
       </c>
-      <c r="H2" s="244">
+      <c r="H2" s="164">
         <v>0.33</v>
       </c>
-      <c r="I2" s="244">
+      <c r="I2" s="164">
         <v>0.19</v>
       </c>
-      <c r="J2" s="244">
+      <c r="J2" s="229">
         <v>0.04</v>
       </c>
     </row>
@@ -14576,31 +14590,31 @@
       <c r="A3" s="168" t="s">
         <v>296</v>
       </c>
-      <c r="B3" s="243">
+      <c r="B3" s="164">
         <v>0.25</v>
       </c>
-      <c r="C3" s="243">
+      <c r="C3" s="164">
         <v>0.6</v>
       </c>
-      <c r="D3" s="244">
+      <c r="D3" s="229">
         <v>0.2</v>
       </c>
-      <c r="E3" s="244">
+      <c r="E3" s="164">
         <v>0.03</v>
       </c>
-      <c r="F3" s="244">
+      <c r="F3" s="164">
         <v>0.19</v>
       </c>
-      <c r="G3" s="244">
+      <c r="G3" s="229">
         <v>0.04</v>
       </c>
-      <c r="H3" s="244">
+      <c r="H3" s="164">
         <v>0.33</v>
       </c>
-      <c r="I3" s="244">
+      <c r="I3" s="164">
         <v>0.19</v>
       </c>
-      <c r="J3" s="244">
+      <c r="J3" s="229">
         <v>0.04</v>
       </c>
     </row>
@@ -14608,31 +14622,31 @@
       <c r="A4" s="169" t="s">
         <v>276</v>
       </c>
-      <c r="B4" s="243">
+      <c r="B4" s="164">
         <v>0.25</v>
       </c>
-      <c r="C4" s="243">
+      <c r="C4" s="164">
         <v>0.6</v>
       </c>
-      <c r="D4" s="244">
+      <c r="D4" s="229">
         <v>0.2</v>
       </c>
-      <c r="E4" s="244">
+      <c r="E4" s="164">
         <v>0.03</v>
       </c>
-      <c r="F4" s="244">
+      <c r="F4" s="164">
         <v>0.19</v>
       </c>
-      <c r="G4" s="244">
+      <c r="G4" s="229">
         <v>0.04</v>
       </c>
-      <c r="H4" s="244">
+      <c r="H4" s="164">
         <v>0.33</v>
       </c>
-      <c r="I4" s="244">
+      <c r="I4" s="164">
         <v>0.19</v>
       </c>
-      <c r="J4" s="244">
+      <c r="J4" s="229">
         <v>0.04</v>
       </c>
     </row>
@@ -14640,31 +14654,31 @@
       <c r="A5" s="170" t="s">
         <v>278</v>
       </c>
-      <c r="B5" s="243">
+      <c r="B5" s="164">
         <v>0.28000000000000003</v>
       </c>
-      <c r="C5" s="243">
+      <c r="C5" s="164">
         <v>1.4</v>
       </c>
-      <c r="D5" s="244">
+      <c r="D5" s="229">
         <v>0.18</v>
       </c>
-      <c r="E5" s="244">
+      <c r="E5" s="164">
         <v>0.02</v>
       </c>
-      <c r="F5" s="244">
+      <c r="F5" s="164">
         <v>0.35</v>
       </c>
-      <c r="G5" s="244">
+      <c r="G5" s="229">
         <v>1E-3</v>
       </c>
-      <c r="H5" s="244">
+      <c r="H5" s="164">
         <v>0.03</v>
       </c>
-      <c r="I5" s="244">
+      <c r="I5" s="164">
         <v>0.09</v>
       </c>
-      <c r="J5" s="244">
+      <c r="J5" s="229">
         <v>0.3</v>
       </c>
     </row>
@@ -14672,31 +14686,31 @@
       <c r="A6" s="171" t="s">
         <v>224</v>
       </c>
-      <c r="B6" s="243">
+      <c r="B6" s="164">
         <v>0.2</v>
       </c>
-      <c r="C6" s="243">
+      <c r="C6" s="164">
         <v>0.7</v>
       </c>
-      <c r="D6" s="244">
+      <c r="D6" s="229">
         <v>0.15</v>
       </c>
-      <c r="E6" s="244">
+      <c r="E6" s="164">
         <v>0.02</v>
       </c>
-      <c r="F6" s="244">
+      <c r="F6" s="164">
         <v>0.06</v>
       </c>
-      <c r="G6" s="244">
+      <c r="G6" s="229">
         <v>0.04</v>
       </c>
-      <c r="H6" s="244">
+      <c r="H6" s="164">
         <v>0.15</v>
       </c>
-      <c r="I6" s="244">
+      <c r="I6" s="164">
         <v>0.11</v>
       </c>
-      <c r="J6" s="244">
+      <c r="J6" s="229">
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
@@ -14704,31 +14718,31 @@
       <c r="A7" s="172" t="s">
         <v>81</v>
       </c>
-      <c r="B7" s="243">
+      <c r="B7" s="164">
         <v>0.18</v>
       </c>
-      <c r="C7" s="243">
+      <c r="C7" s="164">
         <v>0.4</v>
       </c>
-      <c r="D7" s="244">
+      <c r="D7" s="229">
         <v>0.1</v>
       </c>
-      <c r="E7" s="244">
+      <c r="E7" s="164">
         <v>0.02</v>
       </c>
-      <c r="F7" s="244">
+      <c r="F7" s="164">
         <v>0.05</v>
       </c>
-      <c r="G7" s="244">
+      <c r="G7" s="229">
         <v>0.02</v>
       </c>
-      <c r="H7" s="244">
+      <c r="H7" s="164">
         <v>0.15</v>
       </c>
-      <c r="I7" s="244">
+      <c r="I7" s="164">
         <v>0.04</v>
       </c>
-      <c r="J7" s="244">
+      <c r="J7" s="229">
         <v>0.01</v>
       </c>
     </row>
@@ -14736,31 +14750,31 @@
       <c r="A8" s="173" t="s">
         <v>279</v>
       </c>
-      <c r="B8" s="243">
+      <c r="B8" s="164">
         <v>3.8</v>
       </c>
-      <c r="C8" s="243">
+      <c r="C8" s="164">
         <v>0.9</v>
       </c>
-      <c r="D8" s="244">
+      <c r="D8" s="229">
         <v>0.27</v>
       </c>
-      <c r="E8" s="244">
+      <c r="E8" s="164">
         <v>0.05</v>
       </c>
-      <c r="F8" s="244">
-        <v>0</v>
-      </c>
-      <c r="G8" s="244">
+      <c r="F8" s="164">
+        <v>0</v>
+      </c>
+      <c r="G8" s="229">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="H8" s="244">
-        <v>0</v>
-      </c>
-      <c r="I8" s="244">
-        <v>0</v>
-      </c>
-      <c r="J8" s="244">
+      <c r="H8" s="164">
+        <v>0</v>
+      </c>
+      <c r="I8" s="164">
+        <v>0</v>
+      </c>
+      <c r="J8" s="229">
         <v>0</v>
       </c>
     </row>
@@ -14768,31 +14782,31 @@
       <c r="A9" s="169" t="s">
         <v>83</v>
       </c>
-      <c r="B9" s="243">
+      <c r="B9" s="164">
         <v>0.25</v>
       </c>
-      <c r="C9" s="243">
+      <c r="C9" s="164">
         <v>0.3</v>
       </c>
-      <c r="D9" s="244">
+      <c r="D9" s="229">
         <v>0.01</v>
       </c>
-      <c r="E9" s="244">
+      <c r="E9" s="164">
         <v>0.03</v>
       </c>
-      <c r="F9" s="244">
+      <c r="F9" s="164">
         <v>0.18</v>
       </c>
-      <c r="G9" s="244">
+      <c r="G9" s="229">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="H9" s="244">
+      <c r="H9" s="164">
         <v>0.35</v>
       </c>
-      <c r="I9" s="244">
+      <c r="I9" s="164">
         <v>0.2</v>
       </c>
-      <c r="J9" s="244">
+      <c r="J9" s="229">
         <v>0.04</v>
       </c>
     </row>
@@ -14862,10 +14876,10 @@
         <f>+B16+B27+B33+I19+B26+B38</f>
         <v>4757.4465272727284</v>
       </c>
-      <c r="N1" s="236" t="s">
+      <c r="N1" s="243" t="s">
         <v>42</v>
       </c>
-      <c r="O1" s="237"/>
+      <c r="O1" s="244"/>
       <c r="P1" s="64" t="s">
         <v>39</v>
       </c>
@@ -15985,7 +15999,7 @@
         <f>+K75</f>
         <v>0</v>
       </c>
-      <c r="D22" s="240" t="s">
+      <c r="D22" s="241" t="s">
         <v>231</v>
       </c>
       <c r="E22" s="69">
@@ -16028,7 +16042,7 @@
         <f>+I75</f>
         <v>16.380690000000001</v>
       </c>
-      <c r="D23" s="241"/>
+      <c r="D23" s="242"/>
       <c r="E23" s="71" t="s">
         <v>139</v>
       </c>
@@ -16214,7 +16228,7 @@
       <c r="B27" s="68">
         <v>0</v>
       </c>
-      <c r="D27" s="240" t="s">
+      <c r="D27" s="241" t="s">
         <v>50</v>
       </c>
       <c r="E27" s="69">
@@ -16267,7 +16281,7 @@
         <f>+B27*0.58+B26*0.86</f>
         <v>602</v>
       </c>
-      <c r="D28" s="241"/>
+      <c r="D28" s="242"/>
       <c r="E28" s="71" t="s">
         <v>139</v>
       </c>
@@ -18036,21 +18050,21 @@
       <c r="F78" s="56" t="s">
         <v>154</v>
       </c>
-      <c r="H78" s="238" t="s">
+      <c r="H78" s="245" t="s">
         <v>144</v>
       </c>
-      <c r="I78" s="238"/>
-      <c r="J78" s="238"/>
-      <c r="K78" s="238"/>
-      <c r="M78" s="238" t="s">
+      <c r="I78" s="245"/>
+      <c r="J78" s="245"/>
+      <c r="K78" s="245"/>
+      <c r="M78" s="245" t="s">
         <v>145</v>
       </c>
-      <c r="N78" s="238"/>
-      <c r="O78" s="238"/>
-      <c r="Q78" s="239" t="s">
+      <c r="N78" s="245"/>
+      <c r="O78" s="245"/>
+      <c r="Q78" s="240" t="s">
         <v>148</v>
       </c>
-      <c r="R78" s="239"/>
+      <c r="R78" s="240"/>
     </row>
     <row r="79" spans="1:18">
       <c r="A79" s="57" t="s">
@@ -18269,17 +18283,17 @@
       <c r="D90" s="98"/>
       <c r="E90" s="98"/>
       <c r="F90" s="98"/>
-      <c r="H90" s="238" t="s">
+      <c r="H90" s="245" t="s">
         <v>146</v>
       </c>
-      <c r="I90" s="238"/>
-      <c r="J90" s="238"/>
-      <c r="K90" s="238"/>
-      <c r="M90" s="238" t="s">
+      <c r="I90" s="245"/>
+      <c r="J90" s="245"/>
+      <c r="K90" s="245"/>
+      <c r="M90" s="245" t="s">
         <v>147</v>
       </c>
-      <c r="N90" s="238"/>
-      <c r="O90" s="238"/>
+      <c r="N90" s="245"/>
+      <c r="O90" s="245"/>
     </row>
     <row r="91" spans="1:15">
       <c r="B91" s="32">
@@ -18613,14 +18627,14 @@
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="H90:K90"/>
+    <mergeCell ref="M90:O90"/>
     <mergeCell ref="Q78:R78"/>
     <mergeCell ref="D22:D23"/>
     <mergeCell ref="D27:D28"/>
     <mergeCell ref="N1:O1"/>
     <mergeCell ref="H78:K78"/>
     <mergeCell ref="M78:O78"/>
-    <mergeCell ref="H90:K90"/>
-    <mergeCell ref="M90:O90"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -18678,10 +18692,10 @@
         <f>+B18+I15+I20+I25</f>
         <v>400.11745454545451</v>
       </c>
-      <c r="M2" s="236" t="s">
+      <c r="M2" s="243" t="s">
         <v>42</v>
       </c>
-      <c r="N2" s="237"/>
+      <c r="N2" s="244"/>
       <c r="O2" s="64" t="s">
         <v>39</v>
       </c>
@@ -18836,7 +18850,7 @@
       <c r="O7" s="32"/>
     </row>
     <row r="8" spans="1:15">
-      <c r="D8" s="240" t="s">
+      <c r="D8" s="241" t="s">
         <v>50</v>
       </c>
       <c r="E8" s="69">
@@ -18873,7 +18887,7 @@
       <c r="A9" t="s">
         <v>173</v>
       </c>
-      <c r="D9" s="241"/>
+      <c r="D9" s="242"/>
       <c r="E9" s="71" t="s">
         <v>139</v>
       </c>
@@ -19066,10 +19080,10 @@
         <f>SUM(L16:L23)</f>
         <v>371.11302292119257</v>
       </c>
-      <c r="M15" s="236" t="s">
+      <c r="M15" s="243" t="s">
         <v>42</v>
       </c>
-      <c r="N15" s="237"/>
+      <c r="N15" s="244"/>
       <c r="O15" s="64" t="s">
         <v>39</v>
       </c>
@@ -20422,7 +20436,7 @@
         <f>+D14*0.067*1000</f>
         <v>150.75000000000009</v>
       </c>
-      <c r="D22" s="242" t="s">
+      <c r="D22" s="246" t="s">
         <v>49</v>
       </c>
       <c r="E22" s="1">
@@ -20444,7 +20458,7 @@
         <f>+D14*0.02*1000+B36</f>
         <v>227.69590909090911</v>
       </c>
-      <c r="D23" s="242"/>
+      <c r="D23" s="246"/>
       <c r="E23" s="1" t="s">
         <v>45</v>
       </c>
@@ -20536,7 +20550,7 @@
         <f>+B27*0.58+B26*0.78</f>
         <v>638</v>
       </c>
-      <c r="D28" s="242" t="s">
+      <c r="D28" s="246" t="s">
         <v>50</v>
       </c>
       <c r="E28" s="1">
@@ -20558,7 +20572,7 @@
         <f>+B27*0.23</f>
         <v>253</v>
       </c>
-      <c r="D29" s="242"/>
+      <c r="D29" s="246"/>
       <c r="E29" s="1" t="s">
         <v>45</v>
       </c>
@@ -21314,10 +21328,10 @@
         <f>+B16+B27+B33+I19+B26+B38</f>
         <v>4564.5246181818193</v>
       </c>
-      <c r="N1" s="236" t="s">
+      <c r="N1" s="243" t="s">
         <v>42</v>
       </c>
-      <c r="O1" s="237"/>
+      <c r="O1" s="244"/>
       <c r="P1" s="64" t="s">
         <v>39</v>
       </c>
@@ -22434,7 +22448,7 @@
         <f>+K78</f>
         <v>0</v>
       </c>
-      <c r="D22" s="240" t="s">
+      <c r="D22" s="241" t="s">
         <v>231</v>
       </c>
       <c r="E22" s="69">
@@ -22477,7 +22491,7 @@
         <f>+I78</f>
         <v>13.773177000000006</v>
       </c>
-      <c r="D23" s="241"/>
+      <c r="D23" s="242"/>
       <c r="E23" s="71" t="s">
         <v>139</v>
       </c>
@@ -22663,7 +22677,7 @@
       <c r="B27" s="68">
         <v>0</v>
       </c>
-      <c r="D27" s="240" t="s">
+      <c r="D27" s="241" t="s">
         <v>50</v>
       </c>
       <c r="E27" s="69">
@@ -22716,7 +22730,7 @@
         <f>+B27*0.58+B26*0.83</f>
         <v>581</v>
       </c>
-      <c r="D28" s="241"/>
+      <c r="D28" s="242"/>
       <c r="E28" s="71" t="s">
         <v>139</v>
       </c>
@@ -24484,21 +24498,21 @@
       <c r="F81" s="56" t="s">
         <v>154</v>
       </c>
-      <c r="H81" s="238" t="s">
+      <c r="H81" s="245" t="s">
         <v>144</v>
       </c>
-      <c r="I81" s="238"/>
-      <c r="J81" s="238"/>
-      <c r="K81" s="238"/>
-      <c r="M81" s="238" t="s">
+      <c r="I81" s="245"/>
+      <c r="J81" s="245"/>
+      <c r="K81" s="245"/>
+      <c r="M81" s="245" t="s">
         <v>145</v>
       </c>
-      <c r="N81" s="238"/>
-      <c r="O81" s="238"/>
-      <c r="Q81" s="239" t="s">
+      <c r="N81" s="245"/>
+      <c r="O81" s="245"/>
+      <c r="Q81" s="240" t="s">
         <v>148</v>
       </c>
-      <c r="R81" s="239"/>
+      <c r="R81" s="240"/>
     </row>
     <row r="82" spans="1:18">
       <c r="A82" s="57" t="s">
@@ -24717,17 +24731,17 @@
       <c r="D93" s="98"/>
       <c r="E93" s="98"/>
       <c r="F93" s="98"/>
-      <c r="H93" s="238" t="s">
+      <c r="H93" s="245" t="s">
         <v>146</v>
       </c>
-      <c r="I93" s="238"/>
-      <c r="J93" s="238"/>
-      <c r="K93" s="238"/>
-      <c r="M93" s="238" t="s">
+      <c r="I93" s="245"/>
+      <c r="J93" s="245"/>
+      <c r="K93" s="245"/>
+      <c r="M93" s="245" t="s">
         <v>147</v>
       </c>
-      <c r="N93" s="238"/>
-      <c r="O93" s="238"/>
+      <c r="N93" s="245"/>
+      <c r="O93" s="245"/>
     </row>
     <row r="94" spans="1:18">
       <c r="G94" s="36"/>

--- a/Mix.xlsx
+++ b/Mix.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SIDER\Scrap Optimization\Clone\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rodrigo\Documents\SIDER\Scrap Optimization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7B5755D-E07B-46E6-961E-018E7D4C3ACB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30AB1EC7-CB81-439B-B20D-A8C291DE1A1A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="PPC" sheetId="5" r:id="rId1"/>
-    <sheet name="Inventario" sheetId="9" r:id="rId2"/>
-    <sheet name="Composicion" sheetId="12" r:id="rId3"/>
+    <sheet name="Inventario" sheetId="9" r:id="rId1"/>
+    <sheet name="Composicion" sheetId="12" r:id="rId2"/>
+    <sheet name="PPC" sheetId="5" r:id="rId3"/>
     <sheet name="Horno Eléctrico" sheetId="1" r:id="rId4"/>
     <sheet name="Horno Cuchara" sheetId="2" r:id="rId5"/>
     <sheet name="Colada Continua" sheetId="4" r:id="rId6"/>
@@ -601,8 +601,30 @@
 </comments>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="910" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="911" uniqueCount="301">
   <si>
     <t>Tipo de Chatarra</t>
   </si>
@@ -1502,6 +1524,9 @@
   </si>
   <si>
     <t>Lifeline</t>
+  </si>
+  <si>
+    <t>Potencia</t>
   </si>
 </sst>
 </file>
@@ -3051,6 +3076,15 @@
     <xf numFmtId="165" fontId="55" fillId="19" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="36" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="24" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="14" fillId="14" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -3061,6 +3095,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="48" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3078,20 +3115,8 @@
     <xf numFmtId="0" fontId="33" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="36" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="24" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="14" fillId="14" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -3229,7 +3254,7 @@
             <c:numRef>
               <c:f>'Horno Eléctrico'!$FK$2:$FK$60</c:f>
               <c:numCache>
-                <c:formatCode>Estándar</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="59"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -3529,7 +3554,7 @@
             <c:numRef>
               <c:f>'Horno Eléctrico'!$FK$2:$FK$60</c:f>
               <c:numCache>
-                <c:formatCode>Estándar</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="59"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -3829,7 +3854,7 @@
             <c:numRef>
               <c:f>'Horno Eléctrico'!$FK$2:$FK$60</c:f>
               <c:numCache>
-                <c:formatCode>Estándar</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="59"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -4110,7 +4135,7 @@
             <c:numRef>
               <c:f>'Horno Eléctrico'!$FK$2:$FK$60</c:f>
               <c:numCache>
-                <c:formatCode>Estándar</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="59"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -4458,7 +4483,7 @@
             <c:numRef>
               <c:f>'Horno Eléctrico'!$FK$2:$FK$60</c:f>
               <c:numCache>
-                <c:formatCode>Estándar</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="59"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -4831,7 +4856,7 @@
             <c:numRef>
               <c:f>'Horno Eléctrico'!$FK$2:$FK$60</c:f>
               <c:numCache>
-                <c:formatCode>Estándar</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="59"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -5135,7 +5160,7 @@
             <c:numRef>
               <c:f>'Horno Eléctrico'!$FK$2:$FK$60</c:f>
               <c:numCache>
-                <c:formatCode>Estándar</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="59"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -5439,7 +5464,7 @@
             <c:numRef>
               <c:f>'Horno Eléctrico'!$FK$2:$FK$60</c:f>
               <c:numCache>
-                <c:formatCode>Estándar</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="59"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -5670,7 +5695,7 @@
             <c:numRef>
               <c:f>'Horno Eléctrico'!$FK$2:$FK$60</c:f>
               <c:numCache>
-                <c:formatCode>Estándar</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="59"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -5856,7 +5881,7 @@
             <c:numRef>
               <c:f>'Horno Eléctrico'!$FT$2:$FT$60</c:f>
               <c:numCache>
-                <c:formatCode>Estándar</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="59"/>
                 <c:pt idx="58" formatCode="0.0">
                   <c:v>7.0087779864219186</c:v>
@@ -5913,7 +5938,7 @@
           </c:tx>
           <c:overlay val="0"/>
         </c:title>
-        <c:numFmt formatCode="Estándar" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -6092,7 +6117,7 @@
             <c:numRef>
               <c:f>'Horno Eléctrico'!$FK$2:$FK$60</c:f>
               <c:numCache>
-                <c:formatCode>Estándar</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="59"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -6392,7 +6417,7 @@
             <c:numRef>
               <c:f>'Horno Eléctrico'!$FK$2:$FK$60</c:f>
               <c:numCache>
-                <c:formatCode>Estándar</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="59"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -6692,7 +6717,7 @@
             <c:numRef>
               <c:f>'Horno Eléctrico'!$FK$2:$FK$60</c:f>
               <c:numCache>
-                <c:formatCode>Estándar</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="59"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -6973,7 +6998,7 @@
             <c:numRef>
               <c:f>'Horno Eléctrico'!$FK$2:$FK$60</c:f>
               <c:numCache>
-                <c:formatCode>Estándar</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="59"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -7321,7 +7346,7 @@
             <c:numRef>
               <c:f>'Horno Eléctrico'!$FK$2:$FK$60</c:f>
               <c:numCache>
-                <c:formatCode>Estándar</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="59"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -7694,7 +7719,7 @@
             <c:numRef>
               <c:f>'Horno Eléctrico'!$FK$2:$FK$60</c:f>
               <c:numCache>
-                <c:formatCode>Estándar</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="59"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -7998,7 +8023,7 @@
             <c:numRef>
               <c:f>'Horno Eléctrico'!$FK$2:$FK$60</c:f>
               <c:numCache>
-                <c:formatCode>Estándar</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="59"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -8302,7 +8327,7 @@
             <c:numRef>
               <c:f>'Horno Eléctrico'!$FK$2:$FK$60</c:f>
               <c:numCache>
-                <c:formatCode>Estándar</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="59"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -8533,7 +8558,7 @@
             <c:numRef>
               <c:f>'Horno Eléctrico'!$FK$2:$FK$60</c:f>
               <c:numCache>
-                <c:formatCode>Estándar</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="59"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -8719,7 +8744,7 @@
             <c:numRef>
               <c:f>'Horno Eléctrico'!$FT$2:$FT$60</c:f>
               <c:numCache>
-                <c:formatCode>Estándar</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="59"/>
                 <c:pt idx="58" formatCode="0.0">
                   <c:v>7.0087779864219186</c:v>
@@ -8776,7 +8801,7 @@
           </c:tx>
           <c:overlay val="0"/>
         </c:title>
-        <c:numFmt formatCode="Estándar" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -8873,8 +8898,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6978171" y="2490796"/>
-          <a:ext cx="5549616" cy="3934422"/>
+          <a:off x="7173926" y="2457951"/>
+          <a:ext cx="5696761" cy="4155140"/>
           <a:chOff x="13691601" y="78442"/>
           <a:chExt cx="6558881" cy="4784912"/>
         </a:xfrm>
@@ -10346,8 +10371,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6980142" y="2469775"/>
-          <a:ext cx="5550273" cy="3907490"/>
+          <a:off x="7174452" y="2469775"/>
+          <a:ext cx="5698863" cy="4170380"/>
           <a:chOff x="13691601" y="78442"/>
           <a:chExt cx="6558881" cy="4784912"/>
         </a:xfrm>
@@ -11201,52 +11226,1458 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C42D4128-7A49-4323-8F18-C858079FB1B4}">
+  <dimension ref="A1:G11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="20.6640625" customWidth="1"/>
+    <col min="3" max="4" width="14.109375" customWidth="1"/>
+    <col min="6" max="6" width="11.44140625" style="146"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="159" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="159" t="s">
+        <v>184</v>
+      </c>
+      <c r="C1" s="159" t="s">
+        <v>297</v>
+      </c>
+      <c r="D1" s="159" t="s">
+        <v>298</v>
+      </c>
+      <c r="E1" s="159" t="s">
+        <v>299</v>
+      </c>
+      <c r="F1" s="234" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="159" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="161" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="164">
+        <v>157</v>
+      </c>
+      <c r="C2" s="164">
+        <v>0.32</v>
+      </c>
+      <c r="D2" s="229">
+        <v>12000</v>
+      </c>
+      <c r="E2" s="229">
+        <v>0.1</v>
+      </c>
+      <c r="F2" s="233">
+        <v>0.84</v>
+      </c>
+      <c r="G2" s="186">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="168" t="s">
+        <v>296</v>
+      </c>
+      <c r="B3" s="164">
+        <v>334</v>
+      </c>
+      <c r="C3" s="164">
+        <v>0.9</v>
+      </c>
+      <c r="D3" s="229">
+        <v>1</v>
+      </c>
+      <c r="E3" s="229">
+        <v>0.1</v>
+      </c>
+      <c r="F3" s="233">
+        <v>0.97</v>
+      </c>
+      <c r="G3" s="186">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="169" t="s">
+        <v>276</v>
+      </c>
+      <c r="B4" s="164">
+        <v>170</v>
+      </c>
+      <c r="C4" s="164">
+        <v>0.43</v>
+      </c>
+      <c r="D4" s="229">
+        <v>15000</v>
+      </c>
+      <c r="E4" s="229">
+        <v>0.1</v>
+      </c>
+      <c r="F4" s="233">
+        <v>0.88</v>
+      </c>
+      <c r="G4" s="186">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="170" t="s">
+        <v>278</v>
+      </c>
+      <c r="B5" s="164">
+        <v>217</v>
+      </c>
+      <c r="C5" s="164">
+        <v>0.7</v>
+      </c>
+      <c r="D5" s="229">
+        <v>1</v>
+      </c>
+      <c r="E5" s="229">
+        <v>0.1</v>
+      </c>
+      <c r="F5" s="233">
+        <v>0.98</v>
+      </c>
+      <c r="G5" s="186">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="171" t="s">
+        <v>224</v>
+      </c>
+      <c r="B6" s="164">
+        <v>56</v>
+      </c>
+      <c r="C6" s="164">
+        <v>1</v>
+      </c>
+      <c r="D6" s="229">
+        <v>700</v>
+      </c>
+      <c r="E6" s="229">
+        <v>0.1</v>
+      </c>
+      <c r="F6" s="233">
+        <v>0.85</v>
+      </c>
+      <c r="G6" s="186">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="172" t="s">
+        <v>81</v>
+      </c>
+      <c r="B7" s="164">
+        <v>295</v>
+      </c>
+      <c r="C7" s="164">
+        <v>1</v>
+      </c>
+      <c r="D7" s="229">
+        <v>18000</v>
+      </c>
+      <c r="E7" s="229">
+        <v>0.1</v>
+      </c>
+      <c r="F7" s="233">
+        <v>0.96</v>
+      </c>
+      <c r="G7" s="186">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="173" t="s">
+        <v>279</v>
+      </c>
+      <c r="B8" s="164">
+        <v>240</v>
+      </c>
+      <c r="C8" s="164">
+        <v>3.5</v>
+      </c>
+      <c r="D8" s="229">
+        <v>1</v>
+      </c>
+      <c r="E8" s="229">
+        <v>0.1</v>
+      </c>
+      <c r="F8" s="233">
+        <v>0.94</v>
+      </c>
+      <c r="G8" s="186">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="169" t="s">
+        <v>83</v>
+      </c>
+      <c r="B9" s="164">
+        <v>201</v>
+      </c>
+      <c r="C9" s="164">
+        <v>0.6</v>
+      </c>
+      <c r="D9" s="229">
+        <v>3500</v>
+      </c>
+      <c r="E9" s="229">
+        <v>0.1</v>
+      </c>
+      <c r="F9" s="233">
+        <v>0.96</v>
+      </c>
+      <c r="G9" s="186">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="B11" s="230"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:T19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K19" sqref="K19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20">
+      <c r="A1" s="105" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="105" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="105" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="105" t="s">
+        <v>214</v>
+      </c>
+      <c r="E1" s="105" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="105" t="s">
+        <v>84</v>
+      </c>
+      <c r="G1" s="105" t="s">
+        <v>184</v>
+      </c>
+      <c r="H1" s="105" t="s">
+        <v>86</v>
+      </c>
+      <c r="I1" s="105" t="s">
+        <v>188</v>
+      </c>
+      <c r="J1" s="105" t="s">
+        <v>189</v>
+      </c>
+      <c r="K1" s="105" t="s">
+        <v>190</v>
+      </c>
+      <c r="L1" s="108" t="s">
+        <v>191</v>
+      </c>
+      <c r="M1" s="105" t="s">
+        <v>192</v>
+      </c>
+      <c r="N1" s="108" t="s">
+        <v>193</v>
+      </c>
+      <c r="O1" s="105" t="s">
+        <v>195</v>
+      </c>
+      <c r="P1" s="108" t="s">
+        <v>196</v>
+      </c>
+      <c r="Q1" s="105" t="s">
+        <v>197</v>
+      </c>
+      <c r="R1" s="108" t="s">
+        <v>198</v>
+      </c>
+      <c r="S1" s="105" t="s">
+        <v>203</v>
+      </c>
+      <c r="T1" s="127">
+        <v>29000</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
+      <c r="A2" s="35" t="s">
+        <v>221</v>
+      </c>
+      <c r="B2" s="123">
+        <f t="shared" ref="B2:B9" si="0">+$B$10*H2</f>
+        <v>0</v>
+      </c>
+      <c r="C2" s="36">
+        <f t="shared" ref="C2:C9" si="1">+B2*(1-F2)</f>
+        <v>0</v>
+      </c>
+      <c r="D2" s="36">
+        <f t="shared" ref="D2:D9" si="2">+B2-C2</f>
+        <v>0</v>
+      </c>
+      <c r="E2" s="37">
+        <v>0.95</v>
+      </c>
+      <c r="F2" s="37">
+        <f t="shared" ref="F2:F8" si="3">1-E2</f>
+        <v>5.0000000000000044E-2</v>
+      </c>
+      <c r="G2" s="38"/>
+      <c r="H2" s="107"/>
+      <c r="I2" s="38">
+        <v>1.3</v>
+      </c>
+      <c r="J2" s="124">
+        <f t="shared" ref="J2:J8" si="4">+B2/I2</f>
+        <v>0</v>
+      </c>
+      <c r="K2" s="36"/>
+      <c r="L2" s="109">
+        <f t="shared" ref="L2:L9" si="5">+K2*I2</f>
+        <v>0</v>
+      </c>
+      <c r="M2" s="36">
+        <f>+J2-K2</f>
+        <v>0</v>
+      </c>
+      <c r="N2" s="109">
+        <f t="shared" ref="N2:N9" si="6">+M2*I2</f>
+        <v>0</v>
+      </c>
+      <c r="O2" s="36"/>
+      <c r="P2" s="109">
+        <f>+O2*I2</f>
+        <v>0</v>
+      </c>
+      <c r="Q2" s="36"/>
+      <c r="R2" s="109">
+        <f>+I2*Q2</f>
+        <v>0</v>
+      </c>
+      <c r="S2" s="125">
+        <f>+B2*$T$2</f>
+        <v>0</v>
+      </c>
+      <c r="T2" s="100">
+        <f>+T1/C15</f>
+        <v>981.0539205164323</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
+      <c r="A3" s="118" t="s">
+        <v>223</v>
+      </c>
+      <c r="B3" s="123">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C3" s="36">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D3" s="36">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E3" s="37">
+        <v>0.94</v>
+      </c>
+      <c r="F3" s="37">
+        <f t="shared" si="3"/>
+        <v>6.0000000000000053E-2</v>
+      </c>
+      <c r="G3" s="38">
+        <v>175</v>
+      </c>
+      <c r="H3" s="107"/>
+      <c r="I3" s="38">
+        <v>1</v>
+      </c>
+      <c r="J3" s="124">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K3" s="36"/>
+      <c r="L3" s="109">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M3" s="36">
+        <f t="shared" ref="M3:M9" si="7">+J3-K3</f>
+        <v>0</v>
+      </c>
+      <c r="N3" s="109">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O3" s="36"/>
+      <c r="P3" s="109">
+        <f t="shared" ref="P3:P9" si="8">+O3*I3</f>
+        <v>0</v>
+      </c>
+      <c r="Q3" s="36"/>
+      <c r="R3" s="109">
+        <f t="shared" ref="R3:R9" si="9">+I3*Q3</f>
+        <v>0</v>
+      </c>
+      <c r="S3" s="125">
+        <f t="shared" ref="S3:S9" si="10">+B3*$T$2</f>
+        <v>0</v>
+      </c>
+      <c r="T3" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4" s="115" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="123">
+        <f t="shared" si="0"/>
+        <v>16.5</v>
+      </c>
+      <c r="C4" s="36">
+        <f t="shared" si="1"/>
+        <v>14.52</v>
+      </c>
+      <c r="D4" s="36">
+        <f t="shared" si="2"/>
+        <v>1.9800000000000004</v>
+      </c>
+      <c r="E4" s="37">
+        <v>0.88</v>
+      </c>
+      <c r="F4" s="37">
+        <f t="shared" si="3"/>
+        <v>0.12</v>
+      </c>
+      <c r="G4" s="38">
+        <v>213.7</v>
+      </c>
+      <c r="H4" s="107">
+        <v>0.5</v>
+      </c>
+      <c r="I4" s="38">
+        <v>0.35</v>
+      </c>
+      <c r="J4" s="124">
+        <f t="shared" si="4"/>
+        <v>47.142857142857146</v>
+      </c>
+      <c r="K4" s="36">
+        <v>17</v>
+      </c>
+      <c r="L4" s="109">
+        <f t="shared" si="5"/>
+        <v>5.9499999999999993</v>
+      </c>
+      <c r="M4" s="36">
+        <v>11</v>
+      </c>
+      <c r="N4" s="109">
+        <f t="shared" si="6"/>
+        <v>3.8499999999999996</v>
+      </c>
+      <c r="O4" s="36">
+        <v>11</v>
+      </c>
+      <c r="P4" s="109">
+        <f t="shared" si="8"/>
+        <v>3.8499999999999996</v>
+      </c>
+      <c r="Q4" s="36">
+        <f>+J4-K4-M4-O4</f>
+        <v>8.1428571428571459</v>
+      </c>
+      <c r="R4" s="109">
+        <f t="shared" si="9"/>
+        <v>2.850000000000001</v>
+      </c>
+      <c r="S4" s="125">
+        <f t="shared" si="10"/>
+        <v>16187.389688521132</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" s="117" t="s">
+        <v>222</v>
+      </c>
+      <c r="B5" s="123">
+        <f t="shared" si="0"/>
+        <v>7.92</v>
+      </c>
+      <c r="C5" s="36">
+        <f t="shared" si="1"/>
+        <v>7.7615999999999996</v>
+      </c>
+      <c r="D5" s="36">
+        <f t="shared" si="2"/>
+        <v>0.15840000000000032</v>
+      </c>
+      <c r="E5" s="37">
+        <v>0.98</v>
+      </c>
+      <c r="F5" s="37">
+        <f t="shared" si="3"/>
+        <v>2.0000000000000018E-2</v>
+      </c>
+      <c r="G5" s="38">
+        <v>175</v>
+      </c>
+      <c r="H5" s="107">
+        <v>0.24</v>
+      </c>
+      <c r="I5" s="38">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="J5" s="124">
+        <f t="shared" si="4"/>
+        <v>7.1999999999999993</v>
+      </c>
+      <c r="K5" s="36">
+        <v>2.7</v>
+      </c>
+      <c r="L5" s="109">
+        <f t="shared" si="5"/>
+        <v>2.9700000000000006</v>
+      </c>
+      <c r="M5" s="36">
+        <v>2.7</v>
+      </c>
+      <c r="N5" s="109">
+        <f t="shared" si="6"/>
+        <v>2.9700000000000006</v>
+      </c>
+      <c r="O5" s="36">
+        <f>+J5-K5-M5</f>
+        <v>1.7999999999999989</v>
+      </c>
+      <c r="P5" s="109">
+        <f t="shared" si="8"/>
+        <v>1.9799999999999991</v>
+      </c>
+      <c r="Q5" s="36"/>
+      <c r="R5" s="109">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="S5" s="125">
+        <f t="shared" si="10"/>
+        <v>7769.9470504901437</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" s="119" t="s">
+        <v>224</v>
+      </c>
+      <c r="B6" s="123">
+        <f t="shared" si="0"/>
+        <v>0.66</v>
+      </c>
+      <c r="C6" s="36">
+        <f t="shared" si="1"/>
+        <v>0.46199999999999997</v>
+      </c>
+      <c r="D6" s="36">
+        <f t="shared" si="2"/>
+        <v>0.19800000000000006</v>
+      </c>
+      <c r="E6" s="37">
+        <v>0.7</v>
+      </c>
+      <c r="F6" s="37">
+        <f t="shared" si="3"/>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="G6" s="38">
+        <v>58.9</v>
+      </c>
+      <c r="H6" s="107">
+        <v>0.02</v>
+      </c>
+      <c r="I6" s="38">
+        <v>1</v>
+      </c>
+      <c r="J6" s="124">
+        <f t="shared" si="4"/>
+        <v>0.66</v>
+      </c>
+      <c r="K6" s="36">
+        <v>0</v>
+      </c>
+      <c r="L6" s="109">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M6" s="36"/>
+      <c r="N6" s="109">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O6" s="36"/>
+      <c r="P6" s="109">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Q6" s="36"/>
+      <c r="R6" s="109">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="S6" s="125">
+        <f t="shared" si="10"/>
+        <v>647.49558754084535</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" s="120" t="s">
+        <v>81</v>
+      </c>
+      <c r="B7" s="123">
+        <f>+$B$10*H7</f>
+        <v>5.9399999999999995</v>
+      </c>
+      <c r="C7" s="36">
+        <f t="shared" si="1"/>
+        <v>5.5241999999999996</v>
+      </c>
+      <c r="D7" s="36">
+        <f t="shared" si="2"/>
+        <v>0.41579999999999995</v>
+      </c>
+      <c r="E7" s="37">
+        <v>0.93</v>
+      </c>
+      <c r="F7" s="37">
+        <f t="shared" si="3"/>
+        <v>6.9999999999999951E-2</v>
+      </c>
+      <c r="G7" s="38">
+        <v>232.6</v>
+      </c>
+      <c r="H7" s="107">
+        <v>0.18</v>
+      </c>
+      <c r="I7" s="38">
+        <v>1</v>
+      </c>
+      <c r="J7" s="124">
+        <f t="shared" si="4"/>
+        <v>5.9399999999999995</v>
+      </c>
+      <c r="K7" s="36">
+        <v>3</v>
+      </c>
+      <c r="L7" s="109">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="M7" s="36">
+        <f t="shared" si="7"/>
+        <v>2.9399999999999995</v>
+      </c>
+      <c r="N7" s="109">
+        <f t="shared" si="6"/>
+        <v>2.9399999999999995</v>
+      </c>
+      <c r="O7" s="36"/>
+      <c r="P7" s="109">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Q7" s="36"/>
+      <c r="R7" s="109">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="S7" s="125">
+        <f t="shared" si="10"/>
+        <v>5827.4602878676078</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" s="116" t="s">
+        <v>82</v>
+      </c>
+      <c r="B8" s="123">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C8" s="36">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D8" s="36">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E8" s="37">
+        <v>0.95</v>
+      </c>
+      <c r="F8" s="37">
+        <f t="shared" si="3"/>
+        <v>5.0000000000000044E-2</v>
+      </c>
+      <c r="G8" s="38">
+        <v>315</v>
+      </c>
+      <c r="H8" s="107"/>
+      <c r="I8" s="38">
+        <v>4</v>
+      </c>
+      <c r="J8" s="124">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K8" s="36">
+        <v>0</v>
+      </c>
+      <c r="L8" s="109">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M8" s="36">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="N8" s="109">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O8" s="36"/>
+      <c r="P8" s="109">
+        <f>+O8*I8</f>
+        <v>0</v>
+      </c>
+      <c r="Q8" s="36"/>
+      <c r="R8" s="109">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="S8" s="125">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" s="121" t="s">
+        <v>83</v>
+      </c>
+      <c r="B9" s="123">
+        <f t="shared" si="0"/>
+        <v>1.98</v>
+      </c>
+      <c r="C9" s="36">
+        <f t="shared" si="1"/>
+        <v>1.7423999999999999</v>
+      </c>
+      <c r="D9" s="36">
+        <f t="shared" si="2"/>
+        <v>0.23760000000000003</v>
+      </c>
+      <c r="E9" s="37">
+        <v>0.88</v>
+      </c>
+      <c r="F9" s="37">
+        <f>1-E9</f>
+        <v>0.12</v>
+      </c>
+      <c r="G9" s="38">
+        <v>214.8</v>
+      </c>
+      <c r="H9" s="107">
+        <v>0.06</v>
+      </c>
+      <c r="I9" s="38">
+        <v>0.65</v>
+      </c>
+      <c r="J9" s="124">
+        <f>+B9/I9</f>
+        <v>3.046153846153846</v>
+      </c>
+      <c r="K9" s="36">
+        <v>3</v>
+      </c>
+      <c r="L9" s="109">
+        <f t="shared" si="5"/>
+        <v>1.9500000000000002</v>
+      </c>
+      <c r="M9" s="36">
+        <f t="shared" si="7"/>
+        <v>4.615384615384599E-2</v>
+      </c>
+      <c r="N9" s="109">
+        <f t="shared" si="6"/>
+        <v>2.9999999999999895E-2</v>
+      </c>
+      <c r="O9" s="36"/>
+      <c r="P9" s="109">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Q9" s="36"/>
+      <c r="R9" s="109">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="S9" s="125">
+        <f t="shared" si="10"/>
+        <v>1942.4867626225359</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" ht="17.399999999999999">
+      <c r="A10" s="32"/>
+      <c r="B10" s="63">
+        <v>33</v>
+      </c>
+      <c r="C10" s="32"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="32"/>
+      <c r="H10" s="103">
+        <f>SUM(H2:H9)</f>
+        <v>1</v>
+      </c>
+      <c r="I10" s="143">
+        <f>SUMPRODUCT(I2:I9,H2:H9)</f>
+        <v>0.67800000000000005</v>
+      </c>
+      <c r="J10" s="104">
+        <f>SUM(J2:J9)</f>
+        <v>63.989010989010978</v>
+      </c>
+      <c r="K10" s="106">
+        <f t="shared" ref="K10:R10" si="11">SUM(K2:K9)</f>
+        <v>25.7</v>
+      </c>
+      <c r="L10" s="110">
+        <f t="shared" si="11"/>
+        <v>13.870000000000001</v>
+      </c>
+      <c r="M10" s="106">
+        <f t="shared" si="11"/>
+        <v>16.686153846153847</v>
+      </c>
+      <c r="N10" s="110">
+        <f t="shared" si="11"/>
+        <v>9.7899999999999991</v>
+      </c>
+      <c r="O10" s="106">
+        <f t="shared" si="11"/>
+        <v>12.799999999999999</v>
+      </c>
+      <c r="P10" s="110">
+        <f t="shared" si="11"/>
+        <v>5.8299999999999983</v>
+      </c>
+      <c r="Q10" s="106">
+        <f t="shared" si="11"/>
+        <v>8.1428571428571459</v>
+      </c>
+      <c r="R10" s="110">
+        <f t="shared" si="11"/>
+        <v>2.850000000000001</v>
+      </c>
+      <c r="S10" s="145">
+        <f>+B10*$T$2</f>
+        <v>32374.779377042265</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" s="38">
+        <f>SUM(B2:B9)</f>
+        <v>33</v>
+      </c>
+      <c r="C11" s="36">
+        <f>SUM(C2:C9)</f>
+        <v>30.010199999999998</v>
+      </c>
+      <c r="D11" s="36">
+        <f>SUM(D2:D9)</f>
+        <v>2.9898000000000007</v>
+      </c>
+      <c r="E11" s="36"/>
+      <c r="F11" s="43" t="s">
+        <v>57</v>
+      </c>
+      <c r="G11" s="44">
+        <f>+SUMPRODUCT(B2:B9,G2:G9)/C11/E15</f>
+        <v>228.61506275683527</v>
+      </c>
+      <c r="H11" s="35"/>
+      <c r="J11" s="113" t="s">
+        <v>235</v>
+      </c>
+      <c r="K11" s="104">
+        <f>+B18*0.95</f>
+        <v>26.599999999999998</v>
+      </c>
+      <c r="M11" s="104">
+        <f>+K11</f>
+        <v>26.599999999999998</v>
+      </c>
+      <c r="O11" s="104">
+        <f>+M11</f>
+        <v>26.599999999999998</v>
+      </c>
+      <c r="Q11" s="104">
+        <f>+O11</f>
+        <v>26.599999999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="F12" s="129" t="s">
+        <v>206</v>
+      </c>
+      <c r="G12" s="130">
+        <v>130</v>
+      </c>
+      <c r="I12" s="3">
+        <f>+B18*0.9*I10</f>
+        <v>17.085599999999999</v>
+      </c>
+      <c r="J12" s="113" t="s">
+        <v>202</v>
+      </c>
+      <c r="L12" s="1"/>
+      <c r="M12" s="114">
+        <f>+B17*0.95-L13</f>
+        <v>25.804285714285715</v>
+      </c>
+      <c r="N12" s="1"/>
+      <c r="O12" s="114">
+        <f>+M12-N13</f>
+        <v>21.71</v>
+      </c>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="114">
+        <f>+O12-P13</f>
+        <v>16.782857142857143</v>
+      </c>
+      <c r="R12" s="1"/>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="F13" s="131" t="s">
+        <v>207</v>
+      </c>
+      <c r="G13" s="132">
+        <f>+G11+G12</f>
+        <v>358.6150627568353</v>
+      </c>
+      <c r="J13" s="111" t="s">
+        <v>201</v>
+      </c>
+      <c r="K13" s="111"/>
+      <c r="L13" s="112">
+        <f>(L10+B16)/7</f>
+        <v>2.6957142857142857</v>
+      </c>
+      <c r="M13" s="1"/>
+      <c r="N13" s="112">
+        <f>+N10/7+L13</f>
+        <v>4.0942857142857143</v>
+      </c>
+      <c r="P13" s="112">
+        <f>+P10/7+N13</f>
+        <v>4.927142857142857</v>
+      </c>
+      <c r="R13" s="112" t="s">
+        <v>213</v>
+      </c>
+      <c r="S13" s="126">
+        <f>SUM(S2:S6,S9)</f>
+        <v>26547.319089174656</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="C15" s="36">
+        <f>+C11*E15</f>
+        <v>29.560046999999997</v>
+      </c>
+      <c r="D15" t="s">
+        <v>208</v>
+      </c>
+      <c r="E15" s="128">
+        <v>0.98499999999999999</v>
+      </c>
+      <c r="T15" s="125">
+        <f>+T1*11+15000</f>
+        <v>334000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" s="122" t="s">
+        <v>199</v>
+      </c>
+      <c r="B16" s="36">
+        <v>5</v>
+      </c>
+      <c r="C16" s="36" t="s">
+        <v>200</v>
+      </c>
+      <c r="D16" t="s">
+        <v>205</v>
+      </c>
+      <c r="E16" s="128">
+        <f>SUMPRODUCT(B2:B9,E2:E9)/B10</f>
+        <v>0.90939999999999988</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="122" t="s">
+        <v>185</v>
+      </c>
+      <c r="B17" s="36">
+        <v>30</v>
+      </c>
+      <c r="C17" s="36" t="s">
+        <v>187</v>
+      </c>
+      <c r="D17" t="s">
+        <v>225</v>
+      </c>
+      <c r="E17" s="128">
+        <f>+E15*E16</f>
+        <v>0.89575899999999986</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="122" t="s">
+        <v>186</v>
+      </c>
+      <c r="B18" s="36">
+        <v>28</v>
+      </c>
+      <c r="C18" s="36" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" s="107">
+        <v>0.87</v>
+      </c>
+      <c r="C19" s="36" t="s">
+        <v>194</v>
+      </c>
+      <c r="D19" s="36"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CF1F3EF-5E34-4FA8-A3D1-33686BE22993}">
+  <dimension ref="A1:J9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K27" sqref="K27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="19.33203125" customWidth="1"/>
+    <col min="2" max="10" width="6.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="159" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="159" t="s">
+        <v>139</v>
+      </c>
+      <c r="C1" s="159" t="s">
+        <v>74</v>
+      </c>
+      <c r="D1" s="159" t="s">
+        <v>136</v>
+      </c>
+      <c r="E1" s="159" t="s">
+        <v>226</v>
+      </c>
+      <c r="F1" s="159" t="s">
+        <v>227</v>
+      </c>
+      <c r="G1" s="234" t="s">
+        <v>100</v>
+      </c>
+      <c r="H1" s="159" t="s">
+        <v>228</v>
+      </c>
+      <c r="I1" s="159" t="s">
+        <v>229</v>
+      </c>
+      <c r="J1" s="159" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="161" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="164">
+        <v>0.25</v>
+      </c>
+      <c r="C2" s="164">
+        <v>0.6</v>
+      </c>
+      <c r="D2" s="229">
+        <v>0.2</v>
+      </c>
+      <c r="E2" s="164">
+        <v>0.03</v>
+      </c>
+      <c r="F2" s="164">
+        <v>0.19</v>
+      </c>
+      <c r="G2" s="229">
+        <v>0.04</v>
+      </c>
+      <c r="H2" s="164">
+        <v>0.33</v>
+      </c>
+      <c r="I2" s="164">
+        <v>0.19</v>
+      </c>
+      <c r="J2" s="229">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="168" t="s">
+        <v>296</v>
+      </c>
+      <c r="B3" s="164">
+        <v>0.25</v>
+      </c>
+      <c r="C3" s="164">
+        <v>0.6</v>
+      </c>
+      <c r="D3" s="229">
+        <v>0.2</v>
+      </c>
+      <c r="E3" s="164">
+        <v>0.03</v>
+      </c>
+      <c r="F3" s="164">
+        <v>0.19</v>
+      </c>
+      <c r="G3" s="229">
+        <v>0.04</v>
+      </c>
+      <c r="H3" s="164">
+        <v>0.33</v>
+      </c>
+      <c r="I3" s="164">
+        <v>0.19</v>
+      </c>
+      <c r="J3" s="229">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="169" t="s">
+        <v>276</v>
+      </c>
+      <c r="B4" s="164">
+        <v>0.25</v>
+      </c>
+      <c r="C4" s="164">
+        <v>0.6</v>
+      </c>
+      <c r="D4" s="229">
+        <v>0.2</v>
+      </c>
+      <c r="E4" s="164">
+        <v>0.03</v>
+      </c>
+      <c r="F4" s="164">
+        <v>0.19</v>
+      </c>
+      <c r="G4" s="229">
+        <v>0.04</v>
+      </c>
+      <c r="H4" s="164">
+        <v>0.33</v>
+      </c>
+      <c r="I4" s="164">
+        <v>0.19</v>
+      </c>
+      <c r="J4" s="229">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="170" t="s">
+        <v>278</v>
+      </c>
+      <c r="B5" s="164">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="C5" s="164">
+        <v>1.4</v>
+      </c>
+      <c r="D5" s="229">
+        <v>0.18</v>
+      </c>
+      <c r="E5" s="164">
+        <v>0.02</v>
+      </c>
+      <c r="F5" s="164">
+        <v>0.35</v>
+      </c>
+      <c r="G5" s="229">
+        <v>1E-3</v>
+      </c>
+      <c r="H5" s="164">
+        <v>0.03</v>
+      </c>
+      <c r="I5" s="164">
+        <v>0.09</v>
+      </c>
+      <c r="J5" s="229">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="171" t="s">
+        <v>224</v>
+      </c>
+      <c r="B6" s="164">
+        <v>0.2</v>
+      </c>
+      <c r="C6" s="164">
+        <v>0.7</v>
+      </c>
+      <c r="D6" s="229">
+        <v>0.15</v>
+      </c>
+      <c r="E6" s="164">
+        <v>0.02</v>
+      </c>
+      <c r="F6" s="164">
+        <v>0.06</v>
+      </c>
+      <c r="G6" s="229">
+        <v>0.04</v>
+      </c>
+      <c r="H6" s="164">
+        <v>0.15</v>
+      </c>
+      <c r="I6" s="164">
+        <v>0.11</v>
+      </c>
+      <c r="J6" s="229">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="172" t="s">
+        <v>81</v>
+      </c>
+      <c r="B7" s="164">
+        <v>0.18</v>
+      </c>
+      <c r="C7" s="164">
+        <v>0.4</v>
+      </c>
+      <c r="D7" s="229">
+        <v>0.1</v>
+      </c>
+      <c r="E7" s="164">
+        <v>0.02</v>
+      </c>
+      <c r="F7" s="164">
+        <v>0.05</v>
+      </c>
+      <c r="G7" s="229">
+        <v>0.02</v>
+      </c>
+      <c r="H7" s="164">
+        <v>0.15</v>
+      </c>
+      <c r="I7" s="164">
+        <v>0.04</v>
+      </c>
+      <c r="J7" s="229">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="173" t="s">
+        <v>279</v>
+      </c>
+      <c r="B8" s="164">
+        <v>3.8</v>
+      </c>
+      <c r="C8" s="164">
+        <v>0.9</v>
+      </c>
+      <c r="D8" s="229">
+        <v>0.27</v>
+      </c>
+      <c r="E8" s="164">
+        <v>0.05</v>
+      </c>
+      <c r="F8" s="164">
+        <v>0</v>
+      </c>
+      <c r="G8" s="229">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="H8" s="164">
+        <v>0</v>
+      </c>
+      <c r="I8" s="164">
+        <v>0</v>
+      </c>
+      <c r="J8" s="229">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="169" t="s">
+        <v>83</v>
+      </c>
+      <c r="B9" s="164">
+        <v>0.25</v>
+      </c>
+      <c r="C9" s="164">
+        <v>0.3</v>
+      </c>
+      <c r="D9" s="229">
+        <v>0.01</v>
+      </c>
+      <c r="E9" s="164">
+        <v>0.03</v>
+      </c>
+      <c r="F9" s="164">
+        <v>0.18</v>
+      </c>
+      <c r="G9" s="229">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="H9" s="164">
+        <v>0.35</v>
+      </c>
+      <c r="I9" s="164">
+        <v>0.2</v>
+      </c>
+      <c r="J9" s="229">
+        <v>0.04</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AP39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O23" sqref="O23"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M1" sqref="M1:T8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.28515625" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" customWidth="1"/>
-    <col min="6" max="6" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.33203125" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" customWidth="1"/>
+    <col min="6" max="6" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13" customWidth="1"/>
-    <col min="9" max="9" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.28515625" customWidth="1"/>
-    <col min="11" max="11" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.28515625" customWidth="1"/>
+    <col min="9" max="9" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.33203125" customWidth="1"/>
+    <col min="11" max="11" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.33203125" customWidth="1"/>
     <col min="13" max="13" width="10" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.42578125" customWidth="1"/>
+    <col min="14" max="14" width="7.44140625" customWidth="1"/>
     <col min="15" max="15" width="10" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.5546875" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="10" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="7.5546875" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="10" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.5546875" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="10" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="1.85546875" customWidth="1"/>
-    <col min="27" max="27" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="30" max="35" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="39" max="41" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="6.88671875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="1.88671875" customWidth="1"/>
+    <col min="27" max="27" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="30" max="35" width="6.44140625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="39" max="41" width="5.6640625" bestFit="1" customWidth="1"/>
     <col min="42" max="42" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" ht="15.75">
+    <row r="1" spans="1:42" ht="15.6">
       <c r="A1" s="159" t="s">
         <v>0</v>
       </c>
@@ -11362,7 +12793,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="2" spans="1:42" ht="16.5">
+    <row r="2" spans="1:42" ht="15.6">
       <c r="A2" s="161" t="s">
         <v>10</v>
       </c>
@@ -11395,7 +12826,7 @@
         <f>+H2*J2</f>
         <v>79.900000000000006</v>
       </c>
-      <c r="J2" s="249">
+      <c r="J2" s="238">
         <v>0.17</v>
       </c>
       <c r="K2" s="164">
@@ -11409,14 +12840,14 @@
         <v>6.2</v>
       </c>
       <c r="N2" s="166">
-        <f t="shared" ref="N2:N9" si="1">+M2*K2</f>
+        <f>+M2*K2</f>
         <v>1.9840000000000002</v>
       </c>
       <c r="O2" s="163">
         <v>6.2</v>
       </c>
       <c r="P2" s="166">
-        <f t="shared" ref="P2:P9" si="2">+O2*K2</f>
+        <f t="shared" ref="P2:P9" si="1">+O2*K2</f>
         <v>1.9840000000000002</v>
       </c>
       <c r="Q2" s="163">
@@ -11428,7 +12859,7 @@
         <v>1.9820000000000002</v>
       </c>
       <c r="S2" s="163">
-        <f t="shared" ref="S2:S3" si="3">+L2-M2-O2-Q2</f>
+        <f t="shared" ref="S2:S3" si="2">+L2-M2-O2-Q2</f>
         <v>0</v>
       </c>
       <c r="T2" s="166">
@@ -11498,16 +12929,16 @@
         <v>45.580107392607381</v>
       </c>
     </row>
-    <row r="3" spans="1:42" ht="16.5">
+    <row r="3" spans="1:42" ht="15.6">
       <c r="A3" s="168" t="s">
         <v>296</v>
       </c>
       <c r="B3" s="162">
-        <f t="shared" ref="B3:B9" si="4">+$B$10*J3</f>
+        <f t="shared" ref="B3:B9" si="3">+$B$10*J3</f>
         <v>3.0449999999999999</v>
       </c>
       <c r="C3" s="163">
-        <f t="shared" ref="C3:C9" si="5">+B3*(1-F3)</f>
+        <f t="shared" ref="C3:C9" si="4">+B3*(1-F3)</f>
         <v>2.9536499999999997</v>
       </c>
       <c r="D3" s="163">
@@ -11528,17 +12959,17 @@
         <v>470</v>
       </c>
       <c r="I3" s="186">
-        <f t="shared" ref="I3:I9" si="6">+H3*J3</f>
+        <f t="shared" ref="I3:I9" si="5">+H3*J3</f>
         <v>40.89</v>
       </c>
-      <c r="J3" s="249">
+      <c r="J3" s="238">
         <v>8.6999999999999994E-2</v>
       </c>
       <c r="K3" s="164">
         <v>0.9</v>
       </c>
       <c r="L3" s="235">
-        <f t="shared" ref="L3:L9" si="7">+B3/K3</f>
+        <f t="shared" ref="L3:L9" si="6">+B3/K3</f>
         <v>3.3833333333333333</v>
       </c>
       <c r="M3" s="163">
@@ -11546,12 +12977,12 @@
         <v>3.3833333333333333</v>
       </c>
       <c r="N3" s="166">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="N2:N9" si="7">+M3*K3</f>
         <v>3.0449999999999999</v>
       </c>
       <c r="O3" s="163"/>
       <c r="P3" s="166">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q3" s="163"/>
@@ -11560,7 +12991,7 @@
         <v>0</v>
       </c>
       <c r="S3" s="163">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T3" s="166">
@@ -11615,7 +13046,7 @@
       <c r="AN3" s="10"/>
       <c r="AP3" s="12"/>
     </row>
-    <row r="4" spans="1:42" ht="16.5">
+    <row r="4" spans="1:42">
       <c r="A4" s="169" t="s">
         <v>276</v>
       </c>
@@ -11624,7 +13055,7 @@
         <v>14.945</v>
       </c>
       <c r="C4" s="163">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>13.1516</v>
       </c>
       <c r="D4" s="163">
@@ -11645,17 +13076,17 @@
         <v>460</v>
       </c>
       <c r="I4" s="186">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>196.42</v>
       </c>
-      <c r="J4" s="249">
+      <c r="J4" s="238">
         <v>0.42699999999999999</v>
       </c>
       <c r="K4" s="164">
         <v>0.43</v>
       </c>
       <c r="L4" s="235">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>34.755813953488371</v>
       </c>
       <c r="M4" s="163">
@@ -11669,7 +13100,7 @@
         <v>14</v>
       </c>
       <c r="P4" s="166">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>6.02</v>
       </c>
       <c r="Q4" s="163">
@@ -11744,16 +13175,16 @@
         <v>139.66965534465541</v>
       </c>
     </row>
-    <row r="5" spans="1:42" ht="16.5">
+    <row r="5" spans="1:42">
       <c r="A5" s="170" t="s">
         <v>278</v>
       </c>
       <c r="B5" s="162">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="C5" s="163">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="C5" s="163">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="D5" s="163">
@@ -11774,25 +13205,25 @@
         <v>450</v>
       </c>
       <c r="I5" s="186">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J5" s="249"/>
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J5" s="238"/>
       <c r="K5" s="164">
         <v>0.7</v>
       </c>
       <c r="L5" s="235">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="M5" s="163"/>
       <c r="N5" s="166">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="O5" s="163"/>
       <c r="P5" s="166">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q5" s="163"/>
@@ -11865,16 +13296,16 @@
         <v>33.54169580419579</v>
       </c>
     </row>
-    <row r="6" spans="1:42" ht="16.5">
+    <row r="6" spans="1:42">
       <c r="A6" s="171" t="s">
         <v>224</v>
       </c>
       <c r="B6" s="162">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="C6" s="163">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="C6" s="163">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="D6" s="163">
@@ -11895,25 +13326,25 @@
         <v>510</v>
       </c>
       <c r="I6" s="186">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J6" s="249"/>
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J6" s="238"/>
       <c r="K6" s="164">
         <v>1</v>
       </c>
       <c r="L6" s="235">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="M6" s="163"/>
       <c r="N6" s="166">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="O6" s="163"/>
       <c r="P6" s="166">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q6" s="163"/>
@@ -11982,7 +13413,7 @@
         <v>68.75</v>
       </c>
     </row>
-    <row r="7" spans="1:42" ht="16.5">
+    <row r="7" spans="1:42">
       <c r="A7" s="172" t="s">
         <v>81</v>
       </c>
@@ -12012,10 +13443,10 @@
         <v>430</v>
       </c>
       <c r="I7" s="186">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>110.94</v>
       </c>
-      <c r="J7" s="249">
+      <c r="J7" s="238">
         <v>0.25800000000000001</v>
       </c>
       <c r="K7" s="164">
@@ -12029,7 +13460,7 @@
         <v>4</v>
       </c>
       <c r="N7" s="166">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="O7" s="163">
@@ -12037,7 +13468,7 @@
         <v>5.0300000000000011</v>
       </c>
       <c r="P7" s="166">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>5.0300000000000011</v>
       </c>
       <c r="Q7" s="163"/>
@@ -12091,16 +13522,16 @@
         <v>287.54145854145861</v>
       </c>
     </row>
-    <row r="8" spans="1:42" ht="16.5">
+    <row r="8" spans="1:42">
       <c r="A8" s="173" t="s">
         <v>279</v>
       </c>
       <c r="B8" s="162">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="C8" s="163">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="C8" s="163">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="D8" s="163">
@@ -12121,20 +13552,20 @@
         <v>400</v>
       </c>
       <c r="I8" s="186">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J8" s="249"/>
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J8" s="238"/>
       <c r="K8" s="164">
         <v>3.5</v>
       </c>
       <c r="L8" s="235">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="M8" s="163"/>
       <c r="N8" s="166">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="O8" s="163"/>
@@ -12189,16 +13620,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:42" ht="16.5">
+    <row r="9" spans="1:42">
       <c r="A9" s="169" t="s">
         <v>83</v>
       </c>
       <c r="B9" s="162">
+        <f t="shared" si="3"/>
+        <v>2.0300000000000002</v>
+      </c>
+      <c r="C9" s="163">
         <f t="shared" si="4"/>
-        <v>2.0300000000000002</v>
-      </c>
-      <c r="C9" s="163">
-        <f t="shared" si="5"/>
         <v>1.9488000000000001</v>
       </c>
       <c r="D9" s="163">
@@ -12219,29 +13650,29 @@
         <v>470</v>
       </c>
       <c r="I9" s="186">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>27.26</v>
       </c>
-      <c r="J9" s="249">
+      <c r="J9" s="238">
         <v>5.8000000000000003E-2</v>
       </c>
       <c r="K9" s="164">
         <v>0.6</v>
       </c>
       <c r="L9" s="235">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>3.3833333333333337</v>
       </c>
       <c r="M9" s="163">
         <v>3.4</v>
       </c>
       <c r="N9" s="166">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>2.04</v>
       </c>
       <c r="O9" s="163"/>
       <c r="P9" s="166">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q9" s="163"/>
@@ -12306,7 +13737,7 @@
         <v>12.670857142857143</v>
       </c>
     </row>
-    <row r="10" spans="1:42" ht="18">
+    <row r="10" spans="1:42" ht="17.399999999999999">
       <c r="A10" s="60"/>
       <c r="B10" s="174">
         <v>35</v>
@@ -12349,7 +13780,7 @@
         <f>SUM(P2:P9)</f>
         <v>13.034000000000001</v>
       </c>
-      <c r="Q10" s="248">
+      <c r="Q10" s="237">
         <f t="shared" si="13"/>
         <v>17.749563953488373</v>
       </c>
@@ -12612,17 +14043,17 @@
         <v>201</v>
       </c>
       <c r="M13" s="111"/>
-      <c r="N13" s="247">
+      <c r="N13" s="236">
         <f>(N17+B16)/7+(N10-N17)/N14</f>
         <v>8.257723621593767</v>
       </c>
       <c r="O13" s="10"/>
-      <c r="P13" s="247">
+      <c r="P13" s="236">
         <f>+P10/7+N13</f>
         <v>10.119723621593767</v>
       </c>
       <c r="Q13" s="146"/>
-      <c r="R13" s="247">
+      <c r="R13" s="236">
         <f>+R10/7+P13</f>
         <v>11.112723621593767</v>
       </c>
@@ -12662,10 +14093,10 @@
         <v>393.55483898183456</v>
       </c>
       <c r="I14" s="132"/>
-      <c r="L14" s="236" t="s">
+      <c r="L14" s="239" t="s">
         <v>284</v>
       </c>
-      <c r="M14" s="236"/>
+      <c r="M14" s="239"/>
       <c r="N14" s="10">
         <f>+SUMPRODUCT($K$2:$K$9,M2:M9)/M10</f>
         <v>0.57383831954169318</v>
@@ -12729,10 +14160,10 @@
       <c r="I15">
         <v>26500</v>
       </c>
-      <c r="L15" s="236" t="s">
+      <c r="L15" s="239" t="s">
         <v>285</v>
       </c>
-      <c r="M15" s="236"/>
+      <c r="M15" s="239"/>
       <c r="N15" s="10">
         <f>+SUMPRODUCT($H$2:$H$9,N2:N9)</f>
         <v>6862.19</v>
@@ -12806,10 +14237,10 @@
       <c r="I16">
         <v>29000</v>
       </c>
-      <c r="L16" s="236" t="s">
+      <c r="L16" s="239" t="s">
         <v>286</v>
       </c>
-      <c r="M16" s="236"/>
+      <c r="M16" s="239"/>
       <c r="N16" s="10">
         <f>O10-(B17-O10)</f>
         <v>20.46</v>
@@ -12874,10 +14305,10 @@
         <f>+G15+G16</f>
         <v>433.2</v>
       </c>
-      <c r="L17" s="236" t="s">
+      <c r="L17" s="239" t="s">
         <v>251</v>
       </c>
-      <c r="M17" s="236"/>
+      <c r="M17" s="239"/>
       <c r="N17" s="10">
         <f>+N14*N16</f>
         <v>11.740732017823042</v>
@@ -12926,10 +14357,10 @@
       <c r="C18" s="36" t="s">
         <v>187</v>
       </c>
-      <c r="L18" s="236" t="s">
+      <c r="L18" s="239" t="s">
         <v>252</v>
       </c>
-      <c r="M18" s="236"/>
+      <c r="M18" s="239"/>
       <c r="N18" s="10">
         <f>+N15/N10*N17*$I$11</f>
         <v>4356.5489155196519</v>
@@ -12984,10 +14415,10 @@
         <v>194</v>
       </c>
       <c r="D19" s="36"/>
-      <c r="L19" s="236" t="s">
+      <c r="L19" s="239" t="s">
         <v>262</v>
       </c>
-      <c r="M19" s="236"/>
+      <c r="M19" s="239"/>
       <c r="N19" s="10">
         <v>90</v>
       </c>
@@ -13020,10 +14451,10 @@
       </c>
     </row>
     <row r="20" spans="1:42">
-      <c r="L20" s="236" t="s">
+      <c r="L20" s="239" t="s">
         <v>263</v>
       </c>
-      <c r="M20" s="236"/>
+      <c r="M20" s="239"/>
       <c r="N20" s="10">
         <f>+N18/N10-N19</f>
         <v>199.95333880330463</v>
@@ -13059,6 +14490,11 @@
     <row r="21" spans="1:42">
       <c r="L21" t="s">
         <v>294</v>
+      </c>
+      <c r="O21" s="146"/>
+      <c r="Q21" s="146">
+        <f>35-P13</f>
+        <v>24.880276378406233</v>
       </c>
       <c r="X21" s="165"/>
       <c r="Y21" s="191"/>
@@ -13103,20 +14539,20 @@
       </c>
       <c r="Y23" s="191"/>
     </row>
-    <row r="24" spans="1:42" ht="18">
-      <c r="D24" s="237" t="s">
+    <row r="24" spans="1:42" ht="17.399999999999999">
+      <c r="D24" s="240" t="s">
         <v>295</v>
       </c>
-      <c r="E24" s="238"/>
-      <c r="F24" s="238"/>
-      <c r="G24" s="238"/>
-      <c r="H24" s="238"/>
-      <c r="I24" s="239"/>
+      <c r="E24" s="241"/>
+      <c r="F24" s="241"/>
+      <c r="G24" s="241"/>
+      <c r="H24" s="241"/>
+      <c r="I24" s="242"/>
       <c r="M24" s="228"/>
       <c r="X24" s="165"/>
       <c r="Y24" s="191"/>
     </row>
-    <row r="25" spans="1:42" ht="15.75">
+    <row r="25" spans="1:42" ht="15.6">
       <c r="D25" s="193"/>
       <c r="E25" s="194" t="s">
         <v>265</v>
@@ -13136,10 +14572,7 @@
       </c>
       <c r="Y25" s="191"/>
     </row>
-    <row r="26" spans="1:42" ht="15.75">
-      <c r="A26">
-        <v>570</v>
-      </c>
+    <row r="26" spans="1:42" ht="15.6">
       <c r="D26" s="193"/>
       <c r="E26" s="194" t="s">
         <v>32</v>
@@ -13158,7 +14591,7 @@
       </c>
       <c r="Y26" s="191"/>
     </row>
-    <row r="27" spans="1:42" ht="15.75">
+    <row r="27" spans="1:42" ht="15.6">
       <c r="D27" s="193"/>
       <c r="E27" s="194" t="s">
         <v>2</v>
@@ -13190,7 +14623,7 @@
       </c>
       <c r="Y27" s="191"/>
     </row>
-    <row r="28" spans="1:42" ht="15.75">
+    <row r="28" spans="1:42" ht="15.6">
       <c r="D28" s="193"/>
       <c r="E28" s="194"/>
       <c r="F28" s="194"/>
@@ -13205,7 +14638,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:42" ht="15.75">
+    <row r="29" spans="1:42" ht="15.6">
       <c r="D29" s="193" t="s">
         <v>262</v>
       </c>
@@ -13236,7 +14669,7 @@
         <v>16639.349999999999</v>
       </c>
     </row>
-    <row r="30" spans="1:42" ht="15.75">
+    <row r="30" spans="1:42" ht="15.6">
       <c r="D30" s="193" t="s">
         <v>263</v>
       </c>
@@ -13258,7 +14691,7 @@
       <c r="M30" s="228"/>
       <c r="Q30" s="127"/>
     </row>
-    <row r="31" spans="1:42" ht="15.75">
+    <row r="31" spans="1:42" ht="15.6">
       <c r="D31" s="193"/>
       <c r="E31" s="194"/>
       <c r="F31" s="194"/>
@@ -13281,7 +14714,7 @@
         <v>124.37394474977054</v>
       </c>
     </row>
-    <row r="32" spans="1:42" ht="15.75">
+    <row r="32" spans="1:42" ht="15.6">
       <c r="D32" s="193"/>
       <c r="E32" s="194" t="s">
         <v>272</v>
@@ -13314,7 +14747,7 @@
         <v>413.1589377364877</v>
       </c>
     </row>
-    <row r="33" spans="4:17" ht="15.75">
+    <row r="33" spans="4:17" ht="15.6">
       <c r="D33" s="193"/>
       <c r="E33" s="194"/>
       <c r="F33" s="194"/>
@@ -13323,7 +14756,7 @@
       <c r="I33" s="196"/>
       <c r="M33" s="228"/>
     </row>
-    <row r="34" spans="4:17" ht="15.75">
+    <row r="34" spans="4:17" ht="15.6">
       <c r="D34" s="193"/>
       <c r="E34" s="194"/>
       <c r="F34" s="200" t="s">
@@ -13348,7 +14781,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="35" spans="4:17" ht="16.5" thickBot="1">
+    <row r="35" spans="4:17" ht="16.2" thickBot="1">
       <c r="D35" s="201"/>
       <c r="E35" s="202"/>
       <c r="F35" s="203" t="s">
@@ -13363,7 +14796,7 @@
       <c r="I35" s="196"/>
       <c r="M35" s="228"/>
     </row>
-    <row r="36" spans="4:17" ht="16.5" thickTop="1">
+    <row r="36" spans="4:17" ht="16.2" thickTop="1">
       <c r="D36" s="201"/>
       <c r="E36" s="202"/>
       <c r="F36" s="200" t="s">
@@ -13389,7 +14822,7 @@
         <v>26.460724137931031</v>
       </c>
     </row>
-    <row r="37" spans="4:17" ht="16.5" thickBot="1">
+    <row r="37" spans="4:17" ht="16.2" thickBot="1">
       <c r="D37" s="205"/>
       <c r="E37" s="206"/>
       <c r="F37" s="206"/>
@@ -13398,7 +14831,7 @@
       <c r="I37" s="208"/>
       <c r="M37" s="228"/>
     </row>
-    <row r="38" spans="4:17" ht="21.75" thickTop="1" thickBot="1">
+    <row r="38" spans="4:17" ht="22.2" thickTop="1" thickBot="1">
       <c r="D38" s="205"/>
       <c r="E38" s="212" t="s">
         <v>290</v>
@@ -13406,17 +14839,19 @@
       <c r="F38" s="213"/>
       <c r="G38" s="214"/>
       <c r="H38" s="227">
-        <f>+C15/H36*60</f>
+        <f>+(C15/H36)*60</f>
         <v>50.092698761315255</v>
       </c>
       <c r="I38" s="208"/>
     </row>
-    <row r="39" spans="4:17" ht="15.75" thickTop="1">
+    <row r="39" spans="4:17" ht="15" thickTop="1">
       <c r="D39" s="209"/>
       <c r="E39" s="210"/>
       <c r="F39" s="210"/>
       <c r="G39" s="210"/>
-      <c r="H39" s="210"/>
+      <c r="H39" s="210">
+        <v>9</v>
+      </c>
       <c r="I39" s="211"/>
     </row>
   </sheetData>
@@ -13436,1412 +14871,33 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:T19"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:20">
-      <c r="A1" s="105" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="105" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="105" t="s">
-        <v>21</v>
-      </c>
-      <c r="D1" s="105" t="s">
-        <v>214</v>
-      </c>
-      <c r="E1" s="105" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="105" t="s">
-        <v>84</v>
-      </c>
-      <c r="G1" s="105" t="s">
-        <v>184</v>
-      </c>
-      <c r="H1" s="105" t="s">
-        <v>86</v>
-      </c>
-      <c r="I1" s="105" t="s">
-        <v>188</v>
-      </c>
-      <c r="J1" s="105" t="s">
-        <v>189</v>
-      </c>
-      <c r="K1" s="105" t="s">
-        <v>190</v>
-      </c>
-      <c r="L1" s="108" t="s">
-        <v>191</v>
-      </c>
-      <c r="M1" s="105" t="s">
-        <v>192</v>
-      </c>
-      <c r="N1" s="108" t="s">
-        <v>193</v>
-      </c>
-      <c r="O1" s="105" t="s">
-        <v>195</v>
-      </c>
-      <c r="P1" s="108" t="s">
-        <v>196</v>
-      </c>
-      <c r="Q1" s="105" t="s">
-        <v>197</v>
-      </c>
-      <c r="R1" s="108" t="s">
-        <v>198</v>
-      </c>
-      <c r="S1" s="105" t="s">
-        <v>203</v>
-      </c>
-      <c r="T1" s="127">
-        <v>29000</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" ht="16.5">
-      <c r="A2" s="35" t="s">
-        <v>221</v>
-      </c>
-      <c r="B2" s="123">
-        <f t="shared" ref="B2:B9" si="0">+$B$10*H2</f>
-        <v>0</v>
-      </c>
-      <c r="C2" s="36">
-        <f t="shared" ref="C2:C9" si="1">+B2*(1-F2)</f>
-        <v>0</v>
-      </c>
-      <c r="D2" s="36">
-        <f t="shared" ref="D2:D9" si="2">+B2-C2</f>
-        <v>0</v>
-      </c>
-      <c r="E2" s="37">
-        <v>0.95</v>
-      </c>
-      <c r="F2" s="37">
-        <f t="shared" ref="F2:F8" si="3">1-E2</f>
-        <v>5.0000000000000044E-2</v>
-      </c>
-      <c r="G2" s="38"/>
-      <c r="H2" s="107"/>
-      <c r="I2" s="38">
-        <v>1.3</v>
-      </c>
-      <c r="J2" s="124">
-        <f t="shared" ref="J2:J8" si="4">+B2/I2</f>
-        <v>0</v>
-      </c>
-      <c r="K2" s="36"/>
-      <c r="L2" s="109">
-        <f t="shared" ref="L2:L9" si="5">+K2*I2</f>
-        <v>0</v>
-      </c>
-      <c r="M2" s="36">
-        <f>+J2-K2</f>
-        <v>0</v>
-      </c>
-      <c r="N2" s="109">
-        <f t="shared" ref="N2:N9" si="6">+M2*I2</f>
-        <v>0</v>
-      </c>
-      <c r="O2" s="36"/>
-      <c r="P2" s="109">
-        <f>+O2*I2</f>
-        <v>0</v>
-      </c>
-      <c r="Q2" s="36"/>
-      <c r="R2" s="109">
-        <f>+I2*Q2</f>
-        <v>0</v>
-      </c>
-      <c r="S2" s="125">
-        <f>+B2*$T$2</f>
-        <v>0</v>
-      </c>
-      <c r="T2" s="100">
-        <f>+T1/C15</f>
-        <v>981.0539205164323</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" ht="16.5">
-      <c r="A3" s="118" t="s">
-        <v>223</v>
-      </c>
-      <c r="B3" s="123">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C3" s="36">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="D3" s="36">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E3" s="37">
-        <v>0.94</v>
-      </c>
-      <c r="F3" s="37">
-        <f t="shared" si="3"/>
-        <v>6.0000000000000053E-2</v>
-      </c>
-      <c r="G3" s="38">
-        <v>175</v>
-      </c>
-      <c r="H3" s="107"/>
-      <c r="I3" s="38">
-        <v>1</v>
-      </c>
-      <c r="J3" s="124">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="K3" s="36"/>
-      <c r="L3" s="109">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="M3" s="36">
-        <f t="shared" ref="M3:M9" si="7">+J3-K3</f>
-        <v>0</v>
-      </c>
-      <c r="N3" s="109">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="O3" s="36"/>
-      <c r="P3" s="109">
-        <f t="shared" ref="P3:P9" si="8">+O3*I3</f>
-        <v>0</v>
-      </c>
-      <c r="Q3" s="36"/>
-      <c r="R3" s="109">
-        <f t="shared" ref="R3:R9" si="9">+I3*Q3</f>
-        <v>0</v>
-      </c>
-      <c r="S3" s="125">
-        <f t="shared" ref="S3:S9" si="10">+B3*$T$2</f>
-        <v>0</v>
-      </c>
-      <c r="T3" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" ht="16.5">
-      <c r="A4" s="115" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="123">
-        <f t="shared" si="0"/>
-        <v>16.5</v>
-      </c>
-      <c r="C4" s="36">
-        <f t="shared" si="1"/>
-        <v>14.52</v>
-      </c>
-      <c r="D4" s="36">
-        <f t="shared" si="2"/>
-        <v>1.9800000000000004</v>
-      </c>
-      <c r="E4" s="37">
-        <v>0.88</v>
-      </c>
-      <c r="F4" s="37">
-        <f t="shared" si="3"/>
-        <v>0.12</v>
-      </c>
-      <c r="G4" s="38">
-        <v>213.7</v>
-      </c>
-      <c r="H4" s="107">
-        <v>0.5</v>
-      </c>
-      <c r="I4" s="38">
-        <v>0.35</v>
-      </c>
-      <c r="J4" s="124">
-        <f t="shared" si="4"/>
-        <v>47.142857142857146</v>
-      </c>
-      <c r="K4" s="36">
-        <v>17</v>
-      </c>
-      <c r="L4" s="109">
-        <f t="shared" si="5"/>
-        <v>5.9499999999999993</v>
-      </c>
-      <c r="M4" s="36">
-        <v>11</v>
-      </c>
-      <c r="N4" s="109">
-        <f t="shared" si="6"/>
-        <v>3.8499999999999996</v>
-      </c>
-      <c r="O4" s="36">
-        <v>11</v>
-      </c>
-      <c r="P4" s="109">
-        <f t="shared" si="8"/>
-        <v>3.8499999999999996</v>
-      </c>
-      <c r="Q4" s="36">
-        <f>+J4-K4-M4-O4</f>
-        <v>8.1428571428571459</v>
-      </c>
-      <c r="R4" s="109">
-        <f t="shared" si="9"/>
-        <v>2.850000000000001</v>
-      </c>
-      <c r="S4" s="125">
-        <f t="shared" si="10"/>
-        <v>16187.389688521132</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" ht="16.5">
-      <c r="A5" s="117" t="s">
-        <v>222</v>
-      </c>
-      <c r="B5" s="123">
-        <f t="shared" si="0"/>
-        <v>7.92</v>
-      </c>
-      <c r="C5" s="36">
-        <f t="shared" si="1"/>
-        <v>7.7615999999999996</v>
-      </c>
-      <c r="D5" s="36">
-        <f t="shared" si="2"/>
-        <v>0.15840000000000032</v>
-      </c>
-      <c r="E5" s="37">
-        <v>0.98</v>
-      </c>
-      <c r="F5" s="37">
-        <f t="shared" si="3"/>
-        <v>2.0000000000000018E-2</v>
-      </c>
-      <c r="G5" s="38">
-        <v>175</v>
-      </c>
-      <c r="H5" s="107">
-        <v>0.24</v>
-      </c>
-      <c r="I5" s="38">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="J5" s="124">
-        <f t="shared" si="4"/>
-        <v>7.1999999999999993</v>
-      </c>
-      <c r="K5" s="36">
-        <v>2.7</v>
-      </c>
-      <c r="L5" s="109">
-        <f t="shared" si="5"/>
-        <v>2.9700000000000006</v>
-      </c>
-      <c r="M5" s="36">
-        <v>2.7</v>
-      </c>
-      <c r="N5" s="109">
-        <f t="shared" si="6"/>
-        <v>2.9700000000000006</v>
-      </c>
-      <c r="O5" s="36">
-        <f>+J5-K5-M5</f>
-        <v>1.7999999999999989</v>
-      </c>
-      <c r="P5" s="109">
-        <f t="shared" si="8"/>
-        <v>1.9799999999999991</v>
-      </c>
-      <c r="Q5" s="36"/>
-      <c r="R5" s="109">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="S5" s="125">
-        <f t="shared" si="10"/>
-        <v>7769.9470504901437</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" ht="16.5">
-      <c r="A6" s="119" t="s">
-        <v>224</v>
-      </c>
-      <c r="B6" s="123">
-        <f t="shared" si="0"/>
-        <v>0.66</v>
-      </c>
-      <c r="C6" s="36">
-        <f t="shared" si="1"/>
-        <v>0.46199999999999997</v>
-      </c>
-      <c r="D6" s="36">
-        <f t="shared" si="2"/>
-        <v>0.19800000000000006</v>
-      </c>
-      <c r="E6" s="37">
-        <v>0.7</v>
-      </c>
-      <c r="F6" s="37">
-        <f t="shared" si="3"/>
-        <v>0.30000000000000004</v>
-      </c>
-      <c r="G6" s="38">
-        <v>58.9</v>
-      </c>
-      <c r="H6" s="107">
-        <v>0.02</v>
-      </c>
-      <c r="I6" s="38">
-        <v>1</v>
-      </c>
-      <c r="J6" s="124">
-        <f t="shared" si="4"/>
-        <v>0.66</v>
-      </c>
-      <c r="K6" s="36">
-        <v>0</v>
-      </c>
-      <c r="L6" s="109">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="M6" s="36"/>
-      <c r="N6" s="109">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="O6" s="36"/>
-      <c r="P6" s="109">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="Q6" s="36"/>
-      <c r="R6" s="109">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="S6" s="125">
-        <f t="shared" si="10"/>
-        <v>647.49558754084535</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" ht="16.5">
-      <c r="A7" s="120" t="s">
-        <v>81</v>
-      </c>
-      <c r="B7" s="123">
-        <f>+$B$10*H7</f>
-        <v>5.9399999999999995</v>
-      </c>
-      <c r="C7" s="36">
-        <f t="shared" si="1"/>
-        <v>5.5241999999999996</v>
-      </c>
-      <c r="D7" s="36">
-        <f t="shared" si="2"/>
-        <v>0.41579999999999995</v>
-      </c>
-      <c r="E7" s="37">
-        <v>0.93</v>
-      </c>
-      <c r="F7" s="37">
-        <f t="shared" si="3"/>
-        <v>6.9999999999999951E-2</v>
-      </c>
-      <c r="G7" s="38">
-        <v>232.6</v>
-      </c>
-      <c r="H7" s="107">
-        <v>0.18</v>
-      </c>
-      <c r="I7" s="38">
-        <v>1</v>
-      </c>
-      <c r="J7" s="124">
-        <f t="shared" si="4"/>
-        <v>5.9399999999999995</v>
-      </c>
-      <c r="K7" s="36">
-        <v>3</v>
-      </c>
-      <c r="L7" s="109">
-        <f t="shared" si="5"/>
-        <v>3</v>
-      </c>
-      <c r="M7" s="36">
-        <f t="shared" si="7"/>
-        <v>2.9399999999999995</v>
-      </c>
-      <c r="N7" s="109">
-        <f t="shared" si="6"/>
-        <v>2.9399999999999995</v>
-      </c>
-      <c r="O7" s="36"/>
-      <c r="P7" s="109">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="Q7" s="36"/>
-      <c r="R7" s="109">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="S7" s="125">
-        <f t="shared" si="10"/>
-        <v>5827.4602878676078</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" ht="16.5">
-      <c r="A8" s="116" t="s">
-        <v>82</v>
-      </c>
-      <c r="B8" s="123">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C8" s="36">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="D8" s="36">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E8" s="37">
-        <v>0.95</v>
-      </c>
-      <c r="F8" s="37">
-        <f t="shared" si="3"/>
-        <v>5.0000000000000044E-2</v>
-      </c>
-      <c r="G8" s="38">
-        <v>315</v>
-      </c>
-      <c r="H8" s="107"/>
-      <c r="I8" s="38">
-        <v>4</v>
-      </c>
-      <c r="J8" s="124">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="K8" s="36">
-        <v>0</v>
-      </c>
-      <c r="L8" s="109">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="M8" s="36">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="N8" s="109">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="O8" s="36"/>
-      <c r="P8" s="109">
-        <f>+O8*I8</f>
-        <v>0</v>
-      </c>
-      <c r="Q8" s="36"/>
-      <c r="R8" s="109">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="S8" s="125">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" ht="16.5">
-      <c r="A9" s="121" t="s">
-        <v>83</v>
-      </c>
-      <c r="B9" s="123">
-        <f t="shared" si="0"/>
-        <v>1.98</v>
-      </c>
-      <c r="C9" s="36">
-        <f t="shared" si="1"/>
-        <v>1.7423999999999999</v>
-      </c>
-      <c r="D9" s="36">
-        <f t="shared" si="2"/>
-        <v>0.23760000000000003</v>
-      </c>
-      <c r="E9" s="37">
-        <v>0.88</v>
-      </c>
-      <c r="F9" s="37">
-        <f>1-E9</f>
-        <v>0.12</v>
-      </c>
-      <c r="G9" s="38">
-        <v>214.8</v>
-      </c>
-      <c r="H9" s="107">
-        <v>0.06</v>
-      </c>
-      <c r="I9" s="38">
-        <v>0.65</v>
-      </c>
-      <c r="J9" s="124">
-        <f>+B9/I9</f>
-        <v>3.046153846153846</v>
-      </c>
-      <c r="K9" s="36">
-        <v>3</v>
-      </c>
-      <c r="L9" s="109">
-        <f t="shared" si="5"/>
-        <v>1.9500000000000002</v>
-      </c>
-      <c r="M9" s="36">
-        <f t="shared" si="7"/>
-        <v>4.615384615384599E-2</v>
-      </c>
-      <c r="N9" s="109">
-        <f t="shared" si="6"/>
-        <v>2.9999999999999895E-2</v>
-      </c>
-      <c r="O9" s="36"/>
-      <c r="P9" s="109">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="Q9" s="36"/>
-      <c r="R9" s="109">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="S9" s="125">
-        <f t="shared" si="10"/>
-        <v>1942.4867626225359</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" ht="18">
-      <c r="A10" s="32"/>
-      <c r="B10" s="63">
-        <v>33</v>
-      </c>
-      <c r="C10" s="32"/>
-      <c r="D10" s="32"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="32"/>
-      <c r="G10" s="32"/>
-      <c r="H10" s="103">
-        <f>SUM(H2:H9)</f>
-        <v>1</v>
-      </c>
-      <c r="I10" s="143">
-        <f>SUMPRODUCT(I2:I9,H2:H9)</f>
-        <v>0.67800000000000005</v>
-      </c>
-      <c r="J10" s="104">
-        <f t="shared" ref="J10:R10" si="11">SUM(J2:J9)</f>
-        <v>63.989010989010978</v>
-      </c>
-      <c r="K10" s="106">
-        <f t="shared" si="11"/>
-        <v>25.7</v>
-      </c>
-      <c r="L10" s="110">
-        <f t="shared" si="11"/>
-        <v>13.870000000000001</v>
-      </c>
-      <c r="M10" s="106">
-        <f t="shared" si="11"/>
-        <v>16.686153846153847</v>
-      </c>
-      <c r="N10" s="110">
-        <f t="shared" si="11"/>
-        <v>9.7899999999999991</v>
-      </c>
-      <c r="O10" s="106">
-        <f t="shared" si="11"/>
-        <v>12.799999999999999</v>
-      </c>
-      <c r="P10" s="110">
-        <f t="shared" si="11"/>
-        <v>5.8299999999999983</v>
-      </c>
-      <c r="Q10" s="106">
-        <f t="shared" si="11"/>
-        <v>8.1428571428571459</v>
-      </c>
-      <c r="R10" s="110">
-        <f t="shared" si="11"/>
-        <v>2.850000000000001</v>
-      </c>
-      <c r="S10" s="145">
-        <f>+B10*$T$2</f>
-        <v>32374.779377042265</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="B11" s="38">
-        <f>SUM(B2:B9)</f>
-        <v>33</v>
-      </c>
-      <c r="C11" s="36">
-        <f>SUM(C2:C9)</f>
-        <v>30.010199999999998</v>
-      </c>
-      <c r="D11" s="36">
-        <f>SUM(D2:D9)</f>
-        <v>2.9898000000000007</v>
-      </c>
-      <c r="E11" s="36"/>
-      <c r="F11" s="43" t="s">
-        <v>57</v>
-      </c>
-      <c r="G11" s="44">
-        <f>+SUMPRODUCT(B2:B9,G2:G9)/C11/E15</f>
-        <v>228.61506275683527</v>
-      </c>
-      <c r="H11" s="35"/>
-      <c r="J11" s="113" t="s">
-        <v>235</v>
-      </c>
-      <c r="K11" s="104">
-        <f>+B18*0.95</f>
-        <v>26.599999999999998</v>
-      </c>
-      <c r="M11" s="104">
-        <f>+K11</f>
-        <v>26.599999999999998</v>
-      </c>
-      <c r="O11" s="104">
-        <f>+M11</f>
-        <v>26.599999999999998</v>
-      </c>
-      <c r="Q11" s="104">
-        <f>+O11</f>
-        <v>26.599999999999998</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="F12" s="129" t="s">
-        <v>206</v>
-      </c>
-      <c r="G12" s="130">
-        <v>130</v>
-      </c>
-      <c r="I12" s="3">
-        <f>+B18*0.9*I10</f>
-        <v>17.085599999999999</v>
-      </c>
-      <c r="J12" s="113" t="s">
-        <v>202</v>
-      </c>
-      <c r="L12" s="1"/>
-      <c r="M12" s="114">
-        <f>+B17*0.95-L13</f>
-        <v>25.804285714285715</v>
-      </c>
-      <c r="N12" s="1"/>
-      <c r="O12" s="114">
-        <f>+M12-N13</f>
-        <v>21.71</v>
-      </c>
-      <c r="P12" s="1"/>
-      <c r="Q12" s="114">
-        <f>+O12-P13</f>
-        <v>16.782857142857143</v>
-      </c>
-      <c r="R12" s="1"/>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="F13" s="131" t="s">
-        <v>207</v>
-      </c>
-      <c r="G13" s="132">
-        <f>+G11+G12</f>
-        <v>358.6150627568353</v>
-      </c>
-      <c r="J13" s="111" t="s">
-        <v>201</v>
-      </c>
-      <c r="K13" s="111"/>
-      <c r="L13" s="112">
-        <f>(L10+B16)/7</f>
-        <v>2.6957142857142857</v>
-      </c>
-      <c r="M13" s="1"/>
-      <c r="N13" s="112">
-        <f>+N10/7+L13</f>
-        <v>4.0942857142857143</v>
-      </c>
-      <c r="P13" s="112">
-        <f>+P10/7+N13</f>
-        <v>4.927142857142857</v>
-      </c>
-      <c r="R13" s="112" t="s">
-        <v>213</v>
-      </c>
-      <c r="S13" s="126">
-        <f>SUM(S2:S6,S9)</f>
-        <v>26547.319089174656</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="C15" s="36">
-        <f>+C11*E15</f>
-        <v>29.560046999999997</v>
-      </c>
-      <c r="D15" t="s">
-        <v>208</v>
-      </c>
-      <c r="E15" s="128">
-        <v>0.98499999999999999</v>
-      </c>
-      <c r="T15" s="125">
-        <f>+T1*11+15000</f>
-        <v>334000</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="A16" s="122" t="s">
-        <v>199</v>
-      </c>
-      <c r="B16" s="36">
-        <v>5</v>
-      </c>
-      <c r="C16" s="36" t="s">
-        <v>200</v>
-      </c>
-      <c r="D16" t="s">
-        <v>205</v>
-      </c>
-      <c r="E16" s="128">
-        <f>SUMPRODUCT(B2:B9,E2:E9)/B10</f>
-        <v>0.90939999999999988</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="122" t="s">
-        <v>185</v>
-      </c>
-      <c r="B17" s="36">
-        <v>30</v>
-      </c>
-      <c r="C17" s="36" t="s">
-        <v>187</v>
-      </c>
-      <c r="D17" t="s">
-        <v>225</v>
-      </c>
-      <c r="E17" s="128">
-        <f>+E15*E16</f>
-        <v>0.89575899999999986</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="122" t="s">
-        <v>186</v>
-      </c>
-      <c r="B18" s="36">
-        <v>28</v>
-      </c>
-      <c r="C18" s="36" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="36" t="s">
-        <v>4</v>
-      </c>
-      <c r="B19" s="107">
-        <v>0.87</v>
-      </c>
-      <c r="C19" s="36" t="s">
-        <v>194</v>
-      </c>
-      <c r="D19" s="36"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C42D4128-7A49-4323-8F18-C858079FB1B4}">
-  <dimension ref="A1:F11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="20.7109375" customWidth="1"/>
-    <col min="3" max="4" width="14.140625" customWidth="1"/>
-    <col min="6" max="6" width="11.42578125" style="146"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="159" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="159" t="s">
-        <v>184</v>
-      </c>
-      <c r="C1" s="159" t="s">
-        <v>297</v>
-      </c>
-      <c r="D1" s="159" t="s">
-        <v>298</v>
-      </c>
-      <c r="E1" s="159" t="s">
-        <v>299</v>
-      </c>
-      <c r="F1" s="234" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="161" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="164">
-        <v>170</v>
-      </c>
-      <c r="C2" s="164">
-        <v>0.32</v>
-      </c>
-      <c r="D2" s="229">
-        <v>20000</v>
-      </c>
-      <c r="E2" s="229">
-        <v>0.1</v>
-      </c>
-      <c r="F2" s="233">
-        <v>0.84</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="168" t="s">
-        <v>296</v>
-      </c>
-      <c r="B3" s="164">
-        <v>220</v>
-      </c>
-      <c r="C3" s="164">
-        <v>0.9</v>
-      </c>
-      <c r="D3" s="229">
-        <v>5000</v>
-      </c>
-      <c r="E3" s="229">
-        <v>0.1</v>
-      </c>
-      <c r="F3" s="233">
-        <v>0.97</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="169" t="s">
-        <v>276</v>
-      </c>
-      <c r="B4" s="164">
-        <v>180</v>
-      </c>
-      <c r="C4" s="164">
-        <v>0.43</v>
-      </c>
-      <c r="D4" s="229">
-        <v>18000</v>
-      </c>
-      <c r="E4" s="229">
-        <v>0.1</v>
-      </c>
-      <c r="F4" s="233">
-        <v>0.88</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="170" t="s">
-        <v>278</v>
-      </c>
-      <c r="B5" s="164">
-        <v>217</v>
-      </c>
-      <c r="C5" s="164">
-        <v>0.7</v>
-      </c>
-      <c r="D5" s="229">
-        <v>2000</v>
-      </c>
-      <c r="E5" s="229">
-        <v>0.1</v>
-      </c>
-      <c r="F5" s="233">
-        <v>0.98</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="171" t="s">
-        <v>224</v>
-      </c>
-      <c r="B6" s="164">
-        <v>56</v>
-      </c>
-      <c r="C6" s="164">
-        <v>1</v>
-      </c>
-      <c r="D6" s="229">
-        <v>7000</v>
-      </c>
-      <c r="E6" s="229">
-        <v>0.1</v>
-      </c>
-      <c r="F6" s="233">
-        <v>0.85</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="172" t="s">
-        <v>81</v>
-      </c>
-      <c r="B7" s="164">
-        <v>295</v>
-      </c>
-      <c r="C7" s="164">
-        <v>1</v>
-      </c>
-      <c r="D7" s="229">
-        <v>5000</v>
-      </c>
-      <c r="E7" s="229">
-        <v>0.1</v>
-      </c>
-      <c r="F7" s="233">
-        <v>0.96</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="173" t="s">
-        <v>279</v>
-      </c>
-      <c r="B8" s="164">
-        <v>240</v>
-      </c>
-      <c r="C8" s="164">
-        <v>3.5</v>
-      </c>
-      <c r="D8" s="229">
-        <v>1200</v>
-      </c>
-      <c r="E8" s="229">
-        <v>0.1</v>
-      </c>
-      <c r="F8" s="233">
-        <v>0.94</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="169" t="s">
-        <v>83</v>
-      </c>
-      <c r="B9" s="164">
-        <v>205</v>
-      </c>
-      <c r="C9" s="164">
-        <v>0.6</v>
-      </c>
-      <c r="D9" s="229">
-        <v>7000</v>
-      </c>
-      <c r="E9" s="229">
-        <v>0.1</v>
-      </c>
-      <c r="F9" s="233">
-        <v>0.96</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="B11" s="230"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CF1F3EF-5E34-4FA8-A3D1-33686BE22993}">
-  <dimension ref="A1:J9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K27" sqref="K27"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="19.28515625" customWidth="1"/>
-    <col min="2" max="10" width="6.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" s="159" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="159" t="s">
-        <v>139</v>
-      </c>
-      <c r="C1" s="159" t="s">
-        <v>74</v>
-      </c>
-      <c r="D1" s="159" t="s">
-        <v>136</v>
-      </c>
-      <c r="E1" s="159" t="s">
-        <v>226</v>
-      </c>
-      <c r="F1" s="159" t="s">
-        <v>227</v>
-      </c>
-      <c r="G1" s="234" t="s">
-        <v>100</v>
-      </c>
-      <c r="H1" s="159" t="s">
-        <v>228</v>
-      </c>
-      <c r="I1" s="159" t="s">
-        <v>229</v>
-      </c>
-      <c r="J1" s="159" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="161" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="164">
-        <v>0.25</v>
-      </c>
-      <c r="C2" s="164">
-        <v>0.6</v>
-      </c>
-      <c r="D2" s="229">
-        <v>0.2</v>
-      </c>
-      <c r="E2" s="164">
-        <v>0.03</v>
-      </c>
-      <c r="F2" s="164">
-        <v>0.19</v>
-      </c>
-      <c r="G2" s="229">
-        <v>0.04</v>
-      </c>
-      <c r="H2" s="164">
-        <v>0.33</v>
-      </c>
-      <c r="I2" s="164">
-        <v>0.19</v>
-      </c>
-      <c r="J2" s="229">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="168" t="s">
-        <v>296</v>
-      </c>
-      <c r="B3" s="164">
-        <v>0.25</v>
-      </c>
-      <c r="C3" s="164">
-        <v>0.6</v>
-      </c>
-      <c r="D3" s="229">
-        <v>0.2</v>
-      </c>
-      <c r="E3" s="164">
-        <v>0.03</v>
-      </c>
-      <c r="F3" s="164">
-        <v>0.19</v>
-      </c>
-      <c r="G3" s="229">
-        <v>0.04</v>
-      </c>
-      <c r="H3" s="164">
-        <v>0.33</v>
-      </c>
-      <c r="I3" s="164">
-        <v>0.19</v>
-      </c>
-      <c r="J3" s="229">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="169" t="s">
-        <v>276</v>
-      </c>
-      <c r="B4" s="164">
-        <v>0.25</v>
-      </c>
-      <c r="C4" s="164">
-        <v>0.6</v>
-      </c>
-      <c r="D4" s="229">
-        <v>0.2</v>
-      </c>
-      <c r="E4" s="164">
-        <v>0.03</v>
-      </c>
-      <c r="F4" s="164">
-        <v>0.19</v>
-      </c>
-      <c r="G4" s="229">
-        <v>0.04</v>
-      </c>
-      <c r="H4" s="164">
-        <v>0.33</v>
-      </c>
-      <c r="I4" s="164">
-        <v>0.19</v>
-      </c>
-      <c r="J4" s="229">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="170" t="s">
-        <v>278</v>
-      </c>
-      <c r="B5" s="164">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="C5" s="164">
-        <v>1.4</v>
-      </c>
-      <c r="D5" s="229">
-        <v>0.18</v>
-      </c>
-      <c r="E5" s="164">
-        <v>0.02</v>
-      </c>
-      <c r="F5" s="164">
-        <v>0.35</v>
-      </c>
-      <c r="G5" s="229">
-        <v>1E-3</v>
-      </c>
-      <c r="H5" s="164">
-        <v>0.03</v>
-      </c>
-      <c r="I5" s="164">
-        <v>0.09</v>
-      </c>
-      <c r="J5" s="229">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="171" t="s">
-        <v>224</v>
-      </c>
-      <c r="B6" s="164">
-        <v>0.2</v>
-      </c>
-      <c r="C6" s="164">
-        <v>0.7</v>
-      </c>
-      <c r="D6" s="229">
-        <v>0.15</v>
-      </c>
-      <c r="E6" s="164">
-        <v>0.02</v>
-      </c>
-      <c r="F6" s="164">
-        <v>0.06</v>
-      </c>
-      <c r="G6" s="229">
-        <v>0.04</v>
-      </c>
-      <c r="H6" s="164">
-        <v>0.15</v>
-      </c>
-      <c r="I6" s="164">
-        <v>0.11</v>
-      </c>
-      <c r="J6" s="229">
-        <v>5.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="172" t="s">
-        <v>81</v>
-      </c>
-      <c r="B7" s="164">
-        <v>0.18</v>
-      </c>
-      <c r="C7" s="164">
-        <v>0.4</v>
-      </c>
-      <c r="D7" s="229">
-        <v>0.1</v>
-      </c>
-      <c r="E7" s="164">
-        <v>0.02</v>
-      </c>
-      <c r="F7" s="164">
-        <v>0.05</v>
-      </c>
-      <c r="G7" s="229">
-        <v>0.02</v>
-      </c>
-      <c r="H7" s="164">
-        <v>0.15</v>
-      </c>
-      <c r="I7" s="164">
-        <v>0.04</v>
-      </c>
-      <c r="J7" s="229">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="173" t="s">
-        <v>279</v>
-      </c>
-      <c r="B8" s="164">
-        <v>3.8</v>
-      </c>
-      <c r="C8" s="164">
-        <v>0.9</v>
-      </c>
-      <c r="D8" s="229">
-        <v>0.27</v>
-      </c>
-      <c r="E8" s="164">
-        <v>0.05</v>
-      </c>
-      <c r="F8" s="164">
-        <v>0</v>
-      </c>
-      <c r="G8" s="229">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="H8" s="164">
-        <v>0</v>
-      </c>
-      <c r="I8" s="164">
-        <v>0</v>
-      </c>
-      <c r="J8" s="229">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="169" t="s">
-        <v>83</v>
-      </c>
-      <c r="B9" s="164">
-        <v>0.25</v>
-      </c>
-      <c r="C9" s="164">
-        <v>0.3</v>
-      </c>
-      <c r="D9" s="229">
-        <v>0.01</v>
-      </c>
-      <c r="E9" s="164">
-        <v>0.03</v>
-      </c>
-      <c r="F9" s="164">
-        <v>0.18</v>
-      </c>
-      <c r="G9" s="229">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="H9" s="164">
-        <v>0.35</v>
-      </c>
-      <c r="I9" s="164">
-        <v>0.2</v>
-      </c>
-      <c r="J9" s="229">
-        <v>0.04</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:FT112"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E102" sqref="E102"/>
+    <sheetView topLeftCell="O1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B81" sqref="B81:F88"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="18.42578125" style="32" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="32" customWidth="1"/>
-    <col min="3" max="3" width="6.7109375" style="32" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" style="32" customWidth="1"/>
-    <col min="5" max="5" width="10.42578125" style="32" customWidth="1"/>
-    <col min="6" max="6" width="9.28515625" style="32" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" style="32" customWidth="1"/>
-    <col min="8" max="8" width="9.28515625" style="32" customWidth="1"/>
+    <col min="1" max="1" width="18.44140625" style="32" customWidth="1"/>
+    <col min="2" max="2" width="9.109375" style="32" customWidth="1"/>
+    <col min="3" max="3" width="6.6640625" style="32" customWidth="1"/>
+    <col min="4" max="4" width="11.109375" style="32" customWidth="1"/>
+    <col min="5" max="5" width="10.44140625" style="32" customWidth="1"/>
+    <col min="6" max="6" width="9.33203125" style="32" customWidth="1"/>
+    <col min="7" max="7" width="9.109375" style="32" customWidth="1"/>
+    <col min="8" max="8" width="9.33203125" style="32" customWidth="1"/>
     <col min="9" max="9" width="8" style="32" customWidth="1"/>
-    <col min="10" max="10" width="10.42578125" style="32" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="5.140625" style="32" customWidth="1"/>
-    <col min="12" max="12" width="7.28515625" style="32" customWidth="1"/>
-    <col min="13" max="13" width="12.42578125" style="32" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.5703125" style="32" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.42578125" style="32" customWidth="1"/>
-    <col min="16" max="16" width="12.140625" style="32" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="11.42578125" style="32"/>
+    <col min="10" max="10" width="10.44140625" style="32" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.109375" style="32" customWidth="1"/>
+    <col min="12" max="12" width="7.33203125" style="32" customWidth="1"/>
+    <col min="13" max="13" width="12.44140625" style="32" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.5546875" style="32" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.44140625" style="32" customWidth="1"/>
+    <col min="16" max="16" width="12.109375" style="32" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="11.44140625" style="32"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:176" ht="15" customHeight="1">
@@ -14876,10 +14932,10 @@
         <f>+B16+B27+B33+I19+B26+B38</f>
         <v>4757.4465272727284</v>
       </c>
-      <c r="N1" s="243" t="s">
+      <c r="N1" s="247" t="s">
         <v>42</v>
       </c>
-      <c r="O1" s="244"/>
+      <c r="O1" s="248"/>
       <c r="P1" s="64" t="s">
         <v>39</v>
       </c>
@@ -14920,7 +14976,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="2" spans="1:176" ht="16.5">
+    <row r="2" spans="1:176" ht="14.4">
       <c r="A2" s="35" t="str">
         <f>+PPC!A2</f>
         <v>LIVIANA</v>
@@ -15133,7 +15189,7 @@
       <c r="FR4" s="41"/>
       <c r="FS4" s="41"/>
     </row>
-    <row r="5" spans="1:176" ht="16.5">
+    <row r="5" spans="1:176" ht="14.4">
       <c r="A5" s="35" t="str">
         <f>+PPC!A5</f>
         <v>ALTO RESIDUAL</v>
@@ -15252,7 +15308,7 @@
         <v>34</v>
       </c>
       <c r="O6" s="97">
-        <f t="shared" si="3"/>
+        <f>+M6/$M$10</f>
         <v>5.7091516758131657E-2</v>
       </c>
       <c r="T6" s="181"/>
@@ -15324,13 +15380,13 @@
       <c r="R7" s="61" t="s">
         <v>166</v>
       </c>
-      <c r="S7" s="49">
-        <f>+G20+G25+G30+G35+G40+G45+G50</f>
-        <v>1291.0954576067541</v>
-      </c>
-      <c r="T7" s="183">
+      <c r="S7" s="49" t="e" cm="1">
+        <f t="array" ref="S7">+G20+T25G25+G30+G35+G40+G45+G50</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="T7" s="183" t="e">
         <f>+S7/R2</f>
-        <v>41.46005007199085</v>
+        <v>#NAME?</v>
       </c>
       <c r="FK7" s="32">
         <v>5</v>
@@ -15348,7 +15404,7 @@
       <c r="FR7" s="41"/>
       <c r="FS7" s="41"/>
     </row>
-    <row r="8" spans="1:176" ht="16.5">
+    <row r="8" spans="1:176" ht="14.4">
       <c r="A8" s="35" t="str">
         <f>+PPC!A8</f>
         <v>ARRABIO</v>
@@ -15555,17 +15611,17 @@
       <c r="R11" s="181" t="s">
         <v>51</v>
       </c>
-      <c r="S11" s="182">
+      <c r="S11" s="182" t="e">
         <f>+S9-S7</f>
-        <v>-291.09545760675405</v>
-      </c>
-      <c r="T11" s="183">
+        <v>#NAME?</v>
+      </c>
+      <c r="T11" s="183" t="e">
         <f>+S11*1.4284</f>
-        <v>-415.80075164548748</v>
-      </c>
-      <c r="U11" s="183">
+        <v>#NAME?</v>
+      </c>
+      <c r="U11" s="183" t="e">
         <f>+T11*1000</f>
-        <v>-415800.7516454875</v>
+        <v>#NAME?</v>
       </c>
       <c r="FK11" s="32">
         <v>9</v>
@@ -15618,7 +15674,7 @@
       <c r="FR12" s="41"/>
       <c r="FS12" s="41"/>
     </row>
-    <row r="13" spans="1:176" ht="16.5">
+    <row r="13" spans="1:176" ht="14.4">
       <c r="B13" s="63">
         <v>34</v>
       </c>
@@ -15640,9 +15696,9 @@
       <c r="R13" s="181" t="s">
         <v>52</v>
       </c>
-      <c r="S13" s="184">
+      <c r="S13" s="184" t="e">
         <f>+U11/R2*0.5</f>
-        <v>-6676.1601094735197</v>
+        <v>#NAME?</v>
       </c>
       <c r="T13" s="181"/>
       <c r="U13" s="181"/>
@@ -15744,7 +15800,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:176" ht="13.5" thickBot="1">
+    <row r="16" spans="1:176" ht="14.4" thickBot="1">
       <c r="A16" s="33" t="s">
         <v>212</v>
       </c>
@@ -15923,7 +15979,7 @@
       </c>
       <c r="FS19" s="41"/>
     </row>
-    <row r="20" spans="1:175" ht="13.5" thickBot="1">
+    <row r="20" spans="1:175" ht="14.4" thickBot="1">
       <c r="A20" s="35" t="s">
         <v>107</v>
       </c>
@@ -15962,7 +16018,7 @@
       </c>
       <c r="FS20" s="41"/>
     </row>
-    <row r="21" spans="1:175" ht="13.5" thickBot="1">
+    <row r="21" spans="1:175" ht="14.4" thickBot="1">
       <c r="A21" s="35" t="s">
         <v>108</v>
       </c>
@@ -15999,7 +16055,7 @@
         <f>+K75</f>
         <v>0</v>
       </c>
-      <c r="D22" s="241" t="s">
+      <c r="D22" s="245" t="s">
         <v>231</v>
       </c>
       <c r="E22" s="69">
@@ -16034,7 +16090,7 @@
       <c r="FR22" s="41"/>
       <c r="FS22" s="41"/>
     </row>
-    <row r="23" spans="1:175" ht="16.5">
+    <row r="23" spans="1:175" ht="14.4">
       <c r="A23" s="35" t="s">
         <v>141</v>
       </c>
@@ -16042,7 +16098,7 @@
         <f>+I75</f>
         <v>16.380690000000001</v>
       </c>
-      <c r="D23" s="242"/>
+      <c r="D23" s="246"/>
       <c r="E23" s="71" t="s">
         <v>139</v>
       </c>
@@ -16139,7 +16195,7 @@
       <c r="FR24" s="41"/>
       <c r="FS24" s="41"/>
     </row>
-    <row r="25" spans="1:175" ht="13.5" thickBot="1">
+    <row r="25" spans="1:175" ht="14.4" thickBot="1">
       <c r="A25" s="35"/>
       <c r="B25" s="51">
         <f>SUM(B17:B24)</f>
@@ -16184,7 +16240,7 @@
       <c r="FR25" s="41"/>
       <c r="FS25" s="41"/>
     </row>
-    <row r="26" spans="1:175" ht="13.5" thickBot="1">
+    <row r="26" spans="1:175" ht="14.4" thickBot="1">
       <c r="A26" s="52" t="s">
         <v>58</v>
       </c>
@@ -16228,7 +16284,7 @@
       <c r="B27" s="68">
         <v>0</v>
       </c>
-      <c r="D27" s="241" t="s">
+      <c r="D27" s="245" t="s">
         <v>50</v>
       </c>
       <c r="E27" s="69">
@@ -16281,7 +16337,7 @@
         <f>+B27*0.58+B26*0.86</f>
         <v>602</v>
       </c>
-      <c r="D28" s="242"/>
+      <c r="D28" s="246"/>
       <c r="E28" s="71" t="s">
         <v>139</v>
       </c>
@@ -16379,7 +16435,7 @@
       <c r="FR29" s="41"/>
       <c r="FS29" s="41"/>
     </row>
-    <row r="30" spans="1:175" ht="13.5" thickBot="1">
+    <row r="30" spans="1:175" ht="14.4" thickBot="1">
       <c r="A30" s="32" t="s">
         <v>31</v>
       </c>
@@ -16425,7 +16481,7 @@
       <c r="FR30" s="41"/>
       <c r="FS30" s="41"/>
     </row>
-    <row r="31" spans="1:175" ht="13.5" thickBot="1">
+    <row r="31" spans="1:175" ht="14.4" thickBot="1">
       <c r="B31" s="51">
         <f>SUM(B28:B30)</f>
         <v>623</v>
@@ -16606,7 +16662,7 @@
       <c r="FR34" s="41"/>
       <c r="FS34" s="41"/>
     </row>
-    <row r="35" spans="1:175" ht="13.5" thickBot="1">
+    <row r="35" spans="1:175" ht="14.4" thickBot="1">
       <c r="A35" s="32" t="s">
         <v>29</v>
       </c>
@@ -16651,7 +16707,7 @@
       <c r="FR35" s="41"/>
       <c r="FS35" s="41"/>
     </row>
-    <row r="36" spans="1:175" ht="13.5" thickBot="1">
+    <row r="36" spans="1:175" ht="14.4" thickBot="1">
       <c r="B36" s="51">
         <f>+B32-B34-B35</f>
         <v>-180</v>
@@ -16806,7 +16862,7 @@
       <c r="FR39" s="41"/>
       <c r="FS39" s="41"/>
     </row>
-    <row r="40" spans="1:175" ht="13.5" thickBot="1">
+    <row r="40" spans="1:175" ht="14.4" thickBot="1">
       <c r="A40" s="89" t="s">
         <v>137</v>
       </c>
@@ -16846,7 +16902,7 @@
       <c r="FR40" s="41"/>
       <c r="FS40" s="41"/>
     </row>
-    <row r="41" spans="1:175" ht="13.5" thickBot="1">
+    <row r="41" spans="1:175" ht="14.4" thickBot="1">
       <c r="A41" s="89" t="s">
         <v>129</v>
       </c>
@@ -17048,7 +17104,7 @@
       <c r="FR44" s="41"/>
       <c r="FS44" s="41"/>
     </row>
-    <row r="45" spans="1:175" ht="13.5" thickBot="1">
+    <row r="45" spans="1:175" ht="14.4" thickBot="1">
       <c r="D45" s="76"/>
       <c r="E45" s="77"/>
       <c r="F45" s="77"/>
@@ -17086,7 +17142,7 @@
       <c r="FR45" s="41"/>
       <c r="FS45" s="41"/>
     </row>
-    <row r="46" spans="1:175" ht="13.5" thickBot="1">
+    <row r="46" spans="1:175" ht="14.4" thickBot="1">
       <c r="D46" s="71"/>
       <c r="E46" s="71"/>
       <c r="F46" s="71"/>
@@ -17234,7 +17290,7 @@
       <c r="FR49" s="41"/>
       <c r="FS49" s="41"/>
     </row>
-    <row r="50" spans="2:176" ht="13.5" thickBot="1">
+    <row r="50" spans="2:176" ht="14.4" thickBot="1">
       <c r="D50" s="76"/>
       <c r="E50" s="77"/>
       <c r="F50" s="77"/>
@@ -17275,7 +17331,7 @@
       <c r="FR50" s="41"/>
       <c r="FS50" s="41"/>
     </row>
-    <row r="51" spans="2:176" ht="13.5" thickBot="1">
+    <row r="51" spans="2:176" ht="14.4" thickBot="1">
       <c r="D51" s="71"/>
       <c r="E51" s="71"/>
       <c r="F51" s="71"/>
@@ -17409,7 +17465,7 @@
       <c r="FR54" s="41"/>
       <c r="FS54" s="41"/>
     </row>
-    <row r="55" spans="2:176" ht="13.5" thickBot="1">
+    <row r="55" spans="2:176" ht="14.4" thickBot="1">
       <c r="D55" s="76"/>
       <c r="E55" s="77"/>
       <c r="F55" s="77"/>
@@ -17791,7 +17847,7 @@
         <v>283</v>
       </c>
       <c r="B71" s="36">
-        <f t="shared" ref="B71:B74" si="5">+D6*1000</f>
+        <f t="shared" ref="B71:B73" si="5">+D6*1000</f>
         <v>0</v>
       </c>
       <c r="C71" s="36">
@@ -17938,7 +17994,7 @@
         <v>83</v>
       </c>
       <c r="B74" s="36">
-        <f t="shared" si="5"/>
+        <f>+D9*1000</f>
         <v>78.880000000000067</v>
       </c>
       <c r="C74" s="36">
@@ -17982,7 +18038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:18" ht="15.75">
+    <row r="75" spans="1:18" ht="15.6">
       <c r="A75" s="92" t="s">
         <v>119</v>
       </c>
@@ -18050,21 +18106,21 @@
       <c r="F78" s="56" t="s">
         <v>154</v>
       </c>
-      <c r="H78" s="245" t="s">
+      <c r="H78" s="243" t="s">
         <v>144</v>
       </c>
-      <c r="I78" s="245"/>
-      <c r="J78" s="245"/>
-      <c r="K78" s="245"/>
-      <c r="M78" s="245" t="s">
+      <c r="I78" s="243"/>
+      <c r="J78" s="243"/>
+      <c r="K78" s="243"/>
+      <c r="M78" s="243" t="s">
         <v>145</v>
       </c>
-      <c r="N78" s="245"/>
-      <c r="O78" s="245"/>
-      <c r="Q78" s="240" t="s">
+      <c r="N78" s="243"/>
+      <c r="O78" s="243"/>
+      <c r="Q78" s="244" t="s">
         <v>148</v>
       </c>
-      <c r="R78" s="240"/>
+      <c r="R78" s="244"/>
     </row>
     <row r="79" spans="1:18">
       <c r="A79" s="57" t="s">
@@ -18283,17 +18339,17 @@
       <c r="D90" s="98"/>
       <c r="E90" s="98"/>
       <c r="F90" s="98"/>
-      <c r="H90" s="245" t="s">
+      <c r="H90" s="243" t="s">
         <v>146</v>
       </c>
-      <c r="I90" s="245"/>
-      <c r="J90" s="245"/>
-      <c r="K90" s="245"/>
-      <c r="M90" s="245" t="s">
+      <c r="I90" s="243"/>
+      <c r="J90" s="243"/>
+      <c r="K90" s="243"/>
+      <c r="M90" s="243" t="s">
         <v>147</v>
       </c>
-      <c r="N90" s="245"/>
-      <c r="O90" s="245"/>
+      <c r="N90" s="243"/>
+      <c r="O90" s="243"/>
     </row>
     <row r="91" spans="1:15">
       <c r="B91" s="32">
@@ -18627,14 +18683,14 @@
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="H78:K78"/>
+    <mergeCell ref="M78:O78"/>
     <mergeCell ref="H90:K90"/>
     <mergeCell ref="M90:O90"/>
     <mergeCell ref="Q78:R78"/>
     <mergeCell ref="D22:D23"/>
     <mergeCell ref="D27:D28"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="H78:K78"/>
-    <mergeCell ref="M78:O78"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -18650,14 +18706,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A2:O48"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="N22" sqref="N22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="8.28515625" customWidth="1"/>
-    <col min="9" max="9" width="12.140625" customWidth="1"/>
+    <col min="2" max="2" width="8.33203125" customWidth="1"/>
+    <col min="9" max="9" width="12.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:15">
@@ -18667,9 +18723,9 @@
       <c r="D2" t="s">
         <v>167</v>
       </c>
-      <c r="E2" s="100">
+      <c r="E2" s="100" t="e">
         <f>+'Horno Eléctrico'!S13*0.1</f>
-        <v>-667.61601094735204</v>
+        <v>#NAME?</v>
       </c>
       <c r="F2" t="s">
         <v>52</v>
@@ -18681,9 +18737,9 @@
         <f>(G11+G16+G21+G26)*1.4284</f>
         <v>136.20412121212121</v>
       </c>
-      <c r="J2">
+      <c r="J2" t="e">
         <f>(E2-I2)*1000</f>
-        <v>-803820.13215947326</v>
+        <v>#NAME?</v>
       </c>
       <c r="K2" s="33" t="s">
         <v>177</v>
@@ -18692,15 +18748,15 @@
         <f>+B18+I15+I20+I25</f>
         <v>400.11745454545451</v>
       </c>
-      <c r="M2" s="243" t="s">
+      <c r="M2" s="247" t="s">
         <v>42</v>
       </c>
-      <c r="N2" s="244"/>
+      <c r="N2" s="248"/>
       <c r="O2" s="64" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="16.5">
+    <row r="3" spans="1:15">
       <c r="A3" t="s">
         <v>163</v>
       </c>
@@ -18713,9 +18769,9 @@
       <c r="H3" t="s">
         <v>52</v>
       </c>
-      <c r="I3">
+      <c r="I3" t="e">
         <f>+J2/'Horno Eléctrico'!R2</f>
-        <v>-25812.516597325626</v>
+        <v>#NAME?</v>
       </c>
       <c r="K3" s="32" t="s">
         <v>29</v>
@@ -18794,7 +18850,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="16.5">
+    <row r="6" spans="1:15">
       <c r="A6" t="s">
         <v>171</v>
       </c>
@@ -18823,7 +18879,7 @@
         <v>1352.2031896364197</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="15.75" thickBot="1">
+    <row r="7" spans="1:15" ht="15" thickBot="1">
       <c r="A7" t="s">
         <v>170</v>
       </c>
@@ -18850,7 +18906,7 @@
       <c r="O7" s="32"/>
     </row>
     <row r="8" spans="1:15">
-      <c r="D8" s="241" t="s">
+      <c r="D8" s="245" t="s">
         <v>50</v>
       </c>
       <c r="E8" s="69">
@@ -18883,11 +18939,11 @@
         <v>62</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="16.5">
+    <row r="9" spans="1:15">
       <c r="A9" t="s">
         <v>173</v>
       </c>
-      <c r="D9" s="242"/>
+      <c r="D9" s="246"/>
       <c r="E9" s="71" t="s">
         <v>139</v>
       </c>
@@ -18957,7 +19013,7 @@
       </c>
       <c r="O10" s="32"/>
     </row>
-    <row r="11" spans="1:15" ht="15.75" thickBot="1">
+    <row r="11" spans="1:15" ht="15" thickBot="1">
       <c r="A11" t="s">
         <v>164</v>
       </c>
@@ -18982,7 +19038,7 @@
       <c r="N11" s="32"/>
       <c r="O11" s="32"/>
     </row>
-    <row r="12" spans="1:15" ht="15.75" thickBot="1">
+    <row r="12" spans="1:15" ht="15" thickBot="1">
       <c r="A12" t="s">
         <v>165</v>
       </c>
@@ -19080,15 +19136,15 @@
         <f>SUM(L16:L23)</f>
         <v>371.11302292119257</v>
       </c>
-      <c r="M15" s="243" t="s">
+      <c r="M15" s="247" t="s">
         <v>42</v>
       </c>
-      <c r="N15" s="244"/>
+      <c r="N15" s="248"/>
       <c r="O15" s="64" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="17.25" thickBot="1">
+    <row r="16" spans="1:15" ht="15" thickBot="1">
       <c r="D16" s="76"/>
       <c r="E16" s="77"/>
       <c r="F16" s="77"/>
@@ -19117,7 +19173,7 @@
         <v>1.3440998658278069</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="15.75" thickBot="1">
+    <row r="17" spans="1:15" ht="15" thickBot="1">
       <c r="D17" s="71"/>
       <c r="E17" s="71"/>
       <c r="F17" s="71"/>
@@ -19178,7 +19234,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="16.5">
+    <row r="19" spans="1:15">
       <c r="A19" s="32" t="s">
         <v>29</v>
       </c>
@@ -19262,7 +19318,7 @@
       </c>
       <c r="O20" s="32"/>
     </row>
-    <row r="21" spans="1:15" ht="15.75" thickBot="1">
+    <row r="21" spans="1:15" ht="15" thickBot="1">
       <c r="A21" s="32" t="s">
         <v>33</v>
       </c>
@@ -19297,7 +19353,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="17.25" thickBot="1">
+    <row r="22" spans="1:15" ht="15" thickBot="1">
       <c r="A22" s="32" t="s">
         <v>30</v>
       </c>
@@ -19411,7 +19467,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="26" spans="1:15" ht="15.75" thickBot="1">
+    <row r="26" spans="1:15" ht="15" thickBot="1">
       <c r="A26" s="32" t="s">
         <v>38</v>
       </c>
@@ -19429,7 +19485,7 @@
       <c r="H26" s="77"/>
       <c r="I26" s="84"/>
     </row>
-    <row r="27" spans="1:15" ht="15.75" thickBot="1"/>
+    <row r="27" spans="1:15" ht="15" thickBot="1"/>
     <row r="28" spans="1:15">
       <c r="D28" s="80"/>
       <c r="E28" s="69">
@@ -19481,7 +19537,7 @@
         <v>41.344909572894039</v>
       </c>
     </row>
-    <row r="31" spans="1:15" ht="15.75" thickBot="1">
+    <row r="31" spans="1:15" ht="15" thickBot="1">
       <c r="D31" s="76"/>
       <c r="E31" s="77"/>
       <c r="F31" s="77"/>
@@ -19492,7 +19548,7 @@
       <c r="H31" s="77"/>
       <c r="I31" s="79"/>
     </row>
-    <row r="32" spans="1:15" ht="15.75" thickBot="1"/>
+    <row r="32" spans="1:15" ht="15" thickBot="1"/>
     <row r="33" spans="4:12">
       <c r="D33" s="80"/>
       <c r="E33" s="69">
@@ -19545,7 +19601,7 @@
         <v>86.58</v>
       </c>
     </row>
-    <row r="36" spans="4:12" ht="15.75" thickBot="1">
+    <row r="36" spans="4:12" ht="15" thickBot="1">
       <c r="D36" s="76"/>
       <c r="E36" s="83"/>
       <c r="F36" s="83"/>
@@ -19779,7 +19835,7 @@
       <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -19789,23 +19845,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:W95"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="23.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" style="1"/>
-    <col min="3" max="3" width="13.5703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" style="1"/>
-    <col min="5" max="5" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.42578125" style="1"/>
-    <col min="7" max="7" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="12" width="11.42578125" style="1"/>
-    <col min="13" max="13" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="8.85546875" style="1" customWidth="1"/>
-    <col min="16" max="16384" width="11.42578125" style="1"/>
+    <col min="1" max="1" width="23.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.44140625" style="1"/>
+    <col min="3" max="3" width="13.5546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" style="1"/>
+    <col min="5" max="5" width="12.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.44140625" style="1"/>
+    <col min="7" max="7" width="8.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="12" width="11.44140625" style="1"/>
+    <col min="13" max="13" width="12.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="8.88671875" style="1" customWidth="1"/>
+    <col min="16" max="16384" width="11.44140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
@@ -20436,7 +20492,7 @@
         <f>+D14*0.067*1000</f>
         <v>150.75000000000009</v>
       </c>
-      <c r="D22" s="246" t="s">
+      <c r="D22" s="249" t="s">
         <v>49</v>
       </c>
       <c r="E22" s="1">
@@ -20458,7 +20514,7 @@
         <f>+D14*0.02*1000+B36</f>
         <v>227.69590909090911</v>
       </c>
-      <c r="D23" s="246"/>
+      <c r="D23" s="249"/>
       <c r="E23" s="1" t="s">
         <v>45</v>
       </c>
@@ -20550,7 +20606,7 @@
         <f>+B27*0.58+B26*0.78</f>
         <v>638</v>
       </c>
-      <c r="D28" s="246" t="s">
+      <c r="D28" s="249" t="s">
         <v>50</v>
       </c>
       <c r="E28" s="1">
@@ -20572,7 +20628,7 @@
         <f>+B27*0.23</f>
         <v>253</v>
       </c>
-      <c r="D29" s="246"/>
+      <c r="D29" s="249"/>
       <c r="E29" s="1" t="s">
         <v>45</v>
       </c>
@@ -20739,7 +20795,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="63" spans="1:11">
+    <row r="63" spans="1:11" ht="15">
       <c r="A63" s="24" t="s">
         <v>10</v>
       </c>
@@ -20753,7 +20809,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="64" spans="1:11">
+    <row r="64" spans="1:11" ht="15">
       <c r="A64" s="24" t="s">
         <v>11</v>
       </c>
@@ -20767,7 +20823,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="65" spans="1:5">
+    <row r="65" spans="1:5" ht="15">
       <c r="A65" s="24" t="s">
         <v>64</v>
       </c>
@@ -20781,7 +20837,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="1:5">
+    <row r="66" spans="1:5" ht="15">
       <c r="A66" s="24" t="s">
         <v>65</v>
       </c>
@@ -20795,7 +20851,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:5">
+    <row r="67" spans="1:5" ht="15">
       <c r="A67" s="24" t="s">
         <v>12</v>
       </c>
@@ -20809,7 +20865,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="68" spans="1:5">
+    <row r="68" spans="1:5" ht="15">
       <c r="A68" s="22" t="s">
         <v>66</v>
       </c>
@@ -20823,7 +20879,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:5">
+    <row r="69" spans="1:5" ht="15">
       <c r="A69" s="24" t="s">
         <v>13</v>
       </c>
@@ -20837,7 +20893,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="70" spans="1:5">
+    <row r="70" spans="1:5" ht="15">
       <c r="A70" s="24" t="s">
         <v>14</v>
       </c>
@@ -20851,7 +20907,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="71" spans="1:5">
+    <row r="71" spans="1:5" ht="15">
       <c r="A71" s="24" t="s">
         <v>15</v>
       </c>
@@ -20862,7 +20918,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="72" spans="1:5">
+    <row r="72" spans="1:5" ht="15">
       <c r="A72" s="26" t="s">
         <v>67</v>
       </c>
@@ -20873,7 +20929,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="73" spans="1:5">
+    <row r="73" spans="1:5" ht="15">
       <c r="A73" s="26" t="s">
         <v>68</v>
       </c>
@@ -20884,7 +20940,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="74" spans="1:5">
+    <row r="74" spans="1:5" ht="15">
       <c r="A74" s="27"/>
       <c r="B74" s="25">
         <v>29</v>
@@ -20894,11 +20950,11 @@
         <v>34</v>
       </c>
     </row>
-    <row r="75" spans="1:5">
+    <row r="75" spans="1:5" ht="15">
       <c r="A75" s="23"/>
       <c r="B75" s="23"/>
     </row>
-    <row r="76" spans="1:5">
+    <row r="76" spans="1:5" ht="15">
       <c r="A76" s="24" t="s">
         <v>69</v>
       </c>
@@ -20906,7 +20962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:5">
+    <row r="77" spans="1:5" ht="15">
       <c r="A77" s="24" t="s">
         <v>70</v>
       </c>
@@ -20914,7 +20970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:5">
+    <row r="78" spans="1:5" ht="15">
       <c r="A78" s="24" t="s">
         <v>16</v>
       </c>
@@ -21275,25 +21331,25 @@
       <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="18.42578125" style="32" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="32" customWidth="1"/>
-    <col min="3" max="3" width="6.7109375" style="32" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" style="32" customWidth="1"/>
-    <col min="5" max="5" width="10.42578125" style="32" customWidth="1"/>
-    <col min="6" max="6" width="9.28515625" style="32" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" style="32" customWidth="1"/>
-    <col min="8" max="8" width="9.28515625" style="32" customWidth="1"/>
+    <col min="1" max="1" width="18.44140625" style="32" customWidth="1"/>
+    <col min="2" max="2" width="9.109375" style="32" customWidth="1"/>
+    <col min="3" max="3" width="6.6640625" style="32" customWidth="1"/>
+    <col min="4" max="4" width="11.109375" style="32" customWidth="1"/>
+    <col min="5" max="5" width="10.44140625" style="32" customWidth="1"/>
+    <col min="6" max="6" width="9.33203125" style="32" customWidth="1"/>
+    <col min="7" max="7" width="9.109375" style="32" customWidth="1"/>
+    <col min="8" max="8" width="9.33203125" style="32" customWidth="1"/>
     <col min="9" max="9" width="8" style="32" customWidth="1"/>
-    <col min="10" max="10" width="10.42578125" style="32" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="5.140625" style="32" customWidth="1"/>
-    <col min="12" max="12" width="7.28515625" style="32" customWidth="1"/>
-    <col min="13" max="13" width="12.42578125" style="32" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.5703125" style="32" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.42578125" style="32" customWidth="1"/>
-    <col min="16" max="16" width="12.140625" style="32" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="11.42578125" style="32"/>
+    <col min="10" max="10" width="10.44140625" style="32" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.109375" style="32" customWidth="1"/>
+    <col min="12" max="12" width="7.33203125" style="32" customWidth="1"/>
+    <col min="13" max="13" width="12.44140625" style="32" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.5546875" style="32" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.44140625" style="32" customWidth="1"/>
+    <col min="16" max="16" width="12.109375" style="32" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="11.44140625" style="32"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:176" ht="15" customHeight="1">
@@ -21328,10 +21384,10 @@
         <f>+B16+B27+B33+I19+B26+B38</f>
         <v>4564.5246181818193</v>
       </c>
-      <c r="N1" s="243" t="s">
+      <c r="N1" s="247" t="s">
         <v>42</v>
       </c>
-      <c r="O1" s="244"/>
+      <c r="O1" s="248"/>
       <c r="P1" s="64" t="s">
         <v>39</v>
       </c>
@@ -21372,7 +21428,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="2" spans="1:176" ht="16.5">
+    <row r="2" spans="1:176" ht="14.4">
       <c r="A2" s="35" t="str">
         <f>+PPC!A2</f>
         <v>LIVIANA</v>
@@ -21585,7 +21641,7 @@
       <c r="FR4" s="41"/>
       <c r="FS4" s="41"/>
     </row>
-    <row r="5" spans="1:176" ht="16.5">
+    <row r="5" spans="1:176" ht="14.4">
       <c r="A5" s="35" t="str">
         <f>+PPC!A5</f>
         <v>ALTO RESIDUAL</v>
@@ -21800,7 +21856,7 @@
       <c r="FR7" s="41"/>
       <c r="FS7" s="41"/>
     </row>
-    <row r="8" spans="1:176" ht="16.5">
+    <row r="8" spans="1:176" ht="14.4">
       <c r="A8" s="35" t="str">
         <f>+PPC!A8</f>
         <v>ARRABIO</v>
@@ -22070,7 +22126,7 @@
       <c r="FR12" s="41"/>
       <c r="FS12" s="41"/>
     </row>
-    <row r="13" spans="1:176" ht="16.5">
+    <row r="13" spans="1:176" ht="14.4">
       <c r="B13" s="63">
         <v>33</v>
       </c>
@@ -22193,7 +22249,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:176" ht="13.5" thickBot="1">
+    <row r="16" spans="1:176" ht="14.4" thickBot="1">
       <c r="A16" s="33" t="s">
         <v>212</v>
       </c>
@@ -22372,7 +22428,7 @@
       </c>
       <c r="FS19" s="41"/>
     </row>
-    <row r="20" spans="1:175" ht="13.5" thickBot="1">
+    <row r="20" spans="1:175" ht="14.4" thickBot="1">
       <c r="A20" s="35" t="s">
         <v>107</v>
       </c>
@@ -22411,7 +22467,7 @@
       </c>
       <c r="FS20" s="41"/>
     </row>
-    <row r="21" spans="1:175" ht="13.5" thickBot="1">
+    <row r="21" spans="1:175" ht="14.4" thickBot="1">
       <c r="A21" s="35" t="s">
         <v>108</v>
       </c>
@@ -22448,7 +22504,7 @@
         <f>+K78</f>
         <v>0</v>
       </c>
-      <c r="D22" s="241" t="s">
+      <c r="D22" s="245" t="s">
         <v>231</v>
       </c>
       <c r="E22" s="69">
@@ -22483,7 +22539,7 @@
       <c r="FR22" s="41"/>
       <c r="FS22" s="41"/>
     </row>
-    <row r="23" spans="1:175" ht="16.5">
+    <row r="23" spans="1:175" ht="14.4">
       <c r="A23" s="35" t="s">
         <v>141</v>
       </c>
@@ -22491,7 +22547,7 @@
         <f>+I78</f>
         <v>13.773177000000006</v>
       </c>
-      <c r="D23" s="242"/>
+      <c r="D23" s="246"/>
       <c r="E23" s="71" t="s">
         <v>139</v>
       </c>
@@ -22588,7 +22644,7 @@
       <c r="FR24" s="41"/>
       <c r="FS24" s="41"/>
     </row>
-    <row r="25" spans="1:175" ht="13.5" thickBot="1">
+    <row r="25" spans="1:175" ht="14.4" thickBot="1">
       <c r="A25" s="35"/>
       <c r="B25" s="51">
         <f>SUM(B17:B24)</f>
@@ -22633,7 +22689,7 @@
       <c r="FR25" s="41"/>
       <c r="FS25" s="41"/>
     </row>
-    <row r="26" spans="1:175" ht="13.5" thickBot="1">
+    <row r="26" spans="1:175" ht="14.4" thickBot="1">
       <c r="A26" s="52" t="s">
         <v>58</v>
       </c>
@@ -22677,7 +22733,7 @@
       <c r="B27" s="68">
         <v>0</v>
       </c>
-      <c r="D27" s="241" t="s">
+      <c r="D27" s="245" t="s">
         <v>50</v>
       </c>
       <c r="E27" s="69">
@@ -22730,7 +22786,7 @@
         <f>+B27*0.58+B26*0.83</f>
         <v>581</v>
       </c>
-      <c r="D28" s="242"/>
+      <c r="D28" s="246"/>
       <c r="E28" s="71" t="s">
         <v>139</v>
       </c>
@@ -22828,7 +22884,7 @@
       <c r="FR29" s="41"/>
       <c r="FS29" s="41"/>
     </row>
-    <row r="30" spans="1:175" ht="13.5" thickBot="1">
+    <row r="30" spans="1:175" ht="14.4" thickBot="1">
       <c r="A30" s="32" t="s">
         <v>31</v>
       </c>
@@ -22874,7 +22930,7 @@
       <c r="FR30" s="41"/>
       <c r="FS30" s="41"/>
     </row>
-    <row r="31" spans="1:175" ht="13.5" thickBot="1">
+    <row r="31" spans="1:175" ht="14.4" thickBot="1">
       <c r="B31" s="51">
         <f>SUM(B28:B30)</f>
         <v>616</v>
@@ -23055,7 +23111,7 @@
       <c r="FR34" s="41"/>
       <c r="FS34" s="41"/>
     </row>
-    <row r="35" spans="1:175" ht="13.5" thickBot="1">
+    <row r="35" spans="1:175" ht="14.4" thickBot="1">
       <c r="A35" s="32" t="s">
         <v>29</v>
       </c>
@@ -23100,7 +23156,7 @@
       <c r="FR35" s="41"/>
       <c r="FS35" s="41"/>
     </row>
-    <row r="36" spans="1:175" ht="13.5" thickBot="1">
+    <row r="36" spans="1:175" ht="14.4" thickBot="1">
       <c r="B36" s="51">
         <f>+B32-B34-B35</f>
         <v>-120</v>
@@ -23255,7 +23311,7 @@
       <c r="FR39" s="41"/>
       <c r="FS39" s="41"/>
     </row>
-    <row r="40" spans="1:175" ht="13.5" thickBot="1">
+    <row r="40" spans="1:175" ht="14.4" thickBot="1">
       <c r="A40" s="89" t="s">
         <v>137</v>
       </c>
@@ -23292,7 +23348,7 @@
       <c r="FR40" s="41"/>
       <c r="FS40" s="41"/>
     </row>
-    <row r="41" spans="1:175" ht="13.5" thickBot="1">
+    <row r="41" spans="1:175" ht="14.4" thickBot="1">
       <c r="A41" s="89" t="s">
         <v>129</v>
       </c>
@@ -23416,7 +23472,7 @@
       <c r="FR44" s="41"/>
       <c r="FS44" s="41"/>
     </row>
-    <row r="45" spans="1:175" ht="13.5" thickBot="1">
+    <row r="45" spans="1:175" ht="14.4" thickBot="1">
       <c r="D45" s="76"/>
       <c r="E45" s="77"/>
       <c r="F45" s="77"/>
@@ -23442,7 +23498,7 @@
       <c r="FR45" s="41"/>
       <c r="FS45" s="41"/>
     </row>
-    <row r="46" spans="1:175" ht="13.5" thickBot="1">
+    <row r="46" spans="1:175" ht="14.4" thickBot="1">
       <c r="D46" s="71"/>
       <c r="E46" s="71"/>
       <c r="F46" s="71"/>
@@ -23562,7 +23618,7 @@
       <c r="FR49" s="41"/>
       <c r="FS49" s="41"/>
     </row>
-    <row r="50" spans="2:176" ht="13.5" thickBot="1">
+    <row r="50" spans="2:176" ht="14.4" thickBot="1">
       <c r="D50" s="76"/>
       <c r="E50" s="77"/>
       <c r="F50" s="77"/>
@@ -23588,7 +23644,7 @@
       <c r="FR50" s="41"/>
       <c r="FS50" s="41"/>
     </row>
-    <row r="51" spans="2:176" ht="13.5" thickBot="1">
+    <row r="51" spans="2:176" ht="14.4" thickBot="1">
       <c r="D51" s="71"/>
       <c r="E51" s="71"/>
       <c r="F51" s="71"/>
@@ -23710,7 +23766,7 @@
       <c r="FR54" s="41"/>
       <c r="FS54" s="41"/>
     </row>
-    <row r="55" spans="2:176" ht="13.5" thickBot="1">
+    <row r="55" spans="2:176" ht="14.4" thickBot="1">
       <c r="D55" s="76"/>
       <c r="E55" s="77"/>
       <c r="F55" s="77"/>
@@ -24430,7 +24486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:12" ht="15.75">
+    <row r="78" spans="1:12" ht="15.6">
       <c r="A78" s="92" t="s">
         <v>119</v>
       </c>
@@ -24498,21 +24554,21 @@
       <c r="F81" s="56" t="s">
         <v>154</v>
       </c>
-      <c r="H81" s="245" t="s">
+      <c r="H81" s="243" t="s">
         <v>144</v>
       </c>
-      <c r="I81" s="245"/>
-      <c r="J81" s="245"/>
-      <c r="K81" s="245"/>
-      <c r="M81" s="245" t="s">
+      <c r="I81" s="243"/>
+      <c r="J81" s="243"/>
+      <c r="K81" s="243"/>
+      <c r="M81" s="243" t="s">
         <v>145</v>
       </c>
-      <c r="N81" s="245"/>
-      <c r="O81" s="245"/>
-      <c r="Q81" s="240" t="s">
+      <c r="N81" s="243"/>
+      <c r="O81" s="243"/>
+      <c r="Q81" s="244" t="s">
         <v>148</v>
       </c>
-      <c r="R81" s="240"/>
+      <c r="R81" s="244"/>
     </row>
     <row r="82" spans="1:18">
       <c r="A82" s="57" t="s">
@@ -24731,17 +24787,17 @@
       <c r="D93" s="98"/>
       <c r="E93" s="98"/>
       <c r="F93" s="98"/>
-      <c r="H93" s="245" t="s">
+      <c r="H93" s="243" t="s">
         <v>146</v>
       </c>
-      <c r="I93" s="245"/>
-      <c r="J93" s="245"/>
-      <c r="K93" s="245"/>
-      <c r="M93" s="245" t="s">
+      <c r="I93" s="243"/>
+      <c r="J93" s="243"/>
+      <c r="K93" s="243"/>
+      <c r="M93" s="243" t="s">
         <v>147</v>
       </c>
-      <c r="N93" s="245"/>
-      <c r="O93" s="245"/>
+      <c r="N93" s="243"/>
+      <c r="O93" s="243"/>
     </row>
     <row r="94" spans="1:18">
       <c r="G94" s="36"/>
@@ -25078,7 +25134,7 @@
       <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1">

--- a/Mix.xlsx
+++ b/Mix.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rodrigo\Documents\SIDER\Scrap Optimization\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SIDER\Scrap Optimization\Clone\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30AB1EC7-CB81-439B-B20D-A8C291DE1A1A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A32C6036-8F5D-4361-A4FA-0C6C48053E77}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inventario" sheetId="9" r:id="rId1"/>
@@ -624,7 +624,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="911" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="912" uniqueCount="302">
   <si>
     <t>Tipo de Chatarra</t>
   </si>
@@ -1527,13 +1527,17 @@
   </si>
   <si>
     <t>Potencia</t>
+  </si>
+  <si>
+    <t>|</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="14">
+  <numFmts count="15">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="165" formatCode="0.0"/>
     <numFmt numFmtId="166" formatCode="0\ &quot;kg&quot;"/>
@@ -2451,7 +2455,7 @@
     <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="250">
+  <cellXfs count="251">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3097,6 +3101,12 @@
     <xf numFmtId="0" fontId="48" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="33" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3109,15 +3119,10 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Millares" xfId="4" builtinId="3"/>
@@ -3254,7 +3259,7 @@
             <c:numRef>
               <c:f>'Horno Eléctrico'!$FK$2:$FK$60</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>Estándar</c:formatCode>
                 <c:ptCount val="59"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -3431,7 +3436,7 @@
                   <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="58" formatCode="0.0">
-                  <c:v>28.645219181086627</c:v>
+                  <c:v>29.442118476938568</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3554,7 +3559,7 @@
             <c:numRef>
               <c:f>'Horno Eléctrico'!$FK$2:$FK$60</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>Estándar</c:formatCode>
                 <c:ptCount val="59"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -3731,7 +3736,7 @@
                   <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="58" formatCode="0.0">
-                  <c:v>28.645219181086627</c:v>
+                  <c:v>29.442118476938568</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3854,7 +3859,7 @@
             <c:numRef>
               <c:f>'Horno Eléctrico'!$FK$2:$FK$60</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>Estándar</c:formatCode>
                 <c:ptCount val="59"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -4031,7 +4036,7 @@
                   <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="58" formatCode="0.0">
-                  <c:v>28.645219181086627</c:v>
+                  <c:v>29.442118476938568</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4135,7 +4140,7 @@
             <c:numRef>
               <c:f>'Horno Eléctrico'!$FK$2:$FK$60</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>Estándar</c:formatCode>
                 <c:ptCount val="59"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -4312,7 +4317,7 @@
                   <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="58" formatCode="0.0">
-                  <c:v>28.645219181086627</c:v>
+                  <c:v>29.442118476938568</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4483,7 +4488,7 @@
             <c:numRef>
               <c:f>'Horno Eléctrico'!$FK$2:$FK$60</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>Estándar</c:formatCode>
                 <c:ptCount val="59"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -4660,7 +4665,7 @@
                   <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="58" formatCode="0.0">
-                  <c:v>28.645219181086627</c:v>
+                  <c:v>29.442118476938568</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4856,7 +4861,7 @@
             <c:numRef>
               <c:f>'Horno Eléctrico'!$FK$2:$FK$60</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>Estándar</c:formatCode>
                 <c:ptCount val="59"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -5033,7 +5038,7 @@
                   <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="58" formatCode="0.0">
-                  <c:v>28.645219181086627</c:v>
+                  <c:v>29.442118476938568</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5160,7 +5165,7 @@
             <c:numRef>
               <c:f>'Horno Eléctrico'!$FK$2:$FK$60</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>Estándar</c:formatCode>
                 <c:ptCount val="59"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -5337,7 +5342,7 @@
                   <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="58" formatCode="0.0">
-                  <c:v>28.645219181086627</c:v>
+                  <c:v>29.442118476938568</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5464,7 +5469,7 @@
             <c:numRef>
               <c:f>'Horno Eléctrico'!$FK$2:$FK$60</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>Estándar</c:formatCode>
                 <c:ptCount val="59"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -5641,7 +5646,7 @@
                   <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="58" formatCode="0.0">
-                  <c:v>28.645219181086627</c:v>
+                  <c:v>29.442118476938568</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5695,7 +5700,7 @@
             <c:numRef>
               <c:f>'Horno Eléctrico'!$FK$2:$FK$60</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>Estándar</c:formatCode>
                 <c:ptCount val="59"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -5872,7 +5877,7 @@
                   <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="58" formatCode="0.0">
-                  <c:v>28.645219181086627</c:v>
+                  <c:v>29.442118476938568</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5881,10 +5886,10 @@
             <c:numRef>
               <c:f>'Horno Eléctrico'!$FT$2:$FT$60</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>Estándar</c:formatCode>
                 <c:ptCount val="59"/>
                 <c:pt idx="58" formatCode="0.0">
-                  <c:v>7.0087779864219186</c:v>
+                  <c:v>7.2037595715462501</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5938,7 +5943,7 @@
           </c:tx>
           <c:overlay val="0"/>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="Estándar" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -6117,7 +6122,7 @@
             <c:numRef>
               <c:f>'Horno Eléctrico'!$FK$2:$FK$60</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>Estándar</c:formatCode>
                 <c:ptCount val="59"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -6294,7 +6299,7 @@
                   <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="58" formatCode="0.0">
-                  <c:v>28.645219181086627</c:v>
+                  <c:v>29.442118476938568</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6417,7 +6422,7 @@
             <c:numRef>
               <c:f>'Horno Eléctrico'!$FK$2:$FK$60</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>Estándar</c:formatCode>
                 <c:ptCount val="59"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -6594,7 +6599,7 @@
                   <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="58" formatCode="0.0">
-                  <c:v>28.645219181086627</c:v>
+                  <c:v>29.442118476938568</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6717,7 +6722,7 @@
             <c:numRef>
               <c:f>'Horno Eléctrico'!$FK$2:$FK$60</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>Estándar</c:formatCode>
                 <c:ptCount val="59"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -6894,7 +6899,7 @@
                   <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="58" formatCode="0.0">
-                  <c:v>28.645219181086627</c:v>
+                  <c:v>29.442118476938568</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6998,7 +7003,7 @@
             <c:numRef>
               <c:f>'Horno Eléctrico'!$FK$2:$FK$60</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>Estándar</c:formatCode>
                 <c:ptCount val="59"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -7175,7 +7180,7 @@
                   <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="58" formatCode="0.0">
-                  <c:v>28.645219181086627</c:v>
+                  <c:v>29.442118476938568</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7346,7 +7351,7 @@
             <c:numRef>
               <c:f>'Horno Eléctrico'!$FK$2:$FK$60</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>Estándar</c:formatCode>
                 <c:ptCount val="59"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -7523,7 +7528,7 @@
                   <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="58" formatCode="0.0">
-                  <c:v>28.645219181086627</c:v>
+                  <c:v>29.442118476938568</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7719,7 +7724,7 @@
             <c:numRef>
               <c:f>'Horno Eléctrico'!$FK$2:$FK$60</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>Estándar</c:formatCode>
                 <c:ptCount val="59"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -7896,7 +7901,7 @@
                   <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="58" formatCode="0.0">
-                  <c:v>28.645219181086627</c:v>
+                  <c:v>29.442118476938568</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8023,7 +8028,7 @@
             <c:numRef>
               <c:f>'Horno Eléctrico'!$FK$2:$FK$60</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>Estándar</c:formatCode>
                 <c:ptCount val="59"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -8200,7 +8205,7 @@
                   <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="58" formatCode="0.0">
-                  <c:v>28.645219181086627</c:v>
+                  <c:v>29.442118476938568</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8327,7 +8332,7 @@
             <c:numRef>
               <c:f>'Horno Eléctrico'!$FK$2:$FK$60</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>Estándar</c:formatCode>
                 <c:ptCount val="59"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -8504,7 +8509,7 @@
                   <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="58" formatCode="0.0">
-                  <c:v>28.645219181086627</c:v>
+                  <c:v>29.442118476938568</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8558,7 +8563,7 @@
             <c:numRef>
               <c:f>'Horno Eléctrico'!$FK$2:$FK$60</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>Estándar</c:formatCode>
                 <c:ptCount val="59"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -8735,7 +8740,7 @@
                   <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="58" formatCode="0.0">
-                  <c:v>28.645219181086627</c:v>
+                  <c:v>29.442118476938568</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8744,10 +8749,10 @@
             <c:numRef>
               <c:f>'Horno Eléctrico'!$FT$2:$FT$60</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>Estándar</c:formatCode>
                 <c:ptCount val="59"/>
                 <c:pt idx="58" formatCode="0.0">
-                  <c:v>7.0087779864219186</c:v>
+                  <c:v>7.2037595715462501</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8801,7 +8806,7 @@
           </c:tx>
           <c:overlay val="0"/>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="Estándar" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -8898,8 +8903,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7173926" y="2457951"/>
-          <a:ext cx="5696761" cy="4155140"/>
+          <a:off x="6978171" y="2490796"/>
+          <a:ext cx="5549616" cy="3934422"/>
           <a:chOff x="13691601" y="78442"/>
           <a:chExt cx="6558881" cy="4784912"/>
         </a:xfrm>
@@ -10371,8 +10376,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7174452" y="2469775"/>
-          <a:ext cx="5698863" cy="4170380"/>
+          <a:off x="6980142" y="2469775"/>
+          <a:ext cx="5550273" cy="3907490"/>
           <a:chOff x="13691601" y="78442"/>
           <a:chExt cx="6558881" cy="4784912"/>
         </a:xfrm>
@@ -11230,14 +11235,14 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="B2" sqref="B2:B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="20.6640625" customWidth="1"/>
-    <col min="3" max="4" width="14.109375" customWidth="1"/>
-    <col min="6" max="6" width="11.44140625" style="146"/>
+    <col min="1" max="1" width="20.7109375" customWidth="1"/>
+    <col min="3" max="4" width="14.140625" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" style="146"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -11459,31 +11464,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:T19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H33" sqref="H33:H35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="7.88671875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -11549,7 +11554,7 @@
         <v>29000</v>
       </c>
     </row>
-    <row r="2" spans="1:20">
+    <row r="2" spans="1:20" ht="16.5">
       <c r="A2" s="35" t="s">
         <v>221</v>
       </c>
@@ -11613,7 +11618,7 @@
         <v>981.0539205164323</v>
       </c>
     </row>
-    <row r="3" spans="1:20">
+    <row r="3" spans="1:20" ht="16.5">
       <c r="A3" s="118" t="s">
         <v>223</v>
       </c>
@@ -11678,7 +11683,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="4" spans="1:20">
+    <row r="4" spans="1:20" ht="16.5">
       <c r="A4" s="115" t="s">
         <v>10</v>
       </c>
@@ -11748,7 +11753,7 @@
         <v>16187.389688521132</v>
       </c>
     </row>
-    <row r="5" spans="1:20">
+    <row r="5" spans="1:20" ht="16.5">
       <c r="A5" s="117" t="s">
         <v>222</v>
       </c>
@@ -11816,7 +11821,7 @@
         <v>7769.9470504901437</v>
       </c>
     </row>
-    <row r="6" spans="1:20">
+    <row r="6" spans="1:20" ht="16.5">
       <c r="A6" s="119" t="s">
         <v>224</v>
       </c>
@@ -11879,7 +11884,7 @@
         <v>647.49558754084535</v>
       </c>
     </row>
-    <row r="7" spans="1:20">
+    <row r="7" spans="1:20" ht="16.5">
       <c r="A7" s="120" t="s">
         <v>81</v>
       </c>
@@ -11945,7 +11950,7 @@
         <v>5827.4602878676078</v>
       </c>
     </row>
-    <row r="8" spans="1:20">
+    <row r="8" spans="1:20" ht="16.5">
       <c r="A8" s="116" t="s">
         <v>82</v>
       </c>
@@ -12009,7 +12014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:20">
+    <row r="9" spans="1:20" ht="16.5">
       <c r="A9" s="121" t="s">
         <v>83</v>
       </c>
@@ -12075,7 +12080,7 @@
         <v>1942.4867626225359</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="17.399999999999999">
+    <row r="10" spans="1:20" ht="18">
       <c r="A10" s="32"/>
       <c r="B10" s="63">
         <v>33</v>
@@ -12328,14 +12333,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CF1F3EF-5E34-4FA8-A3D1-33686BE22993}">
   <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K27" sqref="K27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" customWidth="1"/>
-    <col min="2" max="10" width="6.6640625" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" customWidth="1"/>
+    <col min="2" max="10" width="6.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -12633,51 +12638,52 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AP39"/>
+  <dimension ref="A1:AU39"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1:T8"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AA34" sqref="AA34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="19.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.33203125" customWidth="1"/>
-    <col min="5" max="5" width="10.6640625" customWidth="1"/>
-    <col min="6" max="6" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.28515625" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" customWidth="1"/>
+    <col min="6" max="6" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13" customWidth="1"/>
-    <col min="9" max="9" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.33203125" customWidth="1"/>
-    <col min="11" max="11" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.33203125" customWidth="1"/>
+    <col min="9" max="9" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.28515625" customWidth="1"/>
+    <col min="11" max="11" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.28515625" customWidth="1"/>
     <col min="13" max="13" width="10" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.44140625" customWidth="1"/>
+    <col min="14" max="14" width="7.42578125" customWidth="1"/>
     <col min="15" max="15" width="10" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.5703125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="10" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="7.5703125" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="10" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.5703125" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="10" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="6.88671875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="1.88671875" customWidth="1"/>
-    <col min="27" max="27" width="5.33203125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="8.109375" bestFit="1" customWidth="1"/>
-    <col min="30" max="35" width="6.44140625" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="8.88671875" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="39" max="41" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="1.85546875" customWidth="1"/>
+    <col min="27" max="27" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="30" max="35" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="39" max="41" width="5.7109375" bestFit="1" customWidth="1"/>
     <col min="42" max="42" width="9" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="17.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" ht="15.6">
+    <row r="1" spans="1:47" ht="15.75">
       <c r="A1" s="159" t="s">
         <v>0</v>
       </c>
@@ -12793,7 +12799,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="2" spans="1:42" ht="15.6">
+    <row r="2" spans="1:47" ht="16.5">
       <c r="A2" s="161" t="s">
         <v>10</v>
       </c>
@@ -12928,8 +12934,15 @@
         <f>+(AP14-AO14)*55/16</f>
         <v>45.580107392607381</v>
       </c>
-    </row>
-    <row r="3" spans="1:42" ht="15.6">
+      <c r="AT2" s="164">
+        <v>157</v>
+      </c>
+      <c r="AU2" s="250">
+        <f>AT2*W2</f>
+        <v>633730.47538908082</v>
+      </c>
+    </row>
+    <row r="3" spans="1:47" ht="16.5">
       <c r="A3" s="168" t="s">
         <v>296</v>
       </c>
@@ -12977,7 +12990,7 @@
         <v>3.3833333333333333</v>
       </c>
       <c r="N3" s="166">
-        <f t="shared" ref="N2:N9" si="7">+M3*K3</f>
+        <f t="shared" ref="N3:N9" si="7">+M3*K3</f>
         <v>3.0449999999999999</v>
       </c>
       <c r="O3" s="163"/>
@@ -13045,8 +13058,15 @@
       <c r="AM3" s="10"/>
       <c r="AN3" s="10"/>
       <c r="AP3" s="12"/>
-    </row>
-    <row r="4" spans="1:42">
+      <c r="AT3" s="164">
+        <v>334</v>
+      </c>
+      <c r="AU3" s="250">
+        <f t="shared" ref="AU3:AU9" si="12">AT3*W3</f>
+        <v>689956.54379377712</v>
+      </c>
+    </row>
+    <row r="4" spans="1:47" ht="16.5">
       <c r="A4" s="169" t="s">
         <v>276</v>
       </c>
@@ -13066,7 +13086,7 @@
         <v>0.88</v>
       </c>
       <c r="F4" s="97">
-        <f t="shared" ref="F4:F9" si="12">1-E4</f>
+        <f t="shared" ref="F4:F9" si="13">1-E4</f>
         <v>0.12</v>
       </c>
       <c r="G4" s="164">
@@ -13174,8 +13194,15 @@
         <f>+(AP15-AO15)*55/16</f>
         <v>139.66965534465541</v>
       </c>
-    </row>
-    <row r="5" spans="1:42">
+      <c r="AT4" s="164">
+        <v>170</v>
+      </c>
+      <c r="AU4" s="250">
+        <f t="shared" si="12"/>
+        <v>1723585.43306457</v>
+      </c>
+    </row>
+    <row r="5" spans="1:47" ht="16.5">
       <c r="A5" s="170" t="s">
         <v>278</v>
       </c>
@@ -13195,7 +13222,7 @@
         <v>0.98</v>
       </c>
       <c r="F5" s="97">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>2.0000000000000018E-2</v>
       </c>
       <c r="G5" s="164">
@@ -13295,8 +13322,15 @@
         <f>+(AP16-AO16)*55/16</f>
         <v>33.54169580419579</v>
       </c>
-    </row>
-    <row r="6" spans="1:42">
+      <c r="AT5" s="164">
+        <v>217</v>
+      </c>
+      <c r="AU5" s="250">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:47" ht="16.5">
       <c r="A6" s="171" t="s">
         <v>224</v>
       </c>
@@ -13316,7 +13350,7 @@
         <v>0.85</v>
       </c>
       <c r="F6" s="97">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.15000000000000002</v>
       </c>
       <c r="G6" s="164">
@@ -13412,8 +13446,15 @@
         <f>+(AP17-AO17)*55/16</f>
         <v>68.75</v>
       </c>
-    </row>
-    <row r="7" spans="1:42">
+      <c r="AT6" s="164">
+        <v>56</v>
+      </c>
+      <c r="AU6" s="250">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:47" ht="16.5">
       <c r="A7" s="172" t="s">
         <v>81</v>
       </c>
@@ -13433,7 +13474,7 @@
         <v>0.96</v>
       </c>
       <c r="F7" s="97">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>4.0000000000000036E-2</v>
       </c>
       <c r="G7" s="164">
@@ -13521,8 +13562,15 @@
         <f>SUM(AP2:AP6)</f>
         <v>287.54145854145861</v>
       </c>
-    </row>
-    <row r="8" spans="1:42">
+      <c r="AT7" s="164">
+        <v>295</v>
+      </c>
+      <c r="AU7" s="250">
+        <f t="shared" si="12"/>
+        <v>1807164.7239364162</v>
+      </c>
+    </row>
+    <row r="8" spans="1:47" ht="16.5">
       <c r="A8" s="173" t="s">
         <v>279</v>
       </c>
@@ -13542,7 +13590,7 @@
         <v>0.94</v>
       </c>
       <c r="F8" s="97">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>6.0000000000000053E-2</v>
       </c>
       <c r="G8" s="164">
@@ -13619,8 +13667,15 @@
       <c r="AI8" s="232">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:42">
+      <c r="AT8" s="164">
+        <v>240</v>
+      </c>
+      <c r="AU8" s="250">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:47" ht="16.5">
       <c r="A9" s="169" t="s">
         <v>83</v>
       </c>
@@ -13640,7 +13695,7 @@
         <v>0.96</v>
       </c>
       <c r="F9" s="97">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>4.0000000000000036E-2</v>
       </c>
       <c r="G9" s="164">
@@ -13736,8 +13791,15 @@
         <f>+AN2/28*16</f>
         <v>12.670857142857143</v>
       </c>
-    </row>
-    <row r="10" spans="1:42" ht="17.399999999999999">
+      <c r="AT9" s="164">
+        <v>201</v>
+      </c>
+      <c r="AU9" s="250">
+        <f t="shared" si="12"/>
+        <v>276808.91277953936</v>
+      </c>
+    </row>
+    <row r="10" spans="1:47" ht="18">
       <c r="A10" s="60"/>
       <c r="B10" s="174">
         <v>35</v>
@@ -13765,7 +13827,7 @@
         <v>69.146230620155038</v>
       </c>
       <c r="M10" s="178">
-        <f t="shared" ref="M10:V10" si="13">SUM(M2:M9)</f>
+        <f t="shared" ref="M10:V10" si="14">SUM(M2:M9)</f>
         <v>26.18333333333333</v>
       </c>
       <c r="N10" s="179">
@@ -13781,27 +13843,27 @@
         <v>13.034000000000001</v>
       </c>
       <c r="Q10" s="237">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>17.749563953488373</v>
       </c>
       <c r="R10" s="179">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>6.9509999999999996</v>
       </c>
       <c r="S10" s="178">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="T10" s="179">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="U10" s="178">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="V10" s="179">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="W10" s="180">
@@ -13837,8 +13899,12 @@
         <f>+AN4/28*16</f>
         <v>12.021714285714285</v>
       </c>
-    </row>
-    <row r="11" spans="1:42">
+      <c r="AU10" s="250">
+        <f>(SUM(AU2:AU9))/Y1</f>
+        <v>244.34505185539922</v>
+      </c>
+    </row>
+    <row r="11" spans="1:47">
       <c r="A11" s="32" t="s">
         <v>2</v>
       </c>
@@ -13899,35 +13965,35 @@
         <v>0.23194000000000001</v>
       </c>
       <c r="AB11" s="147">
-        <f t="shared" ref="AB11:AI11" si="14">SUMPRODUCT($B$2:$B$9,AB2:AB9)/$B$10</f>
+        <f t="shared" ref="AB11:AI11" si="15">SUMPRODUCT($B$2:$B$9,AB2:AB9)/$B$10</f>
         <v>0.53100000000000014</v>
       </c>
       <c r="AC11" s="147">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.16318000000000002</v>
       </c>
       <c r="AD11" s="147">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>2.742E-2</v>
       </c>
       <c r="AE11" s="147">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.15330000000000002</v>
       </c>
       <c r="AF11" s="147">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>3.6580000000000008E-2</v>
       </c>
       <c r="AG11" s="147">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.28472000000000003</v>
       </c>
       <c r="AH11" s="147">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.15188000000000001</v>
       </c>
       <c r="AI11" s="147">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>3.2259999999999997E-2</v>
       </c>
       <c r="AK11" t="s">
@@ -13946,7 +14012,7 @@
         <v>7.9440000000000008</v>
       </c>
     </row>
-    <row r="12" spans="1:42">
+    <row r="12" spans="1:47">
       <c r="C12" s="128">
         <f>(C11*0.98+C13)/B11</f>
         <v>0.89789808571428564</v>
@@ -14018,7 +14084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:42">
+    <row r="13" spans="1:47">
       <c r="A13" t="s">
         <v>275</v>
       </c>
@@ -14073,7 +14139,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="14" spans="1:42">
+    <row r="14" spans="1:47">
       <c r="A14" t="s">
         <v>277</v>
       </c>
@@ -14143,7 +14209,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="15" spans="1:42">
+    <row r="15" spans="1:47">
       <c r="C15" s="36">
         <f>(C11+C13)*E15</f>
         <v>31.57993725</v>
@@ -14199,11 +14265,11 @@
         <v>237.0993006993007</v>
       </c>
       <c r="AM15" s="3">
-        <f t="shared" ref="AL15:AN17" si="15">+AM10/1.43</f>
+        <f t="shared" ref="AL15:AN17" si="16">+AM10/1.43</f>
         <v>13.862733630006359</v>
       </c>
       <c r="AN15" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>8.406793206793207</v>
       </c>
       <c r="AO15" s="3">
@@ -14214,7 +14280,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="16" spans="1:42">
+    <row r="16" spans="1:47">
       <c r="A16" s="122" t="s">
         <v>199</v>
       </c>
@@ -14261,15 +14327,15 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AL16" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>16.202797202797203</v>
       </c>
       <c r="AM16" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>8.4843738080101705</v>
       </c>
       <c r="AN16" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>5.5552447552447557</v>
       </c>
       <c r="AO16" s="3">
@@ -14328,15 +14394,15 @@
         <v>1.6421339910884782</v>
       </c>
       <c r="AL17" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AM17" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AN17" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AO17" s="3">
@@ -14539,7 +14605,7 @@
       </c>
       <c r="Y23" s="191"/>
     </row>
-    <row r="24" spans="1:42" ht="17.399999999999999">
+    <row r="24" spans="1:42" ht="18">
       <c r="D24" s="240" t="s">
         <v>295</v>
       </c>
@@ -14552,7 +14618,7 @@
       <c r="X24" s="165"/>
       <c r="Y24" s="191"/>
     </row>
-    <row r="25" spans="1:42" ht="15.6">
+    <row r="25" spans="1:42" ht="15.75">
       <c r="D25" s="193"/>
       <c r="E25" s="194" t="s">
         <v>265</v>
@@ -14572,7 +14638,7 @@
       </c>
       <c r="Y25" s="191"/>
     </row>
-    <row r="26" spans="1:42" ht="15.6">
+    <row r="26" spans="1:42" ht="15.75">
       <c r="D26" s="193"/>
       <c r="E26" s="194" t="s">
         <v>32</v>
@@ -14591,7 +14657,7 @@
       </c>
       <c r="Y26" s="191"/>
     </row>
-    <row r="27" spans="1:42" ht="15.6">
+    <row r="27" spans="1:42" ht="15.75">
       <c r="D27" s="193"/>
       <c r="E27" s="194" t="s">
         <v>2</v>
@@ -14623,7 +14689,7 @@
       </c>
       <c r="Y27" s="191"/>
     </row>
-    <row r="28" spans="1:42" ht="15.6">
+    <row r="28" spans="1:42" ht="15.75">
       <c r="D28" s="193"/>
       <c r="E28" s="194"/>
       <c r="F28" s="194"/>
@@ -14638,7 +14704,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:42" ht="15.6">
+    <row r="29" spans="1:42" ht="15.75">
       <c r="D29" s="193" t="s">
         <v>262</v>
       </c>
@@ -14669,7 +14735,7 @@
         <v>16639.349999999999</v>
       </c>
     </row>
-    <row r="30" spans="1:42" ht="15.6">
+    <row r="30" spans="1:42" ht="15.75">
       <c r="D30" s="193" t="s">
         <v>263</v>
       </c>
@@ -14691,7 +14757,7 @@
       <c r="M30" s="228"/>
       <c r="Q30" s="127"/>
     </row>
-    <row r="31" spans="1:42" ht="15.6">
+    <row r="31" spans="1:42" ht="15.75">
       <c r="D31" s="193"/>
       <c r="E31" s="194"/>
       <c r="F31" s="194"/>
@@ -14714,7 +14780,7 @@
         <v>124.37394474977054</v>
       </c>
     </row>
-    <row r="32" spans="1:42" ht="15.6">
+    <row r="32" spans="1:42" ht="15.75">
       <c r="D32" s="193"/>
       <c r="E32" s="194" t="s">
         <v>272</v>
@@ -14747,7 +14813,7 @@
         <v>413.1589377364877</v>
       </c>
     </row>
-    <row r="33" spans="4:17" ht="15.6">
+    <row r="33" spans="4:17" ht="15.75">
       <c r="D33" s="193"/>
       <c r="E33" s="194"/>
       <c r="F33" s="194"/>
@@ -14756,7 +14822,7 @@
       <c r="I33" s="196"/>
       <c r="M33" s="228"/>
     </row>
-    <row r="34" spans="4:17" ht="15.6">
+    <row r="34" spans="4:17" ht="15.75">
       <c r="D34" s="193"/>
       <c r="E34" s="194"/>
       <c r="F34" s="200" t="s">
@@ -14781,7 +14847,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="35" spans="4:17" ht="16.2" thickBot="1">
+    <row r="35" spans="4:17" ht="16.5" thickBot="1">
       <c r="D35" s="201"/>
       <c r="E35" s="202"/>
       <c r="F35" s="203" t="s">
@@ -14796,7 +14862,7 @@
       <c r="I35" s="196"/>
       <c r="M35" s="228"/>
     </row>
-    <row r="36" spans="4:17" ht="16.2" thickTop="1">
+    <row r="36" spans="4:17" ht="16.5" thickTop="1">
       <c r="D36" s="201"/>
       <c r="E36" s="202"/>
       <c r="F36" s="200" t="s">
@@ -14822,7 +14888,7 @@
         <v>26.460724137931031</v>
       </c>
     </row>
-    <row r="37" spans="4:17" ht="16.2" thickBot="1">
+    <row r="37" spans="4:17" ht="16.5" thickBot="1">
       <c r="D37" s="205"/>
       <c r="E37" s="206"/>
       <c r="F37" s="206"/>
@@ -14831,7 +14897,7 @@
       <c r="I37" s="208"/>
       <c r="M37" s="228"/>
     </row>
-    <row r="38" spans="4:17" ht="22.2" thickTop="1" thickBot="1">
+    <row r="38" spans="4:17" ht="21.75" thickTop="1" thickBot="1">
       <c r="D38" s="205"/>
       <c r="E38" s="212" t="s">
         <v>290</v>
@@ -14844,7 +14910,7 @@
       </c>
       <c r="I38" s="208"/>
     </row>
-    <row r="39" spans="4:17" ht="15" thickTop="1">
+    <row r="39" spans="4:17" ht="15.75" thickTop="1">
       <c r="D39" s="209"/>
       <c r="E39" s="210"/>
       <c r="F39" s="210"/>
@@ -14875,29 +14941,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:FT112"/>
   <sheetViews>
-    <sheetView topLeftCell="O1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B81" sqref="B81:F88"/>
+    <sheetView topLeftCell="B13" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.8"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="18.44140625" style="32" customWidth="1"/>
-    <col min="2" max="2" width="9.109375" style="32" customWidth="1"/>
-    <col min="3" max="3" width="6.6640625" style="32" customWidth="1"/>
-    <col min="4" max="4" width="11.109375" style="32" customWidth="1"/>
-    <col min="5" max="5" width="10.44140625" style="32" customWidth="1"/>
-    <col min="6" max="6" width="9.33203125" style="32" customWidth="1"/>
-    <col min="7" max="7" width="9.109375" style="32" customWidth="1"/>
-    <col min="8" max="8" width="9.33203125" style="32" customWidth="1"/>
+    <col min="1" max="1" width="18.42578125" style="32" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="32" customWidth="1"/>
+    <col min="3" max="3" width="6.7109375" style="32" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" style="32" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" style="32" customWidth="1"/>
+    <col min="6" max="6" width="9.28515625" style="32" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="32" customWidth="1"/>
+    <col min="8" max="8" width="9.28515625" style="32" customWidth="1"/>
     <col min="9" max="9" width="8" style="32" customWidth="1"/>
-    <col min="10" max="10" width="10.44140625" style="32" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="5.109375" style="32" customWidth="1"/>
-    <col min="12" max="12" width="7.33203125" style="32" customWidth="1"/>
-    <col min="13" max="13" width="12.44140625" style="32" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.5546875" style="32" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.44140625" style="32" customWidth="1"/>
-    <col min="16" max="16" width="12.109375" style="32" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="11.44140625" style="32"/>
+    <col min="10" max="10" width="10.42578125" style="32" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.140625" style="32" customWidth="1"/>
+    <col min="12" max="12" width="7.28515625" style="32" customWidth="1"/>
+    <col min="13" max="13" width="12.42578125" style="32" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.5703125" style="32" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.42578125" style="32" customWidth="1"/>
+    <col min="16" max="16" width="12.140625" style="32" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="11.42578125" style="32"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:176" ht="15" customHeight="1">
@@ -14932,10 +14998,10 @@
         <f>+B16+B27+B33+I19+B26+B38</f>
         <v>4757.4465272727284</v>
       </c>
-      <c r="N1" s="247" t="s">
+      <c r="N1" s="243" t="s">
         <v>42</v>
       </c>
-      <c r="O1" s="248"/>
+      <c r="O1" s="244"/>
       <c r="P1" s="64" t="s">
         <v>39</v>
       </c>
@@ -14976,7 +15042,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="2" spans="1:176" ht="14.4">
+    <row r="2" spans="1:176" ht="16.5">
       <c r="A2" s="35" t="str">
         <f>+PPC!A2</f>
         <v>LIVIANA</v>
@@ -15014,18 +15080,18 @@
       </c>
       <c r="M2" s="40">
         <f>+B19+B28+B35</f>
-        <v>942.58544600000005</v>
+        <v>847.60848600000008</v>
       </c>
       <c r="N2" s="60" t="s">
         <v>29</v>
       </c>
       <c r="O2" s="97">
         <f t="shared" ref="O2:O9" si="3">+M2/$M$10</f>
-        <v>0.26861907679085462</v>
+        <v>0.24827233274884231</v>
       </c>
       <c r="P2" s="94">
         <f>+M2/M3</f>
-        <v>1.6586043035051741</v>
+        <v>1.4914797258254135</v>
       </c>
       <c r="R2" s="65">
         <f>(C14*1000-E19-E39-(E44-B39)-E49-E54)/1000</f>
@@ -15098,7 +15164,7 @@
       </c>
       <c r="O3" s="97">
         <f t="shared" si="3"/>
-        <v>0.16195488955573945</v>
+        <v>0.16646041407733089</v>
       </c>
       <c r="S3" s="37"/>
       <c r="FK3" s="32">
@@ -15162,7 +15228,7 @@
       </c>
       <c r="O4" s="97">
         <f t="shared" si="3"/>
-        <v>5.0394980758339626E-2</v>
+        <v>5.1796950295626636E-2</v>
       </c>
       <c r="P4" s="95" t="s">
         <v>120</v>
@@ -15189,7 +15255,7 @@
       <c r="FR4" s="41"/>
       <c r="FS4" s="41"/>
     </row>
-    <row r="5" spans="1:176" ht="14.4">
+    <row r="5" spans="1:176" ht="16.5">
       <c r="A5" s="35" t="str">
         <f>+PPC!A5</f>
         <v>ALTO RESIDUAL</v>
@@ -15234,11 +15300,11 @@
       </c>
       <c r="O5" s="97">
         <f t="shared" si="3"/>
-        <v>7.0087779864219185E-2</v>
+        <v>7.2037595715462505E-2</v>
       </c>
       <c r="P5" s="96">
         <f>1348.181674+3.99660706*O2+37.2199612*O5-1.19891958*O6-6.37252956*O4-2.62999577*O7-7.33636128*O3+2.000343166*O8</f>
-        <v>1349.5440983409876</v>
+        <v>1349.4708163618673</v>
       </c>
       <c r="R5" s="65">
         <f>+R2*S4</f>
@@ -15309,7 +15375,7 @@
       </c>
       <c r="O6" s="97">
         <f>+M6/$M$10</f>
-        <v>5.7091516758131657E-2</v>
+        <v>5.8679781425127607E-2</v>
       </c>
       <c r="T6" s="181"/>
       <c r="FK6" s="32">
@@ -15372,7 +15438,7 @@
       </c>
       <c r="O7" s="97">
         <f t="shared" si="3"/>
-        <v>0.28645219181086629</v>
+        <v>0.29442118476938567</v>
       </c>
       <c r="P7" s="95" t="s">
         <v>62</v>
@@ -15404,7 +15470,7 @@
       <c r="FR7" s="41"/>
       <c r="FS7" s="41"/>
     </row>
-    <row r="8" spans="1:176" ht="14.4">
+    <row r="8" spans="1:176" ht="16.5">
       <c r="A8" s="35" t="str">
         <f>+PPC!A8</f>
         <v>ARRABIO</v>
@@ -15448,11 +15514,11 @@
       </c>
       <c r="O8" s="59">
         <f t="shared" si="3"/>
-        <v>5.6561647777434955E-3</v>
+        <v>5.813517168734534E-3</v>
       </c>
       <c r="P8" s="94">
         <f>+O2/(O3+O4)</f>
-        <v>1.264983474647523</v>
+        <v>1.1375209879497825</v>
       </c>
       <c r="S8" s="36"/>
       <c r="T8" s="181"/>
@@ -15518,7 +15584,7 @@
       </c>
       <c r="O9" s="59">
         <f t="shared" si="3"/>
-        <v>9.9743399684105782E-2</v>
+        <v>0.1025182237994899</v>
       </c>
       <c r="R9" s="61" t="s">
         <v>127</v>
@@ -15557,14 +15623,14 @@
       <c r="H10" s="37"/>
       <c r="J10" s="139">
         <f>+M10/R5</f>
-        <v>114.39818026684242</v>
+        <v>111.30180561660123</v>
       </c>
       <c r="L10" s="133" t="s">
         <v>32</v>
       </c>
       <c r="M10" s="134">
         <f>SUM(M2:M9)</f>
-        <v>3509.0041156454872</v>
+        <v>3414.0271556454873</v>
       </c>
       <c r="T10" s="181"/>
       <c r="FK10" s="32">
@@ -15674,7 +15740,7 @@
       <c r="FR12" s="41"/>
       <c r="FS12" s="41"/>
     </row>
-    <row r="13" spans="1:176" ht="14.4">
+    <row r="13" spans="1:176" ht="16.5">
       <c r="B13" s="63">
         <v>34</v>
       </c>
@@ -15683,15 +15749,15 @@
       </c>
       <c r="N13" s="37">
         <f>2.19063*10^-4*P2^6-5.15999*10^-3*P2^5+4.94488*10^-2*P2^4-2.47772*10^-1*P2^3+6.92834*10^-1*P2^2-1.05363*P2+7.70403*10^-1</f>
-        <v>0.11229820275948088</v>
+        <v>0.12711421697052983</v>
       </c>
       <c r="O13" s="40">
         <f>+(N13-O5)*M10</f>
-        <v>148.1165476626098</v>
+        <v>188.03308060600128</v>
       </c>
       <c r="P13" s="36">
         <f>27*O13*0.6</f>
-        <v>2399.4880721342788</v>
+        <v>3046.1359058172206</v>
       </c>
       <c r="R13" s="181" t="s">
         <v>52</v>
@@ -15800,7 +15866,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:176" ht="14.4" thickBot="1">
+    <row r="16" spans="1:176" ht="13.5" thickBot="1">
       <c r="A16" s="33" t="s">
         <v>212</v>
       </c>
@@ -15939,7 +16005,7 @@
       </c>
       <c r="B19" s="40">
         <f>+D75</f>
-        <v>340.58544600000005</v>
+        <v>245.60848600000003</v>
       </c>
       <c r="C19" s="38"/>
       <c r="D19" s="82"/>
@@ -15979,7 +16045,7 @@
       </c>
       <c r="FS19" s="41"/>
     </row>
-    <row r="20" spans="1:175" ht="14.4" thickBot="1">
+    <row r="20" spans="1:175" ht="13.5" thickBot="1">
       <c r="A20" s="35" t="s">
         <v>107</v>
       </c>
@@ -16018,7 +16084,7 @@
       </c>
       <c r="FS20" s="41"/>
     </row>
-    <row r="21" spans="1:175" ht="14.4" thickBot="1">
+    <row r="21" spans="1:175" ht="13.5" thickBot="1">
       <c r="A21" s="35" t="s">
         <v>108</v>
       </c>
@@ -16055,7 +16121,7 @@
         <f>+K75</f>
         <v>0</v>
       </c>
-      <c r="D22" s="245" t="s">
+      <c r="D22" s="247" t="s">
         <v>231</v>
       </c>
       <c r="E22" s="69">
@@ -16090,7 +16156,7 @@
       <c r="FR22" s="41"/>
       <c r="FS22" s="41"/>
     </row>
-    <row r="23" spans="1:175" ht="14.4">
+    <row r="23" spans="1:175" ht="16.5">
       <c r="A23" s="35" t="s">
         <v>141</v>
       </c>
@@ -16098,7 +16164,7 @@
         <f>+I75</f>
         <v>16.380690000000001</v>
       </c>
-      <c r="D23" s="246"/>
+      <c r="D23" s="248"/>
       <c r="E23" s="71" t="s">
         <v>139</v>
       </c>
@@ -16195,11 +16261,11 @@
       <c r="FR24" s="41"/>
       <c r="FS24" s="41"/>
     </row>
-    <row r="25" spans="1:175" ht="14.4" thickBot="1">
+    <row r="25" spans="1:175" ht="13.5" thickBot="1">
       <c r="A25" s="35"/>
       <c r="B25" s="51">
         <f>SUM(B17:B24)</f>
-        <v>1603.5768840000003</v>
+        <v>1508.5999240000001</v>
       </c>
       <c r="D25" s="76"/>
       <c r="E25" s="77"/>
@@ -16240,7 +16306,7 @@
       <c r="FR25" s="41"/>
       <c r="FS25" s="41"/>
     </row>
-    <row r="26" spans="1:175" ht="14.4" thickBot="1">
+    <row r="26" spans="1:175" ht="13.5" thickBot="1">
       <c r="A26" s="52" t="s">
         <v>58</v>
       </c>
@@ -16284,7 +16350,7 @@
       <c r="B27" s="68">
         <v>0</v>
       </c>
-      <c r="D27" s="245" t="s">
+      <c r="D27" s="247" t="s">
         <v>50</v>
       </c>
       <c r="E27" s="69">
@@ -16337,7 +16403,7 @@
         <f>+B27*0.58+B26*0.86</f>
         <v>602</v>
       </c>
-      <c r="D28" s="246"/>
+      <c r="D28" s="248"/>
       <c r="E28" s="71" t="s">
         <v>139</v>
       </c>
@@ -16435,7 +16501,7 @@
       <c r="FR29" s="41"/>
       <c r="FS29" s="41"/>
     </row>
-    <row r="30" spans="1:175" ht="14.4" thickBot="1">
+    <row r="30" spans="1:175" ht="13.5" thickBot="1">
       <c r="A30" s="32" t="s">
         <v>31</v>
       </c>
@@ -16481,7 +16547,7 @@
       <c r="FR30" s="41"/>
       <c r="FS30" s="41"/>
     </row>
-    <row r="31" spans="1:175" ht="14.4" thickBot="1">
+    <row r="31" spans="1:175" ht="13.5" thickBot="1">
       <c r="B31" s="51">
         <f>SUM(B28:B30)</f>
         <v>623</v>
@@ -16595,7 +16661,7 @@
       </c>
       <c r="V33" s="37">
         <f>+M2/($M$2+$M$3+$M$7)</f>
-        <v>0.37462939634046849</v>
+        <v>0.35009653290681575</v>
       </c>
       <c r="FK33" s="32">
         <v>29</v>
@@ -16642,7 +16708,7 @@
       </c>
       <c r="V34" s="37">
         <f>+M7/($M$2+$M$3+$M$7)</f>
-        <v>0.39950033698486193</v>
+        <v>0.41517246348328579</v>
       </c>
       <c r="FK34" s="32">
         <v>30</v>
@@ -16662,7 +16728,7 @@
       <c r="FR34" s="41"/>
       <c r="FS34" s="41"/>
     </row>
-    <row r="35" spans="1:175" ht="14.4" thickBot="1">
+    <row r="35" spans="1:175" ht="13.5" thickBot="1">
       <c r="A35" s="32" t="s">
         <v>29</v>
       </c>
@@ -16687,7 +16753,7 @@
       </c>
       <c r="V35" s="37">
         <f>+M3/($M$2+$M$3+$M$7)</f>
-        <v>0.22587026667466972</v>
+        <v>0.2347310036098986</v>
       </c>
       <c r="FK35" s="32">
         <v>31</v>
@@ -16707,7 +16773,7 @@
       <c r="FR35" s="41"/>
       <c r="FS35" s="41"/>
     </row>
-    <row r="36" spans="1:175" ht="14.4" thickBot="1">
+    <row r="36" spans="1:175" ht="13.5" thickBot="1">
       <c r="B36" s="51">
         <f>+B32-B34-B35</f>
         <v>-180</v>
@@ -16862,7 +16928,7 @@
       <c r="FR39" s="41"/>
       <c r="FS39" s="41"/>
     </row>
-    <row r="40" spans="1:175" ht="14.4" thickBot="1">
+    <row r="40" spans="1:175" ht="13.5" thickBot="1">
       <c r="A40" s="89" t="s">
         <v>137</v>
       </c>
@@ -16902,7 +16968,7 @@
       <c r="FR40" s="41"/>
       <c r="FS40" s="41"/>
     </row>
-    <row r="41" spans="1:175" ht="14.4" thickBot="1">
+    <row r="41" spans="1:175" ht="13.5" thickBot="1">
       <c r="A41" s="89" t="s">
         <v>129</v>
       </c>
@@ -17104,7 +17170,7 @@
       <c r="FR44" s="41"/>
       <c r="FS44" s="41"/>
     </row>
-    <row r="45" spans="1:175" ht="14.4" thickBot="1">
+    <row r="45" spans="1:175" ht="13.5" thickBot="1">
       <c r="D45" s="76"/>
       <c r="E45" s="77"/>
       <c r="F45" s="77"/>
@@ -17142,7 +17208,7 @@
       <c r="FR45" s="41"/>
       <c r="FS45" s="41"/>
     </row>
-    <row r="46" spans="1:175" ht="14.4" thickBot="1">
+    <row r="46" spans="1:175" ht="13.5" thickBot="1">
       <c r="D46" s="71"/>
       <c r="E46" s="71"/>
       <c r="F46" s="71"/>
@@ -17290,7 +17356,7 @@
       <c r="FR49" s="41"/>
       <c r="FS49" s="41"/>
     </row>
-    <row r="50" spans="2:176" ht="14.4" thickBot="1">
+    <row r="50" spans="2:176" ht="13.5" thickBot="1">
       <c r="D50" s="76"/>
       <c r="E50" s="77"/>
       <c r="F50" s="77"/>
@@ -17331,7 +17397,7 @@
       <c r="FR50" s="41"/>
       <c r="FS50" s="41"/>
     </row>
-    <row r="51" spans="2:176" ht="14.4" thickBot="1">
+    <row r="51" spans="2:176" ht="13.5" thickBot="1">
       <c r="D51" s="71"/>
       <c r="E51" s="71"/>
       <c r="F51" s="71"/>
@@ -17465,7 +17531,7 @@
       <c r="FR54" s="41"/>
       <c r="FS54" s="41"/>
     </row>
-    <row r="55" spans="2:176" ht="14.4" thickBot="1">
+    <row r="55" spans="2:176" ht="13.5" thickBot="1">
       <c r="D55" s="76"/>
       <c r="E55" s="77"/>
       <c r="F55" s="77"/>
@@ -17592,11 +17658,11 @@
       <c r="I60" s="71"/>
       <c r="FK60" s="36">
         <f>+O7*100</f>
-        <v>28.645219181086627</v>
+        <v>29.442118476938568</v>
       </c>
       <c r="FT60" s="36">
         <f>+O5*100</f>
-        <v>7.0087779864219186</v>
+        <v>7.2037595715462501</v>
       </c>
     </row>
     <row r="63" spans="2:176">
@@ -17658,9 +17724,8 @@
         <f>+B67*F81%</f>
         <v>258.94400000000013</v>
       </c>
-      <c r="D67" s="36">
-        <f>+B67*F82%</f>
-        <v>94.976960000000034</v>
+      <c r="D67" s="36" t="s">
+        <v>301</v>
       </c>
       <c r="E67" s="36">
         <f>+B67*F83%</f>
@@ -18038,7 +18103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:18" ht="15.6">
+    <row r="75" spans="1:18" ht="15.75">
       <c r="A75" s="92" t="s">
         <v>119</v>
       </c>
@@ -18052,7 +18117,7 @@
       </c>
       <c r="D75" s="93">
         <f t="shared" si="6"/>
-        <v>340.58544600000005</v>
+        <v>245.60848600000003</v>
       </c>
       <c r="E75" s="93">
         <f t="shared" si="6"/>
@@ -18106,21 +18171,21 @@
       <c r="F78" s="56" t="s">
         <v>154</v>
       </c>
-      <c r="H78" s="243" t="s">
+      <c r="H78" s="245" t="s">
         <v>144</v>
       </c>
-      <c r="I78" s="243"/>
-      <c r="J78" s="243"/>
-      <c r="K78" s="243"/>
-      <c r="M78" s="243" t="s">
+      <c r="I78" s="245"/>
+      <c r="J78" s="245"/>
+      <c r="K78" s="245"/>
+      <c r="M78" s="245" t="s">
         <v>145</v>
       </c>
-      <c r="N78" s="243"/>
-      <c r="O78" s="243"/>
-      <c r="Q78" s="244" t="s">
+      <c r="N78" s="245"/>
+      <c r="O78" s="245"/>
+      <c r="Q78" s="246" t="s">
         <v>148</v>
       </c>
-      <c r="R78" s="244"/>
+      <c r="R78" s="246"/>
     </row>
     <row r="79" spans="1:18">
       <c r="A79" s="57" t="s">
@@ -18339,17 +18404,17 @@
       <c r="D90" s="98"/>
       <c r="E90" s="98"/>
       <c r="F90" s="98"/>
-      <c r="H90" s="243" t="s">
+      <c r="H90" s="245" t="s">
         <v>146</v>
       </c>
-      <c r="I90" s="243"/>
-      <c r="J90" s="243"/>
-      <c r="K90" s="243"/>
-      <c r="M90" s="243" t="s">
+      <c r="I90" s="245"/>
+      <c r="J90" s="245"/>
+      <c r="K90" s="245"/>
+      <c r="M90" s="245" t="s">
         <v>147</v>
       </c>
-      <c r="N90" s="243"/>
-      <c r="O90" s="243"/>
+      <c r="N90" s="245"/>
+      <c r="O90" s="245"/>
     </row>
     <row r="91" spans="1:15">
       <c r="B91" s="32">
@@ -18683,14 +18748,14 @@
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="Q78:R78"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="D27:D28"/>
     <mergeCell ref="N1:O1"/>
     <mergeCell ref="H78:K78"/>
     <mergeCell ref="M78:O78"/>
     <mergeCell ref="H90:K90"/>
     <mergeCell ref="M90:O90"/>
-    <mergeCell ref="Q78:R78"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="D27:D28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -18706,14 +18771,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A2:O48"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="N22" sqref="N22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="8.33203125" customWidth="1"/>
-    <col min="9" max="9" width="12.109375" customWidth="1"/>
+    <col min="2" max="2" width="8.28515625" customWidth="1"/>
+    <col min="9" max="9" width="12.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:15">
@@ -18748,15 +18813,15 @@
         <f>+B18+I15+I20+I25</f>
         <v>400.11745454545451</v>
       </c>
-      <c r="M2" s="247" t="s">
+      <c r="M2" s="243" t="s">
         <v>42</v>
       </c>
-      <c r="N2" s="248"/>
+      <c r="N2" s="244"/>
       <c r="O2" s="64" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:15" ht="16.5">
       <c r="A3" t="s">
         <v>163</v>
       </c>
@@ -18778,18 +18843,18 @@
       </c>
       <c r="L3" s="40">
         <f>+B19+B13*0.8+B7*0.8</f>
-        <v>160.5857230372564</v>
+        <v>154.48169982465271</v>
       </c>
       <c r="M3" s="60" t="s">
         <v>29</v>
       </c>
       <c r="N3" s="97">
         <f t="shared" ref="N3:N10" si="0">+L3/$L$2</f>
-        <v>0.40134645767874993</v>
+        <v>0.38609087923981866</v>
       </c>
       <c r="O3" s="94">
         <f>+L3/L4</f>
-        <v>1.2616087710675583</v>
+        <v>1.2009013716385697</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -18809,14 +18874,14 @@
       </c>
       <c r="L4" s="40">
         <f>+B20+I20+B6*0.41</f>
-        <v>127.28646686672182</v>
+        <v>128.63812422319927</v>
       </c>
       <c r="M4" s="60" t="s">
         <v>31</v>
       </c>
       <c r="N4" s="97">
         <f t="shared" si="0"/>
-        <v>0.31812275475790752</v>
+        <v>0.32150090620099553</v>
       </c>
       <c r="O4" s="32"/>
     </row>
@@ -18837,20 +18902,20 @@
       </c>
       <c r="L5" s="40">
         <f>+B21</f>
-        <v>15.118494227501888</v>
+        <v>15.53908508868799</v>
       </c>
       <c r="M5" s="60" t="s">
         <v>33</v>
       </c>
       <c r="N5" s="97">
         <f t="shared" si="0"/>
-        <v>3.7785140477505419E-2</v>
+        <v>3.8836308969177211E-2</v>
       </c>
       <c r="O5" s="95" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:15" ht="16.5">
       <c r="A6" t="s">
         <v>171</v>
       </c>
@@ -18865,21 +18930,21 @@
       </c>
       <c r="L6" s="40">
         <f>+B22+B6*0.45</f>
-        <v>57.026333959265756</v>
+        <v>57.61127871463875</v>
       </c>
       <c r="M6" s="60" t="s">
         <v>30</v>
       </c>
       <c r="N6" s="97">
         <f t="shared" si="0"/>
-        <v>0.14252398467357388</v>
+        <v>0.14398591728543034</v>
       </c>
       <c r="O6" s="96">
         <f>1348.181674+3.99660706*N3+37.2199612*N6-1.19891958*N7-6.37252956*N5-2.62999577*N8-7.33636128*N4+2.000343166*N9</f>
-        <v>1352.2031896364197</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" ht="15" thickBot="1">
+        <v>1352.1639584851009</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="15.75" thickBot="1">
       <c r="A7" t="s">
         <v>170</v>
       </c>
@@ -18894,19 +18959,19 @@
       </c>
       <c r="L7" s="40">
         <f>+B23+I15</f>
-        <v>41.344909572894039</v>
+        <v>41.821388972992828</v>
       </c>
       <c r="M7" s="60" t="s">
         <v>34</v>
       </c>
       <c r="N7" s="97">
         <f t="shared" si="0"/>
-        <v>0.10333193191949874</v>
+        <v>0.10452278074322748</v>
       </c>
       <c r="O7" s="32"/>
     </row>
     <row r="8" spans="1:15">
-      <c r="D8" s="245" t="s">
+      <c r="D8" s="247" t="s">
         <v>50</v>
       </c>
       <c r="E8" s="69">
@@ -18939,11 +19004,11 @@
         <v>62</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:15" ht="16.5">
       <c r="A9" t="s">
         <v>173</v>
       </c>
-      <c r="D9" s="246"/>
+      <c r="D9" s="248"/>
       <c r="E9" s="71" t="s">
         <v>139</v>
       </c>
@@ -18964,18 +19029,18 @@
       </c>
       <c r="L9" s="40">
         <f>+B25</f>
-        <v>1.6968494333230486</v>
+        <v>1.7440551506203601</v>
       </c>
       <c r="M9" s="60" t="s">
         <v>102</v>
       </c>
       <c r="N9" s="97">
         <f t="shared" si="0"/>
-        <v>4.2408783072228643E-3</v>
+        <v>4.3588579573506968E-3</v>
       </c>
       <c r="O9" s="94">
         <f>+N3/(N4+N5)</f>
-        <v>1.1276694421552014</v>
+        <v>1.0714710082262346</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -19013,7 +19078,7 @@
       </c>
       <c r="O10" s="32"/>
     </row>
-    <row r="11" spans="1:15" ht="15" thickBot="1">
+    <row r="11" spans="1:15" ht="15.75" thickBot="1">
       <c r="A11" t="s">
         <v>164</v>
       </c>
@@ -19032,13 +19097,13 @@
       <c r="K11" s="32"/>
       <c r="L11" s="40">
         <f>SUM(L3:L10)</f>
-        <v>453.05877709696296</v>
+        <v>449.83563197479191</v>
       </c>
       <c r="M11" s="32"/>
       <c r="N11" s="32"/>
       <c r="O11" s="32"/>
     </row>
-    <row r="12" spans="1:15" ht="15" thickBot="1">
+    <row r="12" spans="1:15" ht="15.75" thickBot="1">
       <c r="A12" t="s">
         <v>165</v>
       </c>
@@ -19076,7 +19141,7 @@
       </c>
       <c r="M13" s="37">
         <f>2.19063*10^-4*O3^6-5.15999*10^-3*O3^5+4.94488*10^-2*O3^4-2.47772*10^-1*O3^3+6.92834*10^-1*O3^2-1.05363*O3+7.70403*10^-1</f>
-        <v>0.15601345512871934</v>
+        <v>0.16577659627771901</v>
       </c>
       <c r="N13" s="37"/>
       <c r="O13" s="32"/>
@@ -19134,17 +19199,17 @@
       </c>
       <c r="L15" s="34">
         <f>SUM(L16:L23)</f>
-        <v>371.11302292119257</v>
-      </c>
-      <c r="M15" s="247" t="s">
+        <v>369.77118495118418</v>
+      </c>
+      <c r="M15" s="243" t="s">
         <v>42</v>
       </c>
-      <c r="N15" s="248"/>
+      <c r="N15" s="244"/>
       <c r="O15" s="64" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="15" thickBot="1">
+    <row r="16" spans="1:15" ht="17.25" thickBot="1">
       <c r="D16" s="76"/>
       <c r="E16" s="77"/>
       <c r="F16" s="77"/>
@@ -19159,21 +19224,21 @@
       </c>
       <c r="L16" s="40">
         <f>+H40+B7*0.8+B19</f>
-        <v>171.0857230372564</v>
+        <v>164.98169982465271</v>
       </c>
       <c r="M16" s="60" t="s">
         <v>29</v>
       </c>
       <c r="N16" s="97">
         <f>+L16/$L$2</f>
-        <v>0.42758875198687579</v>
+        <v>0.41233317354794458</v>
       </c>
       <c r="O16" s="94">
         <f>+L16/L17</f>
-        <v>1.3440998658278069</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" ht="15" thickBot="1">
+        <v>1.2825256961800369</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" ht="15.75" thickBot="1">
       <c r="D17" s="71"/>
       <c r="E17" s="71"/>
       <c r="F17" s="71"/>
@@ -19185,14 +19250,14 @@
       </c>
       <c r="L17" s="40">
         <f>+B6*0.41+I20+B20</f>
-        <v>127.28646686672182</v>
+        <v>128.63812422319927</v>
       </c>
       <c r="M17" s="60" t="s">
         <v>31</v>
       </c>
       <c r="N17" s="97">
         <f t="shared" ref="N17:N22" si="1">+L17/$L$2</f>
-        <v>0.31812275475790752</v>
+        <v>0.32150090620099553</v>
       </c>
       <c r="O17" s="32"/>
     </row>
@@ -19221,26 +19286,26 @@
       </c>
       <c r="L18" s="40">
         <f>+B21</f>
-        <v>15.118494227501888</v>
+        <v>15.53908508868799</v>
       </c>
       <c r="M18" s="60" t="s">
         <v>33</v>
       </c>
       <c r="N18" s="97">
         <f t="shared" si="1"/>
-        <v>3.7785140477505419E-2</v>
+        <v>3.8836308969177211E-2</v>
       </c>
       <c r="O18" s="95" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="19" spans="1:15">
+    <row r="19" spans="1:15" ht="16.5">
       <c r="A19" s="32" t="s">
         <v>29</v>
       </c>
       <c r="B19" s="101">
         <f>+$B$18*'Horno Eléctrico'!O2</f>
-        <v>80.585723037256386</v>
+        <v>74.481699824652694</v>
       </c>
       <c r="D19" s="82" t="s">
         <v>135</v>
@@ -19265,18 +19330,18 @@
       </c>
       <c r="L19" s="40">
         <f>+B22+B6*0.45</f>
-        <v>57.026333959265756</v>
+        <v>57.61127871463875</v>
       </c>
       <c r="M19" s="60" t="s">
         <v>30</v>
       </c>
       <c r="N19" s="97">
         <f t="shared" si="1"/>
-        <v>0.14252398467357388</v>
+        <v>0.14398591728543034</v>
       </c>
       <c r="O19" s="96">
         <f>1348.181674+3.99660706*N16+37.2199612*N19-1.19891958*N20-6.37252956*N18-2.62999577*N21-7.33636128*N17+2.000343166*N22</f>
-        <v>1352.6211837205806</v>
+        <v>1352.567387270419</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -19285,7 +19350,7 @@
       </c>
       <c r="B20" s="101">
         <f>+$B$18*'Horno Eléctrico'!O3</f>
-        <v>48.586466866721835</v>
+        <v>49.938124223199267</v>
       </c>
       <c r="D20" s="82"/>
       <c r="E20" s="74">
@@ -19307,24 +19372,24 @@
       </c>
       <c r="L20" s="40">
         <f>+I30*(1-0.97)</f>
-        <v>1.2403472871868222</v>
+        <v>1.2546416691897859</v>
       </c>
       <c r="M20" s="60" t="s">
         <v>34</v>
       </c>
       <c r="N20" s="97">
         <f t="shared" si="1"/>
-        <v>3.0999579575849649E-3</v>
+        <v>3.1356834222968271E-3</v>
       </c>
       <c r="O20" s="32"/>
     </row>
-    <row r="21" spans="1:15" ht="15" thickBot="1">
+    <row r="21" spans="1:15" ht="15.75" thickBot="1">
       <c r="A21" s="32" t="s">
         <v>33</v>
       </c>
       <c r="B21" s="101">
         <f>+$B$18*'Horno Eléctrico'!O4</f>
-        <v>15.118494227501888</v>
+        <v>15.53908508868799</v>
       </c>
       <c r="D21" s="76"/>
       <c r="E21" s="77"/>
@@ -19340,26 +19405,26 @@
       </c>
       <c r="L21" s="40">
         <f>+B24-I35</f>
-        <v>-0.64434245674011947</v>
+        <v>1.7463554308156972</v>
       </c>
       <c r="M21" s="60" t="s">
         <v>35</v>
       </c>
       <c r="N21" s="59">
         <f t="shared" si="1"/>
-        <v>-1.6103832747614371E-3</v>
+        <v>4.3646069697199528E-3</v>
       </c>
       <c r="O21" s="95" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="15" thickBot="1">
+    <row r="22" spans="1:15" ht="17.25" thickBot="1">
       <c r="A22" s="32" t="s">
         <v>30</v>
       </c>
       <c r="B22" s="101">
         <f>+$B$18*'Horno Eléctrico'!O5</f>
-        <v>21.026333959265756</v>
+        <v>21.61127871463875</v>
       </c>
       <c r="K22" s="32" t="s">
         <v>102</v>
@@ -19377,7 +19442,7 @@
       </c>
       <c r="O22" s="94">
         <f>+N16/(N17+N18)</f>
-        <v>1.2014028284032587</v>
+        <v>1.1442980524596003</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -19386,7 +19451,7 @@
       </c>
       <c r="B23" s="101">
         <f>+$B$18*'Horno Eléctrico'!O6</f>
-        <v>17.127455027439495</v>
+        <v>17.603934427538281</v>
       </c>
       <c r="D23" s="80"/>
       <c r="E23" s="69">
@@ -19423,7 +19488,7 @@
       </c>
       <c r="B24" s="101">
         <f>+$B$18*'Horno Eléctrico'!O7</f>
-        <v>85.935657543259879</v>
+        <v>88.326355430815696</v>
       </c>
       <c r="D24" s="81" t="s">
         <v>124</v>
@@ -19450,7 +19515,7 @@
       </c>
       <c r="B25" s="101">
         <f>+$B$18*'Horno Eléctrico'!O8</f>
-        <v>1.6968494333230486</v>
+        <v>1.7440551506203601</v>
       </c>
       <c r="D25" s="82"/>
       <c r="E25" s="74">
@@ -19467,13 +19532,13 @@
         <v>30</v>
       </c>
     </row>
-    <row r="26" spans="1:15" ht="15" thickBot="1">
+    <row r="26" spans="1:15" ht="15.75" thickBot="1">
       <c r="A26" s="32" t="s">
         <v>38</v>
       </c>
       <c r="B26" s="101">
         <f>+$B$18*'Horno Eléctrico'!O9</f>
-        <v>29.923019905231733</v>
+        <v>30.755467139846967</v>
       </c>
       <c r="D26" s="76"/>
       <c r="E26" s="83"/>
@@ -19485,7 +19550,7 @@
       <c r="H26" s="77"/>
       <c r="I26" s="84"/>
     </row>
-    <row r="27" spans="1:15" ht="15" thickBot="1"/>
+    <row r="27" spans="1:15" ht="15.75" thickBot="1"/>
     <row r="28" spans="1:15">
       <c r="D28" s="80"/>
       <c r="E28" s="69">
@@ -19524,31 +19589,31 @@
       <c r="D30" s="82"/>
       <c r="E30" s="102">
         <f>+I30/I28*E28</f>
-        <v>32.027746852241862</v>
+        <v>32.396850612881764</v>
       </c>
       <c r="F30" s="71"/>
       <c r="G30" s="74">
         <f>+E30/E28*G28</f>
-        <v>9.3171627206521777</v>
+        <v>9.4245383601110593</v>
       </c>
       <c r="H30" s="71"/>
       <c r="I30" s="75">
         <f>+L7</f>
-        <v>41.344909572894039</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" ht="15" thickBot="1">
+        <v>41.821388972992828</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" ht="15.75" thickBot="1">
       <c r="D31" s="76"/>
       <c r="E31" s="77"/>
       <c r="F31" s="77"/>
       <c r="G31" s="78">
         <f>+G30/1.4284</f>
-        <v>6.5227966400533308</v>
+        <v>6.5979686083107394</v>
       </c>
       <c r="H31" s="77"/>
       <c r="I31" s="79"/>
     </row>
-    <row r="32" spans="1:15" ht="15" thickBot="1"/>
+    <row r="32" spans="1:15" ht="15.75" thickBot="1"/>
     <row r="33" spans="4:12">
       <c r="D33" s="80"/>
       <c r="E33" s="69">
@@ -19601,7 +19666,7 @@
         <v>86.58</v>
       </c>
     </row>
-    <row r="36" spans="4:12" ht="15" thickBot="1">
+    <row r="36" spans="4:12" ht="15.75" thickBot="1">
       <c r="D36" s="76"/>
       <c r="E36" s="83"/>
       <c r="F36" s="83"/>
@@ -19835,7 +19900,7 @@
       <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -19845,23 +19910,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:W95"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView topLeftCell="A70" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G87" sqref="G87"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="23.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.44140625" style="1"/>
-    <col min="3" max="3" width="13.5546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11.44140625" style="1"/>
-    <col min="5" max="5" width="12.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.44140625" style="1"/>
-    <col min="7" max="7" width="8.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="12" width="11.44140625" style="1"/>
-    <col min="13" max="13" width="12.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="8.88671875" style="1" customWidth="1"/>
-    <col min="16" max="16384" width="11.44140625" style="1"/>
+    <col min="1" max="1" width="23.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" style="1"/>
+    <col min="3" max="3" width="13.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" style="1"/>
+    <col min="5" max="5" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" style="1"/>
+    <col min="7" max="7" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="12" width="11.42578125" style="1"/>
+    <col min="13" max="13" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="8.85546875" style="1" customWidth="1"/>
+    <col min="16" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
@@ -20795,7 +20860,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="63" spans="1:11" ht="15">
+    <row r="63" spans="1:11">
       <c r="A63" s="24" t="s">
         <v>10</v>
       </c>
@@ -20809,7 +20874,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="64" spans="1:11" ht="15">
+    <row r="64" spans="1:11">
       <c r="A64" s="24" t="s">
         <v>11</v>
       </c>
@@ -20823,7 +20888,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="15">
+    <row r="65" spans="1:5">
       <c r="A65" s="24" t="s">
         <v>64</v>
       </c>
@@ -20837,7 +20902,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="1:5" ht="15">
+    <row r="66" spans="1:5">
       <c r="A66" s="24" t="s">
         <v>65</v>
       </c>
@@ -20851,7 +20916,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:5" ht="15">
+    <row r="67" spans="1:5">
       <c r="A67" s="24" t="s">
         <v>12</v>
       </c>
@@ -20865,7 +20930,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="68" spans="1:5" ht="15">
+    <row r="68" spans="1:5">
       <c r="A68" s="22" t="s">
         <v>66</v>
       </c>
@@ -20879,7 +20944,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:5" ht="15">
+    <row r="69" spans="1:5">
       <c r="A69" s="24" t="s">
         <v>13</v>
       </c>
@@ -20893,7 +20958,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="70" spans="1:5" ht="15">
+    <row r="70" spans="1:5">
       <c r="A70" s="24" t="s">
         <v>14</v>
       </c>
@@ -20907,7 +20972,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="71" spans="1:5" ht="15">
+    <row r="71" spans="1:5">
       <c r="A71" s="24" t="s">
         <v>15</v>
       </c>
@@ -20918,7 +20983,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="72" spans="1:5" ht="15">
+    <row r="72" spans="1:5">
       <c r="A72" s="26" t="s">
         <v>67</v>
       </c>
@@ -20929,7 +20994,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="73" spans="1:5" ht="15">
+    <row r="73" spans="1:5">
       <c r="A73" s="26" t="s">
         <v>68</v>
       </c>
@@ -20940,7 +21005,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="74" spans="1:5" ht="15">
+    <row r="74" spans="1:5">
       <c r="A74" s="27"/>
       <c r="B74" s="25">
         <v>29</v>
@@ -20950,11 +21015,11 @@
         <v>34</v>
       </c>
     </row>
-    <row r="75" spans="1:5" ht="15">
+    <row r="75" spans="1:5">
       <c r="A75" s="23"/>
       <c r="B75" s="23"/>
     </row>
-    <row r="76" spans="1:5" ht="15">
+    <row r="76" spans="1:5">
       <c r="A76" s="24" t="s">
         <v>69</v>
       </c>
@@ -20962,7 +21027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:5" ht="15">
+    <row r="77" spans="1:5">
       <c r="A77" s="24" t="s">
         <v>70</v>
       </c>
@@ -20970,7 +21035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:5" ht="15">
+    <row r="78" spans="1:5">
       <c r="A78" s="24" t="s">
         <v>16</v>
       </c>
@@ -21331,25 +21396,25 @@
       <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.8"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="18.44140625" style="32" customWidth="1"/>
-    <col min="2" max="2" width="9.109375" style="32" customWidth="1"/>
-    <col min="3" max="3" width="6.6640625" style="32" customWidth="1"/>
-    <col min="4" max="4" width="11.109375" style="32" customWidth="1"/>
-    <col min="5" max="5" width="10.44140625" style="32" customWidth="1"/>
-    <col min="6" max="6" width="9.33203125" style="32" customWidth="1"/>
-    <col min="7" max="7" width="9.109375" style="32" customWidth="1"/>
-    <col min="8" max="8" width="9.33203125" style="32" customWidth="1"/>
+    <col min="1" max="1" width="18.42578125" style="32" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="32" customWidth="1"/>
+    <col min="3" max="3" width="6.7109375" style="32" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" style="32" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" style="32" customWidth="1"/>
+    <col min="6" max="6" width="9.28515625" style="32" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="32" customWidth="1"/>
+    <col min="8" max="8" width="9.28515625" style="32" customWidth="1"/>
     <col min="9" max="9" width="8" style="32" customWidth="1"/>
-    <col min="10" max="10" width="10.44140625" style="32" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="5.109375" style="32" customWidth="1"/>
-    <col min="12" max="12" width="7.33203125" style="32" customWidth="1"/>
-    <col min="13" max="13" width="12.44140625" style="32" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.5546875" style="32" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.44140625" style="32" customWidth="1"/>
-    <col min="16" max="16" width="12.109375" style="32" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="11.44140625" style="32"/>
+    <col min="10" max="10" width="10.42578125" style="32" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.140625" style="32" customWidth="1"/>
+    <col min="12" max="12" width="7.28515625" style="32" customWidth="1"/>
+    <col min="13" max="13" width="12.42578125" style="32" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.5703125" style="32" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.42578125" style="32" customWidth="1"/>
+    <col min="16" max="16" width="12.140625" style="32" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="11.42578125" style="32"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:176" ht="15" customHeight="1">
@@ -21384,10 +21449,10 @@
         <f>+B16+B27+B33+I19+B26+B38</f>
         <v>4564.5246181818193</v>
       </c>
-      <c r="N1" s="247" t="s">
+      <c r="N1" s="243" t="s">
         <v>42</v>
       </c>
-      <c r="O1" s="248"/>
+      <c r="O1" s="244"/>
       <c r="P1" s="64" t="s">
         <v>39</v>
       </c>
@@ -21428,7 +21493,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="2" spans="1:176" ht="14.4">
+    <row r="2" spans="1:176" ht="16.5">
       <c r="A2" s="35" t="str">
         <f>+PPC!A2</f>
         <v>LIVIANA</v>
@@ -21641,7 +21706,7 @@
       <c r="FR4" s="41"/>
       <c r="FS4" s="41"/>
     </row>
-    <row r="5" spans="1:176" ht="14.4">
+    <row r="5" spans="1:176" ht="16.5">
       <c r="A5" s="35" t="str">
         <f>+PPC!A5</f>
         <v>ALTO RESIDUAL</v>
@@ -21856,7 +21921,7 @@
       <c r="FR7" s="41"/>
       <c r="FS7" s="41"/>
     </row>
-    <row r="8" spans="1:176" ht="14.4">
+    <row r="8" spans="1:176" ht="16.5">
       <c r="A8" s="35" t="str">
         <f>+PPC!A8</f>
         <v>ARRABIO</v>
@@ -22126,7 +22191,7 @@
       <c r="FR12" s="41"/>
       <c r="FS12" s="41"/>
     </row>
-    <row r="13" spans="1:176" ht="14.4">
+    <row r="13" spans="1:176" ht="16.5">
       <c r="B13" s="63">
         <v>33</v>
       </c>
@@ -22249,7 +22314,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:176" ht="14.4" thickBot="1">
+    <row r="16" spans="1:176" ht="13.5" thickBot="1">
       <c r="A16" s="33" t="s">
         <v>212</v>
       </c>
@@ -22428,7 +22493,7 @@
       </c>
       <c r="FS19" s="41"/>
     </row>
-    <row r="20" spans="1:175" ht="14.4" thickBot="1">
+    <row r="20" spans="1:175" ht="13.5" thickBot="1">
       <c r="A20" s="35" t="s">
         <v>107</v>
       </c>
@@ -22467,7 +22532,7 @@
       </c>
       <c r="FS20" s="41"/>
     </row>
-    <row r="21" spans="1:175" ht="14.4" thickBot="1">
+    <row r="21" spans="1:175" ht="13.5" thickBot="1">
       <c r="A21" s="35" t="s">
         <v>108</v>
       </c>
@@ -22504,7 +22569,7 @@
         <f>+K78</f>
         <v>0</v>
       </c>
-      <c r="D22" s="245" t="s">
+      <c r="D22" s="247" t="s">
         <v>231</v>
       </c>
       <c r="E22" s="69">
@@ -22539,7 +22604,7 @@
       <c r="FR22" s="41"/>
       <c r="FS22" s="41"/>
     </row>
-    <row r="23" spans="1:175" ht="14.4">
+    <row r="23" spans="1:175" ht="16.5">
       <c r="A23" s="35" t="s">
         <v>141</v>
       </c>
@@ -22547,7 +22612,7 @@
         <f>+I78</f>
         <v>13.773177000000006</v>
       </c>
-      <c r="D23" s="246"/>
+      <c r="D23" s="248"/>
       <c r="E23" s="71" t="s">
         <v>139</v>
       </c>
@@ -22644,7 +22709,7 @@
       <c r="FR24" s="41"/>
       <c r="FS24" s="41"/>
     </row>
-    <row r="25" spans="1:175" ht="14.4" thickBot="1">
+    <row r="25" spans="1:175" ht="13.5" thickBot="1">
       <c r="A25" s="35"/>
       <c r="B25" s="51">
         <f>SUM(B17:B24)</f>
@@ -22689,7 +22754,7 @@
       <c r="FR25" s="41"/>
       <c r="FS25" s="41"/>
     </row>
-    <row r="26" spans="1:175" ht="14.4" thickBot="1">
+    <row r="26" spans="1:175" ht="13.5" thickBot="1">
       <c r="A26" s="52" t="s">
         <v>58</v>
       </c>
@@ -22733,7 +22798,7 @@
       <c r="B27" s="68">
         <v>0</v>
       </c>
-      <c r="D27" s="245" t="s">
+      <c r="D27" s="247" t="s">
         <v>50</v>
       </c>
       <c r="E27" s="69">
@@ -22786,7 +22851,7 @@
         <f>+B27*0.58+B26*0.83</f>
         <v>581</v>
       </c>
-      <c r="D28" s="246"/>
+      <c r="D28" s="248"/>
       <c r="E28" s="71" t="s">
         <v>139</v>
       </c>
@@ -22884,7 +22949,7 @@
       <c r="FR29" s="41"/>
       <c r="FS29" s="41"/>
     </row>
-    <row r="30" spans="1:175" ht="14.4" thickBot="1">
+    <row r="30" spans="1:175" ht="13.5" thickBot="1">
       <c r="A30" s="32" t="s">
         <v>31</v>
       </c>
@@ -22930,7 +22995,7 @@
       <c r="FR30" s="41"/>
       <c r="FS30" s="41"/>
     </row>
-    <row r="31" spans="1:175" ht="14.4" thickBot="1">
+    <row r="31" spans="1:175" ht="13.5" thickBot="1">
       <c r="B31" s="51">
         <f>SUM(B28:B30)</f>
         <v>616</v>
@@ -23111,7 +23176,7 @@
       <c r="FR34" s="41"/>
       <c r="FS34" s="41"/>
     </row>
-    <row r="35" spans="1:175" ht="14.4" thickBot="1">
+    <row r="35" spans="1:175" ht="13.5" thickBot="1">
       <c r="A35" s="32" t="s">
         <v>29</v>
       </c>
@@ -23156,7 +23221,7 @@
       <c r="FR35" s="41"/>
       <c r="FS35" s="41"/>
     </row>
-    <row r="36" spans="1:175" ht="14.4" thickBot="1">
+    <row r="36" spans="1:175" ht="13.5" thickBot="1">
       <c r="B36" s="51">
         <f>+B32-B34-B35</f>
         <v>-120</v>
@@ -23311,7 +23376,7 @@
       <c r="FR39" s="41"/>
       <c r="FS39" s="41"/>
     </row>
-    <row r="40" spans="1:175" ht="14.4" thickBot="1">
+    <row r="40" spans="1:175" ht="13.5" thickBot="1">
       <c r="A40" s="89" t="s">
         <v>137</v>
       </c>
@@ -23348,7 +23413,7 @@
       <c r="FR40" s="41"/>
       <c r="FS40" s="41"/>
     </row>
-    <row r="41" spans="1:175" ht="14.4" thickBot="1">
+    <row r="41" spans="1:175" ht="13.5" thickBot="1">
       <c r="A41" s="89" t="s">
         <v>129</v>
       </c>
@@ -23472,7 +23537,7 @@
       <c r="FR44" s="41"/>
       <c r="FS44" s="41"/>
     </row>
-    <row r="45" spans="1:175" ht="14.4" thickBot="1">
+    <row r="45" spans="1:175" ht="13.5" thickBot="1">
       <c r="D45" s="76"/>
       <c r="E45" s="77"/>
       <c r="F45" s="77"/>
@@ -23498,7 +23563,7 @@
       <c r="FR45" s="41"/>
       <c r="FS45" s="41"/>
     </row>
-    <row r="46" spans="1:175" ht="14.4" thickBot="1">
+    <row r="46" spans="1:175" ht="13.5" thickBot="1">
       <c r="D46" s="71"/>
       <c r="E46" s="71"/>
       <c r="F46" s="71"/>
@@ -23618,7 +23683,7 @@
       <c r="FR49" s="41"/>
       <c r="FS49" s="41"/>
     </row>
-    <row r="50" spans="2:176" ht="14.4" thickBot="1">
+    <row r="50" spans="2:176" ht="13.5" thickBot="1">
       <c r="D50" s="76"/>
       <c r="E50" s="77"/>
       <c r="F50" s="77"/>
@@ -23644,7 +23709,7 @@
       <c r="FR50" s="41"/>
       <c r="FS50" s="41"/>
     </row>
-    <row r="51" spans="2:176" ht="14.4" thickBot="1">
+    <row r="51" spans="2:176" ht="13.5" thickBot="1">
       <c r="D51" s="71"/>
       <c r="E51" s="71"/>
       <c r="F51" s="71"/>
@@ -23766,7 +23831,7 @@
       <c r="FR54" s="41"/>
       <c r="FS54" s="41"/>
     </row>
-    <row r="55" spans="2:176" ht="14.4" thickBot="1">
+    <row r="55" spans="2:176" ht="13.5" thickBot="1">
       <c r="D55" s="76"/>
       <c r="E55" s="77"/>
       <c r="F55" s="77"/>
@@ -24486,7 +24551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:12" ht="15.6">
+    <row r="78" spans="1:12" ht="15.75">
       <c r="A78" s="92" t="s">
         <v>119</v>
       </c>
@@ -24554,21 +24619,21 @@
       <c r="F81" s="56" t="s">
         <v>154</v>
       </c>
-      <c r="H81" s="243" t="s">
+      <c r="H81" s="245" t="s">
         <v>144</v>
       </c>
-      <c r="I81" s="243"/>
-      <c r="J81" s="243"/>
-      <c r="K81" s="243"/>
-      <c r="M81" s="243" t="s">
+      <c r="I81" s="245"/>
+      <c r="J81" s="245"/>
+      <c r="K81" s="245"/>
+      <c r="M81" s="245" t="s">
         <v>145</v>
       </c>
-      <c r="N81" s="243"/>
-      <c r="O81" s="243"/>
-      <c r="Q81" s="244" t="s">
+      <c r="N81" s="245"/>
+      <c r="O81" s="245"/>
+      <c r="Q81" s="246" t="s">
         <v>148</v>
       </c>
-      <c r="R81" s="244"/>
+      <c r="R81" s="246"/>
     </row>
     <row r="82" spans="1:18">
       <c r="A82" s="57" t="s">
@@ -24787,17 +24852,17 @@
       <c r="D93" s="98"/>
       <c r="E93" s="98"/>
       <c r="F93" s="98"/>
-      <c r="H93" s="243" t="s">
+      <c r="H93" s="245" t="s">
         <v>146</v>
       </c>
-      <c r="I93" s="243"/>
-      <c r="J93" s="243"/>
-      <c r="K93" s="243"/>
-      <c r="M93" s="243" t="s">
+      <c r="I93" s="245"/>
+      <c r="J93" s="245"/>
+      <c r="K93" s="245"/>
+      <c r="M93" s="245" t="s">
         <v>147</v>
       </c>
-      <c r="N93" s="243"/>
-      <c r="O93" s="243"/>
+      <c r="N93" s="245"/>
+      <c r="O93" s="245"/>
     </row>
     <row r="94" spans="1:18">
       <c r="G94" s="36"/>
@@ -25130,11 +25195,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14:F26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1">

--- a/Mix.xlsx
+++ b/Mix.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SIDER\Scrap Optimization\Clone\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A32C6036-8F5D-4361-A4FA-0C6C48053E77}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AE2FF56-EDC9-4E58-B36F-4E071721A4EC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="589" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inventario" sheetId="9" r:id="rId1"/>
@@ -624,7 +624,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="912" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="923" uniqueCount="304">
   <si>
     <t>Tipo de Chatarra</t>
   </si>
@@ -1530,6 +1530,12 @@
   </si>
   <si>
     <t>|</t>
+  </si>
+  <si>
+    <t>Max</t>
+  </si>
+  <si>
+    <t>Elementos</t>
   </si>
 </sst>
 </file>
@@ -2085,7 +2091,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="33">
+  <borders count="34">
     <border>
       <left/>
       <right/>
@@ -2447,6 +2453,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -2455,7 +2474,7 @@
     <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="251">
+  <cellXfs count="255">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3089,6 +3108,17 @@
     <xf numFmtId="169" fontId="14" fillId="14" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="34" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -3100,12 +3130,6 @@
     </xf>
     <xf numFmtId="0" fontId="48" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3119,10 +3143,15 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="33" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Millares" xfId="4" builtinId="3"/>
@@ -11234,8 +11263,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C42D4128-7A49-4323-8F18-C858079FB1B4}">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B9"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -11388,7 +11417,7 @@
         <v>81</v>
       </c>
       <c r="B7" s="164">
-        <v>295</v>
+        <v>520</v>
       </c>
       <c r="C7" s="164">
         <v>1</v>
@@ -12331,47 +12360,48 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CF1F3EF-5E34-4FA8-A3D1-33686BE22993}">
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:J22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView showGridLines="0" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" customWidth="1"/>
-    <col min="2" max="10" width="6.7109375" customWidth="1"/>
+    <col min="1" max="1" width="18.28515625" style="240" customWidth="1"/>
+    <col min="2" max="10" width="6.7109375" style="240" customWidth="1"/>
+    <col min="11" max="16384" width="11.42578125" style="240"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="159" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="159" t="s">
+      <c r="A1" s="242" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="242" t="s">
         <v>139</v>
       </c>
-      <c r="C1" s="159" t="s">
+      <c r="C1" s="242" t="s">
         <v>74</v>
       </c>
-      <c r="D1" s="159" t="s">
+      <c r="D1" s="242" t="s">
         <v>136</v>
       </c>
-      <c r="E1" s="159" t="s">
+      <c r="E1" s="242" t="s">
         <v>226</v>
       </c>
-      <c r="F1" s="159" t="s">
+      <c r="F1" s="242" t="s">
         <v>227</v>
       </c>
-      <c r="G1" s="234" t="s">
+      <c r="G1" s="243" t="s">
         <v>100</v>
       </c>
-      <c r="H1" s="159" t="s">
+      <c r="H1" s="242" t="s">
         <v>228</v>
       </c>
-      <c r="I1" s="159" t="s">
+      <c r="I1" s="242" t="s">
         <v>229</v>
       </c>
-      <c r="J1" s="159" t="s">
+      <c r="J1" s="242" t="s">
         <v>230</v>
       </c>
     </row>
@@ -12631,8 +12661,82 @@
         <v>0.04</v>
       </c>
     </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="159" t="s">
+        <v>303</v>
+      </c>
+      <c r="B12" s="159" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="159" t="s">
+        <v>139</v>
+      </c>
+      <c r="B13" s="164"/>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="159" t="s">
+        <v>74</v>
+      </c>
+      <c r="B14" s="164"/>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="159" t="s">
+        <v>136</v>
+      </c>
+      <c r="B15" s="164"/>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="159" t="s">
+        <v>226</v>
+      </c>
+      <c r="B16" s="164"/>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="159" t="s">
+        <v>227</v>
+      </c>
+      <c r="B17" s="164">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="234" t="s">
+        <v>100</v>
+      </c>
+      <c r="B18" s="164"/>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="159" t="s">
+        <v>228</v>
+      </c>
+      <c r="B19" s="164">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="159" t="s">
+        <v>229</v>
+      </c>
+      <c r="B20" s="164">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="159" t="s">
+        <v>230</v>
+      </c>
+      <c r="B21" s="164">
+        <v>3.3000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="B22" s="241"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -12640,8 +12744,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AU39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AA34" sqref="AA34"/>
+    <sheetView topLeftCell="R1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AI14" sqref="AI14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -12935,11 +13039,11 @@
         <v>45.580107392607381</v>
       </c>
       <c r="AT2" s="164">
-        <v>157</v>
-      </c>
-      <c r="AU2" s="250">
+        <v>170</v>
+      </c>
+      <c r="AU2" s="239">
         <f>AT2*W2</f>
-        <v>633730.47538908082</v>
+        <v>686204.97335123399</v>
       </c>
     </row>
     <row r="3" spans="1:47" ht="16.5">
@@ -13059,11 +13163,11 @@
       <c r="AN3" s="10"/>
       <c r="AP3" s="12"/>
       <c r="AT3" s="164">
-        <v>334</v>
-      </c>
-      <c r="AU3" s="250">
+        <v>220</v>
+      </c>
+      <c r="AU3" s="239">
         <f t="shared" ref="AU3:AU9" si="12">AT3*W3</f>
-        <v>689956.54379377712</v>
+        <v>454462.39411566156</v>
       </c>
     </row>
     <row r="4" spans="1:47" ht="16.5">
@@ -13195,11 +13299,11 @@
         <v>139.66965534465541</v>
       </c>
       <c r="AT4" s="164">
-        <v>170</v>
-      </c>
-      <c r="AU4" s="250">
+        <v>180</v>
+      </c>
+      <c r="AU4" s="239">
         <f t="shared" si="12"/>
-        <v>1723585.43306457</v>
+        <v>1824972.8114801331</v>
       </c>
     </row>
     <row r="5" spans="1:47" ht="16.5">
@@ -13325,7 +13429,7 @@
       <c r="AT5" s="164">
         <v>217</v>
       </c>
-      <c r="AU5" s="250">
+      <c r="AU5" s="239">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
@@ -13449,7 +13553,7 @@
       <c r="AT6" s="164">
         <v>56</v>
       </c>
-      <c r="AU6" s="250">
+      <c r="AU6" s="239">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
@@ -13565,7 +13669,7 @@
       <c r="AT7" s="164">
         <v>295</v>
       </c>
-      <c r="AU7" s="250">
+      <c r="AU7" s="239">
         <f t="shared" si="12"/>
         <v>1807164.7239364162</v>
       </c>
@@ -13670,7 +13774,7 @@
       <c r="AT8" s="164">
         <v>240</v>
       </c>
-      <c r="AU8" s="250">
+      <c r="AU8" s="239">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
@@ -13792,11 +13896,11 @@
         <v>12.670857142857143</v>
       </c>
       <c r="AT9" s="164">
-        <v>201</v>
-      </c>
-      <c r="AU9" s="250">
+        <v>205</v>
+      </c>
+      <c r="AU9" s="239">
         <f t="shared" si="12"/>
-        <v>276808.91277953936</v>
+        <v>282317.54785972921</v>
       </c>
     </row>
     <row r="10" spans="1:47" ht="18">
@@ -13899,9 +14003,9 @@
         <f>+AN4/28*16</f>
         <v>12.021714285714285</v>
       </c>
-      <c r="AU10" s="250">
+      <c r="AU10" s="239">
         <f>(SUM(AU2:AU9))/Y1</f>
-        <v>244.34505185539922</v>
+        <v>240.72011670205592</v>
       </c>
     </row>
     <row r="11" spans="1:47">
@@ -14159,10 +14263,10 @@
         <v>393.55483898183456</v>
       </c>
       <c r="I14" s="132"/>
-      <c r="L14" s="239" t="s">
+      <c r="L14" s="244" t="s">
         <v>284</v>
       </c>
-      <c r="M14" s="239"/>
+      <c r="M14" s="244"/>
       <c r="N14" s="10">
         <f>+SUMPRODUCT($K$2:$K$9,M2:M9)/M10</f>
         <v>0.57383831954169318</v>
@@ -14226,10 +14330,10 @@
       <c r="I15">
         <v>26500</v>
       </c>
-      <c r="L15" s="239" t="s">
+      <c r="L15" s="244" t="s">
         <v>285</v>
       </c>
-      <c r="M15" s="239"/>
+      <c r="M15" s="244"/>
       <c r="N15" s="10">
         <f>+SUMPRODUCT($H$2:$H$9,N2:N9)</f>
         <v>6862.19</v>
@@ -14303,10 +14407,10 @@
       <c r="I16">
         <v>29000</v>
       </c>
-      <c r="L16" s="239" t="s">
+      <c r="L16" s="244" t="s">
         <v>286</v>
       </c>
-      <c r="M16" s="239"/>
+      <c r="M16" s="244"/>
       <c r="N16" s="10">
         <f>O10-(B17-O10)</f>
         <v>20.46</v>
@@ -14371,10 +14475,10 @@
         <f>+G15+G16</f>
         <v>433.2</v>
       </c>
-      <c r="L17" s="239" t="s">
+      <c r="L17" s="244" t="s">
         <v>251</v>
       </c>
-      <c r="M17" s="239"/>
+      <c r="M17" s="244"/>
       <c r="N17" s="10">
         <f>+N14*N16</f>
         <v>11.740732017823042</v>
@@ -14423,10 +14527,10 @@
       <c r="C18" s="36" t="s">
         <v>187</v>
       </c>
-      <c r="L18" s="239" t="s">
+      <c r="L18" s="244" t="s">
         <v>252</v>
       </c>
-      <c r="M18" s="239"/>
+      <c r="M18" s="244"/>
       <c r="N18" s="10">
         <f>+N15/N10*N17*$I$11</f>
         <v>4356.5489155196519</v>
@@ -14481,10 +14585,10 @@
         <v>194</v>
       </c>
       <c r="D19" s="36"/>
-      <c r="L19" s="239" t="s">
+      <c r="L19" s="244" t="s">
         <v>262</v>
       </c>
-      <c r="M19" s="239"/>
+      <c r="M19" s="244"/>
       <c r="N19" s="10">
         <v>90</v>
       </c>
@@ -14517,10 +14621,10 @@
       </c>
     </row>
     <row r="20" spans="1:42">
-      <c r="L20" s="239" t="s">
+      <c r="L20" s="244" t="s">
         <v>263</v>
       </c>
-      <c r="M20" s="239"/>
+      <c r="M20" s="244"/>
       <c r="N20" s="10">
         <f>+N18/N10-N19</f>
         <v>199.95333880330463</v>
@@ -14606,14 +14710,14 @@
       <c r="Y23" s="191"/>
     </row>
     <row r="24" spans="1:42" ht="18">
-      <c r="D24" s="240" t="s">
+      <c r="D24" s="245" t="s">
         <v>295</v>
       </c>
-      <c r="E24" s="241"/>
-      <c r="F24" s="241"/>
-      <c r="G24" s="241"/>
-      <c r="H24" s="241"/>
-      <c r="I24" s="242"/>
+      <c r="E24" s="246"/>
+      <c r="F24" s="246"/>
+      <c r="G24" s="246"/>
+      <c r="H24" s="246"/>
+      <c r="I24" s="247"/>
       <c r="M24" s="228"/>
       <c r="X24" s="165"/>
       <c r="Y24" s="191"/>
@@ -14941,8 +15045,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:FT112"/>
   <sheetViews>
-    <sheetView topLeftCell="B13" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="N3" sqref="N3"/>
+    <sheetView topLeftCell="A28" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -14963,7 +15067,9 @@
     <col min="14" max="14" width="7.5703125" style="32" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="9.42578125" style="32" customWidth="1"/>
     <col min="16" max="16" width="12.140625" style="32" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="11.42578125" style="32"/>
+    <col min="17" max="18" width="11.42578125" style="32"/>
+    <col min="19" max="19" width="16" style="32" customWidth="1"/>
+    <col min="20" max="16384" width="11.42578125" style="32"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:176" ht="15" customHeight="1">
@@ -14998,10 +15104,10 @@
         <f>+B16+B27+B33+I19+B26+B38</f>
         <v>4757.4465272727284</v>
       </c>
-      <c r="N1" s="243" t="s">
+      <c r="N1" s="252" t="s">
         <v>42</v>
       </c>
-      <c r="O1" s="244"/>
+      <c r="O1" s="253"/>
       <c r="P1" s="64" t="s">
         <v>39</v>
       </c>
@@ -15052,7 +15158,7 @@
         <v>5.78</v>
       </c>
       <c r="C2" s="36">
-        <f t="shared" ref="C2:C9" si="1">+B2*(1-F2)</f>
+        <f>+B2*(1-F2)</f>
         <v>4.8552</v>
       </c>
       <c r="D2" s="36">
@@ -15064,7 +15170,7 @@
         <v>0.84</v>
       </c>
       <c r="F2" s="37">
-        <f t="shared" ref="F2:F9" si="2">1-E2</f>
+        <f t="shared" ref="F2:F9" si="1">1-E2</f>
         <v>0.16000000000000003</v>
       </c>
       <c r="G2" s="38">
@@ -15086,7 +15192,7 @@
         <v>29</v>
       </c>
       <c r="O2" s="97">
-        <f t="shared" ref="O2:O9" si="3">+M2/$M$10</f>
+        <f t="shared" ref="O2:O9" si="2">+M2/$M$10</f>
         <v>0.24827233274884231</v>
       </c>
       <c r="P2" s="94">
@@ -15129,7 +15235,7 @@
         <v>2.9579999999999997</v>
       </c>
       <c r="C3" s="36">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="C3:C9" si="3">+B3*(1-F3)</f>
         <v>2.8692599999999997</v>
       </c>
       <c r="D3" s="36">
@@ -15141,7 +15247,7 @@
         <v>0.97</v>
       </c>
       <c r="F3" s="37">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>3.0000000000000027E-2</v>
       </c>
       <c r="G3" s="38">
@@ -15163,7 +15269,7 @@
         <v>31</v>
       </c>
       <c r="O3" s="97">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.16646041407733089</v>
       </c>
       <c r="S3" s="37"/>
@@ -15193,7 +15299,7 @@
         <v>14.517999999999999</v>
       </c>
       <c r="C4" s="36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>12.775839999999999</v>
       </c>
       <c r="D4" s="36">
@@ -15205,7 +15311,7 @@
         <v>0.88</v>
       </c>
       <c r="F4" s="37">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.12</v>
       </c>
       <c r="G4" s="38">
@@ -15227,7 +15333,7 @@
         <v>33</v>
       </c>
       <c r="O4" s="97">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>5.1796950295626636E-2</v>
       </c>
       <c r="P4" s="95" t="s">
@@ -15265,7 +15371,7 @@
         <v>0</v>
       </c>
       <c r="C5" s="36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="D5" s="36">
@@ -15277,7 +15383,7 @@
         <v>0.98</v>
       </c>
       <c r="F5" s="37">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2.0000000000000018E-2</v>
       </c>
       <c r="G5" s="38">
@@ -15299,7 +15405,7 @@
         <v>30</v>
       </c>
       <c r="O5" s="97">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>7.2037595715462505E-2</v>
       </c>
       <c r="P5" s="96">
@@ -15340,7 +15446,7 @@
         <v>0</v>
       </c>
       <c r="C6" s="36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="D6" s="36">
@@ -15352,7 +15458,7 @@
         <v>0.85</v>
       </c>
       <c r="F6" s="37">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.15000000000000002</v>
       </c>
       <c r="G6" s="38">
@@ -15404,7 +15510,7 @@
         <v>8.7720000000000002</v>
       </c>
       <c r="C7" s="36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>8.4211200000000002</v>
       </c>
       <c r="D7" s="36">
@@ -15416,7 +15522,7 @@
         <v>0.96</v>
       </c>
       <c r="F7" s="37">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>4.0000000000000036E-2</v>
       </c>
       <c r="G7" s="38">
@@ -15437,7 +15543,7 @@
         <v>35</v>
       </c>
       <c r="O7" s="97">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.29442118476938567</v>
       </c>
       <c r="P7" s="95" t="s">
@@ -15480,7 +15586,7 @@
         <v>0</v>
       </c>
       <c r="C8" s="36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="D8" s="36">
@@ -15492,7 +15598,7 @@
         <v>0.94</v>
       </c>
       <c r="F8" s="37">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>6.0000000000000053E-2</v>
       </c>
       <c r="G8" s="38">
@@ -15513,7 +15619,7 @@
         <v>102</v>
       </c>
       <c r="O8" s="59">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>5.813517168734534E-3</v>
       </c>
       <c r="P8" s="94">
@@ -15548,7 +15654,7 @@
         <v>1.9720000000000002</v>
       </c>
       <c r="C9" s="36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.8931200000000001</v>
       </c>
       <c r="D9" s="36">
@@ -15560,7 +15666,7 @@
         <v>0.96</v>
       </c>
       <c r="F9" s="37">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>4.0000000000000036E-2</v>
       </c>
       <c r="G9" s="38">
@@ -15583,7 +15689,7 @@
         <v>38</v>
       </c>
       <c r="O9" s="59">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.1025182237994899</v>
       </c>
       <c r="R9" s="61" t="s">
@@ -16121,7 +16227,7 @@
         <f>+K75</f>
         <v>0</v>
       </c>
-      <c r="D22" s="247" t="s">
+      <c r="D22" s="250" t="s">
         <v>231</v>
       </c>
       <c r="E22" s="69">
@@ -16164,7 +16270,7 @@
         <f>+I75</f>
         <v>16.380690000000001</v>
       </c>
-      <c r="D23" s="248"/>
+      <c r="D23" s="251"/>
       <c r="E23" s="71" t="s">
         <v>139</v>
       </c>
@@ -16350,7 +16456,7 @@
       <c r="B27" s="68">
         <v>0</v>
       </c>
-      <c r="D27" s="247" t="s">
+      <c r="D27" s="250" t="s">
         <v>50</v>
       </c>
       <c r="E27" s="69">
@@ -16403,7 +16509,7 @@
         <f>+B27*0.58+B26*0.86</f>
         <v>602</v>
       </c>
-      <c r="D28" s="248"/>
+      <c r="D28" s="251"/>
       <c r="E28" s="71" t="s">
         <v>139</v>
       </c>
@@ -18128,7 +18234,7 @@
         <v>122.24730600000001</v>
       </c>
       <c r="G75" s="93">
-        <f t="shared" si="6"/>
+        <f>SUM(G67:G74)</f>
         <v>424.91537400000004</v>
       </c>
       <c r="H75" s="93">
@@ -18171,21 +18277,21 @@
       <c r="F78" s="56" t="s">
         <v>154</v>
       </c>
-      <c r="H78" s="245" t="s">
+      <c r="H78" s="248" t="s">
         <v>144</v>
       </c>
-      <c r="I78" s="245"/>
-      <c r="J78" s="245"/>
-      <c r="K78" s="245"/>
-      <c r="M78" s="245" t="s">
+      <c r="I78" s="248"/>
+      <c r="J78" s="248"/>
+      <c r="K78" s="248"/>
+      <c r="M78" s="248" t="s">
         <v>145</v>
       </c>
-      <c r="N78" s="245"/>
-      <c r="O78" s="245"/>
-      <c r="Q78" s="246" t="s">
+      <c r="N78" s="248"/>
+      <c r="O78" s="248"/>
+      <c r="Q78" s="249" t="s">
         <v>148</v>
       </c>
-      <c r="R78" s="246"/>
+      <c r="R78" s="249"/>
     </row>
     <row r="79" spans="1:18">
       <c r="A79" s="57" t="s">
@@ -18404,17 +18510,17 @@
       <c r="D90" s="98"/>
       <c r="E90" s="98"/>
       <c r="F90" s="98"/>
-      <c r="H90" s="245" t="s">
+      <c r="H90" s="248" t="s">
         <v>146</v>
       </c>
-      <c r="I90" s="245"/>
-      <c r="J90" s="245"/>
-      <c r="K90" s="245"/>
-      <c r="M90" s="245" t="s">
+      <c r="I90" s="248"/>
+      <c r="J90" s="248"/>
+      <c r="K90" s="248"/>
+      <c r="M90" s="248" t="s">
         <v>147</v>
       </c>
-      <c r="N90" s="245"/>
-      <c r="O90" s="245"/>
+      <c r="N90" s="248"/>
+      <c r="O90" s="248"/>
     </row>
     <row r="91" spans="1:15">
       <c r="B91" s="32">
@@ -18748,14 +18854,14 @@
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="Q78:R78"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="D27:D28"/>
     <mergeCell ref="N1:O1"/>
     <mergeCell ref="H78:K78"/>
     <mergeCell ref="M78:O78"/>
     <mergeCell ref="H90:K90"/>
     <mergeCell ref="M90:O90"/>
+    <mergeCell ref="Q78:R78"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="D27:D28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -18771,14 +18877,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A2:O48"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N22" sqref="N22"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="8.28515625" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
     <col min="9" max="9" width="12.140625" customWidth="1"/>
+    <col min="10" max="10" width="18.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:15">
@@ -18813,10 +18921,10 @@
         <f>+B18+I15+I20+I25</f>
         <v>400.11745454545451</v>
       </c>
-      <c r="M2" s="243" t="s">
+      <c r="M2" s="252" t="s">
         <v>42</v>
       </c>
-      <c r="N2" s="244"/>
+      <c r="N2" s="253"/>
       <c r="O2" s="64" t="s">
         <v>39</v>
       </c>
@@ -18971,7 +19079,7 @@
       <c r="O7" s="32"/>
     </row>
     <row r="8" spans="1:15">
-      <c r="D8" s="247" t="s">
+      <c r="D8" s="250" t="s">
         <v>50</v>
       </c>
       <c r="E8" s="69">
@@ -19008,7 +19116,7 @@
       <c r="A9" t="s">
         <v>173</v>
       </c>
-      <c r="D9" s="248"/>
+      <c r="D9" s="251"/>
       <c r="E9" s="71" t="s">
         <v>139</v>
       </c>
@@ -19201,10 +19309,10 @@
         <f>SUM(L16:L23)</f>
         <v>369.77118495118418</v>
       </c>
-      <c r="M15" s="243" t="s">
+      <c r="M15" s="252" t="s">
         <v>42</v>
       </c>
-      <c r="N15" s="244"/>
+      <c r="N15" s="253"/>
       <c r="O15" s="64" t="s">
         <v>39</v>
       </c>
@@ -20557,7 +20665,7 @@
         <f>+D14*0.067*1000</f>
         <v>150.75000000000009</v>
       </c>
-      <c r="D22" s="249" t="s">
+      <c r="D22" s="254" t="s">
         <v>49</v>
       </c>
       <c r="E22" s="1">
@@ -20579,7 +20687,7 @@
         <f>+D14*0.02*1000+B36</f>
         <v>227.69590909090911</v>
       </c>
-      <c r="D23" s="249"/>
+      <c r="D23" s="254"/>
       <c r="E23" s="1" t="s">
         <v>45</v>
       </c>
@@ -20671,7 +20779,7 @@
         <f>+B27*0.58+B26*0.78</f>
         <v>638</v>
       </c>
-      <c r="D28" s="249" t="s">
+      <c r="D28" s="254" t="s">
         <v>50</v>
       </c>
       <c r="E28" s="1">
@@ -20693,7 +20801,7 @@
         <f>+B27*0.23</f>
         <v>253</v>
       </c>
-      <c r="D29" s="249"/>
+      <c r="D29" s="254"/>
       <c r="E29" s="1" t="s">
         <v>45</v>
       </c>
@@ -21449,10 +21557,10 @@
         <f>+B16+B27+B33+I19+B26+B38</f>
         <v>4564.5246181818193</v>
       </c>
-      <c r="N1" s="243" t="s">
+      <c r="N1" s="252" t="s">
         <v>42</v>
       </c>
-      <c r="O1" s="244"/>
+      <c r="O1" s="253"/>
       <c r="P1" s="64" t="s">
         <v>39</v>
       </c>
@@ -22569,7 +22677,7 @@
         <f>+K78</f>
         <v>0</v>
       </c>
-      <c r="D22" s="247" t="s">
+      <c r="D22" s="250" t="s">
         <v>231</v>
       </c>
       <c r="E22" s="69">
@@ -22612,7 +22720,7 @@
         <f>+I78</f>
         <v>13.773177000000006</v>
       </c>
-      <c r="D23" s="248"/>
+      <c r="D23" s="251"/>
       <c r="E23" s="71" t="s">
         <v>139</v>
       </c>
@@ -22798,7 +22906,7 @@
       <c r="B27" s="68">
         <v>0</v>
       </c>
-      <c r="D27" s="247" t="s">
+      <c r="D27" s="250" t="s">
         <v>50</v>
       </c>
       <c r="E27" s="69">
@@ -22851,7 +22959,7 @@
         <f>+B27*0.58+B26*0.83</f>
         <v>581</v>
       </c>
-      <c r="D28" s="248"/>
+      <c r="D28" s="251"/>
       <c r="E28" s="71" t="s">
         <v>139</v>
       </c>
@@ -24619,21 +24727,21 @@
       <c r="F81" s="56" t="s">
         <v>154</v>
       </c>
-      <c r="H81" s="245" t="s">
+      <c r="H81" s="248" t="s">
         <v>144</v>
       </c>
-      <c r="I81" s="245"/>
-      <c r="J81" s="245"/>
-      <c r="K81" s="245"/>
-      <c r="M81" s="245" t="s">
+      <c r="I81" s="248"/>
+      <c r="J81" s="248"/>
+      <c r="K81" s="248"/>
+      <c r="M81" s="248" t="s">
         <v>145</v>
       </c>
-      <c r="N81" s="245"/>
-      <c r="O81" s="245"/>
-      <c r="Q81" s="246" t="s">
+      <c r="N81" s="248"/>
+      <c r="O81" s="248"/>
+      <c r="Q81" s="249" t="s">
         <v>148</v>
       </c>
-      <c r="R81" s="246"/>
+      <c r="R81" s="249"/>
     </row>
     <row r="82" spans="1:18">
       <c r="A82" s="57" t="s">
@@ -24852,17 +24960,17 @@
       <c r="D93" s="98"/>
       <c r="E93" s="98"/>
       <c r="F93" s="98"/>
-      <c r="H93" s="245" t="s">
+      <c r="H93" s="248" t="s">
         <v>146</v>
       </c>
-      <c r="I93" s="245"/>
-      <c r="J93" s="245"/>
-      <c r="K93" s="245"/>
-      <c r="M93" s="245" t="s">
+      <c r="I93" s="248"/>
+      <c r="J93" s="248"/>
+      <c r="K93" s="248"/>
+      <c r="M93" s="248" t="s">
         <v>147</v>
       </c>
-      <c r="N93" s="245"/>
-      <c r="O93" s="245"/>
+      <c r="N93" s="248"/>
+      <c r="O93" s="248"/>
     </row>
     <row r="94" spans="1:18">
       <c r="G94" s="36"/>

--- a/Mix.xlsx
+++ b/Mix.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SIDER\Scrap Optimization\Clone\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rodrigo\Documents\SIDER\Scrap Optimization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AE2FF56-EDC9-4E58-B36F-4E071721A4EC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFB46541-B378-48E7-A49D-D05C3E822B11}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="589" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inventario" sheetId="9" r:id="rId1"/>
@@ -624,7 +624,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="923" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="922" uniqueCount="303">
   <si>
     <t>Tipo de Chatarra</t>
   </si>
@@ -1527,9 +1527,6 @@
   </si>
   <si>
     <t>Potencia</t>
-  </si>
-  <si>
-    <t>|</t>
   </si>
   <si>
     <t>Max</t>
@@ -1542,8 +1539,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="15">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+  <numFmts count="14">
     <numFmt numFmtId="164" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="165" formatCode="0.0"/>
     <numFmt numFmtId="166" formatCode="0\ &quot;kg&quot;"/>
@@ -2091,7 +2087,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="34">
+  <borders count="33">
     <border>
       <left/>
       <right/>
@@ -2453,19 +2449,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -2474,7 +2457,7 @@
     <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="255">
+  <cellXfs count="250">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3108,17 +3091,6 @@
     <xf numFmtId="169" fontId="14" fillId="14" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="2" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="34" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -3131,6 +3103,12 @@
     <xf numFmtId="0" fontId="48" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="33" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3142,12 +3120,6 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -3288,7 +3260,7 @@
             <c:numRef>
               <c:f>'Horno Eléctrico'!$FK$2:$FK$60</c:f>
               <c:numCache>
-                <c:formatCode>Estándar</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="59"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -3465,7 +3437,7 @@
                   <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="58" formatCode="0.0">
-                  <c:v>29.442118476938568</c:v>
+                  <c:v>28.645219181086627</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3588,7 +3560,7 @@
             <c:numRef>
               <c:f>'Horno Eléctrico'!$FK$2:$FK$60</c:f>
               <c:numCache>
-                <c:formatCode>Estándar</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="59"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -3765,7 +3737,7 @@
                   <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="58" formatCode="0.0">
-                  <c:v>29.442118476938568</c:v>
+                  <c:v>28.645219181086627</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3888,7 +3860,7 @@
             <c:numRef>
               <c:f>'Horno Eléctrico'!$FK$2:$FK$60</c:f>
               <c:numCache>
-                <c:formatCode>Estándar</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="59"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -4065,7 +4037,7 @@
                   <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="58" formatCode="0.0">
-                  <c:v>29.442118476938568</c:v>
+                  <c:v>28.645219181086627</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4169,7 +4141,7 @@
             <c:numRef>
               <c:f>'Horno Eléctrico'!$FK$2:$FK$60</c:f>
               <c:numCache>
-                <c:formatCode>Estándar</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="59"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -4346,7 +4318,7 @@
                   <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="58" formatCode="0.0">
-                  <c:v>29.442118476938568</c:v>
+                  <c:v>28.645219181086627</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4517,7 +4489,7 @@
             <c:numRef>
               <c:f>'Horno Eléctrico'!$FK$2:$FK$60</c:f>
               <c:numCache>
-                <c:formatCode>Estándar</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="59"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -4694,7 +4666,7 @@
                   <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="58" formatCode="0.0">
-                  <c:v>29.442118476938568</c:v>
+                  <c:v>28.645219181086627</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4890,7 +4862,7 @@
             <c:numRef>
               <c:f>'Horno Eléctrico'!$FK$2:$FK$60</c:f>
               <c:numCache>
-                <c:formatCode>Estándar</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="59"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -5067,7 +5039,7 @@
                   <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="58" formatCode="0.0">
-                  <c:v>29.442118476938568</c:v>
+                  <c:v>28.645219181086627</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5194,7 +5166,7 @@
             <c:numRef>
               <c:f>'Horno Eléctrico'!$FK$2:$FK$60</c:f>
               <c:numCache>
-                <c:formatCode>Estándar</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="59"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -5371,7 +5343,7 @@
                   <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="58" formatCode="0.0">
-                  <c:v>29.442118476938568</c:v>
+                  <c:v>28.645219181086627</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5498,7 +5470,7 @@
             <c:numRef>
               <c:f>'Horno Eléctrico'!$FK$2:$FK$60</c:f>
               <c:numCache>
-                <c:formatCode>Estándar</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="59"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -5675,7 +5647,7 @@
                   <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="58" formatCode="0.0">
-                  <c:v>29.442118476938568</c:v>
+                  <c:v>28.645219181086627</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5729,7 +5701,7 @@
             <c:numRef>
               <c:f>'Horno Eléctrico'!$FK$2:$FK$60</c:f>
               <c:numCache>
-                <c:formatCode>Estándar</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="59"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -5906,7 +5878,7 @@
                   <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="58" formatCode="0.0">
-                  <c:v>29.442118476938568</c:v>
+                  <c:v>28.645219181086627</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5915,10 +5887,10 @@
             <c:numRef>
               <c:f>'Horno Eléctrico'!$FT$2:$FT$60</c:f>
               <c:numCache>
-                <c:formatCode>Estándar</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="59"/>
                 <c:pt idx="58" formatCode="0.0">
-                  <c:v>7.2037595715462501</c:v>
+                  <c:v>7.0087779864219186</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5972,7 +5944,7 @@
           </c:tx>
           <c:overlay val="0"/>
         </c:title>
-        <c:numFmt formatCode="Estándar" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -6151,7 +6123,7 @@
             <c:numRef>
               <c:f>'Horno Eléctrico'!$FK$2:$FK$60</c:f>
               <c:numCache>
-                <c:formatCode>Estándar</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="59"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -6328,7 +6300,7 @@
                   <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="58" formatCode="0.0">
-                  <c:v>29.442118476938568</c:v>
+                  <c:v>28.645219181086627</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6451,7 +6423,7 @@
             <c:numRef>
               <c:f>'Horno Eléctrico'!$FK$2:$FK$60</c:f>
               <c:numCache>
-                <c:formatCode>Estándar</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="59"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -6628,7 +6600,7 @@
                   <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="58" formatCode="0.0">
-                  <c:v>29.442118476938568</c:v>
+                  <c:v>28.645219181086627</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6751,7 +6723,7 @@
             <c:numRef>
               <c:f>'Horno Eléctrico'!$FK$2:$FK$60</c:f>
               <c:numCache>
-                <c:formatCode>Estándar</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="59"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -6928,7 +6900,7 @@
                   <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="58" formatCode="0.0">
-                  <c:v>29.442118476938568</c:v>
+                  <c:v>28.645219181086627</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7032,7 +7004,7 @@
             <c:numRef>
               <c:f>'Horno Eléctrico'!$FK$2:$FK$60</c:f>
               <c:numCache>
-                <c:formatCode>Estándar</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="59"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -7209,7 +7181,7 @@
                   <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="58" formatCode="0.0">
-                  <c:v>29.442118476938568</c:v>
+                  <c:v>28.645219181086627</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7380,7 +7352,7 @@
             <c:numRef>
               <c:f>'Horno Eléctrico'!$FK$2:$FK$60</c:f>
               <c:numCache>
-                <c:formatCode>Estándar</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="59"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -7557,7 +7529,7 @@
                   <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="58" formatCode="0.0">
-                  <c:v>29.442118476938568</c:v>
+                  <c:v>28.645219181086627</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7753,7 +7725,7 @@
             <c:numRef>
               <c:f>'Horno Eléctrico'!$FK$2:$FK$60</c:f>
               <c:numCache>
-                <c:formatCode>Estándar</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="59"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -7930,7 +7902,7 @@
                   <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="58" formatCode="0.0">
-                  <c:v>29.442118476938568</c:v>
+                  <c:v>28.645219181086627</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8057,7 +8029,7 @@
             <c:numRef>
               <c:f>'Horno Eléctrico'!$FK$2:$FK$60</c:f>
               <c:numCache>
-                <c:formatCode>Estándar</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="59"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -8234,7 +8206,7 @@
                   <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="58" formatCode="0.0">
-                  <c:v>29.442118476938568</c:v>
+                  <c:v>28.645219181086627</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8361,7 +8333,7 @@
             <c:numRef>
               <c:f>'Horno Eléctrico'!$FK$2:$FK$60</c:f>
               <c:numCache>
-                <c:formatCode>Estándar</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="59"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -8538,7 +8510,7 @@
                   <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="58" formatCode="0.0">
-                  <c:v>29.442118476938568</c:v>
+                  <c:v>28.645219181086627</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8592,7 +8564,7 @@
             <c:numRef>
               <c:f>'Horno Eléctrico'!$FK$2:$FK$60</c:f>
               <c:numCache>
-                <c:formatCode>Estándar</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="59"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -8769,7 +8741,7 @@
                   <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="58" formatCode="0.0">
-                  <c:v>29.442118476938568</c:v>
+                  <c:v>28.645219181086627</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8778,10 +8750,10 @@
             <c:numRef>
               <c:f>'Horno Eléctrico'!$FT$2:$FT$60</c:f>
               <c:numCache>
-                <c:formatCode>Estándar</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="59"/>
                 <c:pt idx="58" formatCode="0.0">
-                  <c:v>7.2037595715462501</c:v>
+                  <c:v>7.0087779864219186</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8835,7 +8807,7 @@
           </c:tx>
           <c:overlay val="0"/>
         </c:title>
-        <c:numFmt formatCode="Estándar" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -8932,8 +8904,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6978171" y="2490796"/>
-          <a:ext cx="5549616" cy="3934422"/>
+          <a:off x="7161983" y="2445530"/>
+          <a:ext cx="5704405" cy="4113576"/>
           <a:chOff x="13691601" y="78442"/>
           <a:chExt cx="6558881" cy="4784912"/>
         </a:xfrm>
@@ -10405,8 +10377,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6980142" y="2469775"/>
-          <a:ext cx="5550273" cy="3907490"/>
+          <a:off x="7174452" y="2469775"/>
+          <a:ext cx="5698863" cy="4170380"/>
           <a:chOff x="13691601" y="78442"/>
           <a:chExt cx="6558881" cy="4784912"/>
         </a:xfrm>
@@ -11263,15 +11235,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C42D4128-7A49-4323-8F18-C858079FB1B4}">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" customWidth="1"/>
-    <col min="3" max="4" width="14.140625" customWidth="1"/>
-    <col min="6" max="6" width="11.42578125" style="146"/>
+    <col min="1" max="1" width="20.6640625" customWidth="1"/>
+    <col min="3" max="4" width="14.109375" customWidth="1"/>
+    <col min="6" max="6" width="11.44140625" style="146"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -11493,31 +11465,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:T19"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H33" sqref="H33:H35"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -11583,7 +11555,7 @@
         <v>29000</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="16.5">
+    <row r="2" spans="1:20">
       <c r="A2" s="35" t="s">
         <v>221</v>
       </c>
@@ -11647,7 +11619,7 @@
         <v>981.0539205164323</v>
       </c>
     </row>
-    <row r="3" spans="1:20" ht="16.5">
+    <row r="3" spans="1:20">
       <c r="A3" s="118" t="s">
         <v>223</v>
       </c>
@@ -11712,7 +11684,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="16.5">
+    <row r="4" spans="1:20">
       <c r="A4" s="115" t="s">
         <v>10</v>
       </c>
@@ -11782,7 +11754,7 @@
         <v>16187.389688521132</v>
       </c>
     </row>
-    <row r="5" spans="1:20" ht="16.5">
+    <row r="5" spans="1:20">
       <c r="A5" s="117" t="s">
         <v>222</v>
       </c>
@@ -11850,7 +11822,7 @@
         <v>7769.9470504901437</v>
       </c>
     </row>
-    <row r="6" spans="1:20" ht="16.5">
+    <row r="6" spans="1:20">
       <c r="A6" s="119" t="s">
         <v>224</v>
       </c>
@@ -11913,7 +11885,7 @@
         <v>647.49558754084535</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="16.5">
+    <row r="7" spans="1:20">
       <c r="A7" s="120" t="s">
         <v>81</v>
       </c>
@@ -11979,7 +11951,7 @@
         <v>5827.4602878676078</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="16.5">
+    <row r="8" spans="1:20">
       <c r="A8" s="116" t="s">
         <v>82</v>
       </c>
@@ -12043,7 +12015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="16.5">
+    <row r="9" spans="1:20">
       <c r="A9" s="121" t="s">
         <v>83</v>
       </c>
@@ -12109,7 +12081,7 @@
         <v>1942.4867626225359</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="18">
+    <row r="10" spans="1:20" ht="17.399999999999999">
       <c r="A10" s="32"/>
       <c r="B10" s="63">
         <v>33</v>
@@ -12360,48 +12332,47 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CF1F3EF-5E34-4FA8-A3D1-33686BE22993}">
-  <dimension ref="A1:J22"/>
+  <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="18.28515625" style="240" customWidth="1"/>
-    <col min="2" max="10" width="6.7109375" style="240" customWidth="1"/>
-    <col min="11" max="16384" width="11.42578125" style="240"/>
+    <col min="1" max="1" width="19.33203125" customWidth="1"/>
+    <col min="2" max="10" width="6.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="242" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="242" t="s">
+      <c r="A1" s="159" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="159" t="s">
         <v>139</v>
       </c>
-      <c r="C1" s="242" t="s">
+      <c r="C1" s="159" t="s">
         <v>74</v>
       </c>
-      <c r="D1" s="242" t="s">
+      <c r="D1" s="159" t="s">
         <v>136</v>
       </c>
-      <c r="E1" s="242" t="s">
+      <c r="E1" s="159" t="s">
         <v>226</v>
       </c>
-      <c r="F1" s="242" t="s">
+      <c r="F1" s="159" t="s">
         <v>227</v>
       </c>
-      <c r="G1" s="243" t="s">
+      <c r="G1" s="234" t="s">
         <v>100</v>
       </c>
-      <c r="H1" s="242" t="s">
+      <c r="H1" s="159" t="s">
         <v>228</v>
       </c>
-      <c r="I1" s="242" t="s">
+      <c r="I1" s="159" t="s">
         <v>229</v>
       </c>
-      <c r="J1" s="242" t="s">
+      <c r="J1" s="159" t="s">
         <v>230</v>
       </c>
     </row>
@@ -12663,41 +12634,41 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="159" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B12" s="159" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="159" t="s">
         <v>139</v>
       </c>
-      <c r="B13" s="164"/>
+      <c r="B13" s="229"/>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="159" t="s">
         <v>74</v>
       </c>
-      <c r="B14" s="164"/>
+      <c r="B14" s="229"/>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="159" t="s">
         <v>136</v>
       </c>
-      <c r="B15" s="164"/>
+      <c r="B15" s="229"/>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="159" t="s">
         <v>226</v>
       </c>
-      <c r="B16" s="164"/>
+      <c r="B16" s="229"/>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="159" t="s">
         <v>227</v>
       </c>
-      <c r="B17" s="164">
+      <c r="B17" s="229">
         <v>0.2</v>
       </c>
     </row>
@@ -12705,13 +12676,13 @@
       <c r="A18" s="234" t="s">
         <v>100</v>
       </c>
-      <c r="B18" s="164"/>
+      <c r="B18" s="229"/>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="159" t="s">
         <v>228</v>
       </c>
-      <c r="B19" s="164">
+      <c r="B19" s="229">
         <v>0.4</v>
       </c>
     </row>
@@ -12719,75 +12690,70 @@
       <c r="A20" s="159" t="s">
         <v>229</v>
       </c>
-      <c r="B20" s="164">
-        <v>0.15</v>
+      <c r="B20" s="229">
+        <v>0.2</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="159" t="s">
         <v>230</v>
       </c>
-      <c r="B21" s="164">
-        <v>3.3000000000000002E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="B22" s="241"/>
+      <c r="B21" s="229">
+        <v>0.04</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AU39"/>
+  <dimension ref="A1:AP39"/>
   <sheetViews>
-    <sheetView topLeftCell="R1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AI14" sqref="AI14"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.28515625" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" customWidth="1"/>
-    <col min="6" max="6" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.33203125" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" customWidth="1"/>
+    <col min="6" max="6" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13" customWidth="1"/>
-    <col min="9" max="9" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.28515625" customWidth="1"/>
-    <col min="11" max="11" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.28515625" customWidth="1"/>
+    <col min="9" max="9" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.33203125" customWidth="1"/>
+    <col min="11" max="11" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.33203125" customWidth="1"/>
     <col min="13" max="13" width="10" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.42578125" customWidth="1"/>
+    <col min="14" max="14" width="7.44140625" customWidth="1"/>
     <col min="15" max="15" width="10" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.5546875" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="10" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="7.5546875" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="10" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.5546875" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="10" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="1.85546875" customWidth="1"/>
-    <col min="27" max="27" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="30" max="35" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="39" max="41" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="6.88671875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="1.88671875" customWidth="1"/>
+    <col min="27" max="27" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="30" max="35" width="6.44140625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="39" max="41" width="5.6640625" bestFit="1" customWidth="1"/>
     <col min="42" max="42" width="9" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="17.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:47" ht="15.75">
+    <row r="1" spans="1:42" ht="15.6">
       <c r="A1" s="159" t="s">
         <v>0</v>
       </c>
@@ -12903,7 +12869,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="2" spans="1:47" ht="16.5">
+    <row r="2" spans="1:42" ht="15.6">
       <c r="A2" s="161" t="s">
         <v>10</v>
       </c>
@@ -13038,15 +13004,8 @@
         <f>+(AP14-AO14)*55/16</f>
         <v>45.580107392607381</v>
       </c>
-      <c r="AT2" s="164">
-        <v>170</v>
-      </c>
-      <c r="AU2" s="239">
-        <f>AT2*W2</f>
-        <v>686204.97335123399</v>
-      </c>
-    </row>
-    <row r="3" spans="1:47" ht="16.5">
+    </row>
+    <row r="3" spans="1:42" ht="15.6">
       <c r="A3" s="168" t="s">
         <v>296</v>
       </c>
@@ -13162,15 +13121,8 @@
       <c r="AM3" s="10"/>
       <c r="AN3" s="10"/>
       <c r="AP3" s="12"/>
-      <c r="AT3" s="164">
-        <v>220</v>
-      </c>
-      <c r="AU3" s="239">
-        <f t="shared" ref="AU3:AU9" si="12">AT3*W3</f>
-        <v>454462.39411566156</v>
-      </c>
-    </row>
-    <row r="4" spans="1:47" ht="16.5">
+    </row>
+    <row r="4" spans="1:42">
       <c r="A4" s="169" t="s">
         <v>276</v>
       </c>
@@ -13190,7 +13142,7 @@
         <v>0.88</v>
       </c>
       <c r="F4" s="97">
-        <f t="shared" ref="F4:F9" si="13">1-E4</f>
+        <f t="shared" ref="F4:F9" si="12">1-E4</f>
         <v>0.12</v>
       </c>
       <c r="G4" s="164">
@@ -13298,15 +13250,8 @@
         <f>+(AP15-AO15)*55/16</f>
         <v>139.66965534465541</v>
       </c>
-      <c r="AT4" s="164">
-        <v>180</v>
-      </c>
-      <c r="AU4" s="239">
-        <f t="shared" si="12"/>
-        <v>1824972.8114801331</v>
-      </c>
-    </row>
-    <row r="5" spans="1:47" ht="16.5">
+    </row>
+    <row r="5" spans="1:42">
       <c r="A5" s="170" t="s">
         <v>278</v>
       </c>
@@ -13326,7 +13271,7 @@
         <v>0.98</v>
       </c>
       <c r="F5" s="97">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>2.0000000000000018E-2</v>
       </c>
       <c r="G5" s="164">
@@ -13426,15 +13371,8 @@
         <f>+(AP16-AO16)*55/16</f>
         <v>33.54169580419579</v>
       </c>
-      <c r="AT5" s="164">
-        <v>217</v>
-      </c>
-      <c r="AU5" s="239">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:47" ht="16.5">
+    </row>
+    <row r="6" spans="1:42">
       <c r="A6" s="171" t="s">
         <v>224</v>
       </c>
@@ -13454,7 +13392,7 @@
         <v>0.85</v>
       </c>
       <c r="F6" s="97">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>0.15000000000000002</v>
       </c>
       <c r="G6" s="164">
@@ -13550,15 +13488,8 @@
         <f>+(AP17-AO17)*55/16</f>
         <v>68.75</v>
       </c>
-      <c r="AT6" s="164">
-        <v>56</v>
-      </c>
-      <c r="AU6" s="239">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:47" ht="16.5">
+    </row>
+    <row r="7" spans="1:42">
       <c r="A7" s="172" t="s">
         <v>81</v>
       </c>
@@ -13578,7 +13509,7 @@
         <v>0.96</v>
       </c>
       <c r="F7" s="97">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>4.0000000000000036E-2</v>
       </c>
       <c r="G7" s="164">
@@ -13666,15 +13597,8 @@
         <f>SUM(AP2:AP6)</f>
         <v>287.54145854145861</v>
       </c>
-      <c r="AT7" s="164">
-        <v>295</v>
-      </c>
-      <c r="AU7" s="239">
-        <f t="shared" si="12"/>
-        <v>1807164.7239364162</v>
-      </c>
-    </row>
-    <row r="8" spans="1:47" ht="16.5">
+    </row>
+    <row r="8" spans="1:42">
       <c r="A8" s="173" t="s">
         <v>279</v>
       </c>
@@ -13694,7 +13618,7 @@
         <v>0.94</v>
       </c>
       <c r="F8" s="97">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>6.0000000000000053E-2</v>
       </c>
       <c r="G8" s="164">
@@ -13771,15 +13695,8 @@
       <c r="AI8" s="232">
         <v>0</v>
       </c>
-      <c r="AT8" s="164">
-        <v>240</v>
-      </c>
-      <c r="AU8" s="239">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:47" ht="16.5">
+    </row>
+    <row r="9" spans="1:42">
       <c r="A9" s="169" t="s">
         <v>83</v>
       </c>
@@ -13799,7 +13716,7 @@
         <v>0.96</v>
       </c>
       <c r="F9" s="97">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>4.0000000000000036E-2</v>
       </c>
       <c r="G9" s="164">
@@ -13895,15 +13812,8 @@
         <f>+AN2/28*16</f>
         <v>12.670857142857143</v>
       </c>
-      <c r="AT9" s="164">
-        <v>205</v>
-      </c>
-      <c r="AU9" s="239">
-        <f t="shared" si="12"/>
-        <v>282317.54785972921</v>
-      </c>
-    </row>
-    <row r="10" spans="1:47" ht="18">
+    </row>
+    <row r="10" spans="1:42" ht="17.399999999999999">
       <c r="A10" s="60"/>
       <c r="B10" s="174">
         <v>35</v>
@@ -13931,7 +13841,7 @@
         <v>69.146230620155038</v>
       </c>
       <c r="M10" s="178">
-        <f t="shared" ref="M10:V10" si="14">SUM(M2:M9)</f>
+        <f t="shared" ref="M10:V10" si="13">SUM(M2:M9)</f>
         <v>26.18333333333333</v>
       </c>
       <c r="N10" s="179">
@@ -13947,27 +13857,27 @@
         <v>13.034000000000001</v>
       </c>
       <c r="Q10" s="237">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>17.749563953488373</v>
       </c>
       <c r="R10" s="179">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>6.9509999999999996</v>
       </c>
       <c r="S10" s="178">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="T10" s="179">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="U10" s="178">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="V10" s="179">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="W10" s="180">
@@ -14003,12 +13913,8 @@
         <f>+AN4/28*16</f>
         <v>12.021714285714285</v>
       </c>
-      <c r="AU10" s="239">
-        <f>(SUM(AU2:AU9))/Y1</f>
-        <v>240.72011670205592</v>
-      </c>
-    </row>
-    <row r="11" spans="1:47">
+    </row>
+    <row r="11" spans="1:42">
       <c r="A11" s="32" t="s">
         <v>2</v>
       </c>
@@ -14069,35 +13975,35 @@
         <v>0.23194000000000001</v>
       </c>
       <c r="AB11" s="147">
-        <f t="shared" ref="AB11:AI11" si="15">SUMPRODUCT($B$2:$B$9,AB2:AB9)/$B$10</f>
+        <f t="shared" ref="AB11:AI11" si="14">SUMPRODUCT($B$2:$B$9,AB2:AB9)/$B$10</f>
         <v>0.53100000000000014</v>
       </c>
       <c r="AC11" s="147">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>0.16318000000000002</v>
       </c>
       <c r="AD11" s="147">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>2.742E-2</v>
       </c>
       <c r="AE11" s="147">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>0.15330000000000002</v>
       </c>
       <c r="AF11" s="147">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>3.6580000000000008E-2</v>
       </c>
       <c r="AG11" s="147">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>0.28472000000000003</v>
       </c>
       <c r="AH11" s="147">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>0.15188000000000001</v>
       </c>
       <c r="AI11" s="147">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>3.2259999999999997E-2</v>
       </c>
       <c r="AK11" t="s">
@@ -14116,7 +14022,7 @@
         <v>7.9440000000000008</v>
       </c>
     </row>
-    <row r="12" spans="1:47">
+    <row r="12" spans="1:42">
       <c r="C12" s="128">
         <f>(C11*0.98+C13)/B11</f>
         <v>0.89789808571428564</v>
@@ -14188,7 +14094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:47">
+    <row r="13" spans="1:42">
       <c r="A13" t="s">
         <v>275</v>
       </c>
@@ -14243,7 +14149,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="14" spans="1:47">
+    <row r="14" spans="1:42">
       <c r="A14" t="s">
         <v>277</v>
       </c>
@@ -14263,10 +14169,10 @@
         <v>393.55483898183456</v>
       </c>
       <c r="I14" s="132"/>
-      <c r="L14" s="244" t="s">
+      <c r="L14" s="239" t="s">
         <v>284</v>
       </c>
-      <c r="M14" s="244"/>
+      <c r="M14" s="239"/>
       <c r="N14" s="10">
         <f>+SUMPRODUCT($K$2:$K$9,M2:M9)/M10</f>
         <v>0.57383831954169318</v>
@@ -14313,7 +14219,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="15" spans="1:47">
+    <row r="15" spans="1:42">
       <c r="C15" s="36">
         <f>(C11+C13)*E15</f>
         <v>31.57993725</v>
@@ -14330,10 +14236,10 @@
       <c r="I15">
         <v>26500</v>
       </c>
-      <c r="L15" s="244" t="s">
+      <c r="L15" s="239" t="s">
         <v>285</v>
       </c>
-      <c r="M15" s="244"/>
+      <c r="M15" s="239"/>
       <c r="N15" s="10">
         <f>+SUMPRODUCT($H$2:$H$9,N2:N9)</f>
         <v>6862.19</v>
@@ -14369,11 +14275,11 @@
         <v>237.0993006993007</v>
       </c>
       <c r="AM15" s="3">
-        <f t="shared" ref="AL15:AN17" si="16">+AM10/1.43</f>
+        <f t="shared" ref="AL15:AN17" si="15">+AM10/1.43</f>
         <v>13.862733630006359</v>
       </c>
       <c r="AN15" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>8.406793206793207</v>
       </c>
       <c r="AO15" s="3">
@@ -14384,7 +14290,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="16" spans="1:47">
+    <row r="16" spans="1:42">
       <c r="A16" s="122" t="s">
         <v>199</v>
       </c>
@@ -14407,10 +14313,10 @@
       <c r="I16">
         <v>29000</v>
       </c>
-      <c r="L16" s="244" t="s">
+      <c r="L16" s="239" t="s">
         <v>286</v>
       </c>
-      <c r="M16" s="244"/>
+      <c r="M16" s="239"/>
       <c r="N16" s="10">
         <f>O10-(B17-O10)</f>
         <v>20.46</v>
@@ -14431,15 +14337,15 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AL16" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>16.202797202797203</v>
       </c>
       <c r="AM16" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>8.4843738080101705</v>
       </c>
       <c r="AN16" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>5.5552447552447557</v>
       </c>
       <c r="AO16" s="3">
@@ -14475,10 +14381,10 @@
         <f>+G15+G16</f>
         <v>433.2</v>
       </c>
-      <c r="L17" s="244" t="s">
+      <c r="L17" s="239" t="s">
         <v>251</v>
       </c>
-      <c r="M17" s="244"/>
+      <c r="M17" s="239"/>
       <c r="N17" s="10">
         <f>+N14*N16</f>
         <v>11.740732017823042</v>
@@ -14498,15 +14404,15 @@
         <v>1.6421339910884782</v>
       </c>
       <c r="AL17" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AM17" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AN17" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AO17" s="3">
@@ -14527,10 +14433,10 @@
       <c r="C18" s="36" t="s">
         <v>187</v>
       </c>
-      <c r="L18" s="244" t="s">
+      <c r="L18" s="239" t="s">
         <v>252</v>
       </c>
-      <c r="M18" s="244"/>
+      <c r="M18" s="239"/>
       <c r="N18" s="10">
         <f>+N15/N10*N17*$I$11</f>
         <v>4356.5489155196519</v>
@@ -14585,10 +14491,10 @@
         <v>194</v>
       </c>
       <c r="D19" s="36"/>
-      <c r="L19" s="244" t="s">
+      <c r="L19" s="239" t="s">
         <v>262</v>
       </c>
-      <c r="M19" s="244"/>
+      <c r="M19" s="239"/>
       <c r="N19" s="10">
         <v>90</v>
       </c>
@@ -14621,10 +14527,10 @@
       </c>
     </row>
     <row r="20" spans="1:42">
-      <c r="L20" s="244" t="s">
+      <c r="L20" s="239" t="s">
         <v>263</v>
       </c>
-      <c r="M20" s="244"/>
+      <c r="M20" s="239"/>
       <c r="N20" s="10">
         <f>+N18/N10-N19</f>
         <v>199.95333880330463</v>
@@ -14709,20 +14615,20 @@
       </c>
       <c r="Y23" s="191"/>
     </row>
-    <row r="24" spans="1:42" ht="18">
-      <c r="D24" s="245" t="s">
+    <row r="24" spans="1:42" ht="17.399999999999999">
+      <c r="D24" s="240" t="s">
         <v>295</v>
       </c>
-      <c r="E24" s="246"/>
-      <c r="F24" s="246"/>
-      <c r="G24" s="246"/>
-      <c r="H24" s="246"/>
-      <c r="I24" s="247"/>
+      <c r="E24" s="241"/>
+      <c r="F24" s="241"/>
+      <c r="G24" s="241"/>
+      <c r="H24" s="241"/>
+      <c r="I24" s="242"/>
       <c r="M24" s="228"/>
       <c r="X24" s="165"/>
       <c r="Y24" s="191"/>
     </row>
-    <row r="25" spans="1:42" ht="15.75">
+    <row r="25" spans="1:42" ht="15.6">
       <c r="D25" s="193"/>
       <c r="E25" s="194" t="s">
         <v>265</v>
@@ -14742,7 +14648,7 @@
       </c>
       <c r="Y25" s="191"/>
     </row>
-    <row r="26" spans="1:42" ht="15.75">
+    <row r="26" spans="1:42" ht="15.6">
       <c r="D26" s="193"/>
       <c r="E26" s="194" t="s">
         <v>32</v>
@@ -14761,7 +14667,7 @@
       </c>
       <c r="Y26" s="191"/>
     </row>
-    <row r="27" spans="1:42" ht="15.75">
+    <row r="27" spans="1:42" ht="15.6">
       <c r="D27" s="193"/>
       <c r="E27" s="194" t="s">
         <v>2</v>
@@ -14793,7 +14699,7 @@
       </c>
       <c r="Y27" s="191"/>
     </row>
-    <row r="28" spans="1:42" ht="15.75">
+    <row r="28" spans="1:42" ht="15.6">
       <c r="D28" s="193"/>
       <c r="E28" s="194"/>
       <c r="F28" s="194"/>
@@ -14808,7 +14714,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:42" ht="15.75">
+    <row r="29" spans="1:42" ht="15.6">
       <c r="D29" s="193" t="s">
         <v>262</v>
       </c>
@@ -14839,7 +14745,7 @@
         <v>16639.349999999999</v>
       </c>
     </row>
-    <row r="30" spans="1:42" ht="15.75">
+    <row r="30" spans="1:42" ht="15.6">
       <c r="D30" s="193" t="s">
         <v>263</v>
       </c>
@@ -14861,7 +14767,7 @@
       <c r="M30" s="228"/>
       <c r="Q30" s="127"/>
     </row>
-    <row r="31" spans="1:42" ht="15.75">
+    <row r="31" spans="1:42" ht="15.6">
       <c r="D31" s="193"/>
       <c r="E31" s="194"/>
       <c r="F31" s="194"/>
@@ -14884,7 +14790,7 @@
         <v>124.37394474977054</v>
       </c>
     </row>
-    <row r="32" spans="1:42" ht="15.75">
+    <row r="32" spans="1:42" ht="15.6">
       <c r="D32" s="193"/>
       <c r="E32" s="194" t="s">
         <v>272</v>
@@ -14917,7 +14823,7 @@
         <v>413.1589377364877</v>
       </c>
     </row>
-    <row r="33" spans="4:17" ht="15.75">
+    <row r="33" spans="4:17" ht="15.6">
       <c r="D33" s="193"/>
       <c r="E33" s="194"/>
       <c r="F33" s="194"/>
@@ -14926,7 +14832,7 @@
       <c r="I33" s="196"/>
       <c r="M33" s="228"/>
     </row>
-    <row r="34" spans="4:17" ht="15.75">
+    <row r="34" spans="4:17" ht="15.6">
       <c r="D34" s="193"/>
       <c r="E34" s="194"/>
       <c r="F34" s="200" t="s">
@@ -14951,7 +14857,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="35" spans="4:17" ht="16.5" thickBot="1">
+    <row r="35" spans="4:17" ht="16.2" thickBot="1">
       <c r="D35" s="201"/>
       <c r="E35" s="202"/>
       <c r="F35" s="203" t="s">
@@ -14966,7 +14872,7 @@
       <c r="I35" s="196"/>
       <c r="M35" s="228"/>
     </row>
-    <row r="36" spans="4:17" ht="16.5" thickTop="1">
+    <row r="36" spans="4:17" ht="16.2" thickTop="1">
       <c r="D36" s="201"/>
       <c r="E36" s="202"/>
       <c r="F36" s="200" t="s">
@@ -14992,7 +14898,7 @@
         <v>26.460724137931031</v>
       </c>
     </row>
-    <row r="37" spans="4:17" ht="16.5" thickBot="1">
+    <row r="37" spans="4:17" ht="16.2" thickBot="1">
       <c r="D37" s="205"/>
       <c r="E37" s="206"/>
       <c r="F37" s="206"/>
@@ -15001,7 +14907,7 @@
       <c r="I37" s="208"/>
       <c r="M37" s="228"/>
     </row>
-    <row r="38" spans="4:17" ht="21.75" thickTop="1" thickBot="1">
+    <row r="38" spans="4:17" ht="22.2" thickTop="1" thickBot="1">
       <c r="D38" s="205"/>
       <c r="E38" s="212" t="s">
         <v>290</v>
@@ -15014,7 +14920,7 @@
       </c>
       <c r="I38" s="208"/>
     </row>
-    <row r="39" spans="4:17" ht="15.75" thickTop="1">
+    <row r="39" spans="4:17" ht="15" thickTop="1">
       <c r="D39" s="209"/>
       <c r="E39" s="210"/>
       <c r="F39" s="210"/>
@@ -15045,31 +14951,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:FT112"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="B81" sqref="B81:F88"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="18.42578125" style="32" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="32" customWidth="1"/>
-    <col min="3" max="3" width="6.7109375" style="32" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" style="32" customWidth="1"/>
-    <col min="5" max="5" width="10.42578125" style="32" customWidth="1"/>
-    <col min="6" max="6" width="9.28515625" style="32" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" style="32" customWidth="1"/>
-    <col min="8" max="8" width="9.28515625" style="32" customWidth="1"/>
+    <col min="1" max="1" width="18.44140625" style="32" customWidth="1"/>
+    <col min="2" max="2" width="9.109375" style="32" customWidth="1"/>
+    <col min="3" max="3" width="6.6640625" style="32" customWidth="1"/>
+    <col min="4" max="4" width="11.109375" style="32" customWidth="1"/>
+    <col min="5" max="5" width="10.44140625" style="32" customWidth="1"/>
+    <col min="6" max="6" width="9.33203125" style="32" customWidth="1"/>
+    <col min="7" max="7" width="9.109375" style="32" customWidth="1"/>
+    <col min="8" max="8" width="9.33203125" style="32" customWidth="1"/>
     <col min="9" max="9" width="8" style="32" customWidth="1"/>
-    <col min="10" max="10" width="10.42578125" style="32" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="5.140625" style="32" customWidth="1"/>
-    <col min="12" max="12" width="7.28515625" style="32" customWidth="1"/>
-    <col min="13" max="13" width="12.42578125" style="32" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.5703125" style="32" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.42578125" style="32" customWidth="1"/>
-    <col min="16" max="16" width="12.140625" style="32" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="11.42578125" style="32"/>
-    <col min="19" max="19" width="16" style="32" customWidth="1"/>
-    <col min="20" max="16384" width="11.42578125" style="32"/>
+    <col min="10" max="10" width="10.44140625" style="32" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.109375" style="32" customWidth="1"/>
+    <col min="12" max="12" width="7.33203125" style="32" customWidth="1"/>
+    <col min="13" max="13" width="12.44140625" style="32" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.5546875" style="32" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.44140625" style="32" customWidth="1"/>
+    <col min="16" max="16" width="12.109375" style="32" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="11.44140625" style="32"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:176" ht="15" customHeight="1">
@@ -15104,10 +15008,10 @@
         <f>+B16+B27+B33+I19+B26+B38</f>
         <v>4757.4465272727284</v>
       </c>
-      <c r="N1" s="252" t="s">
+      <c r="N1" s="243" t="s">
         <v>42</v>
       </c>
-      <c r="O1" s="253"/>
+      <c r="O1" s="244"/>
       <c r="P1" s="64" t="s">
         <v>39</v>
       </c>
@@ -15148,7 +15052,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="2" spans="1:176" ht="16.5">
+    <row r="2" spans="1:176" ht="14.4">
       <c r="A2" s="35" t="str">
         <f>+PPC!A2</f>
         <v>LIVIANA</v>
@@ -15158,7 +15062,7 @@
         <v>5.78</v>
       </c>
       <c r="C2" s="36">
-        <f>+B2*(1-F2)</f>
+        <f t="shared" ref="C2:C9" si="1">+B2*(1-F2)</f>
         <v>4.8552</v>
       </c>
       <c r="D2" s="36">
@@ -15170,7 +15074,7 @@
         <v>0.84</v>
       </c>
       <c r="F2" s="37">
-        <f t="shared" ref="F2:F9" si="1">1-E2</f>
+        <f t="shared" ref="F2:F9" si="2">1-E2</f>
         <v>0.16000000000000003</v>
       </c>
       <c r="G2" s="38">
@@ -15186,18 +15090,18 @@
       </c>
       <c r="M2" s="40">
         <f>+B19+B28+B35</f>
-        <v>847.60848600000008</v>
+        <v>942.58544600000005</v>
       </c>
       <c r="N2" s="60" t="s">
         <v>29</v>
       </c>
       <c r="O2" s="97">
-        <f t="shared" ref="O2:O9" si="2">+M2/$M$10</f>
-        <v>0.24827233274884231</v>
+        <f t="shared" ref="O2:O9" si="3">+M2/$M$10</f>
+        <v>0.26861907679085462</v>
       </c>
       <c r="P2" s="94">
         <f>+M2/M3</f>
-        <v>1.4914797258254135</v>
+        <v>1.6586043035051741</v>
       </c>
       <c r="R2" s="65">
         <f>(C14*1000-E19-E39-(E44-B39)-E49-E54)/1000</f>
@@ -15235,7 +15139,7 @@
         <v>2.9579999999999997</v>
       </c>
       <c r="C3" s="36">
-        <f t="shared" ref="C3:C9" si="3">+B3*(1-F3)</f>
+        <f t="shared" si="1"/>
         <v>2.8692599999999997</v>
       </c>
       <c r="D3" s="36">
@@ -15247,7 +15151,7 @@
         <v>0.97</v>
       </c>
       <c r="F3" s="37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.0000000000000027E-2</v>
       </c>
       <c r="G3" s="38">
@@ -15269,8 +15173,8 @@
         <v>31</v>
       </c>
       <c r="O3" s="97">
-        <f t="shared" si="2"/>
-        <v>0.16646041407733089</v>
+        <f t="shared" si="3"/>
+        <v>0.16195488955573945</v>
       </c>
       <c r="S3" s="37"/>
       <c r="FK3" s="32">
@@ -15299,7 +15203,7 @@
         <v>14.517999999999999</v>
       </c>
       <c r="C4" s="36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>12.775839999999999</v>
       </c>
       <c r="D4" s="36">
@@ -15311,7 +15215,7 @@
         <v>0.88</v>
       </c>
       <c r="F4" s="37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.12</v>
       </c>
       <c r="G4" s="38">
@@ -15333,8 +15237,8 @@
         <v>33</v>
       </c>
       <c r="O4" s="97">
-        <f t="shared" si="2"/>
-        <v>5.1796950295626636E-2</v>
+        <f t="shared" si="3"/>
+        <v>5.0394980758339626E-2</v>
       </c>
       <c r="P4" s="95" t="s">
         <v>120</v>
@@ -15361,7 +15265,7 @@
       <c r="FR4" s="41"/>
       <c r="FS4" s="41"/>
     </row>
-    <row r="5" spans="1:176" ht="16.5">
+    <row r="5" spans="1:176" ht="14.4">
       <c r="A5" s="35" t="str">
         <f>+PPC!A5</f>
         <v>ALTO RESIDUAL</v>
@@ -15371,7 +15275,7 @@
         <v>0</v>
       </c>
       <c r="C5" s="36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D5" s="36">
@@ -15383,7 +15287,7 @@
         <v>0.98</v>
       </c>
       <c r="F5" s="37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.0000000000000018E-2</v>
       </c>
       <c r="G5" s="38">
@@ -15405,12 +15309,12 @@
         <v>30</v>
       </c>
       <c r="O5" s="97">
-        <f t="shared" si="2"/>
-        <v>7.2037595715462505E-2</v>
+        <f t="shared" si="3"/>
+        <v>7.0087779864219185E-2</v>
       </c>
       <c r="P5" s="96">
         <f>1348.181674+3.99660706*O2+37.2199612*O5-1.19891958*O6-6.37252956*O4-2.62999577*O7-7.33636128*O3+2.000343166*O8</f>
-        <v>1349.4708163618673</v>
+        <v>1349.5440983409876</v>
       </c>
       <c r="R5" s="65">
         <f>+R2*S4</f>
@@ -15446,7 +15350,7 @@
         <v>0</v>
       </c>
       <c r="C6" s="36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D6" s="36">
@@ -15458,7 +15362,7 @@
         <v>0.85</v>
       </c>
       <c r="F6" s="37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.15000000000000002</v>
       </c>
       <c r="G6" s="38">
@@ -15481,7 +15385,7 @@
       </c>
       <c r="O6" s="97">
         <f>+M6/$M$10</f>
-        <v>5.8679781425127607E-2</v>
+        <v>5.7091516758131657E-2</v>
       </c>
       <c r="T6" s="181"/>
       <c r="FK6" s="32">
@@ -15510,7 +15414,7 @@
         <v>8.7720000000000002</v>
       </c>
       <c r="C7" s="36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>8.4211200000000002</v>
       </c>
       <c r="D7" s="36">
@@ -15522,7 +15426,7 @@
         <v>0.96</v>
       </c>
       <c r="F7" s="37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.0000000000000036E-2</v>
       </c>
       <c r="G7" s="38">
@@ -15543,8 +15447,8 @@
         <v>35</v>
       </c>
       <c r="O7" s="97">
-        <f t="shared" si="2"/>
-        <v>0.29442118476938567</v>
+        <f t="shared" si="3"/>
+        <v>0.28645219181086629</v>
       </c>
       <c r="P7" s="95" t="s">
         <v>62</v>
@@ -15576,7 +15480,7 @@
       <c r="FR7" s="41"/>
       <c r="FS7" s="41"/>
     </row>
-    <row r="8" spans="1:176" ht="16.5">
+    <row r="8" spans="1:176" ht="14.4">
       <c r="A8" s="35" t="str">
         <f>+PPC!A8</f>
         <v>ARRABIO</v>
@@ -15586,7 +15490,7 @@
         <v>0</v>
       </c>
       <c r="C8" s="36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D8" s="36">
@@ -15598,7 +15502,7 @@
         <v>0.94</v>
       </c>
       <c r="F8" s="37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.0000000000000053E-2</v>
       </c>
       <c r="G8" s="38">
@@ -15619,12 +15523,12 @@
         <v>102</v>
       </c>
       <c r="O8" s="59">
-        <f t="shared" si="2"/>
-        <v>5.813517168734534E-3</v>
+        <f t="shared" si="3"/>
+        <v>5.6561647777434955E-3</v>
       </c>
       <c r="P8" s="94">
         <f>+O2/(O3+O4)</f>
-        <v>1.1375209879497825</v>
+        <v>1.264983474647523</v>
       </c>
       <c r="S8" s="36"/>
       <c r="T8" s="181"/>
@@ -15654,7 +15558,7 @@
         <v>1.9720000000000002</v>
       </c>
       <c r="C9" s="36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>1.8931200000000001</v>
       </c>
       <c r="D9" s="36">
@@ -15666,7 +15570,7 @@
         <v>0.96</v>
       </c>
       <c r="F9" s="37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.0000000000000036E-2</v>
       </c>
       <c r="G9" s="38">
@@ -15689,8 +15593,8 @@
         <v>38</v>
       </c>
       <c r="O9" s="59">
-        <f t="shared" si="2"/>
-        <v>0.1025182237994899</v>
+        <f t="shared" si="3"/>
+        <v>9.9743399684105782E-2</v>
       </c>
       <c r="R9" s="61" t="s">
         <v>127</v>
@@ -15729,14 +15633,14 @@
       <c r="H10" s="37"/>
       <c r="J10" s="139">
         <f>+M10/R5</f>
-        <v>111.30180561660123</v>
+        <v>114.39818026684242</v>
       </c>
       <c r="L10" s="133" t="s">
         <v>32</v>
       </c>
       <c r="M10" s="134">
         <f>SUM(M2:M9)</f>
-        <v>3414.0271556454873</v>
+        <v>3509.0041156454872</v>
       </c>
       <c r="T10" s="181"/>
       <c r="FK10" s="32">
@@ -15846,7 +15750,7 @@
       <c r="FR12" s="41"/>
       <c r="FS12" s="41"/>
     </row>
-    <row r="13" spans="1:176" ht="16.5">
+    <row r="13" spans="1:176" ht="14.4">
       <c r="B13" s="63">
         <v>34</v>
       </c>
@@ -15855,15 +15759,15 @@
       </c>
       <c r="N13" s="37">
         <f>2.19063*10^-4*P2^6-5.15999*10^-3*P2^5+4.94488*10^-2*P2^4-2.47772*10^-1*P2^3+6.92834*10^-1*P2^2-1.05363*P2+7.70403*10^-1</f>
-        <v>0.12711421697052983</v>
+        <v>0.11229820275948088</v>
       </c>
       <c r="O13" s="40">
         <f>+(N13-O5)*M10</f>
-        <v>188.03308060600128</v>
+        <v>148.1165476626098</v>
       </c>
       <c r="P13" s="36">
         <f>27*O13*0.6</f>
-        <v>3046.1359058172206</v>
+        <v>2399.4880721342788</v>
       </c>
       <c r="R13" s="181" t="s">
         <v>52</v>
@@ -15972,7 +15876,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:176" ht="13.5" thickBot="1">
+    <row r="16" spans="1:176" ht="14.4" thickBot="1">
       <c r="A16" s="33" t="s">
         <v>212</v>
       </c>
@@ -16111,7 +16015,7 @@
       </c>
       <c r="B19" s="40">
         <f>+D75</f>
-        <v>245.60848600000003</v>
+        <v>340.58544600000005</v>
       </c>
       <c r="C19" s="38"/>
       <c r="D19" s="82"/>
@@ -16151,7 +16055,7 @@
       </c>
       <c r="FS19" s="41"/>
     </row>
-    <row r="20" spans="1:175" ht="13.5" thickBot="1">
+    <row r="20" spans="1:175" ht="14.4" thickBot="1">
       <c r="A20" s="35" t="s">
         <v>107</v>
       </c>
@@ -16190,7 +16094,7 @@
       </c>
       <c r="FS20" s="41"/>
     </row>
-    <row r="21" spans="1:175" ht="13.5" thickBot="1">
+    <row r="21" spans="1:175" ht="14.4" thickBot="1">
       <c r="A21" s="35" t="s">
         <v>108</v>
       </c>
@@ -16227,7 +16131,7 @@
         <f>+K75</f>
         <v>0</v>
       </c>
-      <c r="D22" s="250" t="s">
+      <c r="D22" s="247" t="s">
         <v>231</v>
       </c>
       <c r="E22" s="69">
@@ -16262,7 +16166,7 @@
       <c r="FR22" s="41"/>
       <c r="FS22" s="41"/>
     </row>
-    <row r="23" spans="1:175" ht="16.5">
+    <row r="23" spans="1:175" ht="14.4">
       <c r="A23" s="35" t="s">
         <v>141</v>
       </c>
@@ -16270,7 +16174,7 @@
         <f>+I75</f>
         <v>16.380690000000001</v>
       </c>
-      <c r="D23" s="251"/>
+      <c r="D23" s="248"/>
       <c r="E23" s="71" t="s">
         <v>139</v>
       </c>
@@ -16367,11 +16271,11 @@
       <c r="FR24" s="41"/>
       <c r="FS24" s="41"/>
     </row>
-    <row r="25" spans="1:175" ht="13.5" thickBot="1">
+    <row r="25" spans="1:175" ht="14.4" thickBot="1">
       <c r="A25" s="35"/>
       <c r="B25" s="51">
         <f>SUM(B17:B24)</f>
-        <v>1508.5999240000001</v>
+        <v>1603.5768840000003</v>
       </c>
       <c r="D25" s="76"/>
       <c r="E25" s="77"/>
@@ -16412,7 +16316,7 @@
       <c r="FR25" s="41"/>
       <c r="FS25" s="41"/>
     </row>
-    <row r="26" spans="1:175" ht="13.5" thickBot="1">
+    <row r="26" spans="1:175" ht="14.4" thickBot="1">
       <c r="A26" s="52" t="s">
         <v>58</v>
       </c>
@@ -16456,7 +16360,7 @@
       <c r="B27" s="68">
         <v>0</v>
       </c>
-      <c r="D27" s="250" t="s">
+      <c r="D27" s="247" t="s">
         <v>50</v>
       </c>
       <c r="E27" s="69">
@@ -16509,7 +16413,7 @@
         <f>+B27*0.58+B26*0.86</f>
         <v>602</v>
       </c>
-      <c r="D28" s="251"/>
+      <c r="D28" s="248"/>
       <c r="E28" s="71" t="s">
         <v>139</v>
       </c>
@@ -16607,7 +16511,7 @@
       <c r="FR29" s="41"/>
       <c r="FS29" s="41"/>
     </row>
-    <row r="30" spans="1:175" ht="13.5" thickBot="1">
+    <row r="30" spans="1:175" ht="14.4" thickBot="1">
       <c r="A30" s="32" t="s">
         <v>31</v>
       </c>
@@ -16653,7 +16557,7 @@
       <c r="FR30" s="41"/>
       <c r="FS30" s="41"/>
     </row>
-    <row r="31" spans="1:175" ht="13.5" thickBot="1">
+    <row r="31" spans="1:175" ht="14.4" thickBot="1">
       <c r="B31" s="51">
         <f>SUM(B28:B30)</f>
         <v>623</v>
@@ -16767,7 +16671,7 @@
       </c>
       <c r="V33" s="37">
         <f>+M2/($M$2+$M$3+$M$7)</f>
-        <v>0.35009653290681575</v>
+        <v>0.37462939634046849</v>
       </c>
       <c r="FK33" s="32">
         <v>29</v>
@@ -16814,7 +16718,7 @@
       </c>
       <c r="V34" s="37">
         <f>+M7/($M$2+$M$3+$M$7)</f>
-        <v>0.41517246348328579</v>
+        <v>0.39950033698486193</v>
       </c>
       <c r="FK34" s="32">
         <v>30</v>
@@ -16834,7 +16738,7 @@
       <c r="FR34" s="41"/>
       <c r="FS34" s="41"/>
     </row>
-    <row r="35" spans="1:175" ht="13.5" thickBot="1">
+    <row r="35" spans="1:175" ht="14.4" thickBot="1">
       <c r="A35" s="32" t="s">
         <v>29</v>
       </c>
@@ -16859,7 +16763,7 @@
       </c>
       <c r="V35" s="37">
         <f>+M3/($M$2+$M$3+$M$7)</f>
-        <v>0.2347310036098986</v>
+        <v>0.22587026667466972</v>
       </c>
       <c r="FK35" s="32">
         <v>31</v>
@@ -16879,7 +16783,7 @@
       <c r="FR35" s="41"/>
       <c r="FS35" s="41"/>
     </row>
-    <row r="36" spans="1:175" ht="13.5" thickBot="1">
+    <row r="36" spans="1:175" ht="14.4" thickBot="1">
       <c r="B36" s="51">
         <f>+B32-B34-B35</f>
         <v>-180</v>
@@ -17034,7 +16938,7 @@
       <c r="FR39" s="41"/>
       <c r="FS39" s="41"/>
     </row>
-    <row r="40" spans="1:175" ht="13.5" thickBot="1">
+    <row r="40" spans="1:175" ht="14.4" thickBot="1">
       <c r="A40" s="89" t="s">
         <v>137</v>
       </c>
@@ -17074,7 +16978,7 @@
       <c r="FR40" s="41"/>
       <c r="FS40" s="41"/>
     </row>
-    <row r="41" spans="1:175" ht="13.5" thickBot="1">
+    <row r="41" spans="1:175" ht="14.4" thickBot="1">
       <c r="A41" s="89" t="s">
         <v>129</v>
       </c>
@@ -17276,7 +17180,7 @@
       <c r="FR44" s="41"/>
       <c r="FS44" s="41"/>
     </row>
-    <row r="45" spans="1:175" ht="13.5" thickBot="1">
+    <row r="45" spans="1:175" ht="14.4" thickBot="1">
       <c r="D45" s="76"/>
       <c r="E45" s="77"/>
       <c r="F45" s="77"/>
@@ -17314,7 +17218,7 @@
       <c r="FR45" s="41"/>
       <c r="FS45" s="41"/>
     </row>
-    <row r="46" spans="1:175" ht="13.5" thickBot="1">
+    <row r="46" spans="1:175" ht="14.4" thickBot="1">
       <c r="D46" s="71"/>
       <c r="E46" s="71"/>
       <c r="F46" s="71"/>
@@ -17462,7 +17366,7 @@
       <c r="FR49" s="41"/>
       <c r="FS49" s="41"/>
     </row>
-    <row r="50" spans="2:176" ht="13.5" thickBot="1">
+    <row r="50" spans="2:176" ht="14.4" thickBot="1">
       <c r="D50" s="76"/>
       <c r="E50" s="77"/>
       <c r="F50" s="77"/>
@@ -17503,7 +17407,7 @@
       <c r="FR50" s="41"/>
       <c r="FS50" s="41"/>
     </row>
-    <row r="51" spans="2:176" ht="13.5" thickBot="1">
+    <row r="51" spans="2:176" ht="14.4" thickBot="1">
       <c r="D51" s="71"/>
       <c r="E51" s="71"/>
       <c r="F51" s="71"/>
@@ -17637,7 +17541,7 @@
       <c r="FR54" s="41"/>
       <c r="FS54" s="41"/>
     </row>
-    <row r="55" spans="2:176" ht="13.5" thickBot="1">
+    <row r="55" spans="2:176" ht="14.4" thickBot="1">
       <c r="D55" s="76"/>
       <c r="E55" s="77"/>
       <c r="F55" s="77"/>
@@ -17764,11 +17668,11 @@
       <c r="I60" s="71"/>
       <c r="FK60" s="36">
         <f>+O7*100</f>
-        <v>29.442118476938568</v>
+        <v>28.645219181086627</v>
       </c>
       <c r="FT60" s="36">
         <f>+O5*100</f>
-        <v>7.2037595715462501</v>
+        <v>7.0087779864219186</v>
       </c>
     </row>
     <row r="63" spans="2:176">
@@ -17830,8 +17734,9 @@
         <f>+B67*F81%</f>
         <v>258.94400000000013</v>
       </c>
-      <c r="D67" s="36" t="s">
-        <v>301</v>
+      <c r="D67" s="36">
+        <f>+B67*F82%</f>
+        <v>94.976960000000034</v>
       </c>
       <c r="E67" s="36">
         <f>+B67*F83%</f>
@@ -18209,7 +18114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:18" ht="15.75">
+    <row r="75" spans="1:18" ht="15.6">
       <c r="A75" s="92" t="s">
         <v>119</v>
       </c>
@@ -18223,7 +18128,7 @@
       </c>
       <c r="D75" s="93">
         <f t="shared" si="6"/>
-        <v>245.60848600000003</v>
+        <v>340.58544600000005</v>
       </c>
       <c r="E75" s="93">
         <f t="shared" si="6"/>
@@ -18234,7 +18139,7 @@
         <v>122.24730600000001</v>
       </c>
       <c r="G75" s="93">
-        <f>SUM(G67:G74)</f>
+        <f t="shared" si="6"/>
         <v>424.91537400000004</v>
       </c>
       <c r="H75" s="93">
@@ -18277,21 +18182,21 @@
       <c r="F78" s="56" t="s">
         <v>154</v>
       </c>
-      <c r="H78" s="248" t="s">
+      <c r="H78" s="245" t="s">
         <v>144</v>
       </c>
-      <c r="I78" s="248"/>
-      <c r="J78" s="248"/>
-      <c r="K78" s="248"/>
-      <c r="M78" s="248" t="s">
+      <c r="I78" s="245"/>
+      <c r="J78" s="245"/>
+      <c r="K78" s="245"/>
+      <c r="M78" s="245" t="s">
         <v>145</v>
       </c>
-      <c r="N78" s="248"/>
-      <c r="O78" s="248"/>
-      <c r="Q78" s="249" t="s">
+      <c r="N78" s="245"/>
+      <c r="O78" s="245"/>
+      <c r="Q78" s="246" t="s">
         <v>148</v>
       </c>
-      <c r="R78" s="249"/>
+      <c r="R78" s="246"/>
     </row>
     <row r="79" spans="1:18">
       <c r="A79" s="57" t="s">
@@ -18510,17 +18415,17 @@
       <c r="D90" s="98"/>
       <c r="E90" s="98"/>
       <c r="F90" s="98"/>
-      <c r="H90" s="248" t="s">
+      <c r="H90" s="245" t="s">
         <v>146</v>
       </c>
-      <c r="I90" s="248"/>
-      <c r="J90" s="248"/>
-      <c r="K90" s="248"/>
-      <c r="M90" s="248" t="s">
+      <c r="I90" s="245"/>
+      <c r="J90" s="245"/>
+      <c r="K90" s="245"/>
+      <c r="M90" s="245" t="s">
         <v>147</v>
       </c>
-      <c r="N90" s="248"/>
-      <c r="O90" s="248"/>
+      <c r="N90" s="245"/>
+      <c r="O90" s="245"/>
     </row>
     <row r="91" spans="1:15">
       <c r="B91" s="32">
@@ -18854,14 +18759,14 @@
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="Q78:R78"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="D27:D28"/>
     <mergeCell ref="N1:O1"/>
     <mergeCell ref="H78:K78"/>
     <mergeCell ref="M78:O78"/>
     <mergeCell ref="H90:K90"/>
     <mergeCell ref="M90:O90"/>
-    <mergeCell ref="Q78:R78"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="D27:D28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -18878,15 +18783,13 @@
   <dimension ref="A2:O48"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="N22" sqref="N22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="8.28515625" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="9" max="9" width="12.140625" customWidth="1"/>
-    <col min="10" max="10" width="18.42578125" customWidth="1"/>
+    <col min="2" max="2" width="8.33203125" customWidth="1"/>
+    <col min="9" max="9" width="12.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:15">
@@ -18921,15 +18824,15 @@
         <f>+B18+I15+I20+I25</f>
         <v>400.11745454545451</v>
       </c>
-      <c r="M2" s="252" t="s">
+      <c r="M2" s="243" t="s">
         <v>42</v>
       </c>
-      <c r="N2" s="253"/>
+      <c r="N2" s="244"/>
       <c r="O2" s="64" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="16.5">
+    <row r="3" spans="1:15">
       <c r="A3" t="s">
         <v>163</v>
       </c>
@@ -18951,18 +18854,18 @@
       </c>
       <c r="L3" s="40">
         <f>+B19+B13*0.8+B7*0.8</f>
-        <v>154.48169982465271</v>
+        <v>160.5857230372564</v>
       </c>
       <c r="M3" s="60" t="s">
         <v>29</v>
       </c>
       <c r="N3" s="97">
         <f t="shared" ref="N3:N10" si="0">+L3/$L$2</f>
-        <v>0.38609087923981866</v>
+        <v>0.40134645767874993</v>
       </c>
       <c r="O3" s="94">
         <f>+L3/L4</f>
-        <v>1.2009013716385697</v>
+        <v>1.2616087710675583</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -18982,14 +18885,14 @@
       </c>
       <c r="L4" s="40">
         <f>+B20+I20+B6*0.41</f>
-        <v>128.63812422319927</v>
+        <v>127.28646686672182</v>
       </c>
       <c r="M4" s="60" t="s">
         <v>31</v>
       </c>
       <c r="N4" s="97">
         <f t="shared" si="0"/>
-        <v>0.32150090620099553</v>
+        <v>0.31812275475790752</v>
       </c>
       <c r="O4" s="32"/>
     </row>
@@ -19010,20 +18913,20 @@
       </c>
       <c r="L5" s="40">
         <f>+B21</f>
-        <v>15.53908508868799</v>
+        <v>15.118494227501888</v>
       </c>
       <c r="M5" s="60" t="s">
         <v>33</v>
       </c>
       <c r="N5" s="97">
         <f t="shared" si="0"/>
-        <v>3.8836308969177211E-2</v>
+        <v>3.7785140477505419E-2</v>
       </c>
       <c r="O5" s="95" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="16.5">
+    <row r="6" spans="1:15">
       <c r="A6" t="s">
         <v>171</v>
       </c>
@@ -19038,21 +18941,21 @@
       </c>
       <c r="L6" s="40">
         <f>+B22+B6*0.45</f>
-        <v>57.61127871463875</v>
+        <v>57.026333959265756</v>
       </c>
       <c r="M6" s="60" t="s">
         <v>30</v>
       </c>
       <c r="N6" s="97">
         <f t="shared" si="0"/>
-        <v>0.14398591728543034</v>
+        <v>0.14252398467357388</v>
       </c>
       <c r="O6" s="96">
         <f>1348.181674+3.99660706*N3+37.2199612*N6-1.19891958*N7-6.37252956*N5-2.62999577*N8-7.33636128*N4+2.000343166*N9</f>
-        <v>1352.1639584851009</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" ht="15.75" thickBot="1">
+        <v>1352.2031896364197</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="15" thickBot="1">
       <c r="A7" t="s">
         <v>170</v>
       </c>
@@ -19067,19 +18970,19 @@
       </c>
       <c r="L7" s="40">
         <f>+B23+I15</f>
-        <v>41.821388972992828</v>
+        <v>41.344909572894039</v>
       </c>
       <c r="M7" s="60" t="s">
         <v>34</v>
       </c>
       <c r="N7" s="97">
         <f t="shared" si="0"/>
-        <v>0.10452278074322748</v>
+        <v>0.10333193191949874</v>
       </c>
       <c r="O7" s="32"/>
     </row>
     <row r="8" spans="1:15">
-      <c r="D8" s="250" t="s">
+      <c r="D8" s="247" t="s">
         <v>50</v>
       </c>
       <c r="E8" s="69">
@@ -19112,11 +19015,11 @@
         <v>62</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="16.5">
+    <row r="9" spans="1:15">
       <c r="A9" t="s">
         <v>173</v>
       </c>
-      <c r="D9" s="251"/>
+      <c r="D9" s="248"/>
       <c r="E9" s="71" t="s">
         <v>139</v>
       </c>
@@ -19137,18 +19040,18 @@
       </c>
       <c r="L9" s="40">
         <f>+B25</f>
-        <v>1.7440551506203601</v>
+        <v>1.6968494333230486</v>
       </c>
       <c r="M9" s="60" t="s">
         <v>102</v>
       </c>
       <c r="N9" s="97">
         <f t="shared" si="0"/>
-        <v>4.3588579573506968E-3</v>
+        <v>4.2408783072228643E-3</v>
       </c>
       <c r="O9" s="94">
         <f>+N3/(N4+N5)</f>
-        <v>1.0714710082262346</v>
+        <v>1.1276694421552014</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -19186,7 +19089,7 @@
       </c>
       <c r="O10" s="32"/>
     </row>
-    <row r="11" spans="1:15" ht="15.75" thickBot="1">
+    <row r="11" spans="1:15" ht="15" thickBot="1">
       <c r="A11" t="s">
         <v>164</v>
       </c>
@@ -19205,13 +19108,13 @@
       <c r="K11" s="32"/>
       <c r="L11" s="40">
         <f>SUM(L3:L10)</f>
-        <v>449.83563197479191</v>
+        <v>453.05877709696296</v>
       </c>
       <c r="M11" s="32"/>
       <c r="N11" s="32"/>
       <c r="O11" s="32"/>
     </row>
-    <row r="12" spans="1:15" ht="15.75" thickBot="1">
+    <row r="12" spans="1:15" ht="15" thickBot="1">
       <c r="A12" t="s">
         <v>165</v>
       </c>
@@ -19249,7 +19152,7 @@
       </c>
       <c r="M13" s="37">
         <f>2.19063*10^-4*O3^6-5.15999*10^-3*O3^5+4.94488*10^-2*O3^4-2.47772*10^-1*O3^3+6.92834*10^-1*O3^2-1.05363*O3+7.70403*10^-1</f>
-        <v>0.16577659627771901</v>
+        <v>0.15601345512871934</v>
       </c>
       <c r="N13" s="37"/>
       <c r="O13" s="32"/>
@@ -19307,17 +19210,17 @@
       </c>
       <c r="L15" s="34">
         <f>SUM(L16:L23)</f>
-        <v>369.77118495118418</v>
-      </c>
-      <c r="M15" s="252" t="s">
+        <v>371.11302292119257</v>
+      </c>
+      <c r="M15" s="243" t="s">
         <v>42</v>
       </c>
-      <c r="N15" s="253"/>
+      <c r="N15" s="244"/>
       <c r="O15" s="64" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="17.25" thickBot="1">
+    <row r="16" spans="1:15" ht="15" thickBot="1">
       <c r="D16" s="76"/>
       <c r="E16" s="77"/>
       <c r="F16" s="77"/>
@@ -19332,21 +19235,21 @@
       </c>
       <c r="L16" s="40">
         <f>+H40+B7*0.8+B19</f>
-        <v>164.98169982465271</v>
+        <v>171.0857230372564</v>
       </c>
       <c r="M16" s="60" t="s">
         <v>29</v>
       </c>
       <c r="N16" s="97">
         <f>+L16/$L$2</f>
-        <v>0.41233317354794458</v>
+        <v>0.42758875198687579</v>
       </c>
       <c r="O16" s="94">
         <f>+L16/L17</f>
-        <v>1.2825256961800369</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" ht="15.75" thickBot="1">
+        <v>1.3440998658278069</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" ht="15" thickBot="1">
       <c r="D17" s="71"/>
       <c r="E17" s="71"/>
       <c r="F17" s="71"/>
@@ -19358,14 +19261,14 @@
       </c>
       <c r="L17" s="40">
         <f>+B6*0.41+I20+B20</f>
-        <v>128.63812422319927</v>
+        <v>127.28646686672182</v>
       </c>
       <c r="M17" s="60" t="s">
         <v>31</v>
       </c>
       <c r="N17" s="97">
         <f t="shared" ref="N17:N22" si="1">+L17/$L$2</f>
-        <v>0.32150090620099553</v>
+        <v>0.31812275475790752</v>
       </c>
       <c r="O17" s="32"/>
     </row>
@@ -19394,26 +19297,26 @@
       </c>
       <c r="L18" s="40">
         <f>+B21</f>
-        <v>15.53908508868799</v>
+        <v>15.118494227501888</v>
       </c>
       <c r="M18" s="60" t="s">
         <v>33</v>
       </c>
       <c r="N18" s="97">
         <f t="shared" si="1"/>
-        <v>3.8836308969177211E-2</v>
+        <v>3.7785140477505419E-2</v>
       </c>
       <c r="O18" s="95" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="16.5">
+    <row r="19" spans="1:15">
       <c r="A19" s="32" t="s">
         <v>29</v>
       </c>
       <c r="B19" s="101">
         <f>+$B$18*'Horno Eléctrico'!O2</f>
-        <v>74.481699824652694</v>
+        <v>80.585723037256386</v>
       </c>
       <c r="D19" s="82" t="s">
         <v>135</v>
@@ -19438,18 +19341,18 @@
       </c>
       <c r="L19" s="40">
         <f>+B22+B6*0.45</f>
-        <v>57.61127871463875</v>
+        <v>57.026333959265756</v>
       </c>
       <c r="M19" s="60" t="s">
         <v>30</v>
       </c>
       <c r="N19" s="97">
         <f t="shared" si="1"/>
-        <v>0.14398591728543034</v>
+        <v>0.14252398467357388</v>
       </c>
       <c r="O19" s="96">
         <f>1348.181674+3.99660706*N16+37.2199612*N19-1.19891958*N20-6.37252956*N18-2.62999577*N21-7.33636128*N17+2.000343166*N22</f>
-        <v>1352.567387270419</v>
+        <v>1352.6211837205806</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -19458,7 +19361,7 @@
       </c>
       <c r="B20" s="101">
         <f>+$B$18*'Horno Eléctrico'!O3</f>
-        <v>49.938124223199267</v>
+        <v>48.586466866721835</v>
       </c>
       <c r="D20" s="82"/>
       <c r="E20" s="74">
@@ -19480,24 +19383,24 @@
       </c>
       <c r="L20" s="40">
         <f>+I30*(1-0.97)</f>
-        <v>1.2546416691897859</v>
+        <v>1.2403472871868222</v>
       </c>
       <c r="M20" s="60" t="s">
         <v>34</v>
       </c>
       <c r="N20" s="97">
         <f t="shared" si="1"/>
-        <v>3.1356834222968271E-3</v>
+        <v>3.0999579575849649E-3</v>
       </c>
       <c r="O20" s="32"/>
     </row>
-    <row r="21" spans="1:15" ht="15.75" thickBot="1">
+    <row r="21" spans="1:15" ht="15" thickBot="1">
       <c r="A21" s="32" t="s">
         <v>33</v>
       </c>
       <c r="B21" s="101">
         <f>+$B$18*'Horno Eléctrico'!O4</f>
-        <v>15.53908508868799</v>
+        <v>15.118494227501888</v>
       </c>
       <c r="D21" s="76"/>
       <c r="E21" s="77"/>
@@ -19513,26 +19416,26 @@
       </c>
       <c r="L21" s="40">
         <f>+B24-I35</f>
-        <v>1.7463554308156972</v>
+        <v>-0.64434245674011947</v>
       </c>
       <c r="M21" s="60" t="s">
         <v>35</v>
       </c>
       <c r="N21" s="59">
         <f t="shared" si="1"/>
-        <v>4.3646069697199528E-3</v>
+        <v>-1.6103832747614371E-3</v>
       </c>
       <c r="O21" s="95" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="17.25" thickBot="1">
+    <row r="22" spans="1:15" ht="15" thickBot="1">
       <c r="A22" s="32" t="s">
         <v>30</v>
       </c>
       <c r="B22" s="101">
         <f>+$B$18*'Horno Eléctrico'!O5</f>
-        <v>21.61127871463875</v>
+        <v>21.026333959265756</v>
       </c>
       <c r="K22" s="32" t="s">
         <v>102</v>
@@ -19550,7 +19453,7 @@
       </c>
       <c r="O22" s="94">
         <f>+N16/(N17+N18)</f>
-        <v>1.1442980524596003</v>
+        <v>1.2014028284032587</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -19559,7 +19462,7 @@
       </c>
       <c r="B23" s="101">
         <f>+$B$18*'Horno Eléctrico'!O6</f>
-        <v>17.603934427538281</v>
+        <v>17.127455027439495</v>
       </c>
       <c r="D23" s="80"/>
       <c r="E23" s="69">
@@ -19596,7 +19499,7 @@
       </c>
       <c r="B24" s="101">
         <f>+$B$18*'Horno Eléctrico'!O7</f>
-        <v>88.326355430815696</v>
+        <v>85.935657543259879</v>
       </c>
       <c r="D24" s="81" t="s">
         <v>124</v>
@@ -19623,7 +19526,7 @@
       </c>
       <c r="B25" s="101">
         <f>+$B$18*'Horno Eléctrico'!O8</f>
-        <v>1.7440551506203601</v>
+        <v>1.6968494333230486</v>
       </c>
       <c r="D25" s="82"/>
       <c r="E25" s="74">
@@ -19640,13 +19543,13 @@
         <v>30</v>
       </c>
     </row>
-    <row r="26" spans="1:15" ht="15.75" thickBot="1">
+    <row r="26" spans="1:15" ht="15" thickBot="1">
       <c r="A26" s="32" t="s">
         <v>38</v>
       </c>
       <c r="B26" s="101">
         <f>+$B$18*'Horno Eléctrico'!O9</f>
-        <v>30.755467139846967</v>
+        <v>29.923019905231733</v>
       </c>
       <c r="D26" s="76"/>
       <c r="E26" s="83"/>
@@ -19658,7 +19561,7 @@
       <c r="H26" s="77"/>
       <c r="I26" s="84"/>
     </row>
-    <row r="27" spans="1:15" ht="15.75" thickBot="1"/>
+    <row r="27" spans="1:15" ht="15" thickBot="1"/>
     <row r="28" spans="1:15">
       <c r="D28" s="80"/>
       <c r="E28" s="69">
@@ -19697,31 +19600,31 @@
       <c r="D30" s="82"/>
       <c r="E30" s="102">
         <f>+I30/I28*E28</f>
-        <v>32.396850612881764</v>
+        <v>32.027746852241862</v>
       </c>
       <c r="F30" s="71"/>
       <c r="G30" s="74">
         <f>+E30/E28*G28</f>
-        <v>9.4245383601110593</v>
+        <v>9.3171627206521777</v>
       </c>
       <c r="H30" s="71"/>
       <c r="I30" s="75">
         <f>+L7</f>
-        <v>41.821388972992828</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" ht="15.75" thickBot="1">
+        <v>41.344909572894039</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" ht="15" thickBot="1">
       <c r="D31" s="76"/>
       <c r="E31" s="77"/>
       <c r="F31" s="77"/>
       <c r="G31" s="78">
         <f>+G30/1.4284</f>
-        <v>6.5979686083107394</v>
+        <v>6.5227966400533308</v>
       </c>
       <c r="H31" s="77"/>
       <c r="I31" s="79"/>
     </row>
-    <row r="32" spans="1:15" ht="15.75" thickBot="1"/>
+    <row r="32" spans="1:15" ht="15" thickBot="1"/>
     <row r="33" spans="4:12">
       <c r="D33" s="80"/>
       <c r="E33" s="69">
@@ -19774,7 +19677,7 @@
         <v>86.58</v>
       </c>
     </row>
-    <row r="36" spans="4:12" ht="15.75" thickBot="1">
+    <row r="36" spans="4:12" ht="15" thickBot="1">
       <c r="D36" s="76"/>
       <c r="E36" s="83"/>
       <c r="F36" s="83"/>
@@ -20008,7 +19911,7 @@
       <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -20018,23 +19921,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:W95"/>
   <sheetViews>
-    <sheetView topLeftCell="A70" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G87" sqref="G87"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="23.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" style="1"/>
-    <col min="3" max="3" width="13.5703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" style="1"/>
-    <col min="5" max="5" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.42578125" style="1"/>
-    <col min="7" max="7" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="12" width="11.42578125" style="1"/>
-    <col min="13" max="13" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="8.85546875" style="1" customWidth="1"/>
-    <col min="16" max="16384" width="11.42578125" style="1"/>
+    <col min="1" max="1" width="23.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.44140625" style="1"/>
+    <col min="3" max="3" width="13.5546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" style="1"/>
+    <col min="5" max="5" width="12.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.44140625" style="1"/>
+    <col min="7" max="7" width="8.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="12" width="11.44140625" style="1"/>
+    <col min="13" max="13" width="12.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="8.88671875" style="1" customWidth="1"/>
+    <col min="16" max="16384" width="11.44140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
@@ -20665,7 +20568,7 @@
         <f>+D14*0.067*1000</f>
         <v>150.75000000000009</v>
       </c>
-      <c r="D22" s="254" t="s">
+      <c r="D22" s="249" t="s">
         <v>49</v>
       </c>
       <c r="E22" s="1">
@@ -20687,7 +20590,7 @@
         <f>+D14*0.02*1000+B36</f>
         <v>227.69590909090911</v>
       </c>
-      <c r="D23" s="254"/>
+      <c r="D23" s="249"/>
       <c r="E23" s="1" t="s">
         <v>45</v>
       </c>
@@ -20779,7 +20682,7 @@
         <f>+B27*0.58+B26*0.78</f>
         <v>638</v>
       </c>
-      <c r="D28" s="254" t="s">
+      <c r="D28" s="249" t="s">
         <v>50</v>
       </c>
       <c r="E28" s="1">
@@ -20801,7 +20704,7 @@
         <f>+B27*0.23</f>
         <v>253</v>
       </c>
-      <c r="D29" s="254"/>
+      <c r="D29" s="249"/>
       <c r="E29" s="1" t="s">
         <v>45</v>
       </c>
@@ -20968,7 +20871,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="63" spans="1:11">
+    <row r="63" spans="1:11" ht="15">
       <c r="A63" s="24" t="s">
         <v>10</v>
       </c>
@@ -20982,7 +20885,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="64" spans="1:11">
+    <row r="64" spans="1:11" ht="15">
       <c r="A64" s="24" t="s">
         <v>11</v>
       </c>
@@ -20996,7 +20899,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="65" spans="1:5">
+    <row r="65" spans="1:5" ht="15">
       <c r="A65" s="24" t="s">
         <v>64</v>
       </c>
@@ -21010,7 +20913,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="1:5">
+    <row r="66" spans="1:5" ht="15">
       <c r="A66" s="24" t="s">
         <v>65</v>
       </c>
@@ -21024,7 +20927,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:5">
+    <row r="67" spans="1:5" ht="15">
       <c r="A67" s="24" t="s">
         <v>12</v>
       </c>
@@ -21038,7 +20941,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="68" spans="1:5">
+    <row r="68" spans="1:5" ht="15">
       <c r="A68" s="22" t="s">
         <v>66</v>
       </c>
@@ -21052,7 +20955,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:5">
+    <row r="69" spans="1:5" ht="15">
       <c r="A69" s="24" t="s">
         <v>13</v>
       </c>
@@ -21066,7 +20969,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="70" spans="1:5">
+    <row r="70" spans="1:5" ht="15">
       <c r="A70" s="24" t="s">
         <v>14</v>
       </c>
@@ -21080,7 +20983,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="71" spans="1:5">
+    <row r="71" spans="1:5" ht="15">
       <c r="A71" s="24" t="s">
         <v>15</v>
       </c>
@@ -21091,7 +20994,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="72" spans="1:5">
+    <row r="72" spans="1:5" ht="15">
       <c r="A72" s="26" t="s">
         <v>67</v>
       </c>
@@ -21102,7 +21005,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="73" spans="1:5">
+    <row r="73" spans="1:5" ht="15">
       <c r="A73" s="26" t="s">
         <v>68</v>
       </c>
@@ -21113,7 +21016,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="74" spans="1:5">
+    <row r="74" spans="1:5" ht="15">
       <c r="A74" s="27"/>
       <c r="B74" s="25">
         <v>29</v>
@@ -21123,11 +21026,11 @@
         <v>34</v>
       </c>
     </row>
-    <row r="75" spans="1:5">
+    <row r="75" spans="1:5" ht="15">
       <c r="A75" s="23"/>
       <c r="B75" s="23"/>
     </row>
-    <row r="76" spans="1:5">
+    <row r="76" spans="1:5" ht="15">
       <c r="A76" s="24" t="s">
         <v>69</v>
       </c>
@@ -21135,7 +21038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:5">
+    <row r="77" spans="1:5" ht="15">
       <c r="A77" s="24" t="s">
         <v>70</v>
       </c>
@@ -21143,7 +21046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:5">
+    <row r="78" spans="1:5" ht="15">
       <c r="A78" s="24" t="s">
         <v>16</v>
       </c>
@@ -21504,25 +21407,25 @@
       <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="18.42578125" style="32" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="32" customWidth="1"/>
-    <col min="3" max="3" width="6.7109375" style="32" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" style="32" customWidth="1"/>
-    <col min="5" max="5" width="10.42578125" style="32" customWidth="1"/>
-    <col min="6" max="6" width="9.28515625" style="32" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" style="32" customWidth="1"/>
-    <col min="8" max="8" width="9.28515625" style="32" customWidth="1"/>
+    <col min="1" max="1" width="18.44140625" style="32" customWidth="1"/>
+    <col min="2" max="2" width="9.109375" style="32" customWidth="1"/>
+    <col min="3" max="3" width="6.6640625" style="32" customWidth="1"/>
+    <col min="4" max="4" width="11.109375" style="32" customWidth="1"/>
+    <col min="5" max="5" width="10.44140625" style="32" customWidth="1"/>
+    <col min="6" max="6" width="9.33203125" style="32" customWidth="1"/>
+    <col min="7" max="7" width="9.109375" style="32" customWidth="1"/>
+    <col min="8" max="8" width="9.33203125" style="32" customWidth="1"/>
     <col min="9" max="9" width="8" style="32" customWidth="1"/>
-    <col min="10" max="10" width="10.42578125" style="32" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="5.140625" style="32" customWidth="1"/>
-    <col min="12" max="12" width="7.28515625" style="32" customWidth="1"/>
-    <col min="13" max="13" width="12.42578125" style="32" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.5703125" style="32" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.42578125" style="32" customWidth="1"/>
-    <col min="16" max="16" width="12.140625" style="32" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="11.42578125" style="32"/>
+    <col min="10" max="10" width="10.44140625" style="32" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.109375" style="32" customWidth="1"/>
+    <col min="12" max="12" width="7.33203125" style="32" customWidth="1"/>
+    <col min="13" max="13" width="12.44140625" style="32" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.5546875" style="32" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.44140625" style="32" customWidth="1"/>
+    <col min="16" max="16" width="12.109375" style="32" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="11.44140625" style="32"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:176" ht="15" customHeight="1">
@@ -21557,10 +21460,10 @@
         <f>+B16+B27+B33+I19+B26+B38</f>
         <v>4564.5246181818193</v>
       </c>
-      <c r="N1" s="252" t="s">
+      <c r="N1" s="243" t="s">
         <v>42</v>
       </c>
-      <c r="O1" s="253"/>
+      <c r="O1" s="244"/>
       <c r="P1" s="64" t="s">
         <v>39</v>
       </c>
@@ -21601,7 +21504,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="2" spans="1:176" ht="16.5">
+    <row r="2" spans="1:176" ht="14.4">
       <c r="A2" s="35" t="str">
         <f>+PPC!A2</f>
         <v>LIVIANA</v>
@@ -21814,7 +21717,7 @@
       <c r="FR4" s="41"/>
       <c r="FS4" s="41"/>
     </row>
-    <row r="5" spans="1:176" ht="16.5">
+    <row r="5" spans="1:176" ht="14.4">
       <c r="A5" s="35" t="str">
         <f>+PPC!A5</f>
         <v>ALTO RESIDUAL</v>
@@ -22029,7 +21932,7 @@
       <c r="FR7" s="41"/>
       <c r="FS7" s="41"/>
     </row>
-    <row r="8" spans="1:176" ht="16.5">
+    <row r="8" spans="1:176" ht="14.4">
       <c r="A8" s="35" t="str">
         <f>+PPC!A8</f>
         <v>ARRABIO</v>
@@ -22299,7 +22202,7 @@
       <c r="FR12" s="41"/>
       <c r="FS12" s="41"/>
     </row>
-    <row r="13" spans="1:176" ht="16.5">
+    <row r="13" spans="1:176" ht="14.4">
       <c r="B13" s="63">
         <v>33</v>
       </c>
@@ -22422,7 +22325,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:176" ht="13.5" thickBot="1">
+    <row r="16" spans="1:176" ht="14.4" thickBot="1">
       <c r="A16" s="33" t="s">
         <v>212</v>
       </c>
@@ -22601,7 +22504,7 @@
       </c>
       <c r="FS19" s="41"/>
     </row>
-    <row r="20" spans="1:175" ht="13.5" thickBot="1">
+    <row r="20" spans="1:175" ht="14.4" thickBot="1">
       <c r="A20" s="35" t="s">
         <v>107</v>
       </c>
@@ -22640,7 +22543,7 @@
       </c>
       <c r="FS20" s="41"/>
     </row>
-    <row r="21" spans="1:175" ht="13.5" thickBot="1">
+    <row r="21" spans="1:175" ht="14.4" thickBot="1">
       <c r="A21" s="35" t="s">
         <v>108</v>
       </c>
@@ -22677,7 +22580,7 @@
         <f>+K78</f>
         <v>0</v>
       </c>
-      <c r="D22" s="250" t="s">
+      <c r="D22" s="247" t="s">
         <v>231</v>
       </c>
       <c r="E22" s="69">
@@ -22712,7 +22615,7 @@
       <c r="FR22" s="41"/>
       <c r="FS22" s="41"/>
     </row>
-    <row r="23" spans="1:175" ht="16.5">
+    <row r="23" spans="1:175" ht="14.4">
       <c r="A23" s="35" t="s">
         <v>141</v>
       </c>
@@ -22720,7 +22623,7 @@
         <f>+I78</f>
         <v>13.773177000000006</v>
       </c>
-      <c r="D23" s="251"/>
+      <c r="D23" s="248"/>
       <c r="E23" s="71" t="s">
         <v>139</v>
       </c>
@@ -22817,7 +22720,7 @@
       <c r="FR24" s="41"/>
       <c r="FS24" s="41"/>
     </row>
-    <row r="25" spans="1:175" ht="13.5" thickBot="1">
+    <row r="25" spans="1:175" ht="14.4" thickBot="1">
       <c r="A25" s="35"/>
       <c r="B25" s="51">
         <f>SUM(B17:B24)</f>
@@ -22862,7 +22765,7 @@
       <c r="FR25" s="41"/>
       <c r="FS25" s="41"/>
     </row>
-    <row r="26" spans="1:175" ht="13.5" thickBot="1">
+    <row r="26" spans="1:175" ht="14.4" thickBot="1">
       <c r="A26" s="52" t="s">
         <v>58</v>
       </c>
@@ -22906,7 +22809,7 @@
       <c r="B27" s="68">
         <v>0</v>
       </c>
-      <c r="D27" s="250" t="s">
+      <c r="D27" s="247" t="s">
         <v>50</v>
       </c>
       <c r="E27" s="69">
@@ -22959,7 +22862,7 @@
         <f>+B27*0.58+B26*0.83</f>
         <v>581</v>
       </c>
-      <c r="D28" s="251"/>
+      <c r="D28" s="248"/>
       <c r="E28" s="71" t="s">
         <v>139</v>
       </c>
@@ -23057,7 +22960,7 @@
       <c r="FR29" s="41"/>
       <c r="FS29" s="41"/>
     </row>
-    <row r="30" spans="1:175" ht="13.5" thickBot="1">
+    <row r="30" spans="1:175" ht="14.4" thickBot="1">
       <c r="A30" s="32" t="s">
         <v>31</v>
       </c>
@@ -23103,7 +23006,7 @@
       <c r="FR30" s="41"/>
       <c r="FS30" s="41"/>
     </row>
-    <row r="31" spans="1:175" ht="13.5" thickBot="1">
+    <row r="31" spans="1:175" ht="14.4" thickBot="1">
       <c r="B31" s="51">
         <f>SUM(B28:B30)</f>
         <v>616</v>
@@ -23284,7 +23187,7 @@
       <c r="FR34" s="41"/>
       <c r="FS34" s="41"/>
     </row>
-    <row r="35" spans="1:175" ht="13.5" thickBot="1">
+    <row r="35" spans="1:175" ht="14.4" thickBot="1">
       <c r="A35" s="32" t="s">
         <v>29</v>
       </c>
@@ -23329,7 +23232,7 @@
       <c r="FR35" s="41"/>
       <c r="FS35" s="41"/>
     </row>
-    <row r="36" spans="1:175" ht="13.5" thickBot="1">
+    <row r="36" spans="1:175" ht="14.4" thickBot="1">
       <c r="B36" s="51">
         <f>+B32-B34-B35</f>
         <v>-120</v>
@@ -23484,7 +23387,7 @@
       <c r="FR39" s="41"/>
       <c r="FS39" s="41"/>
     </row>
-    <row r="40" spans="1:175" ht="13.5" thickBot="1">
+    <row r="40" spans="1:175" ht="14.4" thickBot="1">
       <c r="A40" s="89" t="s">
         <v>137</v>
       </c>
@@ -23521,7 +23424,7 @@
       <c r="FR40" s="41"/>
       <c r="FS40" s="41"/>
     </row>
-    <row r="41" spans="1:175" ht="13.5" thickBot="1">
+    <row r="41" spans="1:175" ht="14.4" thickBot="1">
       <c r="A41" s="89" t="s">
         <v>129</v>
       </c>
@@ -23645,7 +23548,7 @@
       <c r="FR44" s="41"/>
       <c r="FS44" s="41"/>
     </row>
-    <row r="45" spans="1:175" ht="13.5" thickBot="1">
+    <row r="45" spans="1:175" ht="14.4" thickBot="1">
       <c r="D45" s="76"/>
       <c r="E45" s="77"/>
       <c r="F45" s="77"/>
@@ -23671,7 +23574,7 @@
       <c r="FR45" s="41"/>
       <c r="FS45" s="41"/>
     </row>
-    <row r="46" spans="1:175" ht="13.5" thickBot="1">
+    <row r="46" spans="1:175" ht="14.4" thickBot="1">
       <c r="D46" s="71"/>
       <c r="E46" s="71"/>
       <c r="F46" s="71"/>
@@ -23791,7 +23694,7 @@
       <c r="FR49" s="41"/>
       <c r="FS49" s="41"/>
     </row>
-    <row r="50" spans="2:176" ht="13.5" thickBot="1">
+    <row r="50" spans="2:176" ht="14.4" thickBot="1">
       <c r="D50" s="76"/>
       <c r="E50" s="77"/>
       <c r="F50" s="77"/>
@@ -23817,7 +23720,7 @@
       <c r="FR50" s="41"/>
       <c r="FS50" s="41"/>
     </row>
-    <row r="51" spans="2:176" ht="13.5" thickBot="1">
+    <row r="51" spans="2:176" ht="14.4" thickBot="1">
       <c r="D51" s="71"/>
       <c r="E51" s="71"/>
       <c r="F51" s="71"/>
@@ -23939,7 +23842,7 @@
       <c r="FR54" s="41"/>
       <c r="FS54" s="41"/>
     </row>
-    <row r="55" spans="2:176" ht="13.5" thickBot="1">
+    <row r="55" spans="2:176" ht="14.4" thickBot="1">
       <c r="D55" s="76"/>
       <c r="E55" s="77"/>
       <c r="F55" s="77"/>
@@ -24659,7 +24562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:12" ht="15.75">
+    <row r="78" spans="1:12" ht="15.6">
       <c r="A78" s="92" t="s">
         <v>119</v>
       </c>
@@ -24727,21 +24630,21 @@
       <c r="F81" s="56" t="s">
         <v>154</v>
       </c>
-      <c r="H81" s="248" t="s">
+      <c r="H81" s="245" t="s">
         <v>144</v>
       </c>
-      <c r="I81" s="248"/>
-      <c r="J81" s="248"/>
-      <c r="K81" s="248"/>
-      <c r="M81" s="248" t="s">
+      <c r="I81" s="245"/>
+      <c r="J81" s="245"/>
+      <c r="K81" s="245"/>
+      <c r="M81" s="245" t="s">
         <v>145</v>
       </c>
-      <c r="N81" s="248"/>
-      <c r="O81" s="248"/>
-      <c r="Q81" s="249" t="s">
+      <c r="N81" s="245"/>
+      <c r="O81" s="245"/>
+      <c r="Q81" s="246" t="s">
         <v>148</v>
       </c>
-      <c r="R81" s="249"/>
+      <c r="R81" s="246"/>
     </row>
     <row r="82" spans="1:18">
       <c r="A82" s="57" t="s">
@@ -24960,17 +24863,17 @@
       <c r="D93" s="98"/>
       <c r="E93" s="98"/>
       <c r="F93" s="98"/>
-      <c r="H93" s="248" t="s">
+      <c r="H93" s="245" t="s">
         <v>146</v>
       </c>
-      <c r="I93" s="248"/>
-      <c r="J93" s="248"/>
-      <c r="K93" s="248"/>
-      <c r="M93" s="248" t="s">
+      <c r="I93" s="245"/>
+      <c r="J93" s="245"/>
+      <c r="K93" s="245"/>
+      <c r="M93" s="245" t="s">
         <v>147</v>
       </c>
-      <c r="N93" s="248"/>
-      <c r="O93" s="248"/>
+      <c r="N93" s="245"/>
+      <c r="O93" s="245"/>
     </row>
     <row r="94" spans="1:18">
       <c r="G94" s="36"/>
@@ -25303,11 +25206,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14:F26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1">

--- a/Mix.xlsx
+++ b/Mix.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rodrigo\Documents\SIDER\Scrap Optimization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFB46541-B378-48E7-A49D-D05C3E822B11}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5A12D74-6B97-4C80-A2F2-36594479059F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="3396" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inventario" sheetId="9" r:id="rId1"/>
@@ -624,7 +624,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="922" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="931" uniqueCount="303">
   <si>
     <t>Tipo de Chatarra</t>
   </si>
@@ -3103,12 +3103,6 @@
     <xf numFmtId="0" fontId="48" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3120,6 +3114,12 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -11233,10 +11233,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C42D4128-7A49-4323-8F18-C858079FB1B4}">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:P11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
@@ -11246,7 +11246,7 @@
     <col min="6" max="6" width="11.44140625" style="146"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:16">
       <c r="A1" s="159" t="s">
         <v>0</v>
       </c>
@@ -11268,8 +11268,35 @@
       <c r="G1" s="159" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="159" t="s">
+        <v>139</v>
+      </c>
+      <c r="I1" s="159" t="s">
+        <v>74</v>
+      </c>
+      <c r="J1" s="159" t="s">
+        <v>136</v>
+      </c>
+      <c r="K1" s="159" t="s">
+        <v>226</v>
+      </c>
+      <c r="L1" s="159" t="s">
+        <v>227</v>
+      </c>
+      <c r="M1" s="234" t="s">
+        <v>100</v>
+      </c>
+      <c r="N1" s="159" t="s">
+        <v>228</v>
+      </c>
+      <c r="O1" s="159" t="s">
+        <v>229</v>
+      </c>
+      <c r="P1" s="159" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
       <c r="A2" s="161" t="s">
         <v>10</v>
       </c>
@@ -11280,10 +11307,10 @@
         <v>0.32</v>
       </c>
       <c r="D2" s="229">
-        <v>12000</v>
+        <v>6500</v>
       </c>
       <c r="E2" s="229">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="F2" s="233">
         <v>0.84</v>
@@ -11291,8 +11318,35 @@
       <c r="G2" s="186">
         <v>470</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="H2" s="164">
+        <v>0.25</v>
+      </c>
+      <c r="I2" s="164">
+        <v>0.6</v>
+      </c>
+      <c r="J2" s="229">
+        <v>0.2</v>
+      </c>
+      <c r="K2" s="164">
+        <v>0.03</v>
+      </c>
+      <c r="L2" s="164">
+        <v>0.19</v>
+      </c>
+      <c r="M2" s="229">
+        <v>0.04</v>
+      </c>
+      <c r="N2" s="164">
+        <v>0.33</v>
+      </c>
+      <c r="O2" s="164">
+        <v>0.19</v>
+      </c>
+      <c r="P2" s="229">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
       <c r="A3" s="168" t="s">
         <v>296</v>
       </c>
@@ -11303,10 +11357,10 @@
         <v>0.9</v>
       </c>
       <c r="D3" s="229">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" s="229">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="F3" s="233">
         <v>0.97</v>
@@ -11314,8 +11368,35 @@
       <c r="G3" s="186">
         <v>470</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3" s="164">
+        <v>0.25</v>
+      </c>
+      <c r="I3" s="164">
+        <v>0.6</v>
+      </c>
+      <c r="J3" s="229">
+        <v>0.2</v>
+      </c>
+      <c r="K3" s="164">
+        <v>0.03</v>
+      </c>
+      <c r="L3" s="164">
+        <v>0.19</v>
+      </c>
+      <c r="M3" s="229">
+        <v>0.04</v>
+      </c>
+      <c r="N3" s="164">
+        <v>0.33</v>
+      </c>
+      <c r="O3" s="164">
+        <v>0.19</v>
+      </c>
+      <c r="P3" s="229">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
       <c r="A4" s="169" t="s">
         <v>276</v>
       </c>
@@ -11326,10 +11407,10 @@
         <v>0.43</v>
       </c>
       <c r="D4" s="229">
-        <v>15000</v>
+        <v>17200</v>
       </c>
       <c r="E4" s="229">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="F4" s="233">
         <v>0.88</v>
@@ -11337,8 +11418,35 @@
       <c r="G4" s="186">
         <v>460</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="H4" s="164">
+        <v>0.25</v>
+      </c>
+      <c r="I4" s="164">
+        <v>0.6</v>
+      </c>
+      <c r="J4" s="229">
+        <v>0.2</v>
+      </c>
+      <c r="K4" s="164">
+        <v>0.03</v>
+      </c>
+      <c r="L4" s="164">
+        <v>0.19</v>
+      </c>
+      <c r="M4" s="229">
+        <v>0.04</v>
+      </c>
+      <c r="N4" s="164">
+        <v>0.33</v>
+      </c>
+      <c r="O4" s="164">
+        <v>0.19</v>
+      </c>
+      <c r="P4" s="229">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
       <c r="A5" s="170" t="s">
         <v>278</v>
       </c>
@@ -11349,10 +11457,10 @@
         <v>0.7</v>
       </c>
       <c r="D5" s="229">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" s="229">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="F5" s="233">
         <v>0.98</v>
@@ -11360,8 +11468,35 @@
       <c r="G5" s="186">
         <v>450</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5" s="164">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="I5" s="164">
+        <v>1.4</v>
+      </c>
+      <c r="J5" s="229">
+        <v>0.18</v>
+      </c>
+      <c r="K5" s="164">
+        <v>0.02</v>
+      </c>
+      <c r="L5" s="164">
+        <v>0.35</v>
+      </c>
+      <c r="M5" s="229">
+        <v>1E-3</v>
+      </c>
+      <c r="N5" s="164">
+        <v>0.03</v>
+      </c>
+      <c r="O5" s="164">
+        <v>0.09</v>
+      </c>
+      <c r="P5" s="229">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
       <c r="A6" s="171" t="s">
         <v>224</v>
       </c>
@@ -11372,10 +11507,10 @@
         <v>1</v>
       </c>
       <c r="D6" s="229">
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="E6" s="229">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="F6" s="233">
         <v>0.85</v>
@@ -11383,8 +11518,35 @@
       <c r="G6" s="186">
         <v>510</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="H6" s="164">
+        <v>0.2</v>
+      </c>
+      <c r="I6" s="164">
+        <v>0.7</v>
+      </c>
+      <c r="J6" s="229">
+        <v>0.15</v>
+      </c>
+      <c r="K6" s="164">
+        <v>0.02</v>
+      </c>
+      <c r="L6" s="164">
+        <v>0.06</v>
+      </c>
+      <c r="M6" s="229">
+        <v>0.04</v>
+      </c>
+      <c r="N6" s="164">
+        <v>0.15</v>
+      </c>
+      <c r="O6" s="164">
+        <v>0.11</v>
+      </c>
+      <c r="P6" s="229">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
       <c r="A7" s="172" t="s">
         <v>81</v>
       </c>
@@ -11395,10 +11557,10 @@
         <v>1</v>
       </c>
       <c r="D7" s="229">
-        <v>18000</v>
+        <v>9700</v>
       </c>
       <c r="E7" s="229">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="F7" s="233">
         <v>0.96</v>
@@ -11406,8 +11568,35 @@
       <c r="G7" s="186">
         <v>430</v>
       </c>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="H7" s="164">
+        <v>0.18</v>
+      </c>
+      <c r="I7" s="164">
+        <v>0.4</v>
+      </c>
+      <c r="J7" s="229">
+        <v>0.1</v>
+      </c>
+      <c r="K7" s="164">
+        <v>0.02</v>
+      </c>
+      <c r="L7" s="164">
+        <v>0.05</v>
+      </c>
+      <c r="M7" s="229">
+        <v>0.02</v>
+      </c>
+      <c r="N7" s="164">
+        <v>0.15</v>
+      </c>
+      <c r="O7" s="164">
+        <v>0.04</v>
+      </c>
+      <c r="P7" s="229">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
       <c r="A8" s="173" t="s">
         <v>279</v>
       </c>
@@ -11418,10 +11607,10 @@
         <v>3.5</v>
       </c>
       <c r="D8" s="229">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" s="229">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="F8" s="233">
         <v>0.94</v>
@@ -11429,8 +11618,35 @@
       <c r="G8" s="186">
         <v>400</v>
       </c>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="H8" s="164">
+        <v>3.8</v>
+      </c>
+      <c r="I8" s="164">
+        <v>0.9</v>
+      </c>
+      <c r="J8" s="229">
+        <v>0.27</v>
+      </c>
+      <c r="K8" s="164">
+        <v>0.05</v>
+      </c>
+      <c r="L8" s="164">
+        <v>0</v>
+      </c>
+      <c r="M8" s="229">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="N8" s="164">
+        <v>0</v>
+      </c>
+      <c r="O8" s="164">
+        <v>0</v>
+      </c>
+      <c r="P8" s="229">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
       <c r="A9" s="169" t="s">
         <v>83</v>
       </c>
@@ -11441,10 +11657,10 @@
         <v>0.6</v>
       </c>
       <c r="D9" s="229">
-        <v>3500</v>
+        <v>4350</v>
       </c>
       <c r="E9" s="229">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="F9" s="233">
         <v>0.96</v>
@@ -11452,8 +11668,35 @@
       <c r="G9" s="186">
         <v>470</v>
       </c>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="H9" s="164">
+        <v>0.25</v>
+      </c>
+      <c r="I9" s="164">
+        <v>0.3</v>
+      </c>
+      <c r="J9" s="229">
+        <v>0.01</v>
+      </c>
+      <c r="K9" s="164">
+        <v>0.03</v>
+      </c>
+      <c r="L9" s="164">
+        <v>0.18</v>
+      </c>
+      <c r="M9" s="229">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="N9" s="164">
+        <v>0.35</v>
+      </c>
+      <c r="O9" s="164">
+        <v>0.2</v>
+      </c>
+      <c r="P9" s="229">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
       <c r="B11" s="230"/>
     </row>
   </sheetData>
@@ -12334,8 +12577,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CF1F3EF-5E34-4FA8-A3D1-33686BE22993}">
   <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
@@ -12711,8 +12954,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AP39"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView topLeftCell="N1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AB11" sqref="AB11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
@@ -14003,7 +14246,7 @@
         <v>0.15188000000000001</v>
       </c>
       <c r="AI11" s="147">
-        <f t="shared" si="14"/>
+        <f>SUMPRODUCT($B$2:$B$9,AI2:AI9)/$B$10</f>
         <v>3.2259999999999997E-2</v>
       </c>
       <c r="AK11" t="s">
@@ -15008,10 +15251,10 @@
         <f>+B16+B27+B33+I19+B26+B38</f>
         <v>4757.4465272727284</v>
       </c>
-      <c r="N1" s="243" t="s">
+      <c r="N1" s="247" t="s">
         <v>42</v>
       </c>
-      <c r="O1" s="244"/>
+      <c r="O1" s="248"/>
       <c r="P1" s="64" t="s">
         <v>39</v>
       </c>
@@ -16131,7 +16374,7 @@
         <f>+K75</f>
         <v>0</v>
       </c>
-      <c r="D22" s="247" t="s">
+      <c r="D22" s="245" t="s">
         <v>231</v>
       </c>
       <c r="E22" s="69">
@@ -16174,7 +16417,7 @@
         <f>+I75</f>
         <v>16.380690000000001</v>
       </c>
-      <c r="D23" s="248"/>
+      <c r="D23" s="246"/>
       <c r="E23" s="71" t="s">
         <v>139</v>
       </c>
@@ -16360,7 +16603,7 @@
       <c r="B27" s="68">
         <v>0</v>
       </c>
-      <c r="D27" s="247" t="s">
+      <c r="D27" s="245" t="s">
         <v>50</v>
       </c>
       <c r="E27" s="69">
@@ -16413,7 +16656,7 @@
         <f>+B27*0.58+B26*0.86</f>
         <v>602</v>
       </c>
-      <c r="D28" s="248"/>
+      <c r="D28" s="246"/>
       <c r="E28" s="71" t="s">
         <v>139</v>
       </c>
@@ -18182,21 +18425,21 @@
       <c r="F78" s="56" t="s">
         <v>154</v>
       </c>
-      <c r="H78" s="245" t="s">
+      <c r="H78" s="243" t="s">
         <v>144</v>
       </c>
-      <c r="I78" s="245"/>
-      <c r="J78" s="245"/>
-      <c r="K78" s="245"/>
-      <c r="M78" s="245" t="s">
+      <c r="I78" s="243"/>
+      <c r="J78" s="243"/>
+      <c r="K78" s="243"/>
+      <c r="M78" s="243" t="s">
         <v>145</v>
       </c>
-      <c r="N78" s="245"/>
-      <c r="O78" s="245"/>
-      <c r="Q78" s="246" t="s">
+      <c r="N78" s="243"/>
+      <c r="O78" s="243"/>
+      <c r="Q78" s="244" t="s">
         <v>148</v>
       </c>
-      <c r="R78" s="246"/>
+      <c r="R78" s="244"/>
     </row>
     <row r="79" spans="1:18">
       <c r="A79" s="57" t="s">
@@ -18415,17 +18658,17 @@
       <c r="D90" s="98"/>
       <c r="E90" s="98"/>
       <c r="F90" s="98"/>
-      <c r="H90" s="245" t="s">
+      <c r="H90" s="243" t="s">
         <v>146</v>
       </c>
-      <c r="I90" s="245"/>
-      <c r="J90" s="245"/>
-      <c r="K90" s="245"/>
-      <c r="M90" s="245" t="s">
+      <c r="I90" s="243"/>
+      <c r="J90" s="243"/>
+      <c r="K90" s="243"/>
+      <c r="M90" s="243" t="s">
         <v>147</v>
       </c>
-      <c r="N90" s="245"/>
-      <c r="O90" s="245"/>
+      <c r="N90" s="243"/>
+      <c r="O90" s="243"/>
     </row>
     <row r="91" spans="1:15">
       <c r="B91" s="32">
@@ -18759,14 +19002,14 @@
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="Q78:R78"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="D27:D28"/>
     <mergeCell ref="N1:O1"/>
     <mergeCell ref="H78:K78"/>
     <mergeCell ref="M78:O78"/>
     <mergeCell ref="H90:K90"/>
     <mergeCell ref="M90:O90"/>
+    <mergeCell ref="Q78:R78"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="D27:D28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -18824,10 +19067,10 @@
         <f>+B18+I15+I20+I25</f>
         <v>400.11745454545451</v>
       </c>
-      <c r="M2" s="243" t="s">
+      <c r="M2" s="247" t="s">
         <v>42</v>
       </c>
-      <c r="N2" s="244"/>
+      <c r="N2" s="248"/>
       <c r="O2" s="64" t="s">
         <v>39</v>
       </c>
@@ -18982,7 +19225,7 @@
       <c r="O7" s="32"/>
     </row>
     <row r="8" spans="1:15">
-      <c r="D8" s="247" t="s">
+      <c r="D8" s="245" t="s">
         <v>50</v>
       </c>
       <c r="E8" s="69">
@@ -19019,7 +19262,7 @@
       <c r="A9" t="s">
         <v>173</v>
       </c>
-      <c r="D9" s="248"/>
+      <c r="D9" s="246"/>
       <c r="E9" s="71" t="s">
         <v>139</v>
       </c>
@@ -19212,10 +19455,10 @@
         <f>SUM(L16:L23)</f>
         <v>371.11302292119257</v>
       </c>
-      <c r="M15" s="243" t="s">
+      <c r="M15" s="247" t="s">
         <v>42</v>
       </c>
-      <c r="N15" s="244"/>
+      <c r="N15" s="248"/>
       <c r="O15" s="64" t="s">
         <v>39</v>
       </c>
@@ -21460,10 +21703,10 @@
         <f>+B16+B27+B33+I19+B26+B38</f>
         <v>4564.5246181818193</v>
       </c>
-      <c r="N1" s="243" t="s">
+      <c r="N1" s="247" t="s">
         <v>42</v>
       </c>
-      <c r="O1" s="244"/>
+      <c r="O1" s="248"/>
       <c r="P1" s="64" t="s">
         <v>39</v>
       </c>
@@ -22580,7 +22823,7 @@
         <f>+K78</f>
         <v>0</v>
       </c>
-      <c r="D22" s="247" t="s">
+      <c r="D22" s="245" t="s">
         <v>231</v>
       </c>
       <c r="E22" s="69">
@@ -22623,7 +22866,7 @@
         <f>+I78</f>
         <v>13.773177000000006</v>
       </c>
-      <c r="D23" s="248"/>
+      <c r="D23" s="246"/>
       <c r="E23" s="71" t="s">
         <v>139</v>
       </c>
@@ -22809,7 +23052,7 @@
       <c r="B27" s="68">
         <v>0</v>
       </c>
-      <c r="D27" s="247" t="s">
+      <c r="D27" s="245" t="s">
         <v>50</v>
       </c>
       <c r="E27" s="69">
@@ -22862,7 +23105,7 @@
         <f>+B27*0.58+B26*0.83</f>
         <v>581</v>
       </c>
-      <c r="D28" s="248"/>
+      <c r="D28" s="246"/>
       <c r="E28" s="71" t="s">
         <v>139</v>
       </c>
@@ -24630,21 +24873,21 @@
       <c r="F81" s="56" t="s">
         <v>154</v>
       </c>
-      <c r="H81" s="245" t="s">
+      <c r="H81" s="243" t="s">
         <v>144</v>
       </c>
-      <c r="I81" s="245"/>
-      <c r="J81" s="245"/>
-      <c r="K81" s="245"/>
-      <c r="M81" s="245" t="s">
+      <c r="I81" s="243"/>
+      <c r="J81" s="243"/>
+      <c r="K81" s="243"/>
+      <c r="M81" s="243" t="s">
         <v>145</v>
       </c>
-      <c r="N81" s="245"/>
-      <c r="O81" s="245"/>
-      <c r="Q81" s="246" t="s">
+      <c r="N81" s="243"/>
+      <c r="O81" s="243"/>
+      <c r="Q81" s="244" t="s">
         <v>148</v>
       </c>
-      <c r="R81" s="246"/>
+      <c r="R81" s="244"/>
     </row>
     <row r="82" spans="1:18">
       <c r="A82" s="57" t="s">
@@ -24863,17 +25106,17 @@
       <c r="D93" s="98"/>
       <c r="E93" s="98"/>
       <c r="F93" s="98"/>
-      <c r="H93" s="245" t="s">
+      <c r="H93" s="243" t="s">
         <v>146</v>
       </c>
-      <c r="I93" s="245"/>
-      <c r="J93" s="245"/>
-      <c r="K93" s="245"/>
-      <c r="M93" s="245" t="s">
+      <c r="I93" s="243"/>
+      <c r="J93" s="243"/>
+      <c r="K93" s="243"/>
+      <c r="M93" s="243" t="s">
         <v>147</v>
       </c>
-      <c r="N93" s="245"/>
-      <c r="O93" s="245"/>
+      <c r="N93" s="243"/>
+      <c r="O93" s="243"/>
     </row>
     <row r="94" spans="1:18">
       <c r="G94" s="36"/>

--- a/Mix.xlsx
+++ b/Mix.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rodrigo\Documents\SIDER\Scrap Optimization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5A12D74-6B97-4C80-A2F2-36594479059F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7428F0B9-870B-460A-A153-96D7B64D9BB3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="3396" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="2400" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inventario" sheetId="9" r:id="rId1"/>
@@ -3103,6 +3103,12 @@
     <xf numFmtId="0" fontId="48" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="33" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3114,12 +3120,6 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -11235,8 +11235,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C42D4128-7A49-4323-8F18-C858079FB1B4}">
   <dimension ref="A1:P11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
@@ -11307,7 +11307,7 @@
         <v>0.32</v>
       </c>
       <c r="D2" s="229">
-        <v>6500</v>
+        <v>1700</v>
       </c>
       <c r="E2" s="229">
         <v>0</v>
@@ -11407,7 +11407,7 @@
         <v>0.43</v>
       </c>
       <c r="D4" s="229">
-        <v>17200</v>
+        <v>10000</v>
       </c>
       <c r="E4" s="229">
         <v>0</v>
@@ -11557,7 +11557,7 @@
         <v>1</v>
       </c>
       <c r="D7" s="229">
-        <v>9700</v>
+        <v>1000</v>
       </c>
       <c r="E7" s="229">
         <v>0</v>
@@ -11657,7 +11657,7 @@
         <v>0.6</v>
       </c>
       <c r="D9" s="229">
-        <v>4350</v>
+        <v>1200</v>
       </c>
       <c r="E9" s="229">
         <v>0</v>
@@ -12577,8 +12577,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CF1F3EF-5E34-4FA8-A3D1-33686BE22993}">
   <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16:B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
@@ -12911,9 +12911,7 @@
       <c r="A17" s="159" t="s">
         <v>227</v>
       </c>
-      <c r="B17" s="229">
-        <v>0.2</v>
-      </c>
+      <c r="B17" s="229"/>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="234" t="s">
@@ -12925,25 +12923,19 @@
       <c r="A19" s="159" t="s">
         <v>228</v>
       </c>
-      <c r="B19" s="229">
-        <v>0.4</v>
-      </c>
+      <c r="B19" s="229"/>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="159" t="s">
         <v>229</v>
       </c>
-      <c r="B20" s="229">
-        <v>0.2</v>
-      </c>
+      <c r="B20" s="229"/>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="159" t="s">
         <v>230</v>
       </c>
-      <c r="B21" s="229">
-        <v>0.04</v>
-      </c>
+      <c r="B21" s="229"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14218,7 +14210,7 @@
         <v>0.23194000000000001</v>
       </c>
       <c r="AB11" s="147">
-        <f t="shared" ref="AB11:AI11" si="14">SUMPRODUCT($B$2:$B$9,AB2:AB9)/$B$10</f>
+        <f t="shared" ref="AB11:AH11" si="14">SUMPRODUCT($B$2:$B$9,AB2:AB9)/$B$10</f>
         <v>0.53100000000000014</v>
       </c>
       <c r="AC11" s="147">
@@ -15251,10 +15243,10 @@
         <f>+B16+B27+B33+I19+B26+B38</f>
         <v>4757.4465272727284</v>
       </c>
-      <c r="N1" s="247" t="s">
+      <c r="N1" s="243" t="s">
         <v>42</v>
       </c>
-      <c r="O1" s="248"/>
+      <c r="O1" s="244"/>
       <c r="P1" s="64" t="s">
         <v>39</v>
       </c>
@@ -16374,7 +16366,7 @@
         <f>+K75</f>
         <v>0</v>
       </c>
-      <c r="D22" s="245" t="s">
+      <c r="D22" s="247" t="s">
         <v>231</v>
       </c>
       <c r="E22" s="69">
@@ -16417,7 +16409,7 @@
         <f>+I75</f>
         <v>16.380690000000001</v>
       </c>
-      <c r="D23" s="246"/>
+      <c r="D23" s="248"/>
       <c r="E23" s="71" t="s">
         <v>139</v>
       </c>
@@ -16603,7 +16595,7 @@
       <c r="B27" s="68">
         <v>0</v>
       </c>
-      <c r="D27" s="245" t="s">
+      <c r="D27" s="247" t="s">
         <v>50</v>
       </c>
       <c r="E27" s="69">
@@ -16656,7 +16648,7 @@
         <f>+B27*0.58+B26*0.86</f>
         <v>602</v>
       </c>
-      <c r="D28" s="246"/>
+      <c r="D28" s="248"/>
       <c r="E28" s="71" t="s">
         <v>139</v>
       </c>
@@ -18425,21 +18417,21 @@
       <c r="F78" s="56" t="s">
         <v>154</v>
       </c>
-      <c r="H78" s="243" t="s">
+      <c r="H78" s="245" t="s">
         <v>144</v>
       </c>
-      <c r="I78" s="243"/>
-      <c r="J78" s="243"/>
-      <c r="K78" s="243"/>
-      <c r="M78" s="243" t="s">
+      <c r="I78" s="245"/>
+      <c r="J78" s="245"/>
+      <c r="K78" s="245"/>
+      <c r="M78" s="245" t="s">
         <v>145</v>
       </c>
-      <c r="N78" s="243"/>
-      <c r="O78" s="243"/>
-      <c r="Q78" s="244" t="s">
+      <c r="N78" s="245"/>
+      <c r="O78" s="245"/>
+      <c r="Q78" s="246" t="s">
         <v>148</v>
       </c>
-      <c r="R78" s="244"/>
+      <c r="R78" s="246"/>
     </row>
     <row r="79" spans="1:18">
       <c r="A79" s="57" t="s">
@@ -18658,17 +18650,17 @@
       <c r="D90" s="98"/>
       <c r="E90" s="98"/>
       <c r="F90" s="98"/>
-      <c r="H90" s="243" t="s">
+      <c r="H90" s="245" t="s">
         <v>146</v>
       </c>
-      <c r="I90" s="243"/>
-      <c r="J90" s="243"/>
-      <c r="K90" s="243"/>
-      <c r="M90" s="243" t="s">
+      <c r="I90" s="245"/>
+      <c r="J90" s="245"/>
+      <c r="K90" s="245"/>
+      <c r="M90" s="245" t="s">
         <v>147</v>
       </c>
-      <c r="N90" s="243"/>
-      <c r="O90" s="243"/>
+      <c r="N90" s="245"/>
+      <c r="O90" s="245"/>
     </row>
     <row r="91" spans="1:15">
       <c r="B91" s="32">
@@ -19002,14 +18994,14 @@
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="Q78:R78"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="D27:D28"/>
     <mergeCell ref="N1:O1"/>
     <mergeCell ref="H78:K78"/>
     <mergeCell ref="M78:O78"/>
     <mergeCell ref="H90:K90"/>
     <mergeCell ref="M90:O90"/>
-    <mergeCell ref="Q78:R78"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="D27:D28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -19067,10 +19059,10 @@
         <f>+B18+I15+I20+I25</f>
         <v>400.11745454545451</v>
       </c>
-      <c r="M2" s="247" t="s">
+      <c r="M2" s="243" t="s">
         <v>42</v>
       </c>
-      <c r="N2" s="248"/>
+      <c r="N2" s="244"/>
       <c r="O2" s="64" t="s">
         <v>39</v>
       </c>
@@ -19225,7 +19217,7 @@
       <c r="O7" s="32"/>
     </row>
     <row r="8" spans="1:15">
-      <c r="D8" s="245" t="s">
+      <c r="D8" s="247" t="s">
         <v>50</v>
       </c>
       <c r="E8" s="69">
@@ -19262,7 +19254,7 @@
       <c r="A9" t="s">
         <v>173</v>
       </c>
-      <c r="D9" s="246"/>
+      <c r="D9" s="248"/>
       <c r="E9" s="71" t="s">
         <v>139</v>
       </c>
@@ -19455,10 +19447,10 @@
         <f>SUM(L16:L23)</f>
         <v>371.11302292119257</v>
       </c>
-      <c r="M15" s="247" t="s">
+      <c r="M15" s="243" t="s">
         <v>42</v>
       </c>
-      <c r="N15" s="248"/>
+      <c r="N15" s="244"/>
       <c r="O15" s="64" t="s">
         <v>39</v>
       </c>
@@ -21703,10 +21695,10 @@
         <f>+B16+B27+B33+I19+B26+B38</f>
         <v>4564.5246181818193</v>
       </c>
-      <c r="N1" s="247" t="s">
+      <c r="N1" s="243" t="s">
         <v>42</v>
       </c>
-      <c r="O1" s="248"/>
+      <c r="O1" s="244"/>
       <c r="P1" s="64" t="s">
         <v>39</v>
       </c>
@@ -22823,7 +22815,7 @@
         <f>+K78</f>
         <v>0</v>
       </c>
-      <c r="D22" s="245" t="s">
+      <c r="D22" s="247" t="s">
         <v>231</v>
       </c>
       <c r="E22" s="69">
@@ -22866,7 +22858,7 @@
         <f>+I78</f>
         <v>13.773177000000006</v>
       </c>
-      <c r="D23" s="246"/>
+      <c r="D23" s="248"/>
       <c r="E23" s="71" t="s">
         <v>139</v>
       </c>
@@ -23052,7 +23044,7 @@
       <c r="B27" s="68">
         <v>0</v>
       </c>
-      <c r="D27" s="245" t="s">
+      <c r="D27" s="247" t="s">
         <v>50</v>
       </c>
       <c r="E27" s="69">
@@ -23105,7 +23097,7 @@
         <f>+B27*0.58+B26*0.83</f>
         <v>581</v>
       </c>
-      <c r="D28" s="246"/>
+      <c r="D28" s="248"/>
       <c r="E28" s="71" t="s">
         <v>139</v>
       </c>
@@ -24873,21 +24865,21 @@
       <c r="F81" s="56" t="s">
         <v>154</v>
       </c>
-      <c r="H81" s="243" t="s">
+      <c r="H81" s="245" t="s">
         <v>144</v>
       </c>
-      <c r="I81" s="243"/>
-      <c r="J81" s="243"/>
-      <c r="K81" s="243"/>
-      <c r="M81" s="243" t="s">
+      <c r="I81" s="245"/>
+      <c r="J81" s="245"/>
+      <c r="K81" s="245"/>
+      <c r="M81" s="245" t="s">
         <v>145</v>
       </c>
-      <c r="N81" s="243"/>
-      <c r="O81" s="243"/>
-      <c r="Q81" s="244" t="s">
+      <c r="N81" s="245"/>
+      <c r="O81" s="245"/>
+      <c r="Q81" s="246" t="s">
         <v>148</v>
       </c>
-      <c r="R81" s="244"/>
+      <c r="R81" s="246"/>
     </row>
     <row r="82" spans="1:18">
       <c r="A82" s="57" t="s">
@@ -25106,17 +25098,17 @@
       <c r="D93" s="98"/>
       <c r="E93" s="98"/>
       <c r="F93" s="98"/>
-      <c r="H93" s="243" t="s">
+      <c r="H93" s="245" t="s">
         <v>146</v>
       </c>
-      <c r="I93" s="243"/>
-      <c r="J93" s="243"/>
-      <c r="K93" s="243"/>
-      <c r="M93" s="243" t="s">
+      <c r="I93" s="245"/>
+      <c r="J93" s="245"/>
+      <c r="K93" s="245"/>
+      <c r="M93" s="245" t="s">
         <v>147</v>
       </c>
-      <c r="N93" s="243"/>
-      <c r="O93" s="243"/>
+      <c r="N93" s="245"/>
+      <c r="O93" s="245"/>
     </row>
     <row r="94" spans="1:18">
       <c r="G94" s="36"/>
